--- a/answer8.xlsx
+++ b/answer8.xlsx
@@ -387,7802 +387,7802 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>473.3911480833248</v>
+        <v>423.8812218387221</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1113.271444738139</v>
+        <v>1121.283980657221</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>314.0960591869269</v>
+        <v>319.7651227135312</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>717.9563488197314</v>
+        <v>883.5104332441521</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>347.4330076045086</v>
+        <v>342.6650737808268</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>336.3292526229873</v>
+        <v>371.6602239662494</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>635.4663468057097</v>
+        <v>602.723878387846</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>396.5818402072818</v>
+        <v>362.4906728660072</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>447.5050649289546</v>
+        <v>429.5610742944298</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>378.2272637588722</v>
+        <v>351.5667532591458</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>284.7027817931479</v>
+        <v>297.0166570401888</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>219.7114615471153</v>
+        <v>231.7918922106933</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>200.8831940114556</v>
+        <v>200.4225969589705</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>575.8000957339761</v>
+        <v>599.7502009382633</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>331.5999636245296</v>
+        <v>358.6591962710772</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>646.75465165822</v>
+        <v>710.4468483024765</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>309.0181588137044</v>
+        <v>350.0791572542277</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1161.468153669972</v>
+        <v>1092.9629839399</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>463.8901880865799</v>
+        <v>464.301425980161</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>266.7775740585552</v>
+        <v>285.7456181987377</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>320.1016594285106</v>
+        <v>411.3315821689977</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>388.2291930235328</v>
+        <v>397.6835843849627</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>614.810740923631</v>
+        <v>686.5808537145767</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>708.6903558494332</v>
+        <v>737.6261025435731</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>355.4041659209454</v>
+        <v>347.3295858125046</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>420.9420715356117</v>
+        <v>422.4775959259257</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>310.0992198149174</v>
+        <v>287.2692792253839</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>64.90180599858687</v>
+        <v>60.85360110961366</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>347.1292707624197</v>
+        <v>391.348316766796</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>359.6913418567192</v>
+        <v>339.1568244986327</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>327.0007612913683</v>
+        <v>330.484012767467</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>283.6382763175574</v>
+        <v>285.3120504686433</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>271.714084449138</v>
+        <v>311.2616804087629</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>187.5107855403494</v>
+        <v>178.3254446267001</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>883.0051692568909</v>
+        <v>900.6594637698219</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>329.0295890037205</v>
+        <v>348.8358246388248</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>314.658444879365</v>
+        <v>245.1795435895257</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>154.3429991109593</v>
+        <v>150.5769161420791</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>2972.630556871994</v>
+        <v>2796.344906464574</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>326.6235149294509</v>
+        <v>338.6293410274449</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>709.2369997224985</v>
+        <v>605.7870660788536</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>832.2588643425929</v>
+        <v>867.6202914856632</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>453.1478955330487</v>
+        <v>424.6559248243303</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>374.49528734284</v>
+        <v>344.8415797044287</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>310.3058813646285</v>
+        <v>337.8388933669738</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>259.3814697456579</v>
+        <v>250.9446214461474</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>908.222982574022</v>
+        <v>889.8539079995816</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>389.65737856613</v>
+        <v>397.6411796427143</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>429.8012441373831</v>
+        <v>489.1281128827939</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>658.7578639460346</v>
+        <v>675.7874367035972</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>379.553939169748</v>
+        <v>361.9941937800954</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>522.413825846725</v>
+        <v>453.16632454026</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>236.8185460870444</v>
+        <v>241.5859478268144</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>286.1368553046255</v>
+        <v>288.1853240585327</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>722.7974065528434</v>
+        <v>789.5453093332713</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>622.7038624110214</v>
+        <v>717.6266497087098</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>359.707560990399</v>
+        <v>351.9205529153654</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1474.384544049663</v>
+        <v>1440.96616241159</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>321.5521887663618</v>
+        <v>358.701131320845</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>429.8002150575508</v>
+        <v>463.3302049595764</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>325.3897456659164</v>
+        <v>322.9931297106356</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>474.7655537362623</v>
+        <v>498.4750684726056</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>394.2552826386683</v>
+        <v>400.8892951766692</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>452.194390370016</v>
+        <v>452.5207346890281</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>414.4420842196106</v>
+        <v>434.5609276036038</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>316.9292091924254</v>
+        <v>336.1809822035254</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>424.8439118340453</v>
+        <v>384.5295252182981</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>327.1760006349871</v>
+        <v>379.1213263305451</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>241.9804099280141</v>
+        <v>230.9236746325476</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>626.6716856191348</v>
+        <v>618.0584663388806</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>129.7429264082004</v>
+        <v>102.7248485022699</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>180.6762546121489</v>
+        <v>208.5330457246336</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>505.4405623159478</v>
+        <v>542.4279885821132</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>496.6473245273691</v>
+        <v>567.0513265675224</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>280.381046408421</v>
+        <v>276.8420215285848</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>202.167782361107</v>
+        <v>195.3944635314799</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>302.5723498775086</v>
+        <v>294.4833709257998</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>555.8948880976524</v>
+        <v>547.9598093545574</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>273.6196177786459</v>
+        <v>297.0089641972405</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>313.6277950546562</v>
+        <v>327.8703802902508</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>286.9946942462371</v>
+        <v>294.0459956000287</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>390.5772513738201</v>
+        <v>386.9169979190555</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>536.3482874673084</v>
+        <v>505.1741726113331</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>1196.315263814858</v>
+        <v>1005.00798338377</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>337.5038869303182</v>
+        <v>337.7508020754749</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>1020.521952809702</v>
+        <v>847.0439604876185</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>418.1270725925175</v>
+        <v>432.8466627312686</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>248.4880888885506</v>
+        <v>257.9502189699732</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>672.0468726720244</v>
+        <v>557.4907426200729</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>327.5321764276325</v>
+        <v>310.9561205496958</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>433.9324500281859</v>
+        <v>545.9446518905382</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>346.9211303187946</v>
+        <v>409.6496650566621</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>382.8918090268427</v>
+        <v>345.7943630797155</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>231.5128687204755</v>
+        <v>218.865634432035</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>328.1947397754988</v>
+        <v>329.5606538587092</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>660.2389952191755</v>
+        <v>658.0192965748088</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>1101.555024432246</v>
+        <v>1103.623074721226</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>111.1226149456116</v>
+        <v>109.9043484916597</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>385.4421028726753</v>
+        <v>370.4044721066676</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>112.414852635313</v>
+        <v>104.1484113766975</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>827.854189702999</v>
+        <v>839.7195092266713</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>284.2965271001028</v>
+        <v>282.689849566071</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>751.7669297002968</v>
+        <v>772.0106406067717</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>384.2317419824205</v>
+        <v>385.1566564480427</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>631.2272076286165</v>
+        <v>697.9623012341125</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>407.197065781168</v>
+        <v>419.8582955855814</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>404.7781569250013</v>
+        <v>415.0758663932558</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>818.388826388553</v>
+        <v>788.0002515403089</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>674.991766800311</v>
+        <v>605.3945132373133</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>368.6098345307702</v>
+        <v>310.0280557666593</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>377.7783765738993</v>
+        <v>392.9340378769642</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>312.5332743688589</v>
+        <v>271.3615952769865</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>211.7093298502971</v>
+        <v>203.454743449845</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>358.3760806498038</v>
+        <v>357.7036900154168</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>318.4888750586204</v>
+        <v>275.4543372900705</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>218.3123370176198</v>
+        <v>244.9149051719959</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>330.0310309528205</v>
+        <v>326.2182780488866</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>402.0991197812081</v>
+        <v>379.1189430096414</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>302.8346663273903</v>
+        <v>308.1924868487667</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>536.9799523704097</v>
+        <v>541.8979201148085</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>610.0476709828291</v>
+        <v>600.8079670038359</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>266.6024421036345</v>
+        <v>287.6106252456634</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>578.8593890338019</v>
+        <v>675.007397680649</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>875.8425465196717</v>
+        <v>894.2061638268646</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>316.7775455357857</v>
+        <v>344.2967110267047</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>649.5411270515046</v>
+        <v>644.4993411244943</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>371.8578340132456</v>
+        <v>352.5601604573399</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>468.9257463183653</v>
+        <v>445.426136958144</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>746.6585298057371</v>
+        <v>862.6148575088001</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>314.906951541177</v>
+        <v>348.9143090774456</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>1147.343102194682</v>
+        <v>1362.06375681347</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>627.3643661107502</v>
+        <v>679.5599369325037</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>425.8296902574146</v>
+        <v>553.9163220019278</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>879.0567291857803</v>
+        <v>892.3021855852787</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>249.3859356253772</v>
+        <v>265.573770219251</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>327.743046925041</v>
+        <v>365.421163622967</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>464.814640153641</v>
+        <v>447.1730191770556</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>315.3556911559527</v>
+        <v>355.3115959418877</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>246.0460668317719</v>
+        <v>222.8173504074449</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>382.1956712233016</v>
+        <v>410.2816330244019</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>227.9005340315487</v>
+        <v>216.8848142409125</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>296.7714304695633</v>
+        <v>281.2300612596425</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>1082.960380306867</v>
+        <v>1063.474311759837</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>392.140348933718</v>
+        <v>387.199449879332</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>887.2711619679823</v>
+        <v>790.9843254090594</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>795.1224866069323</v>
+        <v>969.2225283533728</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>368.7430643554603</v>
+        <v>373.3664680381617</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>429.7191319912131</v>
+        <v>399.8677264269948</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>130.8816689068206</v>
+        <v>126.0796509193689</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>378.4473961138414</v>
+        <v>335.955084663652</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>375.614365113326</v>
+        <v>339.9976595363894</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>122.002300013884</v>
+        <v>122.0699482933628</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>442.0468115315063</v>
+        <v>402.5245632747227</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>376.2362814705187</v>
+        <v>332.3004108719415</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>560.3892018818414</v>
+        <v>654.488574628847</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>288.546291634289</v>
+        <v>279.8474252532336</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>310.5221395854051</v>
+        <v>430.6621148178606</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>246.901892916675</v>
+        <v>290.0923629331549</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>367.7632596095813</v>
+        <v>431.2081572031861</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>506.603835429705</v>
+        <v>482.5850266132229</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>232.1067634087747</v>
+        <v>204.5233907255885</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>358.5905724209865</v>
+        <v>338.7850045760243</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>667.269193487163</v>
+        <v>728.2881368775993</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>839.9739533512845</v>
+        <v>750.1873918343477</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>812.4902641683539</v>
+        <v>714.1637248796626</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>509.6076619266154</v>
+        <v>668.1468278070956</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>435.3912760299947</v>
+        <v>379.8733959354082</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>362.1647986787502</v>
+        <v>349.0675570591245</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>504.3559672371232</v>
+        <v>540.9015376491793</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>318.8258000567532</v>
+        <v>327.8722199668601</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>370.5564956656078</v>
+        <v>400.5321920668489</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>271.9303863778588</v>
+        <v>272.2463539723799</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>347.7351289679099</v>
+        <v>328.0912722933709</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>516.7814580183431</v>
+        <v>555.7812078593537</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>153.3991371120512</v>
+        <v>152.0330325695606</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>387.8131441713919</v>
+        <v>344.4377555352061</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>1156.932296206562</v>
+        <v>1146.059697483355</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>315.4928324688684</v>
+        <v>301.2392490901656</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>184.5666759358904</v>
+        <v>173.9876580029096</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>409.8591826210705</v>
+        <v>390.3116102348586</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>548.5654667629531</v>
+        <v>679.9302279361328</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>384.6275465202193</v>
+        <v>381.9456468195585</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>1015.061751189047</v>
+        <v>1145.425094753768</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>625.0911098119042</v>
+        <v>610.9859682003663</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>635.2414706162091</v>
+        <v>566.6327317094599</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>409.2236021021902</v>
+        <v>387.4931753919547</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>426.5264500573973</v>
+        <v>413.0732340490304</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>424.7978719608797</v>
+        <v>488.8581913244971</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>327.7080815538569</v>
+        <v>320.5375862276185</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>312.0034432013477</v>
+        <v>326.1087768974603</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>692.2221670600696</v>
+        <v>683.1898536539537</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>370.8119624861167</v>
+        <v>419.2024969177401</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>313.4072310234046</v>
+        <v>344.8293841604919</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>386.1510288231447</v>
+        <v>458.2602309227705</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>860.1802369695301</v>
+        <v>779.5405715733393</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>748.9943485821597</v>
+        <v>850.1805488532104</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>386.9264033584865</v>
+        <v>346.9308129375606</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>1048.45988264002</v>
+        <v>985.3991169682936</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>248.0703555402806</v>
+        <v>237.7463582926153</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>1153.420556170838</v>
+        <v>1148.722592178803</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>144.6367935621656</v>
+        <v>150.3435864655075</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>214.4335264207667</v>
+        <v>209.2652771615957</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>289.6721963016337</v>
+        <v>287.6303583277386</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>320.9506010549185</v>
+        <v>347.2557019071091</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>407.2764921147172</v>
+        <v>422.5196549270237</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>466.7360043302964</v>
+        <v>483.7175906940261</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>673.3990505436129</v>
+        <v>727.1175297334696</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>552.4258041046122</v>
+        <v>563.0896566138467</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>312.1105298362573</v>
+        <v>287.2956427334651</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>560.0341357632865</v>
+        <v>552.5209693533587</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>558.6683403274533</v>
+        <v>437.5383019868444</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>136.4208170465993</v>
+        <v>125.0622292358463</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>750.2506923262997</v>
+        <v>802.0463037359158</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>683.6159081160692</v>
+        <v>652.9142420209489</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>385.3343802525085</v>
+        <v>399.1439552173022</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>492.117320665649</v>
+        <v>491.5894399027761</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>681.1930957875425</v>
+        <v>628.515198797404</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>303.4557130072992</v>
+        <v>373.0037325390522</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>427.0075245408281</v>
+        <v>421.0419081509759</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>155.2433672669246</v>
+        <v>160.8348498952347</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>849.6167422120586</v>
+        <v>819.7549256891047</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>134.7487899567572</v>
+        <v>147.5132191078013</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>486.5777513179155</v>
+        <v>438.8440201370864</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>366.3198243554191</v>
+        <v>365.2627212065441</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>1072.504355998702</v>
+        <v>1130.582189102052</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>317.4542462273644</v>
+        <v>315.245208314186</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>479.3379554963783</v>
+        <v>467.1481624603031</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>437.7957973375487</v>
+        <v>469.3214277123013</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>316.6393429122541</v>
+        <v>302.8879537088368</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>388.6264554472288</v>
+        <v>430.4022954440675</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>511.7250624078799</v>
+        <v>436.824555479855</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>334.0630937635496</v>
+        <v>339.7444618278595</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>337.0245531240328</v>
+        <v>320.2478135326743</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>178.0149274895481</v>
+        <v>167.4847961439057</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>313.2100086792584</v>
+        <v>321.6165564417171</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>792.5395269847801</v>
+        <v>759.9322316102536</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>408.233295498051</v>
+        <v>388.3798100565256</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>396.4689175523977</v>
+        <v>520.3051527742322</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>670.6540078376257</v>
+        <v>677.6598042701228</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>323.3771744152518</v>
+        <v>315.1832818336107</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1398.520386405889</v>
+        <v>1379.148451165978</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>291.8945919143278</v>
+        <v>300.0505275528791</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>466.8093975536656</v>
+        <v>488.1613821756562</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>365.0057314131518</v>
+        <v>382.0110911754888</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>313.4834591831232</v>
+        <v>292.0679013052161</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>119.7570934966643</v>
+        <v>121.1539974612126</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>513.0062300193405</v>
+        <v>576.8644490334115</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>867.1477592463515</v>
+        <v>876.2548056110913</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>725.4685143622048</v>
+        <v>558.1661862713257</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>247.2068796004828</v>
+        <v>233.9052368328621</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>297.7646145076935</v>
+        <v>294.5856570899903</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>335.4613671286622</v>
+        <v>371.9716716223691</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>969.1756093823188</v>
+        <v>967.5578259959937</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>454.8295231424194</v>
+        <v>471.2047339358675</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>340.1859695422716</v>
+        <v>340.6214070511916</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>450.5078827492417</v>
+        <v>482.5140943868099</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>367.146820261249</v>
+        <v>361.0039631339351</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>380.714184871314</v>
+        <v>493.7105795062271</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>493.1712063508479</v>
+        <v>505.487559357331</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>321.4520460304954</v>
+        <v>272.3681114160307</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>516.0952728446017</v>
+        <v>508.1918628764769</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>911.3401286035406</v>
+        <v>1024.349689960319</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>327.536710162886</v>
+        <v>365.2141471795975</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>418.661876481526</v>
+        <v>307.3930772998822</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>1078.509497832075</v>
+        <v>1120.468198680384</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>956.3808313091089</v>
+        <v>991.6664186778697</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>319.9963192529381</v>
+        <v>250.3581277830819</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>266.0380927349971</v>
+        <v>266.6082413229202</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>313.8860876703435</v>
+        <v>323.8008074413068</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>180.263889276138</v>
+        <v>180.7701824376186</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>293.1613838232736</v>
+        <v>302.2390812192398</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>544.3538411673758</v>
+        <v>546.1183449112</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>965.1168509507917</v>
+        <v>946.5158605235579</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>208.8918380477669</v>
+        <v>251.8719948698132</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>283.0258337811998</v>
+        <v>328.0198590884111</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>472.1123569022034</v>
+        <v>485.6665288183988</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>220.6371651329823</v>
+        <v>212.6543146057444</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>289.101759648999</v>
+        <v>287.0396729793534</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>469.5480408834323</v>
+        <v>533.4125297652162</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>596.5066133443519</v>
+        <v>654.4416605693038</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>396.641357790389</v>
+        <v>351.6375139235165</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>237.3692157897736</v>
+        <v>238.7767625452015</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>310.982939470069</v>
+        <v>376.5112299515119</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>675.6130163753455</v>
+        <v>840.0176152431106</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>332.3374876244778</v>
+        <v>376.8102046413594</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>277.1810709110758</v>
+        <v>281.4120328045785</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>302.0750614991838</v>
+        <v>301.9446043848317</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>955.5259943558345</v>
+        <v>1220.282059476935</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>362.1349484383113</v>
+        <v>389.9166470158505</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>380.049402611153</v>
+        <v>371.8699614795002</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>502.061129736991</v>
+        <v>460.4970109480805</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>407.104164056178</v>
+        <v>399.713816856316</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>306.2617998487202</v>
+        <v>307.0551687607817</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>143.8260168931772</v>
+        <v>163.7973115599474</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>299.3004561913702</v>
+        <v>345.6232163972863</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>342.3388072176891</v>
+        <v>338.4311195509367</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>841.0900592190561</v>
+        <v>866.6137806901916</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>374.572469627853</v>
+        <v>356.5686874140004</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>351.4006601108828</v>
+        <v>326.4722710706571</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>310.5519362106368</v>
+        <v>306.8844757283206</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>271.7762988399399</v>
+        <v>275.2586933100201</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>435.7260582461059</v>
+        <v>456.8239244601377</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>249.0886966854434</v>
+        <v>250.2982006022182</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>293.3607725420973</v>
+        <v>322.4974763977816</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>359.6994618866668</v>
+        <v>376.366679514131</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>897.2607578810588</v>
+        <v>1013.605619878687</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>332.9380745034223</v>
+        <v>326.6205656282818</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>266.2490699253142</v>
+        <v>273.3631997450501</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>459.0643516127989</v>
+        <v>385.2880142852183</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>635.2207929424902</v>
+        <v>684.5800657836136</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>104.3010375495715</v>
+        <v>107.5667311887192</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>657.6282525413181</v>
+        <v>702.8439297781439</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>295.3089444769491</v>
+        <v>339.6097247798261</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>375.8548251236309</v>
+        <v>367.1375718407511</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>704.2656387921085</v>
+        <v>712.1546939746675</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>385.1448659954034</v>
+        <v>343.7783783900809</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>277.1722092048735</v>
+        <v>304.3582718572989</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>951.7368169948842</v>
+        <v>917.8349814323435</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>489.001206428924</v>
+        <v>484.9578288413414</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>142.2243649546027</v>
+        <v>145.6031482991709</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>186.3467388036518</v>
+        <v>195.0557261746744</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>611.3850591824548</v>
+        <v>534.6704460988227</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>631.1657862679093</v>
+        <v>569.0501676643572</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>610.9396574746573</v>
+        <v>558.1710364886026</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>467.5890389810529</v>
+        <v>482.0723433199914</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>222.1360501667852</v>
+        <v>226.7103234280663</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>413.765166390015</v>
+        <v>410.732236204871</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>1312.896564568674</v>
+        <v>1306.704571682005</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>597.3306907445527</v>
+        <v>643.5127108125665</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>915.6885459828121</v>
+        <v>944.1668160709519</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>409.0225367696742</v>
+        <v>418.1889136676784</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>246.8957431922015</v>
+        <v>246.5727765030818</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>719.6298485051275</v>
+        <v>669.9139393571853</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>393.0987172077526</v>
+        <v>385.303829797049</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>259.5440442695574</v>
+        <v>253.8349816742156</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>443.488865715794</v>
+        <v>461.6664477387013</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>625.0092484285772</v>
+        <v>595.3754479043123</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>223.7037128404683</v>
+        <v>274.0270482060881</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>407.9761277459531</v>
+        <v>358.5871009498313</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>384.8757448924733</v>
+        <v>361.1798349176823</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>415.8246717429717</v>
+        <v>410.6180905712408</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>297.806200567108</v>
+        <v>259.1112043615501</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>916.8489923229504</v>
+        <v>907.1053880733155</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>369.0743629344788</v>
+        <v>343.5102796223816</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>304.5957204806408</v>
+        <v>301.9116651123728</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>541.0668180834205</v>
+        <v>573.9960153480907</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>399.8573466870585</v>
+        <v>458.8159821263503</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>504.4986646504086</v>
+        <v>383.8858888335286</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>1483.215556284883</v>
+        <v>1435.468201909576</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>206.279087924424</v>
+        <v>208.0448972330036</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>330.1558800785693</v>
+        <v>352.1301748162268</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>246.4180272020077</v>
+        <v>217.8940070977895</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>238.6539249673146</v>
+        <v>257.6163792799397</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>1653.572322984353</v>
+        <v>1519.535036393949</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>908.8690566434012</v>
+        <v>952.1320790222519</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>184.7734650000039</v>
+        <v>184.1761528873006</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>409.925018185454</v>
+        <v>361.4879508722744</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>310.6334232367897</v>
+        <v>313.3377001425608</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>351.7209561509327</v>
+        <v>367.6961955109061</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>154.4593985267883</v>
+        <v>150.7622643019485</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>388.109146615801</v>
+        <v>377.3196869457737</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>265.8997275874044</v>
+        <v>265.0893625136108</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>294.2340433762151</v>
+        <v>276.5846352833065</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>889.8410853079529</v>
+        <v>831.3424985094988</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>356.2068183089215</v>
+        <v>359.9579030889063</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>353.8784191421738</v>
+        <v>346.0649640681236</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>293.796069268315</v>
+        <v>286.9140909554981</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>268.5569067736434</v>
+        <v>282.0168063048391</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>771.5954903661061</v>
+        <v>795.480972508718</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>192.1986954474246</v>
+        <v>194.3575852167369</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>427.1024578005566</v>
+        <v>435.2903437643479</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>326.2064418736348</v>
+        <v>320.8214431646803</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>254.4058870230648</v>
+        <v>235.1162043647203</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>263.8846477167499</v>
+        <v>255.5340135705812</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>257.496106679546</v>
+        <v>257.3562506187342</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>211.8770769073653</v>
+        <v>211.4348884859187</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>317.9022788668523</v>
+        <v>242.0098564052162</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>274.9128669560436</v>
+        <v>283.5938890482474</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>356.4942660145454</v>
+        <v>353.9720053392262</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>1334.961360440039</v>
+        <v>1093.115929498324</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>366.6135224312838</v>
+        <v>363.1953831032167</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>473.6766922051399</v>
+        <v>463.8437843979124</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>397.8102557032036</v>
+        <v>423.6730447459373</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>1316.176660401468</v>
+        <v>1304.005708973521</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>263.6349113259812</v>
+        <v>320.8005571878878</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>223.8406848759383</v>
+        <v>214.4751090634064</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>669.8946507808619</v>
+        <v>641.3025838702176</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>718.8282443792822</v>
+        <v>745.866565332033</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>479.2461315657728</v>
+        <v>546.6096459316987</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>414.1124142287004</v>
+        <v>368.3234780503112</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>563.9047553454915</v>
+        <v>525.1172052492818</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>652.4331110152555</v>
+        <v>642.3935695797496</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>777.5587595145312</v>
+        <v>861.7517955280335</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>331.1538065837996</v>
+        <v>341.0656747153205</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>469.5572535674424</v>
+        <v>394.8207872044227</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>315.809961882244</v>
+        <v>309.5224039393177</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>505.9915651824191</v>
+        <v>468.4529181764729</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>417.0021020374784</v>
+        <v>369.3069533943056</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>512.763899491974</v>
+        <v>519.0739644733962</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>285.144742496237</v>
+        <v>283.3076647353853</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>257.2590274572474</v>
+        <v>250.6199683792705</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>394.3963617443428</v>
+        <v>381.5386408677269</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>280.373635642134</v>
+        <v>291.6351732326968</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>775.2690852133386</v>
+        <v>904.5809133083154</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>385.9670050834662</v>
+        <v>387.6662412876675</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>725.2323831967551</v>
+        <v>717.3098003901456</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>194.2728275502652</v>
+        <v>186.1327321228169</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>659.8230274566629</v>
+        <v>553.1877723001168</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>787.5089624098307</v>
+        <v>722.8444117530003</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>292.640317737003</v>
+        <v>247.6730158806492</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>803.6962840173085</v>
+        <v>942.2169083681025</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>525.8292544509252</v>
+        <v>571.5961865076169</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>916.2772518727315</v>
+        <v>961.9021198093155</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>529.0104574028694</v>
+        <v>555.8760407712705</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>624.9203828715249</v>
+        <v>629.5072738299408</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>629.2298815774725</v>
+        <v>635.0084751961181</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>322.4460513598594</v>
+        <v>336.6111623680458</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>1003.701891908047</v>
+        <v>1084.379082184004</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>318.6596616573756</v>
+        <v>319.1897858695227</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>272.265573123208</v>
+        <v>261.729573704521</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>576.346758647301</v>
+        <v>543.5562440910741</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>736.9987257572319</v>
+        <v>658.742474787746</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>241.1488003106644</v>
+        <v>254.2612054719781</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>272.6126470064006</v>
+        <v>291.4532725589499</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>769.8149947464226</v>
+        <v>721.3842125660559</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>352.2602831943715</v>
+        <v>345.6097060460094</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>358.3844500797267</v>
+        <v>367.8351399611138</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>283.8607665689497</v>
+        <v>259.6689560337976</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>439.7354724032156</v>
+        <v>413.3755072699123</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>726.9349192555974</v>
+        <v>642.3271646899149</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>326.1682680201548</v>
+        <v>351.6847154887294</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>971.812155026715</v>
+        <v>1028.886680093188</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>488.2166023912322</v>
+        <v>411.0145412910524</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>295.5230605583593</v>
+        <v>319.4797110122351</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>1020.131177986367</v>
+        <v>967.5951149585225</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>253.8045033038852</v>
+        <v>273.0071520099275</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>219.5975133532303</v>
+        <v>229.42796293125</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>97.83660185746074</v>
+        <v>103.4934593032514</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>415.1525825804677</v>
+        <v>429.1918471982581</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>303.2171504619804</v>
+        <v>306.9390620994185</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>393.92957943225</v>
+        <v>410.7129353946214</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>783.7494931688951</v>
+        <v>778.6508488061719</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>249.7494656357331</v>
+        <v>263.9253279501681</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>365.7757725987773</v>
+        <v>377.2665867466322</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>229.3232879121697</v>
+        <v>227.0983619504247</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>220.0080245052499</v>
+        <v>228.7581366034216</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>611.2536049948791</v>
+        <v>722.9677056134328</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>256.7854150455677</v>
+        <v>275.7964428225049</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>336.5437907295176</v>
+        <v>350.1061937464656</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>313.6588510111918</v>
+        <v>356.8255880140876</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>380.7361296124952</v>
+        <v>389.7999375780481</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>162.3945258136236</v>
+        <v>161.1232199777269</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>253.1896376789177</v>
+        <v>280.4906453167337</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>477.4380652198358</v>
+        <v>607.7789123461197</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>502.8314879536204</v>
+        <v>443.7446047783172</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>294.6272621274115</v>
+        <v>312.0175192045626</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>342.010631344167</v>
+        <v>350.934804994258</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>182.1564698213927</v>
+        <v>177.5311354019679</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>343.2131804159136</v>
+        <v>277.9081775278254</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>990.1716667154343</v>
+        <v>1141.294052897367</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>261.7353975442076</v>
+        <v>263.2509428047055</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>748.7324804249229</v>
+        <v>671.4968230023215</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>494.0608554709032</v>
+        <v>448.5567588958846</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>662.4288313904465</v>
+        <v>518.3130617973761</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>270.1466531594233</v>
+        <v>306.6746378128767</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>392.6324449282779</v>
+        <v>415.0439346989165</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>186.6707192532542</v>
+        <v>200.0152222543172</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>291.9952411930885</v>
+        <v>280.6189735400529</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>309.5248990307068</v>
+        <v>304.3757726205388</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>400.6479405380587</v>
+        <v>400.9790868590116</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>315.537945754089</v>
+        <v>291.0335485090212</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>883.8176513951</v>
+        <v>899.6821600654303</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>306.9707567165178</v>
+        <v>311.6567873529407</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>242.6096627807164</v>
+        <v>248.9386106431883</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>375.9202431484279</v>
+        <v>342.0965274024997</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>414.1528957888452</v>
+        <v>405.8513515117799</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>694.2776158221827</v>
+        <v>528.2013813465807</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>646.121826097163</v>
+        <v>633.1784227265875</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>131.9779759522218</v>
+        <v>122.1591694297345</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>482.6662150343699</v>
+        <v>520.0212034118217</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>578.7562063467134</v>
+        <v>491.8053708753877</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>453.3503234547503</v>
+        <v>464.2581499121104</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>461.6367445266824</v>
+        <v>432.0563641299628</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>117.8609188716303</v>
+        <v>114.9556752404291</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>454.6194397943155</v>
+        <v>455.5591186304697</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>378.7142333085861</v>
+        <v>366.3061749436005</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>465.2607902685607</v>
+        <v>421.8155571658056</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>1093.340083364747</v>
+        <v>851.8164921410856</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>699.6128725105632</v>
+        <v>747.4076570662636</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>219.1234714845965</v>
+        <v>276.2128147590136</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>828.759262307353</v>
+        <v>847.7018762474396</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>450.0908717582013</v>
+        <v>408.0423490862331</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>398.2561943339157</v>
+        <v>443.050122666277</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>182.0558293105037</v>
+        <v>183.8461424399012</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>957.255664084366</v>
+        <v>1033.635673546891</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>536.237638468661</v>
+        <v>557.3969564307387</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>530.6924924247741</v>
+        <v>624.726550661371</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>233.4226182156663</v>
+        <v>230.9242615173499</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>320.2933810506547</v>
+        <v>319.3067474007978</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>266.5027633976417</v>
+        <v>298.5509926452423</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>270.9163490715663</v>
+        <v>273.899502434524</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>244.2482742133316</v>
+        <v>254.1391989783226</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>394.807905410341</v>
+        <v>371.7074318717723</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>146.3217295545494</v>
+        <v>135.6373394725306</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>273.7545953256455</v>
+        <v>229.5205200637703</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>316.9010238786414</v>
+        <v>313.5428096923634</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>654.8727718829272</v>
+        <v>783.4483547958731</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>113.6150226206558</v>
+        <v>124.9368031277773</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>429.0702488848976</v>
+        <v>477.7403337177072</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>287.1448634124122</v>
+        <v>264.5699262131112</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>263.3137180598073</v>
+        <v>261.2322627038761</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>1313.762770420591</v>
+        <v>1238.199902867608</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>276.3504879188524</v>
+        <v>288.093606478625</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>411.909701662736</v>
+        <v>443.1086003454964</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>310.1191435440379</v>
+        <v>314.2370336280205</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>278.2267329852781</v>
+        <v>287.3775492399648</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>247.5325290558644</v>
+        <v>224.9399244493105</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>539.6284602686865</v>
+        <v>536.0593916892351</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>482.8099976094617</v>
+        <v>466.1166116786465</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>349.6416142085304</v>
+        <v>382.7187733069835</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>255.1730129202923</v>
+        <v>316.2482787180411</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>371.2514270733486</v>
+        <v>319.9778605688755</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>349.7208645603449</v>
+        <v>350.9570647588141</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>337.8947266969137</v>
+        <v>381.9416576916017</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>132.4442599883265</v>
+        <v>130.426869679021</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>722.8414569330204</v>
+        <v>758.4771858490539</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>315.5850927548646</v>
+        <v>316.4953380081514</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>343.0613920733688</v>
+        <v>330.8602539290843</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>415.2380247130533</v>
+        <v>424.522579813354</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>819.8576651725776</v>
+        <v>699.1494399511398</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>208.1748366851562</v>
+        <v>221.1581122133645</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>315.9789152474062</v>
+        <v>252.6302946430565</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>367.8046604091405</v>
+        <v>369.4168183599692</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>659.0297587672214</v>
+        <v>639.4687344997744</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>250.8744270152621</v>
+        <v>298.9617264286842</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>252.6949777165031</v>
+        <v>223.646885420285</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>1056.976470907336</v>
+        <v>870.6377969836963</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>298.4743135677994</v>
+        <v>277.1478006968048</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>1244.535827323077</v>
+        <v>1169.395185272595</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>359.3961430370134</v>
+        <v>381.8331952604303</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>519.0563846020381</v>
+        <v>543.6929288850582</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>195.8752307918414</v>
+        <v>193.9049134321349</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>445.7501300311836</v>
+        <v>386.370792002474</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>199.2842894212234</v>
+        <v>197.4862276299417</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>523.6996084793033</v>
+        <v>433.1216397387126</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>376.7708903686266</v>
+        <v>300.2553910283411</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>246.4420406327354</v>
+        <v>195.3743009219559</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>290.8686677765915</v>
+        <v>286.5534585384602</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>268.3841984643768</v>
+        <v>240.8532511395424</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>484.7504242273977</v>
+        <v>480.5369405091751</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>1018.62052826053</v>
+        <v>1012.606904033397</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>260.5482641725859</v>
+        <v>266.435089842567</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>202.7759459184568</v>
+        <v>186.0963892404631</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>1167.012971973358</v>
+        <v>1044.637275279693</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>383.543609041995</v>
+        <v>333.2974923021707</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>144.3557432691984</v>
+        <v>175.2883926820066</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>553.3552733881539</v>
+        <v>534.1626651366798</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>455.1646830764136</v>
+        <v>443.101572479243</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>898.4393880095338</v>
+        <v>974.1062259653241</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>639.862749849785</v>
+        <v>606.9615572426859</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>987.3788874811466</v>
+        <v>937.7418545968586</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>262.915000331111</v>
+        <v>253.0504023843663</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>293.2024118425168</v>
+        <v>280.8286347940997</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>348.6879545377629</v>
+        <v>362.4229896685619</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>1137.103338197471</v>
+        <v>1099.183029365364</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>573.7310359477439</v>
+        <v>575.3536149214834</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>784.7221444992038</v>
+        <v>699.2923944840491</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>219.9416070527497</v>
+        <v>223.0076485414063</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>460.8303414403362</v>
+        <v>463.1855977706772</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>328.1038189021367</v>
+        <v>265.6896203610191</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>531.7612306092301</v>
+        <v>497.4342453611419</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>299.4632490747006</v>
+        <v>289.3428810473808</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>245.1791858839551</v>
+        <v>237.9329849527629</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>351.1463118311061</v>
+        <v>274.9056671931434</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>165.6268452935897</v>
+        <v>166.1778527855604</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>1230.565822664525</v>
+        <v>1209.766655796144</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>381.9127877529377</v>
+        <v>364.6762640698881</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>365.3114553231834</v>
+        <v>405.4787539421715</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>329.8074531143405</v>
+        <v>324.9269779858614</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>393.0541747413008</v>
+        <v>369.1310464319548</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>185.5721599037907</v>
+        <v>192.320170722158</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>253.1381763042041</v>
+        <v>249.9655283569934</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>528.2977920141406</v>
+        <v>474.1573618544218</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>761.8470372251237</v>
+        <v>743.7897308667448</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>264.2104300531103</v>
+        <v>262.7882341747675</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>306.2698648786163</v>
+        <v>314.614163795995</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>290.0423220061784</v>
+        <v>279.8583757722985</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>334.4643619097607</v>
+        <v>318.270032780194</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>295.9617505760197</v>
+        <v>289.4058659649758</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>306.9911335547183</v>
+        <v>328.1968291492355</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>304.1972940603879</v>
+        <v>299.7647733965049</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>503.633353121746</v>
+        <v>564.0740219134655</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>407.217318487772</v>
+        <v>403.8573871549689</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>558.0896145646234</v>
+        <v>470.7842165520539</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>261.1362062290794</v>
+        <v>280.1216081652042</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>413.795756038981</v>
+        <v>451.167300484331</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>112.2866443418326</v>
+        <v>116.1331673726449</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>402.9036898105576</v>
+        <v>405.7155050719834</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>545.818940811762</v>
+        <v>497.2318851472556</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>649.8801624978114</v>
+        <v>612.2347336549587</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>482.0603397163754</v>
+        <v>520.2932858942924</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>207.3259508803109</v>
+        <v>207.8537872301917</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>1344.833931969175</v>
+        <v>1034.427956673783</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>671.9762856538399</v>
+        <v>669.2639860042407</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>278.0066890243931</v>
+        <v>257.5043360683102</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>298.8463947625206</v>
+        <v>297.7240241414308</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>269.0399737667902</v>
+        <v>273.0601376425078</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>190.103738887379</v>
+        <v>220.4928322107737</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>233.8799082862032</v>
+        <v>242.2403913896005</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>340.5595394985008</v>
+        <v>329.3033598195354</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>649.9419392305755</v>
+        <v>575.4117515612596</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>330.6489187532402</v>
+        <v>345.0918836247527</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>317.0169347087093</v>
+        <v>283.7449184825862</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>474.852726233556</v>
+        <v>466.8516821739199</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>549.8000874040066</v>
+        <v>560.1536628248232</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>442.9638245615185</v>
+        <v>375.0304924233578</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>663.8564950696961</v>
+        <v>606.0127222583114</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>283.7247174146048</v>
+        <v>297.4881868315817</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>396.1104072137032</v>
+        <v>424.8389048141892</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>277.4999522408616</v>
+        <v>275.9126758053024</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>338.4708214936369</v>
+        <v>375.0325808224572</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>471.637525376726</v>
+        <v>460.3565575135741</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>404.4334685770293</v>
+        <v>401.5064800302004</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>301.8631018176526</v>
+        <v>275.3942947768207</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>288.2486530792113</v>
+        <v>251.802017200191</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>307.6305899592556</v>
+        <v>310.9108432240768</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>584.4675323374898</v>
+        <v>570.9020588139351</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>321.5921581845594</v>
+        <v>314.1912463948752</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>363.8177960186942</v>
+        <v>385.0682006330059</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>389.3581337801543</v>
+        <v>381.4699881883927</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>269.8682137967196</v>
+        <v>273.8442488890486</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>521.6416882566119</v>
+        <v>552.5423955503483</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>232.0553846528698</v>
+        <v>213.219573953815</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>2133.610239776742</v>
+        <v>2117.971379988174</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>459.3281278890375</v>
+        <v>465.6277880797655</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>241.1359277120033</v>
+        <v>237.9713118026797</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>328.5309448225069</v>
+        <v>338.4848743042566</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>371.7261438068156</v>
+        <v>417.9232967776096</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>329.9464579340199</v>
+        <v>334.559516090448</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>500.6146827117399</v>
+        <v>597.8758060620702</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>247.261604505589</v>
+        <v>246.1054523859972</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>415.7005865395619</v>
+        <v>346.0053056558415</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>263.8797732803326</v>
+        <v>288.1028451486417</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>71.82059567177403</v>
+        <v>72.23294682795995</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>315.5504964698478</v>
+        <v>274.30364532931</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>363.2128440407917</v>
+        <v>367.6924346588527</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>363.4831953744314</v>
+        <v>384.1363469490441</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>436.8040405292818</v>
+        <v>439.3854017280481</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>839.4683972062672</v>
+        <v>840.7016526980957</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>339.3682163418957</v>
+        <v>308.0724021452872</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>321.2523109902168</v>
+        <v>298.4001005846041</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>269.2161638707944</v>
+        <v>264.7296649941762</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>504.6756572130654</v>
+        <v>542.3057268428787</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>424.1647341034936</v>
+        <v>467.2881823581607</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>517.9227473111572</v>
+        <v>521.823429361763</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>248.0444058679221</v>
+        <v>237.5618638524432</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>88.6121628581429</v>
+        <v>101.3292559709077</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>278.8039636477064</v>
+        <v>284.9119268846719</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>713.3161469048943</v>
+        <v>744.5517798444126</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>262.1002869182697</v>
+        <v>223.8009715018382</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>317.4169260501857</v>
+        <v>326.7880255862576</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>247.8057324635995</v>
+        <v>251.740717238392</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>415.1096251786454</v>
+        <v>378.2283148869929</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>266.5928642330578</v>
+        <v>271.6831651563076</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>243.2725445519532</v>
+        <v>245.6181899249849</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>355.609166690999</v>
+        <v>386.5902969313393</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>321.8802451719536</v>
+        <v>365.6353410558108</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>345.5272029276782</v>
+        <v>369.8384021753975</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>654.0548398043236</v>
+        <v>639.0593191617685</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>806.3532707996991</v>
+        <v>728.2411767836569</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>250.9407007616166</v>
+        <v>248.4005716706866</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>395.8107552202612</v>
+        <v>388.4990773855754</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>290.713828510099</v>
+        <v>290.1413752292223</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>282.3863780907996</v>
+        <v>304.3509801263585</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>592.9450159716173</v>
+        <v>680.7136508027163</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>266.6738961519487</v>
+        <v>226.6477860364587</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>1295.007734483276</v>
+        <v>1105.7151122711</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>350.4154904596588</v>
+        <v>354.4394138639504</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>192.6823010763797</v>
+        <v>190.689876845809</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>250.2729371830541</v>
+        <v>259.3763282059331</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>527.8999085612005</v>
+        <v>701.361320524248</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>975.8180559671736</v>
+        <v>912.9798267158313</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>397.346739548287</v>
+        <v>391.6089702564221</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>304.9771176309096</v>
+        <v>300.3724665168034</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>237.0050833747113</v>
+        <v>235.6063692413144</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>313.054664873983</v>
+        <v>346.6202670623878</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>487.5399318960251</v>
+        <v>513.5490651065303</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>305.2411298859482</v>
+        <v>319.4528694137413</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>474.8622182245659</v>
+        <v>467.8054324099147</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>361.805035447353</v>
+        <v>377.9953915442279</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>125.2873002904031</v>
+        <v>122.0506684448261</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>274.3985182224177</v>
+        <v>274.1614808480334</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>399.1070956960081</v>
+        <v>464.4822371944911</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>368.8551479613674</v>
+        <v>297.1727274246263</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>302.7409312502108</v>
+        <v>366.6831320909952</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>537.2619420489334</v>
+        <v>520.1949955451113</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>564.1864926230156</v>
+        <v>590.8320570733028</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>470.2078798610016</v>
+        <v>524.0798493081101</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>279.8804066548353</v>
+        <v>277.656350717739</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>433.1504581008474</v>
+        <v>402.2870055136835</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>250.674436947338</v>
+        <v>222.9347655182304</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>484.7912394446806</v>
+        <v>480.5467335875464</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>505.7415894551583</v>
+        <v>438.8255834143963</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>1011.86074028113</v>
+        <v>1226.32620214787</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>304.5889273181975</v>
+        <v>265.5399078232817</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>496.7060436454184</v>
+        <v>463.1837266199925</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>317.3675328543878</v>
+        <v>336.9445967459239</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>479.2527984731379</v>
+        <v>448.9281514072027</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>449.9050704665566</v>
+        <v>418.7387438718455</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>1253.193229987908</v>
+        <v>1368.553121693308</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>435.8448157877531</v>
+        <v>442.7355338665906</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>303.7220782617167</v>
+        <v>294.3979525312686</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>578.0050581460226</v>
+        <v>574.4465677019067</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>666.2264993855982</v>
+        <v>559.7618471577005</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>447.146210830687</v>
+        <v>414.768191433463</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>314.6710678773035</v>
+        <v>328.8496115041443</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>1010.019670438195</v>
+        <v>1180.799069708373</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>531.6851045556691</v>
+        <v>573.9556514026845</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>344.9086309075433</v>
+        <v>401.134358468861</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>733.912773989173</v>
+        <v>875.8922785750623</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>462.6490017750265</v>
+        <v>542.1019856554449</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>1164.029374807047</v>
+        <v>1008.60157583057</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>773.2919661449603</v>
+        <v>849.7263992925639</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>410.8017553959</v>
+        <v>399.5182317015578</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>439.9871315472355</v>
+        <v>463.6766529667552</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>400.5290082396488</v>
+        <v>391.615694927158</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>1089.431763216401</v>
+        <v>1127.426908284645</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>510.880582965441</v>
+        <v>566.7027240880025</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>332.9059541056628</v>
+        <v>416.0308453091451</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>359.9827445656296</v>
+        <v>359.7804765427736</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>441.9514934546353</v>
+        <v>430.8319199487787</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>286.969938426737</v>
+        <v>293.2891124313935</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>533.197311786778</v>
+        <v>478.6604440591248</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>437.034703997717</v>
+        <v>381.104126528518</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>1201.758155781462</v>
+        <v>1233.330267546653</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>356.1729823111781</v>
+        <v>339.003275596059</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>927.3966214064639</v>
+        <v>925.287652541877</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>519.9484709117477</v>
+        <v>509.3559996177966</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>216.8241931695336</v>
+        <v>164.5560749231918</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>311.759581962616</v>
+        <v>314.9720621043085</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>246.859677017347</v>
+        <v>200.4592516046275</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>239.2501393235412</v>
+        <v>237.6188677659656</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>393.7119971578754</v>
+        <v>397.0489526721741</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>194.7442221928562</v>
+        <v>166.2688105172241</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>238.0709851281555</v>
+        <v>260.2562491426266</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>385.6959067534561</v>
+        <v>406.7606288076383</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>417.9077641187517</v>
+        <v>390.1620988344865</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>347.1634412399627</v>
+        <v>312.9291949422024</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>366.2883510455637</v>
+        <v>372.2863747085689</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>474.6529235785143</v>
+        <v>476.3116151582522</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>604.0792569280826</v>
+        <v>602.3597316758046</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>551.9393655721148</v>
+        <v>575.6262669990399</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>433.7708894762555</v>
+        <v>419.5150894494788</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>330.5762595565126</v>
+        <v>320.0736935671868</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>545.4756573176361</v>
+        <v>541.0005288226861</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>901.2679113983068</v>
+        <v>1110.213868923893</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>895.8529847084834</v>
+        <v>882.4541123832309</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>3088.88153326214</v>
+        <v>3121.664149843879</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>200.1050662791365</v>
+        <v>206.8396128831932</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>442.0152180756813</v>
+        <v>421.5544425249468</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>497.9196153441672</v>
+        <v>447.7223178367611</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>411.9314405215774</v>
+        <v>417.8365590004034</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>189.3033643735638</v>
+        <v>225.6080553558957</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>893.8335475295565</v>
+        <v>813.1314856993072</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>606.1837593999405</v>
+        <v>714.79510655755</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>151.9739325441809</v>
+        <v>180.8654297291129</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>246.3210357363127</v>
+        <v>253.4920882750559</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>1347.014190626864</v>
+        <v>1638.996044893441</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>910.6948216352192</v>
+        <v>867.5859132336493</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>223.3540713300557</v>
+        <v>204.4781329686494</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>580.7469718574124</v>
+        <v>546.4238835475201</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>547.3261229378589</v>
+        <v>561.0838737955506</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>316.738333578326</v>
+        <v>333.5538550565722</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>449.3334896622194</v>
+        <v>458.1587075985731</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>496.4636937384226</v>
+        <v>526.5433341543599</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>779.8365634630327</v>
+        <v>790.7792001002033</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>244.5746403182069</v>
+        <v>256.2830755853028</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>358.1513165071223</v>
+        <v>380.0586448754047</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>275.7915772929488</v>
+        <v>274.213957085795</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>455.6741310152534</v>
+        <v>462.3533475282645</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>250.1464729902044</v>
+        <v>258.0563900695739</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>621.4710225601356</v>
+        <v>620.0676626321996</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>493.0628290271074</v>
+        <v>495.9412210800187</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>296.4314117282151</v>
+        <v>274.423288036035</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>615.6215360006462</v>
+        <v>675.256882898996</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>340.9228850842024</v>
+        <v>339.5425731021603</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>346.263272175516</v>
+        <v>359.8120219862923</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>818.6174712352305</v>
+        <v>812.35909210073</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>323.2055146896008</v>
+        <v>318.1464656162808</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>634.256572407822</v>
+        <v>459.8704678991347</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>161.7103869302629</v>
+        <v>172.8079960776911</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>710.4614184642744</v>
+        <v>713.1969534832072</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>128.449216109811</v>
+        <v>139.2257339905705</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>314.9835984332187</v>
+        <v>246.3242694652811</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>151.2637407538447</v>
+        <v>146.5605011879518</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>291.0700928763667</v>
+        <v>344.2187714954296</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>688.6428015217318</v>
+        <v>607.183847059277</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>297.2209944892588</v>
+        <v>321.4174025736098</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>399.3851785262653</v>
+        <v>525.4746741867239</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>405.1668803197647</v>
+        <v>374.7403515660376</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>278.4545884391924</v>
+        <v>268.7159193854441</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>198.1748522125874</v>
+        <v>161.8577264041271</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>411.2149926524708</v>
+        <v>417.6532006171636</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>239.5871198636752</v>
+        <v>241.1489962535169</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>214.0193464032928</v>
+        <v>177.5902119222568</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>246.2091482675982</v>
+        <v>275.4646548843438</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>478.6547583008215</v>
+        <v>561.4603428369687</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>160.4460691562863</v>
+        <v>158.454267073758</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>259.5879729071396</v>
+        <v>288.0209539758611</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>345.2431191144826</v>
+        <v>337.3751497814299</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>440.5239022853855</v>
+        <v>445.2900880230073</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>247.002080670824</v>
+        <v>231.8617120051666</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>155.4661579479639</v>
+        <v>156.9517849497971</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>848.7109507815334</v>
+        <v>821.5211194041492</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>599.0701280278676</v>
+        <v>604.6582966382732</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>553.620003364017</v>
+        <v>538.7926225454157</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>508.8626694978136</v>
+        <v>555.9820901731454</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>316.2038015191131</v>
+        <v>285.0048351010277</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>669.1299826631929</v>
+        <v>653.4348113021867</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>281.1853370677077</v>
+        <v>219.5236254783871</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>293.5216995887975</v>
+        <v>299.6924767337012</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>432.181376631333</v>
+        <v>478.3401578332007</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>509.2014048909639</v>
+        <v>475.0343409445271</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>270.9718230740161</v>
+        <v>253.9725190089113</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>469.8759592043008</v>
+        <v>511.7204762075895</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>928.9177362038349</v>
+        <v>901.9784211758275</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>380.0362217317261</v>
+        <v>404.2493954675245</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>217.4464101902855</v>
+        <v>218.8485856721182</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>299.0759313607664</v>
+        <v>290.1836833617255</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>298.4875207529138</v>
+        <v>280.4820817293117</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>477.0744166823631</v>
+        <v>469.9882466256823</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>254.4549854306191</v>
+        <v>261.8568041339354</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>464.0831027561523</v>
+        <v>446.3536558000519</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>374.3795231184333</v>
+        <v>376.3870241941066</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>99.95166346925701</v>
+        <v>89.94274446877533</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>324.4427677220538</v>
+        <v>352.9594188084827</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>329.2601183554535</v>
+        <v>315.4692425202874</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>351.2160777342504</v>
+        <v>349.5390875063879</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>779.9660622889811</v>
+        <v>980.8013630993986</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>440.684907776207</v>
+        <v>408.1511312295165</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>573.9912498205553</v>
+        <v>510.6832170126605</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>1257.939882544282</v>
+        <v>1363.604504499024</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>256.9697577179024</v>
+        <v>244.9890270712098</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>405.1523717295344</v>
+        <v>376.3876928964119</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>745.6467604987265</v>
+        <v>630.327739024003</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>421.9355643018044</v>
+        <v>418.6497059273448</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>421.8263899175166</v>
+        <v>423.1762631184047</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>576.9887337393767</v>
+        <v>605.0722780875592</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>361.0284853474236</v>
+        <v>335.9465274664366</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>493.723394293308</v>
+        <v>453.5193978423116</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>516.3268923446285</v>
+        <v>561.3200941200594</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>583.751825135622</v>
+        <v>581.6638915696823</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>452.5329190070344</v>
+        <v>466.3198040059125</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>218.449551452317</v>
+        <v>213.7088932709138</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>398.7810131478494</v>
+        <v>412.4400059115911</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>335.6527512646497</v>
+        <v>322.3878873481225</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>172.2164947293807</v>
+        <v>184.7456248743478</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>241.6182417087652</v>
+        <v>227.475345359162</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>353.8501678596797</v>
+        <v>322.0876848655067</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>366.294039305544</v>
+        <v>403.6230556671563</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>474.2592274418405</v>
+        <v>552.7223510605432</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>327.8974802274908</v>
+        <v>228.9811754891225</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>388.4453338448212</v>
+        <v>379.9497652359458</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>385.8496966512467</v>
+        <v>390.8491203684588</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>185.9610953394849</v>
+        <v>198.705498625377</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>543.1155130381918</v>
+        <v>498.8190488702283</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>272.703570515596</v>
+        <v>298.6300657189299</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>585.6366644341289</v>
+        <v>518.1911265154574</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>508.6591369099544</v>
+        <v>410.71596126861</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>356.9536499215022</v>
+        <v>357.3993383260218</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>273.0154872816423</v>
+        <v>289.5143877987297</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>719.9806170376871</v>
+        <v>589.5937601957083</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>115.9797798421752</v>
+        <v>113.6261322826816</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>512.6391837125926</v>
+        <v>604.2114432949264</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>638.820518946968</v>
+        <v>770.4102225798108</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>293.1689826765035</v>
+        <v>282.8963075251349</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>222.3445983048481</v>
+        <v>230.3928681294525</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>388.2049346593548</v>
+        <v>401.1106620754289</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>119.2123954447984</v>
+        <v>150.8907870177247</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>632.7276371840694</v>
+        <v>601.6134768311737</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>327.9719274696412</v>
+        <v>333.4968271120907</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>279.2075416272698</v>
+        <v>297.5346239583078</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>415.3349404298692</v>
+        <v>354.7885118014855</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>312.6816394216183</v>
+        <v>309.0229374952685</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>404.0206931157774</v>
+        <v>441.8717472093049</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887">
-        <v>626.3672387730544</v>
+        <v>794.7597314807879</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888">
-        <v>306.2351393910681</v>
+        <v>301.242568901674</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889">
-        <v>350.6468074179152</v>
+        <v>395.1995675700011</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890">
-        <v>420.7149427614323</v>
+        <v>338.6477780353934</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891">
-        <v>647.2782879195372</v>
+        <v>593.064346725361</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>841.4698305020739</v>
+        <v>848.2868533544581</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>359.0126649545964</v>
+        <v>319.2149692317567</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>611.7137790539261</v>
+        <v>489.4625281604918</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>313.0795323492494</v>
+        <v>304.8505209743613</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896">
-        <v>486.3934251814348</v>
+        <v>530.9848702871835</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>562.6309172779652</v>
+        <v>566.6930134873236</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>611.9880286078992</v>
+        <v>610.8935556379297</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>393.1081860700545</v>
+        <v>434.7184868869106</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>1065.868499255635</v>
+        <v>927.9682424322949</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>309.998050584711</v>
+        <v>277.479423615418</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>247.2261327157376</v>
+        <v>252.2937835153089</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903">
-        <v>279.3640771162049</v>
+        <v>319.8713330222502</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>338.1170438548038</v>
+        <v>335.8506729061422</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>238.4665094533218</v>
+        <v>228.4235233257304</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>512.7174972423983</v>
+        <v>483.5072413608921</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>625.3716855496078</v>
+        <v>678.0114955410263</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>432.0266764396678</v>
+        <v>436.1819960326187</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909">
-        <v>220.5298344763964</v>
+        <v>242.1674529435267</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>486.4640323453376</v>
+        <v>506.7864384264688</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911">
-        <v>274.8094341238535</v>
+        <v>326.3885133862727</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912">
-        <v>323.9552552534573</v>
+        <v>315.9937885669119</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>365.8561822428791</v>
+        <v>447.1836094053321</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>213.1084280091835</v>
+        <v>233.6625799240472</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915">
-        <v>526.2646839393551</v>
+        <v>515.4828975470748</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>642.7882864121793</v>
+        <v>745.4998516281421</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>440.0506646927057</v>
+        <v>416.2951143160047</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>355.1299601296071</v>
+        <v>404.5102844680903</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919">
-        <v>519.1448297782634</v>
+        <v>464.63344959638</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>1823.629069923922</v>
+        <v>1426.07202579392</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>432.0260954058389</v>
+        <v>369.7678414949905</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>213.1735857828316</v>
+        <v>212.3816850415188</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>415.0342543924524</v>
+        <v>486.8334952839245</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>131.5163002063823</v>
+        <v>129.3794656978742</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>273.9153753108296</v>
+        <v>315.1505812756045</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926">
-        <v>260.0373802386493</v>
+        <v>251.0937666805811</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>964.1515837221839</v>
+        <v>868.0288696213838</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>240.5020613719644</v>
+        <v>225.3513970865463</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929">
-        <v>345.1749996146896</v>
+        <v>318.294220206932</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>1180.835931297961</v>
+        <v>1074.890124957592</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931">
-        <v>274.13556953512</v>
+        <v>256.1185119989372</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932">
-        <v>819.6134623321674</v>
+        <v>801.0440372211001</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>487.8681366026112</v>
+        <v>481.7788655776169</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>307.5334086928996</v>
+        <v>318.6096050841249</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935">
-        <v>231.6154166984242</v>
+        <v>185.0879677228486</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>144.9551180287555</v>
+        <v>135.9619091437933</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937">
-        <v>329.7484049879506</v>
+        <v>319.2403717061155</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>957.2305557387947</v>
+        <v>641.8899002370752</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939">
-        <v>308.0722627883849</v>
+        <v>307.0539576543226</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940">
-        <v>340.2842196051826</v>
+        <v>319.9989982618359</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941">
-        <v>222.4642077380941</v>
+        <v>225.5758309750832</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>1010.986962079528</v>
+        <v>1006.476734661491</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943">
-        <v>216.8842064204797</v>
+        <v>215.218361009368</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944">
-        <v>343.2197037598176</v>
+        <v>296.8010017329165</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945">
-        <v>410.2057909213619</v>
+        <v>451.0499895112856</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946">
-        <v>487.0819230213003</v>
+        <v>463.4227426475751</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947">
-        <v>372.962618372219</v>
+        <v>369.3846866579374</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948">
-        <v>466.2443428934766</v>
+        <v>473.3692892517223</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949">
-        <v>380.5363666723135</v>
+        <v>335.4623397501173</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>344.0014613061031</v>
+        <v>346.3815692582975</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>284.534997991354</v>
+        <v>274.0185385699651</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>330.9700831072047</v>
+        <v>294.4487704139036</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>405.9344903323387</v>
+        <v>424.901298155643</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954">
-        <v>280.3990782348433</v>
+        <v>293.7235107367298</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955">
-        <v>586.8029264207647</v>
+        <v>663.1030509564081</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956">
-        <v>492.9093948607351</v>
+        <v>483.1833838077367</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957">
-        <v>246.6085896896286</v>
+        <v>261.1320802406557</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>706.0688990195835</v>
+        <v>708.4306491788715</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959">
-        <v>413.4534923834386</v>
+        <v>419.7671654328059</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960">
-        <v>273.5712150721078</v>
+        <v>269.6512031596126</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>409.5075259735942</v>
+        <v>418.2828092618562</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962">
-        <v>416.0304829383149</v>
+        <v>492.0635955173506</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>201.5228974083016</v>
+        <v>211.6831527137952</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>744.7660649056982</v>
+        <v>793.4446721829169</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965">
-        <v>331.4884479481733</v>
+        <v>360.4770446901103</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966">
-        <v>597.7095186440245</v>
+        <v>522.7809222698854</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967">
-        <v>205.7565911782894</v>
+        <v>224.2888762154359</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968">
-        <v>352.9049635175523</v>
+        <v>408.5705428271033</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969">
-        <v>366.1064645380742</v>
+        <v>360.7623098918593</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970">
-        <v>426.682074013392</v>
+        <v>401.1582495614265</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971">
-        <v>528.9025973344848</v>
+        <v>598.0075094430189</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>517.5654328244146</v>
+        <v>507.8033160498904</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>539.8974154255764</v>
+        <v>568.2711386368513</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974">
-        <v>539.6096421466981</v>
+        <v>543.3369694095616</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975">
-        <v>642.3252999366504</v>
+        <v>798.8872309006729</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>278.9523051357814</v>
+        <v>269.5389659672093</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977">
-        <v>371.5709655803176</v>
+        <v>319.0751492616632</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978">
-        <v>389.112308313547</v>
+        <v>420.046999717125</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979">
-        <v>293.9211949301342</v>
+        <v>321.8062715524459</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980">
-        <v>830.9942560408361</v>
+        <v>775.8756385462336</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981">
-        <v>198.2839535212168</v>
+        <v>185.1894097008326</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982">
-        <v>175.3260738520351</v>
+        <v>158.1894667729947</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983">
-        <v>466.9334784395724</v>
+        <v>408.2396601134394</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984">
-        <v>73.52692358895044</v>
+        <v>80.28998280934745</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985">
-        <v>660.9596144405633</v>
+        <v>591.9924989190307</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986">
-        <v>623.9824016139256</v>
+        <v>581.3561758965583</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987">
-        <v>314.8592204851246</v>
+        <v>352.6239151260416</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>466.6074719699236</v>
+        <v>478.7794256057345</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989">
-        <v>436.1563736852887</v>
+        <v>530.2033092979942</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990">
-        <v>484.7342427193761</v>
+        <v>427.383672910501</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991">
-        <v>409.3360551096501</v>
+        <v>395.9672778067884</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992">
-        <v>287.2428154592382</v>
+        <v>344.5732437657056</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993">
-        <v>538.8889957923758</v>
+        <v>503.1304349029234</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994">
-        <v>459.8396855431991</v>
+        <v>476.4767317179449</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995">
-        <v>1450.259659185417</v>
+        <v>1287.802965956934</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>292.2489913540049</v>
+        <v>279.4343726067818</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997">
-        <v>1119.373180657949</v>
+        <v>1134.96219864293</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998">
-        <v>222.2535548550554</v>
+        <v>208.0552164822697</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999">
-        <v>308.4473763359855</v>
+        <v>282.5118379590862</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000">
-        <v>146.4298468618455</v>
+        <v>146.6040930967664</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001">
-        <v>308.4831984014135</v>
+        <v>309.8267551054435</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002">
-        <v>202.482787315356</v>
+        <v>206.2157979139914</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003">
-        <v>238.2251755983327</v>
+        <v>239.2991231647466</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004">
-        <v>483.4588488023089</v>
+        <v>466.454461891597</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005">
-        <v>226.8755420558583</v>
+        <v>214.6008538496111</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006">
-        <v>353.5562802854843</v>
+        <v>350.737429705923</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007">
-        <v>405.9203170407376</v>
+        <v>444.1623625240217</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008">
-        <v>390.5371054681709</v>
+        <v>437.3882336275208</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009">
-        <v>342.2207844676411</v>
+        <v>334.4608453602102</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010">
-        <v>390.0481122643444</v>
+        <v>413.6226678917738</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011">
-        <v>638.443711089371</v>
+        <v>630.3187798047999</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012">
-        <v>506.4466247867229</v>
+        <v>508.5699469522617</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013">
-        <v>971.9268887566025</v>
+        <v>1030.457055844631</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014">
-        <v>509.332537626179</v>
+        <v>509.8322055502911</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015">
-        <v>259.3183933259131</v>
+        <v>277.9383794191988</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016">
-        <v>263.2152058964066</v>
+        <v>271.7079452311601</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017">
-        <v>412.5038078049064</v>
+        <v>406.1034908432895</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018">
-        <v>131.86564326937</v>
+        <v>145.287742115573</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>327.828468004811</v>
+        <v>303.3869680997135</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020">
-        <v>295.7199756018083</v>
+        <v>245.2814012338563</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>324.4224162767077</v>
+        <v>317.6805943627555</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>332.3095394334312</v>
+        <v>304.0005608739074</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023">
-        <v>256.8445530526905</v>
+        <v>301.9537017037484</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024">
-        <v>326.7486775230315</v>
+        <v>324.073525843247</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025">
-        <v>379.5666793030622</v>
+        <v>406.8142681633428</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026">
-        <v>330.7247792448712</v>
+        <v>323.809585983042</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027">
-        <v>282.2543625797517</v>
+        <v>259.7327652367173</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028">
-        <v>394.7646256098535</v>
+        <v>425.5949165147395</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029">
-        <v>329.5618932555548</v>
+        <v>304.1143186369998</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030">
-        <v>289.1920070885001</v>
+        <v>278.7477047259944</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>481.5720299894376</v>
+        <v>505.2773879722779</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032">
-        <v>248.8235350251092</v>
+        <v>243.925021052649</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033">
-        <v>581.8462223655464</v>
+        <v>568.0131662875169</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>254.2758546335327</v>
+        <v>255.4296281073753</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>245.539767853543</v>
+        <v>250.5663265061799</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036">
-        <v>276.3139791748462</v>
+        <v>291.8651579453661</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>615.6130625671666</v>
+        <v>547.3098476728404</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038">
-        <v>336.0686719907315</v>
+        <v>318.1173738833552</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039">
-        <v>70.954331938162</v>
+        <v>72.22322915482012</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040">
-        <v>297.9313538649616</v>
+        <v>271.9160558916522</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041">
-        <v>295.7516863345305</v>
+        <v>291.0828001420432</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042">
-        <v>163.5817441993072</v>
+        <v>165.3438280425058</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>512.9402147991455</v>
+        <v>446.1323359101892</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044">
-        <v>503.5055220821251</v>
+        <v>497.0653588339316</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>1078.092559354664</v>
+        <v>1024.461371040039</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>394.1577639649482</v>
+        <v>463.5438343902691</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047">
-        <v>249.460007169751</v>
+        <v>315.3279794157806</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>375.7010720629605</v>
+        <v>363.7029291044689</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049">
-        <v>339.0152269923741</v>
+        <v>394.0344047495381</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>506.8291181914447</v>
+        <v>507.827817279296</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051">
-        <v>262.6473375178426</v>
+        <v>264.3047035394379</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>940.4856369303066</v>
+        <v>903.9481229820425</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053">
-        <v>382.1996436823618</v>
+        <v>355.9068790184047</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>2226.990210810578</v>
+        <v>2241.787245590414</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055">
-        <v>382.1964315966738</v>
+        <v>364.8361965362107</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>722.605829365981</v>
+        <v>741.314683473237</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>359.6435528213746</v>
+        <v>357.2707782507425</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>1298.046142100046</v>
+        <v>1298.332340143723</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059">
-        <v>264.2960639114724</v>
+        <v>283.917836372061</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>619.5793377785722</v>
+        <v>614.5772818144884</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061">
-        <v>238.4992639444474</v>
+        <v>264.4632932812947</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062">
-        <v>313.7751795318315</v>
+        <v>299.97881567651</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>225.4409018694458</v>
+        <v>211.1775331639008</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>743.958021010975</v>
+        <v>732.1308358760357</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>265.3997054702557</v>
+        <v>281.6205724294714</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>619.5593203642471</v>
+        <v>675.8065184946488</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>476.8646910649363</v>
+        <v>495.9445448490062</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068">
-        <v>289.6981712475973</v>
+        <v>289.6720782679089</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069">
-        <v>360.4552627534272</v>
+        <v>409.5294281412075</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>406.4320711273213</v>
+        <v>399.2865782159481</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>322.3285691131205</v>
+        <v>316.252380775383</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>417.6364710682495</v>
+        <v>503.816367929034</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073">
-        <v>336.4473127146029</v>
+        <v>277.9342188293743</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074">
-        <v>336.8877388279939</v>
+        <v>342.4814531969136</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075">
-        <v>250.8551483391543</v>
+        <v>253.5202323012042</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076">
-        <v>438.2835428522317</v>
+        <v>416.0073719104745</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077">
-        <v>721.1642416919403</v>
+        <v>762.3054467342624</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>290.4050729547542</v>
+        <v>274.7765260300147</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079">
-        <v>564.1695489787739</v>
+        <v>641.6160345922113</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>340.1783632499025</v>
+        <v>309.2123124542709</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>286.1557119091736</v>
+        <v>327.3936161448913</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>486.2013466946004</v>
+        <v>504.3808526090619</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>315.1519413419322</v>
+        <v>311.60825946485</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>366.4546962674284</v>
+        <v>333.9783650145824</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>178.9128280692329</v>
+        <v>211.9675245157499</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>518.6515821959465</v>
+        <v>512.7418065870899</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>309.5845470280691</v>
+        <v>321.8683733972792</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>333.9053203967998</v>
+        <v>341.9506877760534</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>255.0189439827407</v>
+        <v>258.693830974008</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>263.6288355520366</v>
+        <v>273.8108161795174</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>324.5780853060574</v>
+        <v>311.8695712590912</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>304.1972940603879</v>
+        <v>299.7647733965049</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>214.5791283542943</v>
+        <v>282.3303438974031</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>767.2751282918058</v>
+        <v>759.7175281105577</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>422.4273241934047</v>
+        <v>413.9357817859528</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>395.5561290587658</v>
+        <v>466.6946518057383</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>626.6716856191348</v>
+        <v>618.0584663388806</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>636.2286692509814</v>
+        <v>706.9668534090932</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>445.4004760936984</v>
+        <v>334.5218794443638</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>299.5031957815914</v>
+        <v>289.6251590647088</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>544.1709312453881</v>
+        <v>476.4536484045693</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>431.8094923752523</v>
+        <v>443.0779588723537</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>713.7878535182066</v>
+        <v>557.2206943367391</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>688.1778970654503</v>
+        <v>693.7297788591421</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>361.805035447353</v>
+        <v>377.9953915442279</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>168.7241787658138</v>
+        <v>193.2656622534498</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>302.9791251808252</v>
+        <v>272.0192443998461</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>468.9315393259557</v>
+        <v>423.1977773481265</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>621.4503048191247</v>
+        <v>689.5200180791425</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>377.7234237680483</v>
+        <v>372.1826205189305</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>193.713193176722</v>
+        <v>198.7597707821789</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112">
-        <v>59.54675826987037</v>
+        <v>62.28287647397362</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113">
-        <v>500.9740553770567</v>
+        <v>527.3298664355272</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114">
-        <v>448.6134132878543</v>
+        <v>455.6551113918462</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115">
-        <v>355.8545423615211</v>
+        <v>346.3924836578555</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116">
-        <v>264.2471425104799</v>
+        <v>296.2185153699916</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117">
-        <v>867.0345311810539</v>
+        <v>942.6611734937132</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118">
-        <v>275.4435144361548</v>
+        <v>316.6595102664563</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119">
-        <v>405.1414888613191</v>
+        <v>350.4388811119672</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120">
-        <v>249.2767208107737</v>
+        <v>252.3216196017196</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121">
-        <v>319.0540603066302</v>
+        <v>331.3548653649593</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>318.7193664030027</v>
+        <v>298.159422535683</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123">
-        <v>816.18907499376</v>
+        <v>905.6634579390216</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124">
-        <v>880.5656676359495</v>
+        <v>1091.640529410921</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125">
-        <v>682.7842622401998</v>
+        <v>653.2839457398269</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126">
-        <v>495.6126427583897</v>
+        <v>488.1162661037477</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127">
-        <v>329.17332244577</v>
+        <v>326.7941802873713</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128">
-        <v>761.110067710125</v>
+        <v>760.8350343578146</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129">
-        <v>265.0694077324409</v>
+        <v>263.6257243832544</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130">
-        <v>262.8061605736859</v>
+        <v>275.6812941808479</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131">
-        <v>540.3718627282019</v>
+        <v>458.3484178892346</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132">
-        <v>223.4830642746592</v>
+        <v>228.1539404921502</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133">
-        <v>203.1901812153923</v>
+        <v>172.5135148837931</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134">
-        <v>349.353248706354</v>
+        <v>354.737623577469</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135">
-        <v>212.8640858417255</v>
+        <v>245.2344476916389</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136">
-        <v>276.9081995278793</v>
+        <v>290.1570301236552</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137">
-        <v>232.6437388957834</v>
+        <v>231.3716194071444</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138">
-        <v>487.2938646346097</v>
+        <v>552.1687651489671</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139">
-        <v>73.58168271244705</v>
+        <v>76.29036772851936</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140">
-        <v>167.5271891208274</v>
+        <v>163.6416838526148</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141">
-        <v>786.7687474660869</v>
+        <v>743.3335685539809</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142">
-        <v>235.2789845228074</v>
+        <v>289.0645832585357</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143">
-        <v>617.4255965513254</v>
+        <v>615.4037373947183</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144">
-        <v>463.8837720929047</v>
+        <v>411.1518100724653</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145">
-        <v>548.3909272799015</v>
+        <v>552.4775395526021</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146">
-        <v>404.4869835743322</v>
+        <v>392.3290877136268</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147">
-        <v>355.2916762129075</v>
+        <v>369.395191751971</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148">
-        <v>587.8399564777825</v>
+        <v>629.3404670415742</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149">
-        <v>248.9204568302764</v>
+        <v>275.35401991276</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150">
-        <v>260.3965628375725</v>
+        <v>264.6039363935063</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151">
-        <v>432.2799132333934</v>
+        <v>493.8481885933366</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>366.842480233981</v>
+        <v>334.361933955978</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>457.8956466698248</v>
+        <v>453.6328795635561</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>533.0189073069091</v>
+        <v>451.5764779427253</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>640.4177150863371</v>
+        <v>620.9288960351793</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>250.9230937368607</v>
+        <v>254.8067105253207</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>898.4244811115877</v>
+        <v>833.4445458217358</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>316.93358058123</v>
+        <v>313.2251495820557</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>257.5817430409256</v>
+        <v>250.809313137375</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>408.0919828916624</v>
+        <v>383.8255443011625</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>905.0280513130855</v>
+        <v>852.829117372706</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>222.2572315652066</v>
+        <v>237.7276605937867</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>759.6345041116991</v>
+        <v>837.3517523499415</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>274.8127362171341</v>
+        <v>275.4559925050491</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>300.1711972816432</v>
+        <v>331.7283157306023</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>641.0934289542696</v>
+        <v>711.1758393884897</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>540.7626882598601</v>
+        <v>536.5084187577809</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>272.2164192756256</v>
+        <v>257.5439242633895</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>895.1853655900903</v>
+        <v>794.6459739574647</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>314.5055805676557</v>
+        <v>376.8429175724389</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>297.4439941368171</v>
+        <v>311.1530839915078</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>308.0771852510632</v>
+        <v>326.4945340004202</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>265.3902777768348</v>
+        <v>306.0850251542012</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>646.9613204072386</v>
+        <v>655.0998478441854</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>213.3986247127185</v>
+        <v>232.5340048292078</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>342.0951900216775</v>
+        <v>311.6479408513061</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>354.6581458079754</v>
+        <v>285.9738651266561</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>319.7768846052596</v>
+        <v>403.4509493752031</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>489.6468941558467</v>
+        <v>481.7396927095895</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>318.3513083094508</v>
+        <v>322.8198185848138</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>484.1852029236255</v>
+        <v>677.6486739668427</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>785.0352242129131</v>
+        <v>703.1520748829412</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>399.9874717398362</v>
+        <v>343.7640740852102</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>666.2150601220001</v>
+        <v>651.0652681618742</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>317.3245047722489</v>
+        <v>315.6581988676751</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>483.9351604803964</v>
+        <v>460.1273007988322</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>308.467084628562</v>
+        <v>311.2235321300449</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>1450.233398346512</v>
+        <v>1402.119275992024</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>486.5977739202987</v>
+        <v>477.4673820565125</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>762.7006141054283</v>
+        <v>624.921070937695</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>357.388447446017</v>
+        <v>302.5240543097848</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>357.0411713358401</v>
+        <v>324.650720900788</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>372.4403176106233</v>
+        <v>376.1972036115229</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>299.8183725125444</v>
+        <v>304.7597928826733</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>301.21910304464</v>
+        <v>364.7373525654729</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>323.9792736694232</v>
+        <v>309.0806598436954</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>394.8909796257141</v>
+        <v>426.5377780919503</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>827.4616965270097</v>
+        <v>889.7480204756308</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>701.1023095081757</v>
+        <v>706.5480687694302</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>427.9235366510666</v>
+        <v>449.3671800639735</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>356.0864714233113</v>
+        <v>331.6641788119975</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>324.4589122087383</v>
+        <v>289.1442476428176</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>230.9556032429624</v>
+        <v>228.9426988705113</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>110.2055040131802</v>
+        <v>120.9894552542684</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>380.488832775722</v>
+        <v>379.4269661692672</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>301.2531571774481</v>
+        <v>305.1654031567011</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>222.2280922683744</v>
+        <v>222.1031201620333</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>417.0643160031125</v>
+        <v>406.8433486286549</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>298.8561125946478</v>
+        <v>298.6660581563759</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>734.2045502095551</v>
+        <v>844.357206074577</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>507.9276795294193</v>
+        <v>545.186274157616</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>726.9903386153115</v>
+        <v>710.5041209878964</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>773.2777582651044</v>
+        <v>817.7467400933535</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>350.1302977338031</v>
+        <v>349.8366120915184</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>316.8566167965338</v>
+        <v>316.5498804877848</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>322.6334437555979</v>
+        <v>346.0033480479488</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>591.5343158287766</v>
+        <v>563.1049197393965</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>273.3145368737934</v>
+        <v>392.7031550067929</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>391.9148490329033</v>
+        <v>365.2359653211183</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>200.4211737979453</v>
+        <v>201.7726761378032</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>619.7456441656594</v>
+        <v>585.20683874894</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>373.9061144019498</v>
+        <v>297.3401173900984</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>415.215704204585</v>
+        <v>373.855031376995</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>193.849791181493</v>
+        <v>194.559731651034</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>585.4697773447697</v>
+        <v>511.7322453915232</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>678.0899674856025</v>
+        <v>711.2379548887384</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>441.7370560512186</v>
+        <v>444.207891717649</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>250.8510162635177</v>
+        <v>262.7572605646947</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>396.2086083652134</v>
+        <v>447.3918537113582</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>434.4659871501912</v>
+        <v>495.4446836615923</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>434.0729126409276</v>
+        <v>396.2989351598093</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>489.0017477996901</v>
+        <v>492.0860653718747</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>308.0740628051469</v>
+        <v>297.048915659842</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>539.1921859225043</v>
+        <v>505.6606162308442</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>421.4142672219908</v>
+        <v>452.5139445020945</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>408.5351392087392</v>
+        <v>412.3745602153284</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>873.8000990752671</v>
+        <v>770.5563399702515</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>826.9352265926673</v>
+        <v>689.2900009994502</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>344.0308741178332</v>
+        <v>348.5561159812748</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>309.7715326430034</v>
+        <v>326.3983802323787</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>506.8940404527954</v>
+        <v>473.6989377603954</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242">
-        <v>266.2276770375077</v>
+        <v>264.9739637424621</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>630.6815878756682</v>
+        <v>617.9859051076337</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244">
-        <v>255.0704069756342</v>
+        <v>250.230086537322</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245">
-        <v>3801.977791469216</v>
+        <v>4005.459460009185</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246">
-        <v>289.9576726180939</v>
+        <v>288.5281312517587</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247">
-        <v>614.3402006498445</v>
+        <v>570.2968157564327</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248">
-        <v>218.7242947122351</v>
+        <v>230.2035200935517</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249">
-        <v>276.9961673113285</v>
+        <v>265.1850943688927</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250">
-        <v>677.2918879046985</v>
+        <v>717.354521596465</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251">
-        <v>305.1199390531541</v>
+        <v>338.1308820105154</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252">
-        <v>625.4773121579823</v>
+        <v>603.8144963915933</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>304.6907330872801</v>
+        <v>318.3769258056056</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>247.7204256096394</v>
+        <v>230.1147348844207</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>265.3902777768348</v>
+        <v>306.0850251542012</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>476.0058381302939</v>
+        <v>365.3454186323809</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>1334.836921987229</v>
+        <v>1411.184015805132</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>301.3883032872472</v>
+        <v>297.979425624448</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>330.7600675053121</v>
+        <v>320.8977104520149</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>445.4506218886294</v>
+        <v>443.9069185689054</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>236.866758257997</v>
+        <v>234.9850730867133</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>446.5800137708706</v>
+        <v>408.2204794553449</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>294.1228869895126</v>
+        <v>247.2834433691493</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>971.6738318623039</v>
+        <v>829.0947959406384</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>529.8365797718121</v>
+        <v>584.5911235669901</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>298.8807035780262</v>
+        <v>270.1131831827988</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>345.3352805048809</v>
+        <v>312.1158507887593</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>365.1311868045908</v>
+        <v>390.1444321132465</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269">
-        <v>540.6678536156008</v>
+        <v>477.3791142712217</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270">
-        <v>462.7714971227867</v>
+        <v>432.5519440164359</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271">
-        <v>531.9458556468896</v>
+        <v>521.036094630022</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272">
-        <v>497.8960168772761</v>
+        <v>510.3520851828615</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>238.7358974056464</v>
+        <v>232.3353486627353</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274">
-        <v>305.6818653339804</v>
+        <v>313.7426100514264</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275">
-        <v>299.0981793005576</v>
+        <v>285.0240054844373</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276">
-        <v>429.3352537465348</v>
+        <v>427.7444126915177</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277">
-        <v>280.7033777838246</v>
+        <v>269.7352393002657</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278">
-        <v>305.0187751053511</v>
+        <v>297.1675499923495</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279">
-        <v>903.6543835247759</v>
+        <v>931.0535008123039</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280">
-        <v>406.9893139870519</v>
+        <v>429.1914977740096</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281">
-        <v>602.9988877307204</v>
+        <v>537.8083912899141</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282">
-        <v>591.6242618310355</v>
+        <v>595.1598489437989</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283">
-        <v>339.3893941262486</v>
+        <v>350.1403303120773</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284">
-        <v>714.0054457647481</v>
+        <v>716.606250985139</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285">
-        <v>649.6422559028694</v>
+        <v>666.2892307665012</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>429.6937402287074</v>
+        <v>435.0052247535472</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287">
-        <v>269.632796701196</v>
+        <v>298.8802865622937</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288">
-        <v>249.8019032027949</v>
+        <v>292.7253756553717</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>550.0261029226824</v>
+        <v>495.0285929303058</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290">
-        <v>533.874661940743</v>
+        <v>546.0924935008246</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>419.9135243440497</v>
+        <v>411.5228850760804</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>569.2410859456077</v>
+        <v>644.7216080007142</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>421.7670423896948</v>
+        <v>458.3742803061182</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294">
-        <v>259.5977133542623</v>
+        <v>206.2558343949905</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295">
-        <v>296.6467007228628</v>
+        <v>301.8054384035509</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296">
-        <v>439.749375881171</v>
+        <v>437.8115972501506</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297">
-        <v>296.0067653055198</v>
+        <v>332.3318102371508</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298">
-        <v>703.8715325233712</v>
+        <v>622.7885185830977</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299">
-        <v>469.0900887926054</v>
+        <v>409.9059222324555</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300">
-        <v>130.737371275345</v>
+        <v>140.6340758272277</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301">
-        <v>425.0497456911693</v>
+        <v>412.7312561170033</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302">
-        <v>631.7104524987595</v>
+        <v>587.3515488339208</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303">
-        <v>859.4966124556298</v>
+        <v>707.911643023099</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304">
-        <v>348.6546647131867</v>
+        <v>410.367929311785</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305">
-        <v>153.4065971552669</v>
+        <v>158.6776460258284</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>366.5733610229224</v>
+        <v>356.1710253329894</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307">
-        <v>316.4295859142798</v>
+        <v>321.3948327431856</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308">
-        <v>998.3946434094062</v>
+        <v>1088.294320542809</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309">
-        <v>805.431969425486</v>
+        <v>799.080457194253</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310">
-        <v>561.6560473331875</v>
+        <v>666.4255452995003</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311">
-        <v>841.6922725126526</v>
+        <v>816.8149922665697</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
       <c r="A1312">
-        <v>684.4687820523744</v>
+        <v>696.156036207833</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313">
-        <v>915.9844814029087</v>
+        <v>867.78596608311</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314">
-        <v>303.3523537136123</v>
+        <v>285.8558671352487</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>491.3976308833831</v>
+        <v>503.5115357065437</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316">
-        <v>1141.041931483009</v>
+        <v>1010.192437229351</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
       <c r="A1317">
-        <v>174.4007102936165</v>
+        <v>168.6995368159327</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>334.4643619097607</v>
+        <v>318.270032780194</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319">
-        <v>456.0368689930347</v>
+        <v>387.057166524179</v>
       </c>
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320">
-        <v>492.0431109647703</v>
+        <v>505.3072811883159</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
       <c r="A1321">
-        <v>451.5431141915943</v>
+        <v>445.4158898951109</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322">
-        <v>231.6351295280931</v>
+        <v>242.282106369789</v>
       </c>
     </row>
     <row r="1323" spans="1:1">
       <c r="A1323">
-        <v>331.7506910025225</v>
+        <v>267.2030153665766</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>403.3749513010553</v>
+        <v>382.8965247509801</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325">
-        <v>2136.252532813231</v>
+        <v>2018.65290831062</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
       <c r="A1326">
-        <v>425.9714490049948</v>
+        <v>446.0735779936792</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327">
-        <v>468.7378595760924</v>
+        <v>467.5849452838036</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328">
-        <v>582.7240160684828</v>
+        <v>519.0367936013408</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329">
-        <v>768.5217492215029</v>
+        <v>630.6612565884718</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330">
-        <v>1042.115845829527</v>
+        <v>917.2533910913148</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331">
-        <v>314.7868460754617</v>
+        <v>304.8739690197294</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>628.6622774449188</v>
+        <v>683.0354296652148</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333">
-        <v>1205.281452249266</v>
+        <v>1128.091017755392</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334">
-        <v>904.0299210894784</v>
+        <v>1071.632150890158</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335">
-        <v>290.3672692117406</v>
+        <v>335.4688691881223</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336">
-        <v>267.7171604757534</v>
+        <v>216.3286669145594</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337">
-        <v>297.2853132710146</v>
+        <v>281.7017136867132</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338">
-        <v>284.4540360290453</v>
+        <v>326.7771994416041</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339">
-        <v>411.4866128417947</v>
+        <v>310.4844375755592</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340">
-        <v>121.3147089934133</v>
+        <v>119.7488739144295</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341">
-        <v>230.6827493694672</v>
+        <v>230.6850139407173</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342">
-        <v>313.6588510111918</v>
+        <v>356.8255880140876</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343">
-        <v>421.1133266642881</v>
+        <v>461.127327614177</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344">
-        <v>540.7934478699452</v>
+        <v>494.3696847509015</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345">
-        <v>235.6854411141502</v>
+        <v>238.9385385207207</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346">
-        <v>1301.997436730383</v>
+        <v>1031.166392434276</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347">
-        <v>175.0179473647414</v>
+        <v>171.9423957740896</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348">
-        <v>255.1094007767589</v>
+        <v>253.9078947439082</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349">
-        <v>286.7437217559823</v>
+        <v>276.5452716444622</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350">
-        <v>536.2723193310551</v>
+        <v>566.7134270428426</v>
       </c>
     </row>
     <row r="1351" spans="1:1">
       <c r="A1351">
-        <v>390.8462328681163</v>
+        <v>334.1172631833292</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352">
-        <v>491.3697134951711</v>
+        <v>511.846436155423</v>
       </c>
     </row>
     <row r="1353" spans="1:1">
       <c r="A1353">
-        <v>452.2325789773971</v>
+        <v>468.7705166359571</v>
       </c>
     </row>
     <row r="1354" spans="1:1">
       <c r="A1354">
-        <v>1014.147877661525</v>
+        <v>1157.588791361949</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355">
-        <v>435.3048337475794</v>
+        <v>423.2236104589667</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356">
-        <v>361.3433366316985</v>
+        <v>292.8542817406395</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357">
-        <v>428.23127762464</v>
+        <v>400.0990813889952</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358">
-        <v>444.2762632641848</v>
+        <v>431.2590340620455</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359">
-        <v>513.6497829504771</v>
+        <v>533.3387308962579</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360">
-        <v>933.9967259148242</v>
+        <v>923.9752302732579</v>
       </c>
     </row>
     <row r="1361" spans="1:1">
       <c r="A1361">
-        <v>482.3095366696921</v>
+        <v>525.1750361317388</v>
       </c>
     </row>
     <row r="1362" spans="1:1">
       <c r="A1362">
-        <v>810.8083406540559</v>
+        <v>787.2383559859898</v>
       </c>
     </row>
     <row r="1363" spans="1:1">
       <c r="A1363">
-        <v>290.6431785383897</v>
+        <v>307.9596386403204</v>
       </c>
     </row>
     <row r="1364" spans="1:1">
       <c r="A1364">
-        <v>711.7929554740824</v>
+        <v>730.6161277779457</v>
       </c>
     </row>
     <row r="1365" spans="1:1">
       <c r="A1365">
-        <v>247.6261419951361</v>
+        <v>260.3354120697845</v>
       </c>
     </row>
     <row r="1366" spans="1:1">
       <c r="A1366">
-        <v>768.1599894927583</v>
+        <v>784.2620631557419</v>
       </c>
     </row>
     <row r="1367" spans="1:1">
       <c r="A1367">
-        <v>357.6017343006529</v>
+        <v>345.5216765653771</v>
       </c>
     </row>
     <row r="1368" spans="1:1">
       <c r="A1368">
-        <v>641.5673206920302</v>
+        <v>662.0577869243926</v>
       </c>
     </row>
     <row r="1369" spans="1:1">
       <c r="A1369">
-        <v>979.5728822675555</v>
+        <v>1136.964926883437</v>
       </c>
     </row>
     <row r="1370" spans="1:1">
       <c r="A1370">
-        <v>517.5043837279422</v>
+        <v>581.5351244061699</v>
       </c>
     </row>
     <row r="1371" spans="1:1">
       <c r="A1371">
-        <v>410.9481544277815</v>
+        <v>411.0698219192586</v>
       </c>
     </row>
     <row r="1372" spans="1:1">
       <c r="A1372">
-        <v>339.8009901382605</v>
+        <v>305.67254113449</v>
       </c>
     </row>
     <row r="1373" spans="1:1">
       <c r="A1373">
-        <v>214.1020480602489</v>
+        <v>216.5182145721317</v>
       </c>
     </row>
     <row r="1374" spans="1:1">
       <c r="A1374">
-        <v>387.0599819618615</v>
+        <v>462.3551318180732</v>
       </c>
     </row>
     <row r="1375" spans="1:1">
       <c r="A1375">
-        <v>577.5541738601588</v>
+        <v>557.2522591517942</v>
       </c>
     </row>
     <row r="1376" spans="1:1">
       <c r="A1376">
-        <v>1620.008923563023</v>
+        <v>1283.070103409965</v>
       </c>
     </row>
     <row r="1377" spans="1:1">
       <c r="A1377">
-        <v>388.3393387672868</v>
+        <v>377.5804982778014</v>
       </c>
     </row>
     <row r="1378" spans="1:1">
       <c r="A1378">
-        <v>1345.830004039892</v>
+        <v>1305.185285560299</v>
       </c>
     </row>
     <row r="1379" spans="1:1">
       <c r="A1379">
-        <v>243.485589196606</v>
+        <v>220.889404143077</v>
       </c>
     </row>
     <row r="1380" spans="1:1">
       <c r="A1380">
-        <v>463.5285680978363</v>
+        <v>434.0464969885352</v>
       </c>
     </row>
     <row r="1381" spans="1:1">
       <c r="A1381">
-        <v>320.9849539325429</v>
+        <v>332.8643126149166</v>
       </c>
     </row>
     <row r="1382" spans="1:1">
       <c r="A1382">
-        <v>315.6320202563624</v>
+        <v>332.5097482510005</v>
       </c>
     </row>
     <row r="1383" spans="1:1">
       <c r="A1383">
-        <v>262.8134786525865</v>
+        <v>245.287787197675</v>
       </c>
     </row>
     <row r="1384" spans="1:1">
       <c r="A1384">
-        <v>238.3218283844253</v>
+        <v>241.3190771558341</v>
       </c>
     </row>
     <row r="1385" spans="1:1">
       <c r="A1385">
-        <v>871.2033276531048</v>
+        <v>809.2149335156215</v>
       </c>
     </row>
     <row r="1386" spans="1:1">
       <c r="A1386">
-        <v>333.3034317277902</v>
+        <v>285.8762666334403</v>
       </c>
     </row>
     <row r="1387" spans="1:1">
       <c r="A1387">
-        <v>433.5628192880831</v>
+        <v>446.2705475859414</v>
       </c>
     </row>
     <row r="1388" spans="1:1">
       <c r="A1388">
-        <v>584.0893364609343</v>
+        <v>599.9423382396151</v>
       </c>
     </row>
     <row r="1389" spans="1:1">
       <c r="A1389">
-        <v>839.4248410432408</v>
+        <v>769.9545770081381</v>
       </c>
     </row>
     <row r="1390" spans="1:1">
       <c r="A1390">
-        <v>278.0854662156771</v>
+        <v>310.0433865071056</v>
       </c>
     </row>
     <row r="1391" spans="1:1">
       <c r="A1391">
-        <v>184.4201968821097</v>
+        <v>153.624855845959</v>
       </c>
     </row>
     <row r="1392" spans="1:1">
       <c r="A1392">
-        <v>687.9028845071413</v>
+        <v>642.6721724249527</v>
       </c>
     </row>
     <row r="1393" spans="1:1">
       <c r="A1393">
-        <v>379.3103570432095</v>
+        <v>381.5818061717005</v>
       </c>
     </row>
     <row r="1394" spans="1:1">
       <c r="A1394">
-        <v>475.6414162786533</v>
+        <v>525.3554132843597</v>
       </c>
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395">
-        <v>984.6081200973786</v>
+        <v>1050.631001604566</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
       <c r="A1396">
-        <v>305.0071760991589</v>
+        <v>297.4635264847271</v>
       </c>
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397">
-        <v>217.3731788195618</v>
+        <v>232.8748968792184</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
       <c r="A1398">
-        <v>445.5955485693518</v>
+        <v>503.00088547726</v>
       </c>
     </row>
     <row r="1399" spans="1:1">
       <c r="A1399">
-        <v>268.1464293993904</v>
+        <v>268.7468012947814</v>
       </c>
     </row>
     <row r="1400" spans="1:1">
       <c r="A1400">
-        <v>337.9912691230147</v>
+        <v>342.9293487418761</v>
       </c>
     </row>
     <row r="1401" spans="1:1">
       <c r="A1401">
-        <v>379.8763750689479</v>
+        <v>472.9546919111628</v>
       </c>
     </row>
     <row r="1402" spans="1:1">
       <c r="A1402">
-        <v>909.5814466133687</v>
+        <v>918.8869148902089</v>
       </c>
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403">
-        <v>946.5176290346012</v>
+        <v>950.9192818425765</v>
       </c>
     </row>
     <row r="1404" spans="1:1">
       <c r="A1404">
-        <v>910.0205382072427</v>
+        <v>842.6284463056153</v>
       </c>
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405">
-        <v>110.7638383404353</v>
+        <v>120.0332124716115</v>
       </c>
     </row>
     <row r="1406" spans="1:1">
       <c r="A1406">
-        <v>403.2947575908072</v>
+        <v>362.6247458826778</v>
       </c>
     </row>
     <row r="1407" spans="1:1">
       <c r="A1407">
-        <v>258.9494415046632</v>
+        <v>254.7080454295577</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
       <c r="A1408">
-        <v>305.9891126232521</v>
+        <v>310.7247470468009</v>
       </c>
     </row>
     <row r="1409" spans="1:1">
       <c r="A1409">
-        <v>217.4464101902855</v>
+        <v>218.8485856721182</v>
       </c>
     </row>
     <row r="1410" spans="1:1">
       <c r="A1410">
-        <v>1463.258021162988</v>
+        <v>1464.614247270496</v>
       </c>
     </row>
     <row r="1411" spans="1:1">
       <c r="A1411">
-        <v>527.5885776848028</v>
+        <v>499.0415027596806</v>
       </c>
     </row>
     <row r="1412" spans="1:1">
       <c r="A1412">
-        <v>579.7165813440324</v>
+        <v>619.6670390273222</v>
       </c>
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413">
-        <v>569.1739490790912</v>
+        <v>561.7356953963151</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
       <c r="A1414">
-        <v>689.449885646004</v>
+        <v>706.7077931295989</v>
       </c>
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415">
-        <v>626.1464576321735</v>
+        <v>615.684296339335</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
       <c r="A1416">
-        <v>116.898373423607</v>
+        <v>143.2101764698212</v>
       </c>
     </row>
     <row r="1417" spans="1:1">
       <c r="A1417">
-        <v>363.9141717432262</v>
+        <v>369.2949612304313</v>
       </c>
     </row>
     <row r="1418" spans="1:1">
       <c r="A1418">
-        <v>293.5322953474396</v>
+        <v>305.9337600131713</v>
       </c>
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419">
-        <v>367.2977306201045</v>
+        <v>337.9786301095831</v>
       </c>
     </row>
     <row r="1420" spans="1:1">
       <c r="A1420">
-        <v>413.9279507555444</v>
+        <v>417.3507923502814</v>
       </c>
     </row>
     <row r="1421" spans="1:1">
       <c r="A1421">
-        <v>456.0404744598179</v>
+        <v>423.2142357430922</v>
       </c>
     </row>
     <row r="1422" spans="1:1">
       <c r="A1422">
-        <v>395.1963195285311</v>
+        <v>388.0686996677713</v>
       </c>
     </row>
     <row r="1423" spans="1:1">
       <c r="A1423">
-        <v>196.2560914566344</v>
+        <v>197.2227900918738</v>
       </c>
     </row>
     <row r="1424" spans="1:1">
       <c r="A1424">
-        <v>1243.090175981548</v>
+        <v>887.4512998323733</v>
       </c>
     </row>
     <row r="1425" spans="1:1">
       <c r="A1425">
-        <v>721.5149199162303</v>
+        <v>705.1025957226876</v>
       </c>
     </row>
     <row r="1426" spans="1:1">
       <c r="A1426">
-        <v>304.167175885407</v>
+        <v>299.4460102952185</v>
       </c>
     </row>
     <row r="1427" spans="1:1">
       <c r="A1427">
-        <v>282.6118160407238</v>
+        <v>270.6300089285688</v>
       </c>
     </row>
     <row r="1428" spans="1:1">
       <c r="A1428">
-        <v>257.9944051727215</v>
+        <v>250.5322546765271</v>
       </c>
     </row>
     <row r="1429" spans="1:1">
       <c r="A1429">
-        <v>492.5861004900107</v>
+        <v>441.4230037677245</v>
       </c>
     </row>
     <row r="1430" spans="1:1">
       <c r="A1430">
-        <v>308.1285363145008</v>
+        <v>311.1610334830902</v>
       </c>
     </row>
     <row r="1431" spans="1:1">
       <c r="A1431">
-        <v>978.5761758319968</v>
+        <v>931.7230654185294</v>
       </c>
     </row>
     <row r="1432" spans="1:1">
       <c r="A1432">
-        <v>768.358218233347</v>
+        <v>778.073774920666</v>
       </c>
     </row>
     <row r="1433" spans="1:1">
       <c r="A1433">
-        <v>163.1527843728123</v>
+        <v>160.1872655377764</v>
       </c>
     </row>
     <row r="1434" spans="1:1">
       <c r="A1434">
-        <v>333.6129841707902</v>
+        <v>316.60983957396</v>
       </c>
     </row>
     <row r="1435" spans="1:1">
       <c r="A1435">
-        <v>261.0636892981275</v>
+        <v>264.5839573597162</v>
       </c>
     </row>
     <row r="1436" spans="1:1">
       <c r="A1436">
-        <v>630.0330056006286</v>
+        <v>570.5834211323908</v>
       </c>
     </row>
     <row r="1437" spans="1:1">
       <c r="A1437">
-        <v>803.7543027790852</v>
+        <v>794.6432509560407</v>
       </c>
     </row>
     <row r="1438" spans="1:1">
       <c r="A1438">
-        <v>501.1200547974736</v>
+        <v>468.0219868354895</v>
       </c>
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439">
-        <v>251.3398067564652</v>
+        <v>268.0851730254848</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
       <c r="A1440">
-        <v>289.4853093367436</v>
+        <v>252.6597444895842</v>
       </c>
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441">
-        <v>263.8460051535058</v>
+        <v>260.8782462217316</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
       <c r="A1442">
-        <v>241.6254612963601</v>
+        <v>227.751950618333</v>
       </c>
     </row>
     <row r="1443" spans="1:1">
       <c r="A1443">
-        <v>1593.395607717192</v>
+        <v>1506.494811403953</v>
       </c>
     </row>
     <row r="1444" spans="1:1">
       <c r="A1444">
-        <v>344.4418857275073</v>
+        <v>347.2642038332253</v>
       </c>
     </row>
     <row r="1445" spans="1:1">
       <c r="A1445">
-        <v>906.3332865870053</v>
+        <v>859.5044015794365</v>
       </c>
     </row>
     <row r="1446" spans="1:1">
       <c r="A1446">
-        <v>549.0685894845617</v>
+        <v>611.6163292526941</v>
       </c>
     </row>
     <row r="1447" spans="1:1">
       <c r="A1447">
-        <v>124.4060842837277</v>
+        <v>126.2660913331534</v>
       </c>
     </row>
     <row r="1448" spans="1:1">
       <c r="A1448">
-        <v>313.7342702697391</v>
+        <v>320.4298243525579</v>
       </c>
     </row>
     <row r="1449" spans="1:1">
       <c r="A1449">
-        <v>246.490012698979</v>
+        <v>244.0246290433522</v>
       </c>
     </row>
     <row r="1450" spans="1:1">
       <c r="A1450">
-        <v>267.8735420227941</v>
+        <v>341.5644439397191</v>
       </c>
     </row>
     <row r="1451" spans="1:1">
       <c r="A1451">
-        <v>677.8294064925575</v>
+        <v>651.6849601574016</v>
       </c>
     </row>
     <row r="1452" spans="1:1">
       <c r="A1452">
-        <v>144.4849408518489</v>
+        <v>130.6294798603233</v>
       </c>
     </row>
     <row r="1453" spans="1:1">
       <c r="A1453">
-        <v>1338.248178064552</v>
+        <v>1242.912429794723</v>
       </c>
     </row>
     <row r="1454" spans="1:1">
       <c r="A1454">
-        <v>526.0950931941703</v>
+        <v>491.6758234248993</v>
       </c>
     </row>
     <row r="1455" spans="1:1">
       <c r="A1455">
-        <v>903.6543835247759</v>
+        <v>931.0535008123039</v>
       </c>
     </row>
     <row r="1456" spans="1:1">
       <c r="A1456">
-        <v>133.7031266168985</v>
+        <v>129.6177373239786</v>
       </c>
     </row>
     <row r="1457" spans="1:1">
       <c r="A1457">
-        <v>324.1186581276091</v>
+        <v>294.7795476278778</v>
       </c>
     </row>
     <row r="1458" spans="1:1">
       <c r="A1458">
-        <v>414.4123165745336</v>
+        <v>445.858070864545</v>
       </c>
     </row>
     <row r="1459" spans="1:1">
       <c r="A1459">
-        <v>472.3057114593973</v>
+        <v>479.9406224227191</v>
       </c>
     </row>
     <row r="1460" spans="1:1">
       <c r="A1460">
-        <v>2357.813899789942</v>
+        <v>2390.037392809944</v>
       </c>
     </row>
     <row r="1461" spans="1:1">
       <c r="A1461">
-        <v>702.7540230751196</v>
+        <v>741.4656720331682</v>
       </c>
     </row>
     <row r="1462" spans="1:1">
       <c r="A1462">
-        <v>420.163214146585</v>
+        <v>397.4173973339753</v>
       </c>
     </row>
     <row r="1463" spans="1:1">
       <c r="A1463">
-        <v>333.7064335031644</v>
+        <v>382.0364584021792</v>
       </c>
     </row>
     <row r="1464" spans="1:1">
       <c r="A1464">
-        <v>676.0282798276284</v>
+        <v>666.682748221824</v>
       </c>
     </row>
     <row r="1465" spans="1:1">
       <c r="A1465">
-        <v>274.1071648960462</v>
+        <v>242.806218810401</v>
       </c>
     </row>
     <row r="1466" spans="1:1">
       <c r="A1466">
-        <v>1181.523138142761</v>
+        <v>1579.018488996704</v>
       </c>
     </row>
     <row r="1467" spans="1:1">
       <c r="A1467">
-        <v>301.499410754992</v>
+        <v>324.1717324584441</v>
       </c>
     </row>
     <row r="1468" spans="1:1">
       <c r="A1468">
-        <v>590.8532890617246</v>
+        <v>581.6708545163767</v>
       </c>
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469">
-        <v>162.1482131325357</v>
+        <v>165.3104430776492</v>
       </c>
     </row>
     <row r="1470" spans="1:1">
       <c r="A1470">
-        <v>261.3407250577328</v>
+        <v>216.537095804694</v>
       </c>
     </row>
     <row r="1471" spans="1:1">
       <c r="A1471">
-        <v>266.3656162284388</v>
+        <v>235.8502267964944</v>
       </c>
     </row>
     <row r="1472" spans="1:1">
       <c r="A1472">
-        <v>510.761280786515</v>
+        <v>502.1906541770809</v>
       </c>
     </row>
     <row r="1473" spans="1:1">
       <c r="A1473">
-        <v>338.1375173290226</v>
+        <v>528.6640953255263</v>
       </c>
     </row>
     <row r="1474" spans="1:1">
       <c r="A1474">
-        <v>741.5970681656272</v>
+        <v>780.6615212967959</v>
       </c>
     </row>
     <row r="1475" spans="1:1">
       <c r="A1475">
-        <v>119.0347824111668</v>
+        <v>101.252599017968</v>
       </c>
     </row>
     <row r="1476" spans="1:1">
       <c r="A1476">
-        <v>392.6986844807136</v>
+        <v>417.7182285325491</v>
       </c>
     </row>
     <row r="1477" spans="1:1">
       <c r="A1477">
-        <v>302.6883078249325</v>
+        <v>291.1364100019018</v>
       </c>
     </row>
     <row r="1478" spans="1:1">
       <c r="A1478">
-        <v>376.3034506112302</v>
+        <v>307.1107278451896</v>
       </c>
     </row>
     <row r="1479" spans="1:1">
       <c r="A1479">
-        <v>266.6238845409183</v>
+        <v>275.6698805903436</v>
       </c>
     </row>
     <row r="1480" spans="1:1">
       <c r="A1480">
-        <v>390.7837154162905</v>
+        <v>348.1460387101686</v>
       </c>
     </row>
     <row r="1481" spans="1:1">
       <c r="A1481">
-        <v>482.3308017565053</v>
+        <v>453.1107610140822</v>
       </c>
     </row>
     <row r="1482" spans="1:1">
       <c r="A1482">
-        <v>1023.829433939922</v>
+        <v>1004.145442518607</v>
       </c>
     </row>
     <row r="1483" spans="1:1">
       <c r="A1483">
-        <v>437.9576771580111</v>
+        <v>426.1468862947955</v>
       </c>
     </row>
     <row r="1484" spans="1:1">
       <c r="A1484">
-        <v>157.7497263400099</v>
+        <v>143.7115062632421</v>
       </c>
     </row>
     <row r="1485" spans="1:1">
       <c r="A1485">
-        <v>891.7021779706751</v>
+        <v>922.7297297390537</v>
       </c>
     </row>
     <row r="1486" spans="1:1">
       <c r="A1486">
-        <v>718.8672684387903</v>
+        <v>708.5660457955526</v>
       </c>
     </row>
     <row r="1487" spans="1:1">
       <c r="A1487">
-        <v>307.4459341351908</v>
+        <v>314.8660087844567</v>
       </c>
     </row>
     <row r="1488" spans="1:1">
       <c r="A1488">
-        <v>308.528062059434</v>
+        <v>260.8804663850332</v>
       </c>
     </row>
     <row r="1489" spans="1:1">
       <c r="A1489">
-        <v>333.3631010014222</v>
+        <v>364.5540388808669</v>
       </c>
     </row>
     <row r="1490" spans="1:1">
       <c r="A1490">
-        <v>565.8583571170316</v>
+        <v>520.4695836520683</v>
       </c>
     </row>
     <row r="1491" spans="1:1">
       <c r="A1491">
-        <v>570.6351517480689</v>
+        <v>483.3412575294472</v>
       </c>
     </row>
     <row r="1492" spans="1:1">
       <c r="A1492">
-        <v>597.1475630828503</v>
+        <v>631.4980282586833</v>
       </c>
     </row>
     <row r="1493" spans="1:1">
       <c r="A1493">
-        <v>279.3338013500782</v>
+        <v>295.6160444854954</v>
       </c>
     </row>
     <row r="1494" spans="1:1">
       <c r="A1494">
-        <v>590.1404002172198</v>
+        <v>552.1759946139618</v>
       </c>
     </row>
     <row r="1495" spans="1:1">
       <c r="A1495">
-        <v>637.1507786798614</v>
+        <v>518.670105605189</v>
       </c>
     </row>
     <row r="1496" spans="1:1">
       <c r="A1496">
-        <v>909.6663734737094</v>
+        <v>957.6268740131129</v>
       </c>
     </row>
     <row r="1497" spans="1:1">
       <c r="A1497">
-        <v>578.4397111589947</v>
+        <v>628.2094638202385</v>
       </c>
     </row>
     <row r="1498" spans="1:1">
       <c r="A1498">
-        <v>259.8122769824085</v>
+        <v>282.8447651307304</v>
       </c>
     </row>
     <row r="1499" spans="1:1">
       <c r="A1499">
-        <v>2668.878124283956</v>
+        <v>2647.821756018928</v>
       </c>
     </row>
     <row r="1500" spans="1:1">
       <c r="A1500">
-        <v>278.7172844122026</v>
+        <v>280.5765931720749</v>
       </c>
     </row>
     <row r="1501" spans="1:1">
       <c r="A1501">
-        <v>441.9904289336009</v>
+        <v>378.5829176150118</v>
       </c>
     </row>
     <row r="1502" spans="1:1">
       <c r="A1502">
-        <v>254.2885963541075</v>
+        <v>235.7236129868901</v>
       </c>
     </row>
     <row r="1503" spans="1:1">
       <c r="A1503">
-        <v>167.1516107853876</v>
+        <v>169.1072195561859</v>
       </c>
     </row>
     <row r="1504" spans="1:1">
       <c r="A1504">
-        <v>327.8530146271659</v>
+        <v>343.5985821517467</v>
       </c>
     </row>
     <row r="1505" spans="1:1">
       <c r="A1505">
-        <v>582.3740002174736</v>
+        <v>599.3556117920564</v>
       </c>
     </row>
     <row r="1506" spans="1:1">
       <c r="A1506">
-        <v>856.0317182719699</v>
+        <v>782.3948647262895</v>
       </c>
     </row>
     <row r="1507" spans="1:1">
       <c r="A1507">
-        <v>269.962283825503</v>
+        <v>263.7025959142933</v>
       </c>
     </row>
     <row r="1508" spans="1:1">
       <c r="A1508">
-        <v>285.1223119111893</v>
+        <v>288.5032154908268</v>
       </c>
     </row>
     <row r="1509" spans="1:1">
       <c r="A1509">
-        <v>982.3147130697266</v>
+        <v>806.1281298436593</v>
       </c>
     </row>
     <row r="1510" spans="1:1">
       <c r="A1510">
-        <v>397.4371874568316</v>
+        <v>436.2443464078447</v>
       </c>
     </row>
     <row r="1511" spans="1:1">
       <c r="A1511">
-        <v>426.7075672534054</v>
+        <v>446.3657176264918</v>
       </c>
     </row>
     <row r="1512" spans="1:1">
       <c r="A1512">
-        <v>1553.134726147597</v>
+        <v>1199.911919460116</v>
       </c>
     </row>
     <row r="1513" spans="1:1">
       <c r="A1513">
-        <v>390.753185523799</v>
+        <v>396.7756625400599</v>
       </c>
     </row>
     <row r="1514" spans="1:1">
       <c r="A1514">
-        <v>123.2810590531653</v>
+        <v>126.1389152217205</v>
       </c>
     </row>
     <row r="1515" spans="1:1">
       <c r="A1515">
-        <v>146.7980420002997</v>
+        <v>126.7741166795637</v>
       </c>
     </row>
     <row r="1516" spans="1:1">
       <c r="A1516">
-        <v>305.940990301615</v>
+        <v>317.185094154797</v>
       </c>
     </row>
     <row r="1517" spans="1:1">
       <c r="A1517">
-        <v>714.613505754572</v>
+        <v>732.4528531687872</v>
       </c>
     </row>
     <row r="1518" spans="1:1">
       <c r="A1518">
-        <v>266.3397039172085</v>
+        <v>264.1320604885418</v>
       </c>
     </row>
     <row r="1519" spans="1:1">
       <c r="A1519">
-        <v>254.2076171955851</v>
+        <v>247.7879898897775</v>
       </c>
     </row>
     <row r="1520" spans="1:1">
       <c r="A1520">
-        <v>432.7788262147445</v>
+        <v>437.9928328943496</v>
       </c>
     </row>
     <row r="1521" spans="1:1">
       <c r="A1521">
-        <v>316.7072788738085</v>
+        <v>325.6804365440573</v>
       </c>
     </row>
     <row r="1522" spans="1:1">
       <c r="A1522">
-        <v>120.6009960299623</v>
+        <v>114.5074834376294</v>
       </c>
     </row>
     <row r="1523" spans="1:1">
       <c r="A1523">
-        <v>1146.546968215433</v>
+        <v>920.5400305081115</v>
       </c>
     </row>
     <row r="1524" spans="1:1">
       <c r="A1524">
-        <v>335.4736445221527</v>
+        <v>399.1757752680203</v>
       </c>
     </row>
     <row r="1525" spans="1:1">
       <c r="A1525">
-        <v>246.6977885608891</v>
+        <v>280.9477849247944</v>
       </c>
     </row>
     <row r="1526" spans="1:1">
       <c r="A1526">
-        <v>601.1492447573487</v>
+        <v>612.8775210354886</v>
       </c>
     </row>
     <row r="1527" spans="1:1">
       <c r="A1527">
-        <v>473.5464244223158</v>
+        <v>477.294435313593</v>
       </c>
     </row>
     <row r="1528" spans="1:1">
       <c r="A1528">
-        <v>272.9079179276732</v>
+        <v>353.1274840922221</v>
       </c>
     </row>
     <row r="1529" spans="1:1">
       <c r="A1529">
-        <v>599.3545633446255</v>
+        <v>693.9954366249101</v>
       </c>
     </row>
     <row r="1530" spans="1:1">
       <c r="A1530">
-        <v>916.7793017813171</v>
+        <v>885.2305254190456</v>
       </c>
     </row>
     <row r="1531" spans="1:1">
       <c r="A1531">
-        <v>294.8178509153076</v>
+        <v>311.3220177717804</v>
       </c>
     </row>
     <row r="1532" spans="1:1">
       <c r="A1532">
-        <v>1061.877137606728</v>
+        <v>995.1472299520831</v>
       </c>
     </row>
     <row r="1533" spans="1:1">
       <c r="A1533">
-        <v>372.1983548203343</v>
+        <v>355.76814652837</v>
       </c>
     </row>
     <row r="1534" spans="1:1">
       <c r="A1534">
-        <v>446.3933844190371</v>
+        <v>466.1582157633405</v>
       </c>
     </row>
     <row r="1535" spans="1:1">
       <c r="A1535">
-        <v>421.5118931261778</v>
+        <v>380.3646283105574</v>
       </c>
     </row>
     <row r="1536" spans="1:1">
       <c r="A1536">
-        <v>602.7855618982776</v>
+        <v>544.20307135213</v>
       </c>
     </row>
     <row r="1537" spans="1:1">
       <c r="A1537">
-        <v>597.9560260893381</v>
+        <v>637.2364693536832</v>
       </c>
     </row>
     <row r="1538" spans="1:1">
       <c r="A1538">
-        <v>286.7785920230616</v>
+        <v>277.3092158202256</v>
       </c>
     </row>
     <row r="1539" spans="1:1">
       <c r="A1539">
-        <v>497.8917710046174</v>
+        <v>551.3621778470294</v>
       </c>
     </row>
     <row r="1540" spans="1:1">
       <c r="A1540">
-        <v>827.3927555839313</v>
+        <v>894.9821950860937</v>
       </c>
     </row>
     <row r="1541" spans="1:1">
       <c r="A1541">
-        <v>557.0069771550874</v>
+        <v>638.243370968808</v>
       </c>
     </row>
     <row r="1542" spans="1:1">
       <c r="A1542">
-        <v>465.313916335401</v>
+        <v>408.3723798290049</v>
       </c>
     </row>
     <row r="1543" spans="1:1">
       <c r="A1543">
-        <v>439.6705773309557</v>
+        <v>446.5862580090099</v>
       </c>
     </row>
     <row r="1544" spans="1:1">
       <c r="A1544">
-        <v>249.9179657072874</v>
+        <v>262.2988181891986</v>
       </c>
     </row>
     <row r="1545" spans="1:1">
       <c r="A1545">
-        <v>404.3700755397032</v>
+        <v>425.7360064384055</v>
       </c>
     </row>
     <row r="1546" spans="1:1">
       <c r="A1546">
-        <v>892.3308701187998</v>
+        <v>887.7812695381728</v>
       </c>
     </row>
     <row r="1547" spans="1:1">
       <c r="A1547">
-        <v>708.6545554646949</v>
+        <v>654.8405472132474</v>
       </c>
     </row>
     <row r="1548" spans="1:1">
       <c r="A1548">
-        <v>178.0039087468755</v>
+        <v>173.2280788733057</v>
       </c>
     </row>
     <row r="1549" spans="1:1">
       <c r="A1549">
-        <v>741.7423093828045</v>
+        <v>740.659036952981</v>
       </c>
     </row>
     <row r="1550" spans="1:1">
       <c r="A1550">
-        <v>293.7113473675191</v>
+        <v>282.8369681975584</v>
       </c>
     </row>
     <row r="1551" spans="1:1">
       <c r="A1551">
-        <v>263.6076114581882</v>
+        <v>203.4307637263913</v>
       </c>
     </row>
     <row r="1552" spans="1:1">
       <c r="A1552">
-        <v>2358.86353860454</v>
+        <v>2353.81188016864</v>
       </c>
     </row>
     <row r="1553" spans="1:1">
       <c r="A1553">
-        <v>538.4813814736266</v>
+        <v>603.8774015188021</v>
       </c>
     </row>
     <row r="1554" spans="1:1">
       <c r="A1554">
-        <v>540.7336031383803</v>
+        <v>521.2671981184776</v>
       </c>
     </row>
     <row r="1555" spans="1:1">
       <c r="A1555">
-        <v>262.7885807417541</v>
+        <v>240.320907334476</v>
       </c>
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556">
-        <v>815.789046475252</v>
+        <v>795.3990455773679</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
       <c r="A1557">
-        <v>1704.916639577582</v>
+        <v>1534.372695026698</v>
       </c>
     </row>
     <row r="1558" spans="1:1">
       <c r="A1558">
-        <v>182.4320137413407</v>
+        <v>174.6188771727285</v>
       </c>
     </row>
     <row r="1559" spans="1:1">
       <c r="A1559">
-        <v>488.0810757188005</v>
+        <v>468.8080265004615</v>
       </c>
     </row>
     <row r="1560" spans="1:1">
       <c r="A1560">
-        <v>518.4750221016631</v>
+        <v>455.4181698221261</v>
       </c>
     </row>
     <row r="1561" spans="1:1">
       <c r="A1561">
-        <v>871.7171087367244</v>
+        <v>835.7428735401563</v>
       </c>
     </row>
   </sheetData>

--- a/answer8.xlsx
+++ b/answer8.xlsx
@@ -387,7802 +387,7802 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>423.8812218387221</v>
+        <v>470.5264091568907</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1121.283980657221</v>
+        <v>1081.017503590682</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>319.7651227135312</v>
+        <v>328.1305095894533</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>883.5104332441521</v>
+        <v>781.8053951863153</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>342.6650737808268</v>
+        <v>357.1848958081957</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>371.6602239662494</v>
+        <v>473.2480623673121</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>602.723878387846</v>
+        <v>587.6329020602548</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>362.4906728660072</v>
+        <v>423.7504834154294</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>429.5610742944298</v>
+        <v>407.245850490561</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>351.5667532591458</v>
+        <v>409.006122218576</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>297.0166570401888</v>
+        <v>302.0192976261815</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>231.7918922106933</v>
+        <v>213.7625008203428</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>200.4225969589705</v>
+        <v>201.857716334359</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>599.7502009382633</v>
+        <v>551.2599894867265</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>358.6591962710772</v>
+        <v>384.9604450329023</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>710.4468483024765</v>
+        <v>735.6272284206959</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>350.0791572542277</v>
+        <v>349.1186596664983</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1092.9629839399</v>
+        <v>966.871510125071</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>464.301425980161</v>
+        <v>499.9209623145143</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>285.7456181987377</v>
+        <v>354.493100882641</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>411.3315821689977</v>
+        <v>373.0191846884277</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>397.6835843849627</v>
+        <v>441.4202921244679</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>686.5808537145767</v>
+        <v>663.0863925104462</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>737.6261025435731</v>
+        <v>683.2069453438471</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>347.3295858125046</v>
+        <v>343.9392819095024</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>422.4775959259257</v>
+        <v>409.047524981853</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>287.2692792253839</v>
+        <v>310.8014117928054</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>60.85360110961366</v>
+        <v>74.22163773927163</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>391.348316766796</v>
+        <v>341.4573712908994</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>339.1568244986327</v>
+        <v>325.6271043191068</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>330.484012767467</v>
+        <v>326.3188546515161</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>285.3120504686433</v>
+        <v>276.3200557565037</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>311.2616804087629</v>
+        <v>286.1320933867497</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>178.3254446267001</v>
+        <v>182.0424702116104</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>900.6594637698219</v>
+        <v>942.4713309427119</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>348.8358246388248</v>
+        <v>360.369190682899</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>245.1795435895257</v>
+        <v>290.0313755656235</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>150.5769161420791</v>
+        <v>154.1974395472527</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>2796.344906464574</v>
+        <v>2161.282764070873</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>338.6293410274449</v>
+        <v>361.0814147927011</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>605.7870660788536</v>
+        <v>513.7656408435222</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>867.6202914856632</v>
+        <v>836.4319883914993</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>424.6559248243303</v>
+        <v>404.8910504654002</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>344.8415797044287</v>
+        <v>384.3156340689969</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>337.8388933669738</v>
+        <v>291.9190994415003</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>250.9446214461474</v>
+        <v>277.979072413417</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>889.8539079995816</v>
+        <v>889.4051180107248</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>397.6411796427143</v>
+        <v>416.4327763367809</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>489.1281128827939</v>
+        <v>436.0062300887154</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>675.7874367035972</v>
+        <v>719.7391411514041</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>361.9941937800954</v>
+        <v>450.419383848644</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>453.16632454026</v>
+        <v>505.7654084724724</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>241.5859478268144</v>
+        <v>245.98855964951</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>288.1853240585327</v>
+        <v>286.4761583622675</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>789.5453093332713</v>
+        <v>691.6216807460347</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>717.6266497087098</v>
+        <v>578.9804918609051</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>351.9205529153654</v>
+        <v>323.4046531924606</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1440.96616241159</v>
+        <v>1443.069995971235</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>358.701131320845</v>
+        <v>333.820916542149</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>463.3302049595764</v>
+        <v>368.9944361066212</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>322.9931297106356</v>
+        <v>312.1848551671192</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>498.4750684726056</v>
+        <v>466.1875823244896</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>400.8892951766692</v>
+        <v>410.4461041415242</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>452.5207346890281</v>
+        <v>484.8012604961571</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>434.5609276036038</v>
+        <v>422.1312656222719</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>336.1809822035254</v>
+        <v>365.1266188107765</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>384.5295252182981</v>
+        <v>351.0690414071996</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>379.1213263305451</v>
+        <v>356.9536668830473</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>230.9236746325476</v>
+        <v>255.2542871108332</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>618.0584663388806</v>
+        <v>631.1480007939093</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>102.7248485022699</v>
+        <v>103.2734643356605</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>208.5330457246336</v>
+        <v>201.2987029365549</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>542.4279885821132</v>
+        <v>544.7648419233606</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>567.0513265675224</v>
+        <v>513.3326610626078</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>276.8420215285848</v>
+        <v>282.853713020764</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>195.3944635314799</v>
+        <v>201.617434396478</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>294.4833709257998</v>
+        <v>261.8159435201647</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>547.9598093545574</v>
+        <v>569.7383691003615</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>297.0089641972405</v>
+        <v>263.6488669637944</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>327.8703802902508</v>
+        <v>348.4291178530917</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>294.0459956000287</v>
+        <v>288.835416562531</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>386.9169979190555</v>
+        <v>396.5271486131909</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>505.1741726113331</v>
+        <v>546.7346032080718</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>1005.00798338377</v>
+        <v>977.0323802309133</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>337.7508020754749</v>
+        <v>347.3193652178691</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>847.0439604876185</v>
+        <v>1038.987672455205</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>432.8466627312686</v>
+        <v>632.2049714259721</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>257.9502189699732</v>
+        <v>243.844379988835</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>557.4907426200729</v>
+        <v>836.7767359779106</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>310.9561205496958</v>
+        <v>281.588402307282</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>545.9446518905382</v>
+        <v>474.5729467964335</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>409.6496650566621</v>
+        <v>386.0603161294189</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>345.7943630797155</v>
+        <v>357.7579869757282</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>218.865634432035</v>
+        <v>235.1020268134307</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>329.5606538587092</v>
+        <v>335.4161099214356</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>658.0192965748088</v>
+        <v>685.7574093159881</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>1103.623074721226</v>
+        <v>854.9013966109703</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>109.9043484916597</v>
+        <v>114.2908469486638</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>370.4044721066676</v>
+        <v>388.0436212519621</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>104.1484113766975</v>
+        <v>117.2816596017414</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>839.7195092266713</v>
+        <v>844.8851819123105</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>282.689849566071</v>
+        <v>333.5591604754543</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>772.0106406067717</v>
+        <v>713.6639612302249</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>385.1566564480427</v>
+        <v>341.3394960609812</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>697.9623012341125</v>
+        <v>608.7653069318329</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>419.8582955855814</v>
+        <v>440.9053700283362</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>415.0758663932558</v>
+        <v>383.1785690603261</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>788.0002515403089</v>
+        <v>854.7627264882278</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>605.3945132373133</v>
+        <v>762.482369402667</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>310.0280557666593</v>
+        <v>384.2438714642733</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>392.9340378769642</v>
+        <v>289.0434661806635</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>271.3615952769865</v>
+        <v>325.190325789863</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>203.454743449845</v>
+        <v>201.0142544330027</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>357.7036900154168</v>
+        <v>445.7545528044431</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>275.4543372900705</v>
+        <v>367.2390433507267</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>244.9149051719959</v>
+        <v>234.7270442879912</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>326.2182780488866</v>
+        <v>326.6084842554503</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>379.1189430096414</v>
+        <v>385.1233892003874</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>308.1924868487667</v>
+        <v>339.625695505689</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>541.8979201148085</v>
+        <v>512.8818624715063</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>600.8079670038359</v>
+        <v>513.1212764300661</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>287.6106252456634</v>
+        <v>271.7286487720081</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>675.007397680649</v>
+        <v>580.481501737258</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>894.2061638268646</v>
+        <v>745.6266741576466</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>344.2967110267047</v>
+        <v>315.7466357841561</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>644.4993411244943</v>
+        <v>730.8576519907791</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>352.5601604573399</v>
+        <v>341.5416926828297</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>445.426136958144</v>
+        <v>414.1503973009611</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>862.6148575088001</v>
+        <v>682.9733441625774</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>348.9143090774456</v>
+        <v>322.602532889289</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>1362.06375681347</v>
+        <v>1394.52039340659</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>679.5599369325037</v>
+        <v>719.4982095955628</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>553.9163220019278</v>
+        <v>473.8311198345166</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>892.3021855852787</v>
+        <v>873.7689696235259</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>265.573770219251</v>
+        <v>237.9860030370926</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>365.421163622967</v>
+        <v>338.7394967729589</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>447.1730191770556</v>
+        <v>404.4715573305093</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>355.3115959418877</v>
+        <v>345.4700684518488</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>222.8173504074449</v>
+        <v>245.7684872724128</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>410.2816330244019</v>
+        <v>484.4798448896947</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>216.8848142409125</v>
+        <v>216.2564605059033</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>281.2300612596425</v>
+        <v>285.5659572610899</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>1063.474311759837</v>
+        <v>1076.422117153142</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>387.199449879332</v>
+        <v>400.0791719059932</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>790.9843254090594</v>
+        <v>761.6518942920463</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>969.2225283533728</v>
+        <v>934.3080163555453</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>373.3664680381617</v>
+        <v>345.0577877350372</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>399.8677264269948</v>
+        <v>566.6042696714551</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>126.0796509193689</v>
+        <v>101.8251899797811</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>335.955084663652</v>
+        <v>427.1071582145768</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>339.9976595363894</v>
+        <v>318.4332827978499</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>122.0699482933628</v>
+        <v>144.1648414539837</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>402.5245632747227</v>
+        <v>439.0973185210447</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>332.3004108719415</v>
+        <v>428.3155666172409</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>654.488574628847</v>
+        <v>532.8994263853242</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>279.8474252532336</v>
+        <v>271.1135056127446</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>430.6621148178606</v>
+        <v>286.1856170573205</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>290.0923629331549</v>
+        <v>239.7613128313812</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>431.2081572031861</v>
+        <v>457.6736353807919</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>482.5850266132229</v>
+        <v>499.0256748109737</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>204.5233907255885</v>
+        <v>214.4243357730247</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>338.7850045760243</v>
+        <v>369.3320225194558</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>728.2881368775993</v>
+        <v>697.4869777717322</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>750.1873918343477</v>
+        <v>660.2040521280144</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>714.1637248796626</v>
+        <v>755.6731060960976</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>668.1468278070956</v>
+        <v>648.6944743276956</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>379.8733959354082</v>
+        <v>371.9269324700988</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>349.0675570591245</v>
+        <v>367.6664870825325</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>540.9015376491793</v>
+        <v>463.5651642704145</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>327.8722199668601</v>
+        <v>309.1405846994704</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>400.5321920668489</v>
+        <v>427.2446006635074</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>272.2463539723799</v>
+        <v>262.5807372387572</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>328.0912722933709</v>
+        <v>334.2293274821525</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>555.7812078593537</v>
+        <v>582.2535497354152</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>152.0330325695606</v>
+        <v>175.0284075605917</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>344.4377555352061</v>
+        <v>428.2780338106431</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>1146.059697483355</v>
+        <v>953.2831093653991</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>301.2392490901656</v>
+        <v>284.8338043028014</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>173.9876580029096</v>
+        <v>205.7482454627115</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>390.3116102348586</v>
+        <v>423.7639849860399</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>679.9302279361328</v>
+        <v>743.8510123099514</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>381.9456468195585</v>
+        <v>368.9593354860257</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>1145.425094753768</v>
+        <v>1303.438447102937</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>610.9859682003663</v>
+        <v>758.8811051741112</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>566.6327317094599</v>
+        <v>590.5390006362596</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>387.4931753919547</v>
+        <v>426.0680247501791</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>413.0732340490304</v>
+        <v>401.2484243446461</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>488.8581913244971</v>
+        <v>448.2487846553078</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>320.5375862276185</v>
+        <v>328.231318713639</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>326.1087768974603</v>
+        <v>362.0505705668353</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>683.1898536539537</v>
+        <v>625.238131019571</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>419.2024969177401</v>
+        <v>433.8468735824507</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>344.8293841604919</v>
+        <v>327.4742287693642</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>458.2602309227705</v>
+        <v>336.8036879292816</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>779.5405715733393</v>
+        <v>959.2897925410336</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>850.1805488532104</v>
+        <v>695.9671515175866</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>346.9308129375606</v>
+        <v>404.8921148405855</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>985.3991169682936</v>
+        <v>1105.034928458332</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>237.7463582926153</v>
+        <v>243.2766466016148</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>1148.722592178803</v>
+        <v>1001.123106780304</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>150.3435864655075</v>
+        <v>151.4063185752825</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>209.2652771615957</v>
+        <v>204.7049876747888</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>287.6303583277386</v>
+        <v>271.5261368725722</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>347.2557019071091</v>
+        <v>315.3045543231926</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>422.5196549270237</v>
+        <v>408.9678938966923</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>483.7175906940261</v>
+        <v>637.6077485062941</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>727.1175297334696</v>
+        <v>730.32738253345</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>563.0896566138467</v>
+        <v>563.3340759503202</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>287.2956427334651</v>
+        <v>351.8294439594496</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>552.5209693533587</v>
+        <v>557.6600737346724</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>437.5383019868444</v>
+        <v>490.8916576615754</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>125.0622292358463</v>
+        <v>134.516698299566</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>802.0463037359158</v>
+        <v>712.5025433383738</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>652.9142420209489</v>
+        <v>613.4355188597549</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>399.1439552173022</v>
+        <v>380.3014430171415</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>491.5894399027761</v>
+        <v>472.7558335448089</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>628.515198797404</v>
+        <v>685.4999281817462</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>373.0037325390522</v>
+        <v>334.8348813789321</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>421.0419081509759</v>
+        <v>428.6172831553851</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>160.8348498952347</v>
+        <v>174.134059229302</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>819.7549256891047</v>
+        <v>834.989225793262</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>147.5132191078013</v>
+        <v>155.0110800635033</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>438.8440201370864</v>
+        <v>524.6004264241138</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>365.2627212065441</v>
+        <v>362.148147966039</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>1130.582189102052</v>
+        <v>982.7396584145515</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>315.245208314186</v>
+        <v>311.6192986684039</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>467.1481624603031</v>
+        <v>468.2384294476594</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>469.3214277123013</v>
+        <v>581.5458847214875</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>302.8879537088368</v>
+        <v>305.7096896129867</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>430.4022954440675</v>
+        <v>449.2148454177535</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>436.824555479855</v>
+        <v>641.7406249091372</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>339.7444618278595</v>
+        <v>332.1018819314074</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>320.2478135326743</v>
+        <v>295.3308283315041</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>167.4847961439057</v>
+        <v>171.8775561542377</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>321.6165564417171</v>
+        <v>324.5967619633263</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>759.9322316102536</v>
+        <v>768.8249458518585</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>388.3798100565256</v>
+        <v>402.846953605457</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>520.3051527742322</v>
+        <v>387.0012083399732</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>677.6598042701228</v>
+        <v>711.7012439731961</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>315.1832818336107</v>
+        <v>333.4181213568825</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1379.148451165978</v>
+        <v>1364.035716641212</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>300.0505275528791</v>
+        <v>293.9266404343504</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>488.1613821756562</v>
+        <v>525.0812657860176</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>382.0110911754888</v>
+        <v>383.6226919350793</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>292.0679013052161</v>
+        <v>321.5606055663034</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>121.1539974612126</v>
+        <v>121.6705847087712</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>576.8644490334115</v>
+        <v>474.987084430169</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>876.2548056110913</v>
+        <v>799.5404716284937</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>558.1661862713257</v>
+        <v>627.3906128491634</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>233.9052368328621</v>
+        <v>213.6367919366594</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>294.5856570899903</v>
+        <v>297.5749276448411</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>371.9716716223691</v>
+        <v>361.0670407797116</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>967.5578259959937</v>
+        <v>1073.931147568153</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>471.2047339358675</v>
+        <v>415.0749045570512</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>340.6214070511916</v>
+        <v>330.3809135109514</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>482.5140943868099</v>
+        <v>434.8286212434386</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>361.0039631339351</v>
+        <v>391.3104791723393</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>493.7105795062271</v>
+        <v>432.4714338479373</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>505.487559357331</v>
+        <v>471.9730416691143</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>272.3681114160307</v>
+        <v>294.0621525280869</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>508.1918628764769</v>
+        <v>515.81553484212</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>1024.349689960319</v>
+        <v>814.8631568901134</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>365.2141471795975</v>
+        <v>341.326968855711</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>307.3930772998822</v>
+        <v>349.445796608306</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>1120.468198680384</v>
+        <v>1064.911073038657</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>991.6664186778697</v>
+        <v>786.9369211406289</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>250.3581277830819</v>
+        <v>327.3549965637181</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>266.6082413229202</v>
+        <v>265.5017674928099</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>323.8008074413068</v>
+        <v>322.5340173447046</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>180.7701824376186</v>
+        <v>182.0378388300534</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>302.2390812192398</v>
+        <v>327.8847955352487</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>546.1183449112</v>
+        <v>549.9608200156893</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>946.5158605235579</v>
+        <v>745.3959911743904</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>251.8719948698132</v>
+        <v>233.1531082206944</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>328.0198590884111</v>
+        <v>309.6280955732128</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>485.6665288183988</v>
+        <v>415.0782505110925</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>212.6543146057444</v>
+        <v>235.0996845411161</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>287.0396729793534</v>
+        <v>286.2368592209082</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>533.4125297652162</v>
+        <v>567.566280151398</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>654.4416605693038</v>
+        <v>664.4303373421986</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>351.6375139235165</v>
+        <v>401.4090311918047</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>238.7767625452015</v>
+        <v>261.2336866897731</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>376.5112299515119</v>
+        <v>336.6053251913246</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>840.0176152431106</v>
+        <v>872.1020924668053</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>376.8102046413594</v>
+        <v>357.6253413105277</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>281.4120328045785</v>
+        <v>271.8372541927279</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>301.9446043848317</v>
+        <v>303.8929989777644</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>1220.282059476935</v>
+        <v>1176.977161777271</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>389.9166470158505</v>
+        <v>354.0605791098874</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>371.8699614795002</v>
+        <v>369.8408075387726</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>460.4970109480805</v>
+        <v>484.7741939404991</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>399.713816856316</v>
+        <v>399.3144159576722</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>307.0551687607817</v>
+        <v>366.1587667981547</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>163.7973115599474</v>
+        <v>149.6532787067538</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>345.6232163972863</v>
+        <v>338.0613569609788</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>338.4311195509367</v>
+        <v>343.8538644593491</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>866.6137806901916</v>
+        <v>795.7936621519846</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>356.5686874140004</v>
+        <v>374.6074414465353</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>326.4722710706571</v>
+        <v>310.7290925628789</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>306.8844757283206</v>
+        <v>262.7966696019133</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>275.2586933100201</v>
+        <v>275.9943322426673</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>456.8239244601377</v>
+        <v>429.2987780778162</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>250.2982006022182</v>
+        <v>241.1343892226265</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>322.4974763977816</v>
+        <v>332.1741836908354</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>376.366679514131</v>
+        <v>367.2441961598186</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>1013.605619878687</v>
+        <v>765.8164908501957</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>326.6205656282818</v>
+        <v>318.0484591557468</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>273.3631997450501</v>
+        <v>312.164356345379</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>385.2880142852183</v>
+        <v>417.7261841007593</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>684.5800657836136</v>
+        <v>642.7891507691685</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>107.5667311887192</v>
+        <v>104.5778137053469</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>702.8439297781439</v>
+        <v>701.39512928403</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>339.6097247798261</v>
+        <v>327.764916141026</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>367.1375718407511</v>
+        <v>388.1993061174791</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>712.1546939746675</v>
+        <v>754.4047443403277</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>343.7783783900809</v>
+        <v>280.1479328998224</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>304.3582718572989</v>
+        <v>273.1849534865105</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>917.8349814323435</v>
+        <v>965.825344813779</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>484.9578288413414</v>
+        <v>575.5961214080473</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>145.6031482991709</v>
+        <v>150.1114922044457</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>195.0557261746744</v>
+        <v>193.1262456982531</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>534.6704460988227</v>
+        <v>503.3655932682869</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>569.0501676643572</v>
+        <v>633.408787034813</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>558.1710364886026</v>
+        <v>466.0445749476672</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>482.0723433199914</v>
+        <v>467.6349384556686</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>226.7103234280663</v>
+        <v>208.186177188895</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>410.732236204871</v>
+        <v>414.1719795703789</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>1306.704571682005</v>
+        <v>1384.244833222126</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>643.5127108125665</v>
+        <v>629.641679867698</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>944.1668160709519</v>
+        <v>923.9954460050079</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>418.1889136676784</v>
+        <v>446.3765234345493</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>246.5727765030818</v>
+        <v>227.3243679523813</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>669.9139393571853</v>
+        <v>677.1983996527611</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>385.303829797049</v>
+        <v>399.0923260195892</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>253.8349816742156</v>
+        <v>245.8426713573875</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>461.6664477387013</v>
+        <v>483.6543249120959</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>595.3754479043123</v>
+        <v>597.7064035098133</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>274.0270482060881</v>
+        <v>249.2847194333193</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>358.5871009498313</v>
+        <v>378.064781642335</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>361.1798349176823</v>
+        <v>312.5735537493071</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>410.6180905712408</v>
+        <v>409.2586192623471</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>259.1112043615501</v>
+        <v>308.9369672537615</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>907.1053880733155</v>
+        <v>917.4892029219585</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>343.5102796223816</v>
+        <v>332.7252322482284</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>301.9116651123728</v>
+        <v>293.8814687699823</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>573.9960153480907</v>
+        <v>558.217612010289</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>458.8159821263503</v>
+        <v>371.6063404537303</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>383.8858888335286</v>
+        <v>526.8420818509443</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>1435.468201909576</v>
+        <v>1489.57794754442</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>208.0448972330036</v>
+        <v>206.4393570212873</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>352.1301748162268</v>
+        <v>364.9595569566582</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>217.8940070977895</v>
+        <v>234.3948742801984</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>257.6163792799397</v>
+        <v>236.9206861082916</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>1519.535036393949</v>
+        <v>1659.066246865691</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>952.1320790222519</v>
+        <v>850.262804224168</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>184.1761528873006</v>
+        <v>177.1986267823514</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>361.4879508722744</v>
+        <v>377.3579696481108</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>313.3377001425608</v>
+        <v>302.187665580544</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>367.6961955109061</v>
+        <v>356.6493299650082</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>150.7622643019485</v>
+        <v>129.5772087476071</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>377.3196869457737</v>
+        <v>394.283608146674</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>265.0893625136108</v>
+        <v>260.2429266203156</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>276.5846352833065</v>
+        <v>291.4002192157223</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>831.3424985094988</v>
+        <v>1073.390863252936</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>359.9579030889063</v>
+        <v>342.2638455468514</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>346.0649640681236</v>
+        <v>346.6409078902915</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>286.9140909554981</v>
+        <v>294.7210232168798</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>282.0168063048391</v>
+        <v>254.6511142604947</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>795.480972508718</v>
+        <v>1030.878846746035</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>194.3575852167369</v>
+        <v>212.6909430050733</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>435.2903437643479</v>
+        <v>399.6688293650786</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>320.8214431646803</v>
+        <v>305.1725721324781</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>235.1162043647203</v>
+        <v>281.2627172263936</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>255.5340135705812</v>
+        <v>277.8799951126594</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>257.3562506187342</v>
+        <v>257.708842166106</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>211.4348884859187</v>
+        <v>207.8168956497363</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>242.0098564052162</v>
+        <v>291.9098360614552</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>283.5938890482474</v>
+        <v>290.7233337892399</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>353.9720053392262</v>
+        <v>351.5760256197669</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>1093.115929498324</v>
+        <v>914.1786363862597</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>363.1953831032167</v>
+        <v>365.1566365224177</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>463.8437843979124</v>
+        <v>422.6082653289952</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>423.6730447459373</v>
+        <v>366.4255614626102</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>1304.005708973521</v>
+        <v>1326.791008234565</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>320.8005571878878</v>
+        <v>326.9507459744127</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>214.4751090634064</v>
+        <v>237.7299280469637</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>641.3025838702176</v>
+        <v>702.3231445121971</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>745.866565332033</v>
+        <v>769.3226534514994</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>546.6096459316987</v>
+        <v>541.6451200987502</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>368.3234780503112</v>
+        <v>422.4559512588958</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>525.1172052492818</v>
+        <v>605.7328791611726</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>642.3935695797496</v>
+        <v>637.7037919920016</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>861.7517955280335</v>
+        <v>804.3471965415235</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>341.0656747153205</v>
+        <v>341.9779380673701</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>394.8207872044227</v>
+        <v>432.4583503329617</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>309.5224039393177</v>
+        <v>304.6988271889521</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>468.4529181764729</v>
+        <v>431.9763534897058</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>369.3069533943056</v>
+        <v>403.8210986297699</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>519.0739644733962</v>
+        <v>519.6517246257205</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>283.3076647353853</v>
+        <v>283.017090866173</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>250.6199683792705</v>
+        <v>252.6060646791652</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>381.5386408677269</v>
+        <v>365.828906556342</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>291.6351732326968</v>
+        <v>298.2585842883118</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>904.5809133083154</v>
+        <v>694.5642981269826</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>387.6662412876675</v>
+        <v>407.825909787312</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>717.3098003901456</v>
+        <v>824.253862336456</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>186.1327321228169</v>
+        <v>197.6103611737281</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>553.1877723001168</v>
+        <v>520.4564097825298</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>722.8444117530003</v>
+        <v>740.3672830166768</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>247.6730158806492</v>
+        <v>238.1918556393705</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>942.2169083681025</v>
+        <v>884.6029174191987</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>571.5961865076169</v>
+        <v>488.2766688141317</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>961.9021198093155</v>
+        <v>1092.044835818644</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>555.8760407712705</v>
+        <v>483.4157931646349</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>629.5072738299408</v>
+        <v>651.387652709447</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>635.0084751961181</v>
+        <v>584.3441248465559</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>336.6111623680458</v>
+        <v>297.2561994552881</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>1084.379082184004</v>
+        <v>769.3998003381834</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>319.1897858695227</v>
+        <v>321.52788504066</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>261.729573704521</v>
+        <v>300.106983284008</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>543.5562440910741</v>
+        <v>451.3915859264817</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>658.742474787746</v>
+        <v>716.5708455964613</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>254.2612054719781</v>
+        <v>258.1622002572601</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>291.4532725589499</v>
+        <v>331.4096313673545</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>721.3842125660559</v>
+        <v>607.8516734555727</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>345.6097060460094</v>
+        <v>318.2235919575904</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>367.8351399611138</v>
+        <v>369.4440310926688</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>259.6689560337976</v>
+        <v>238.0463935520983</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>413.3755072699123</v>
+        <v>421.0486553409505</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>642.3271646899149</v>
+        <v>561.8076925907744</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>351.6847154887294</v>
+        <v>412.0898847571825</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>1028.886680093188</v>
+        <v>1055.137112330157</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>411.0145412910524</v>
+        <v>437.7026638191675</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>319.4797110122351</v>
+        <v>338.1533167691551</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>967.5951149585225</v>
+        <v>998.0576621002606</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>273.0071520099275</v>
+        <v>234.8710519075682</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>229.42796293125</v>
+        <v>217.3831571226101</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>103.4934593032514</v>
+        <v>99.1396440999619</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>429.1918471982581</v>
+        <v>526.3352423071084</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>306.9390620994185</v>
+        <v>301.6032603856522</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>410.7129353946214</v>
+        <v>467.1994865657447</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>778.6508488061719</v>
+        <v>800.29404376379</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>263.9253279501681</v>
+        <v>253.0365028632802</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>377.2665867466322</v>
+        <v>375.4754111642383</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>227.0983619504247</v>
+        <v>221.328667617166</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>228.7581366034216</v>
+        <v>244.3683854667466</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>722.9677056134328</v>
+        <v>624.1917906205269</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>275.7964428225049</v>
+        <v>269.3202987500622</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>350.1061937464656</v>
+        <v>349.0833239611816</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>356.8255880140876</v>
+        <v>292.0222273190167</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>389.7999375780481</v>
+        <v>400.8471911756409</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>161.1232199777269</v>
+        <v>156.4682267935421</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>280.4906453167337</v>
+        <v>254.3070749092607</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>607.7789123461197</v>
+        <v>546.678252518022</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>443.7446047783172</v>
+        <v>515.7145761958802</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>312.0175192045626</v>
+        <v>264.5233142367379</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>350.934804994258</v>
+        <v>375.5159633410985</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>177.5311354019679</v>
+        <v>182.8658979785824</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>277.9081775278254</v>
+        <v>336.3096511669586</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>1141.294052897367</v>
+        <v>1338.568624470548</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>263.2509428047055</v>
+        <v>352.9935272397536</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>671.4968230023215</v>
+        <v>666.9850501422894</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>448.5567588958846</v>
+        <v>504.0046128023763</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>518.3130617973761</v>
+        <v>503.253114352839</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>306.6746378128767</v>
+        <v>280.6437811798981</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>415.0439346989165</v>
+        <v>402.1006993591091</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>200.0152222543172</v>
+        <v>227.0328713837251</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>280.6189735400529</v>
+        <v>247.0652792005851</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>304.3757726205388</v>
+        <v>305.2463524562119</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>400.9790868590116</v>
+        <v>412.5889269140212</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>291.0335485090212</v>
+        <v>365.8698133419811</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>899.6821600654303</v>
+        <v>938.1710261943476</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>311.6567873529407</v>
+        <v>304.1369596693355</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>248.9386106431883</v>
+        <v>273.5598953477602</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>342.0965274024997</v>
+        <v>375.5209202190724</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>405.8513515117799</v>
+        <v>403.7268301947535</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>528.2013813465807</v>
+        <v>555.9332398869932</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>633.1784227265875</v>
+        <v>648.9874120235731</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>122.1591694297345</v>
+        <v>119.4222654494128</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>520.0212034118217</v>
+        <v>573.9922422916408</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>491.8053708753877</v>
+        <v>563.7679112454019</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>464.2581499121104</v>
+        <v>441.1885519773092</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>432.0563641299628</v>
+        <v>428.9635323265761</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>114.9556752404291</v>
+        <v>112.9223631924714</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>455.5591186304697</v>
+        <v>473.7068843266583</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>366.3061749436005</v>
+        <v>373.7245630335589</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>421.8155571658056</v>
+        <v>416.2387367769339</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>851.8164921410856</v>
+        <v>1038.846746444771</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>747.4076570662636</v>
+        <v>734.4693561794638</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>276.2128147590136</v>
+        <v>295.9298720340178</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>847.7018762474396</v>
+        <v>864.3814157705299</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>408.0423490862331</v>
+        <v>376.5326861320245</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>443.050122666277</v>
+        <v>439.8709517680874</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>183.8461424399012</v>
+        <v>180.3724556904325</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>1033.635673546891</v>
+        <v>834.6529947395663</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>557.3969564307387</v>
+        <v>542.0781349927921</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>624.726550661371</v>
+        <v>563.6045492576859</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>230.9242615173499</v>
+        <v>242.7176974661773</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>319.3067474007978</v>
+        <v>353.1559422721465</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>298.5509926452423</v>
+        <v>274.6570482870426</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>273.899502434524</v>
+        <v>274.2095741653251</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>254.1391989783226</v>
+        <v>236.5783815941023</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>371.7074318717723</v>
+        <v>397.6063667074309</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>135.6373394725306</v>
+        <v>152.8054411289173</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>229.5205200637703</v>
+        <v>237.5226701430025</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>313.5428096923634</v>
+        <v>282.7509499179743</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>783.4483547958731</v>
+        <v>651.36447111981</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>124.9368031277773</v>
+        <v>127.1588532306746</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>477.7403337177072</v>
+        <v>361.6421495943555</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>264.5699262131112</v>
+        <v>260.3699277914466</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>261.2322627038761</v>
+        <v>264.9195433905352</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>1238.199902867608</v>
+        <v>1406.121971819162</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>288.093606478625</v>
+        <v>289.5386158840726</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>443.1086003454964</v>
+        <v>418.0784013962054</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>314.2370336280205</v>
+        <v>292.997356206553</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>287.3775492399648</v>
+        <v>342.434302840515</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>224.9399244493105</v>
+        <v>263.7283269013054</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>536.0593916892351</v>
+        <v>554.5012426072915</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>466.1166116786465</v>
+        <v>485.2257369985492</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>382.7187733069835</v>
+        <v>373.9400743105646</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>316.2482787180411</v>
+        <v>259.9153513771457</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>319.9778605688755</v>
+        <v>374.0024415790403</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>350.9570647588141</v>
+        <v>343.0594076633008</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>381.9416576916017</v>
+        <v>331.9764378956276</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>130.426869679021</v>
+        <v>152.6473540662037</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>758.4771858490539</v>
+        <v>718.0460344369917</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>316.4953380081514</v>
+        <v>310.8719988700028</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>330.8602539290843</v>
+        <v>321.6337411249038</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>424.522579813354</v>
+        <v>420.0470070637062</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>699.1494399511398</v>
+        <v>875.8082930520048</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>221.1581122133645</v>
+        <v>233.5791116493803</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>252.6302946430565</v>
+        <v>334.3972532811006</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>369.4168183599692</v>
+        <v>377.0735152338297</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>639.4687344997744</v>
+        <v>557.5337782866376</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>298.9617264286842</v>
+        <v>300.7949623170387</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>223.646885420285</v>
+        <v>247.2446661706962</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>870.6377969836963</v>
+        <v>873.5274274138721</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>277.1478006968048</v>
+        <v>299.6380329256076</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>1169.395185272595</v>
+        <v>1201.64601562778</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>381.8331952604303</v>
+        <v>383.4388122719358</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>543.6929288850582</v>
+        <v>541.5741655465922</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>193.9049134321349</v>
+        <v>179.9687696623872</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>386.370792002474</v>
+        <v>452.9126266799187</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>197.4862276299417</v>
+        <v>196.9467566780708</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>433.1216397387126</v>
+        <v>468.4095378748735</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>300.2553910283411</v>
+        <v>334.8422570142474</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>195.3743009219559</v>
+        <v>233.6801239569779</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>286.5534585384602</v>
+        <v>291.3140627503133</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>240.8532511395424</v>
+        <v>224.8446862171749</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>480.5369405091751</v>
+        <v>542.4865995862299</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>1012.606904033397</v>
+        <v>1024.291371648705</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>266.435089842567</v>
+        <v>276.1548795331182</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>186.0963892404631</v>
+        <v>201.9072661688438</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>1044.637275279693</v>
+        <v>1106.073680640913</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>333.2974923021707</v>
+        <v>338.5968831101411</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>175.2883926820066</v>
+        <v>149.0871040679073</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>534.1626651366798</v>
+        <v>564.9061213718184</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>443.101572479243</v>
+        <v>444.4101889410546</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>974.1062259653241</v>
+        <v>1162.567045691209</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>606.9615572426859</v>
+        <v>618.7235711010768</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>937.7418545968586</v>
+        <v>782.0026897874378</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>253.0504023843663</v>
+        <v>257.4463968694046</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>280.8286347940997</v>
+        <v>271.3788431584518</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>362.4229896685619</v>
+        <v>302.3228502199325</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>1099.183029365364</v>
+        <v>1123.771558723605</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>575.3536149214834</v>
+        <v>493.7538955821494</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>699.2923944840491</v>
+        <v>915.4608090599679</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>223.0076485414063</v>
+        <v>234.3057785209739</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>463.1855977706772</v>
+        <v>470.8013463030481</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>265.6896203610191</v>
+        <v>296.5632355256196</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>497.4342453611419</v>
+        <v>450.1487124271466</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>289.3428810473808</v>
+        <v>299.7418756143688</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>237.9329849527629</v>
+        <v>242.8674920035647</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>274.9056671931434</v>
+        <v>309.4240627877753</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>166.1778527855604</v>
+        <v>163.1048388805429</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>1209.766655796144</v>
+        <v>1411.259919723095</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>364.6762640698881</v>
+        <v>376.6419993022928</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>405.4787539421715</v>
+        <v>351.5039617252179</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>324.9269779858614</v>
+        <v>329.1997716845858</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>369.1310464319548</v>
+        <v>329.2805445714821</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>192.320170722158</v>
+        <v>182.2086779705177</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>249.9655283569934</v>
+        <v>223.4497795801144</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>474.1573618544218</v>
+        <v>483.5685508378187</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>743.7897308667448</v>
+        <v>780.074621742428</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>262.7882341747675</v>
+        <v>256.6455130616723</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>314.614163795995</v>
+        <v>307.4499337789351</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>279.8583757722985</v>
+        <v>278.7741876988731</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>318.270032780194</v>
+        <v>318.6638653781876</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>289.4058659649758</v>
+        <v>330.6410752610586</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>328.1968291492355</v>
+        <v>333.9610704473741</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>299.7647733965049</v>
+        <v>280.3561954074816</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>564.0740219134655</v>
+        <v>533.9492380698866</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>403.8573871549689</v>
+        <v>408.2698129526588</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>470.7842165520539</v>
+        <v>482.9593358108862</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>280.1216081652042</v>
+        <v>300.686602274641</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>451.167300484331</v>
+        <v>454.212100424244</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>116.1331673726449</v>
+        <v>110.1815366466147</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>405.7155050719834</v>
+        <v>438.3026608354928</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>497.2318851472556</v>
+        <v>634.2739006077763</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>612.2347336549587</v>
+        <v>655.8838466173804</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>520.2932858942924</v>
+        <v>574.6945702658134</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>207.8537872301917</v>
+        <v>205.2379053585647</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>1034.427956673783</v>
+        <v>1244.252680182598</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>669.2639860042407</v>
+        <v>686.7410143509643</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>257.5043360683102</v>
+        <v>276.2202077519288</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>297.7240241414308</v>
+        <v>302.2083855189331</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>273.0601376425078</v>
+        <v>272.4266939414612</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>220.4928322107737</v>
+        <v>179.8040966761023</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>242.2403913896005</v>
+        <v>237.5339719305773</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>329.3033598195354</v>
+        <v>290.3147690964753</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>575.4117515612596</v>
+        <v>685.7252468228361</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>345.0918836247527</v>
+        <v>339.5474385108045</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>283.7449184825862</v>
+        <v>320.650233456505</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>466.8516821739199</v>
+        <v>467.8176501449665</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>560.1536628248232</v>
+        <v>472.2208761946357</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>375.0304924233578</v>
+        <v>447.4623638817647</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>606.0127222583114</v>
+        <v>686.0308956923841</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>297.4881868315817</v>
+        <v>269.9537681150702</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>424.8389048141892</v>
+        <v>398.9545618817208</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>275.9126758053024</v>
+        <v>276.1837386494922</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>375.0325808224572</v>
+        <v>286.4991540819203</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>460.3565575135741</v>
+        <v>517.3942244161782</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>401.5064800302004</v>
+        <v>428.5623853327899</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>275.3942947768207</v>
+        <v>328.7719354395169</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>251.802017200191</v>
+        <v>281.6715256459551</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>310.9108432240768</v>
+        <v>250.2811139434759</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>570.9020588139351</v>
+        <v>495.0051092144901</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>314.1912463948752</v>
+        <v>307.444925173582</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>385.0682006330059</v>
+        <v>344.7032174871148</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>381.4699881883927</v>
+        <v>380.9465800734004</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>273.8442488890486</v>
+        <v>297.4447463383348</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>552.5423955503483</v>
+        <v>511.7154743911171</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>213.219573953815</v>
+        <v>219.2498349340518</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>2117.971379988174</v>
+        <v>2203.038100655661</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>465.6277880797655</v>
+        <v>446.3658355781846</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>237.9713118026797</v>
+        <v>218.3828604620708</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>338.4848743042566</v>
+        <v>324.8675865583885</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>417.9232967776096</v>
+        <v>346.6095848802869</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>334.559516090448</v>
+        <v>334.7835780868581</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>597.8758060620702</v>
+        <v>742.804866217943</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>246.1054523859972</v>
+        <v>238.9513949192893</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>346.0053056558415</v>
+        <v>414.5985799452711</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>288.1028451486417</v>
+        <v>230.5205869791156</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>72.23294682795995</v>
+        <v>72.87201563965962</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>274.30364532931</v>
+        <v>309.6656876566273</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>367.6924346588527</v>
+        <v>321.8222394162738</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>384.1363469490441</v>
+        <v>358.2445557815495</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>439.3854017280481</v>
+        <v>514.5976134198447</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>840.7016526980957</v>
+        <v>801.638106633908</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>308.0724021452872</v>
+        <v>351.4593949551275</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>298.4001005846041</v>
+        <v>344.0167175055982</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>264.7296649941762</v>
+        <v>261.3321802049367</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>542.3057268428787</v>
+        <v>667.3159698760783</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>467.2881823581607</v>
+        <v>456.1829702519506</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>521.823429361763</v>
+        <v>516.0890407502482</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>237.5618638524432</v>
+        <v>216.2851700308043</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>101.3292559709077</v>
+        <v>93.94797182697724</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>284.9119268846719</v>
+        <v>252.4892901413443</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>744.5517798444126</v>
+        <v>783.6880894021454</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>223.8009715018382</v>
+        <v>246.3585985722526</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>326.7880255862576</v>
+        <v>312.6264203605683</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>251.740717238392</v>
+        <v>244.2361628660007</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>378.2283148869929</v>
+        <v>420.3562082768325</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>271.6831651563076</v>
+        <v>273.2160138151302</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>245.6181899249849</v>
+        <v>242.6622824074288</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>386.5902969313393</v>
+        <v>388.4116708973835</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>365.6353410558108</v>
+        <v>303.5470456431949</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>369.8384021753975</v>
+        <v>348.7826299938118</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>639.0593191617685</v>
+        <v>728.3398384430803</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>728.2411767836569</v>
+        <v>727.4947457303551</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>248.4005716706866</v>
+        <v>285.6388645924417</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>388.4990773855754</v>
+        <v>440.7761495462838</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>290.1413752292223</v>
+        <v>285.7514534514443</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>304.3509801263585</v>
+        <v>272.0931944574039</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>680.7136508027163</v>
+        <v>548.7591583188118</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>226.6477860364587</v>
+        <v>237.3163074919729</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>1105.7151122711</v>
+        <v>1088.514298015977</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>354.4394138639504</v>
+        <v>351.0025175075492</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>190.689876845809</v>
+        <v>193.2791190460526</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>259.3763282059331</v>
+        <v>262.6913153296983</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>701.361320524248</v>
+        <v>483.1754782444552</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>912.9798267158313</v>
+        <v>783.4232543914434</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>391.6089702564221</v>
+        <v>346.5892931005893</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>300.3724665168034</v>
+        <v>289.3340247992851</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>235.6063692413144</v>
+        <v>235.8649612018116</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>346.6202670623878</v>
+        <v>298.4497463540246</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>513.5490651065303</v>
+        <v>500.9413172833831</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>319.4528694137413</v>
+        <v>304.9854838069948</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>467.8054324099147</v>
+        <v>462.4327546701537</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>377.9953915442279</v>
+        <v>355.3622330479169</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>122.0506684448261</v>
+        <v>122.9702722071697</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>274.1614808480334</v>
+        <v>261.1623540111631</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>464.4822371944911</v>
+        <v>340.1686436571067</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>297.1727274246263</v>
+        <v>445.7101020111665</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>366.6831320909952</v>
+        <v>283.3226099212879</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>520.1949955451113</v>
+        <v>531.9291827748796</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>590.8320570733028</v>
+        <v>647.3839237927217</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>524.0798493081101</v>
+        <v>508.6814187302663</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>277.656350717739</v>
+        <v>239.8120354449619</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>402.2870055136835</v>
+        <v>411.3652975116544</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>222.9347655182304</v>
+        <v>232.5663213719671</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>480.5467335875464</v>
+        <v>458.5744694338602</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>438.8255834143963</v>
+        <v>494.2101090290751</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>1226.32620214787</v>
+        <v>1071.710700187974</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>265.5399078232817</v>
+        <v>283.6963486955088</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>463.1837266199925</v>
+        <v>465.9597695837755</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>336.9445967459239</v>
+        <v>336.6563900370966</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>448.9281514072027</v>
+        <v>414.8508346740259</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>418.7387438718455</v>
+        <v>431.5547684679512</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>1368.553121693308</v>
+        <v>1328.87863635341</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>442.7355338665906</v>
+        <v>491.4724529476672</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>294.3979525312686</v>
+        <v>237.1882139284366</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>574.4465677019067</v>
+        <v>570.0827884446963</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>559.7618471577005</v>
+        <v>638.8613763344537</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>414.768191433463</v>
+        <v>410.9784461381522</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>328.8496115041443</v>
+        <v>342.0276206065462</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>1180.799069708373</v>
+        <v>1114.539698242954</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>573.9556514026845</v>
+        <v>498.7940313928501</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>401.134358468861</v>
+        <v>374.061973817917</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>875.8922785750623</v>
+        <v>749.378572693811</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>542.1019856554449</v>
+        <v>444.923486830911</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>1008.60157583057</v>
+        <v>1117.398194628807</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>849.7263992925639</v>
+        <v>712.1742812163056</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>399.5182317015578</v>
+        <v>379.3275987309959</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>463.6766529667552</v>
+        <v>438.8001369116597</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>391.615694927158</v>
+        <v>424.1103772736673</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>1127.426908284645</v>
+        <v>1084.527206844259</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>566.7027240880025</v>
+        <v>526.4970652239361</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>416.0308453091451</v>
+        <v>343.2325591125947</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>359.7804765427736</v>
+        <v>363.8363475631721</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>430.8319199487787</v>
+        <v>433.4474911607166</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>293.2891124313935</v>
+        <v>262.1925154387338</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>478.6604440591248</v>
+        <v>491.5251258099149</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>381.104126528518</v>
+        <v>360.9508420563398</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>1233.330267546653</v>
+        <v>1027.868293054582</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>339.003275596059</v>
+        <v>337.9958839570317</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>925.287652541877</v>
+        <v>947.7585728159187</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>509.3559996177966</v>
+        <v>581.8740883460325</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>164.5560749231918</v>
+        <v>171.8923383905224</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>314.9720621043085</v>
+        <v>330.2289964972685</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>200.4592516046275</v>
+        <v>208.9279122824713</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>237.6188677659656</v>
+        <v>198.9032488159577</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>397.0489526721741</v>
+        <v>390.1384112702544</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>166.2688105172241</v>
+        <v>183.9265907641337</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>260.2562491426266</v>
+        <v>224.8928977490279</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>406.7606288076383</v>
+        <v>406.847795960996</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>390.1620988344865</v>
+        <v>458.4842863510574</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>312.9291949422024</v>
+        <v>324.2706201339747</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>372.2863747085689</v>
+        <v>349.8120321409613</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>476.3116151582522</v>
+        <v>443.4930534994929</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>602.3597316758046</v>
+        <v>575.7699402497917</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>575.6262669990399</v>
+        <v>559.3858901897207</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>419.5150894494788</v>
+        <v>491.5711805162587</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>320.0736935671868</v>
+        <v>330.2568700671891</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>541.0005288226861</v>
+        <v>550.9009428569587</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>1110.213868923893</v>
+        <v>997.6160714074578</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>882.4541123832309</v>
+        <v>913.928909270555</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>3121.664149843879</v>
+        <v>3328.34470027927</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>206.8396128831932</v>
+        <v>198.9801172865709</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>421.5544425249468</v>
+        <v>378.5456447586819</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>447.7223178367611</v>
+        <v>502.3949689915026</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>417.8365590004034</v>
+        <v>408.2995230536784</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>225.6080553558957</v>
+        <v>202.4110153876325</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>813.1314856993072</v>
+        <v>916.4738250242688</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>714.79510655755</v>
+        <v>624.2194820043167</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>180.8654297291129</v>
+        <v>174.47723631683</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>253.4920882750559</v>
+        <v>226.8578391894928</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>1638.996044893441</v>
+        <v>1487.334796397732</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>867.5859132336493</v>
+        <v>948.1008191398639</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>204.4781329686494</v>
+        <v>207.0834912796913</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>546.4238835475201</v>
+        <v>537.0025069288417</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>561.0838737955506</v>
+        <v>578.0371988454528</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>333.5538550565722</v>
+        <v>303.8443893418075</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>458.1587075985731</v>
+        <v>463.3713242180656</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>526.5433341543599</v>
+        <v>537.3675191636677</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>790.7792001002033</v>
+        <v>806.0166962715434</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>256.2830755853028</v>
+        <v>221.4616051893271</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>380.0586448754047</v>
+        <v>381.5617197476257</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>274.213957085795</v>
+        <v>268.8260849727432</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>462.3533475282645</v>
+        <v>445.5525846514635</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>258.0563900695739</v>
+        <v>236.5002482678873</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>620.0676626321996</v>
+        <v>541.8930018090857</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>495.9412210800187</v>
+        <v>535.2303065206933</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>274.423288036035</v>
+        <v>290.4935314522314</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>675.256882898996</v>
+        <v>614.3576175797011</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>339.5425731021603</v>
+        <v>344.0614560456317</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>359.8120219862923</v>
+        <v>361.0531945091663</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>812.35909210073</v>
+        <v>764.5537834195258</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>318.1464656162808</v>
+        <v>318.7801443921197</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>459.8704678991347</v>
+        <v>517.8297344493991</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>172.8079960776911</v>
+        <v>144.4780852269867</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>713.1969534832072</v>
+        <v>715.1487735975628</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>139.2257339905705</v>
+        <v>136.6715858487138</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>246.3242694652811</v>
+        <v>246.5811016166934</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>146.5605011879518</v>
+        <v>145.0177248558536</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>344.2187714954296</v>
+        <v>324.2130425528231</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>607.183847059277</v>
+        <v>625.6813438763094</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>321.4174025736098</v>
+        <v>305.1305270989934</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>525.4746741867239</v>
+        <v>445.160817369468</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>374.7403515660376</v>
+        <v>372.6825775589815</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>268.7159193854441</v>
+        <v>304.6382544576889</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>161.8577264041271</v>
+        <v>169.2652440238735</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>417.6532006171636</v>
+        <v>473.9182072238499</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>241.1489962535169</v>
+        <v>238.2421281072856</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>177.5902119222568</v>
+        <v>180.4678691635499</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>275.4646548843438</v>
+        <v>281.365573292977</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>561.4603428369687</v>
+        <v>575.2232772603007</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>158.454267073758</v>
+        <v>156.3366188824299</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>288.0209539758611</v>
+        <v>273.3624624426274</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>337.3751497814299</v>
+        <v>273.636541082639</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>445.2900880230073</v>
+        <v>450.8683316972182</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>231.8617120051666</v>
+        <v>284.3732152664642</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>156.9517849497971</v>
+        <v>151.576513529627</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>821.5211194041492</v>
+        <v>685.8680039432553</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>604.6582966382732</v>
+        <v>619.2272723580847</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>538.7926225454157</v>
+        <v>555.297891668684</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>555.9820901731454</v>
+        <v>574.2984844507041</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>285.0048351010277</v>
+        <v>268.3621035213898</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>653.4348113021867</v>
+        <v>575.3799385014843</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>219.5236254783871</v>
+        <v>264.4112843146886</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>299.6924767337012</v>
+        <v>322.2339396227077</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>478.3401578332007</v>
+        <v>512.4452239405371</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>475.0343409445271</v>
+        <v>484.5450825686009</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>253.9725190089113</v>
+        <v>260.9238339483817</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>511.7204762075895</v>
+        <v>468.0312585156641</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>901.9784211758275</v>
+        <v>809.1229941988938</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>404.2493954675245</v>
+        <v>422.7733527113887</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>218.8485856721182</v>
+        <v>221.4591752910123</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>290.1836833617255</v>
+        <v>237.9558738049484</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>280.4820817293117</v>
+        <v>301.3543761872602</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>469.9882466256823</v>
+        <v>394.4521704839908</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>261.8568041339354</v>
+        <v>271.9929045878368</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>446.3536558000519</v>
+        <v>396.6544939229833</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>376.3870241941066</v>
+        <v>377.4071797562201</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>89.94274446877533</v>
+        <v>81.29265435536111</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>352.9594188084827</v>
+        <v>257.5557300667944</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>315.4692425202874</v>
+        <v>352.3031240478288</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>349.5390875063879</v>
+        <v>359.8843430082719</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>980.8013630993986</v>
+        <v>1092.719188790375</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>408.1511312295165</v>
+        <v>386.8080145266561</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>510.6832170126605</v>
+        <v>581.4455708578987</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>1363.604504499024</v>
+        <v>1119.728174619091</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>244.9890270712098</v>
+        <v>223.5220112160273</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>376.3876928964119</v>
+        <v>428.1763084277958</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>630.327739024003</v>
+        <v>650.0042132411679</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>418.6497059273448</v>
+        <v>415.3924353143622</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>423.1762631184047</v>
+        <v>428.9367166209868</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>605.0722780875592</v>
+        <v>573.865554086015</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>335.9465274664366</v>
+        <v>319.6363315395028</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>453.5193978423116</v>
+        <v>479.179078466606</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>561.3200941200594</v>
+        <v>526.5258430553677</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>581.6638915696823</v>
+        <v>666.172248748184</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>466.3198040059125</v>
+        <v>455.8639443338255</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>213.7088932709138</v>
+        <v>226.2859170359823</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>412.4400059115911</v>
+        <v>442.3694791158977</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>322.3878873481225</v>
+        <v>398.9393826291583</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>184.7456248743478</v>
+        <v>202.3537252559748</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>227.475345359162</v>
+        <v>242.3308922045593</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>322.0876848655067</v>
+        <v>414.0186850325011</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>403.6230556671563</v>
+        <v>406.5341485801343</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>552.7223510605432</v>
+        <v>541.6013206479588</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>228.9811754891225</v>
+        <v>287.6302643143032</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>379.9497652359458</v>
+        <v>393.4646771215433</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>390.8491203684588</v>
+        <v>295.8775408164906</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>198.705498625377</v>
+        <v>160.2113728682993</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>498.8190488702283</v>
+        <v>513.7936874528683</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>298.6300657189299</v>
+        <v>279.4144099887223</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>518.1911265154574</v>
+        <v>599.9643210942229</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>410.71596126861</v>
+        <v>488.8728624794647</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>357.3993383260218</v>
+        <v>347.0073671229498</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>289.5143877987297</v>
+        <v>301.2536179457311</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>589.5937601957083</v>
+        <v>801.6114486237872</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>113.6261322826816</v>
+        <v>110.6400523808682</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>604.2114432949264</v>
+        <v>546.6505274327372</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>770.4102225798108</v>
+        <v>756.0673969822572</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>282.8963075251349</v>
+        <v>272.3479621811115</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>230.3928681294525</v>
+        <v>219.1300446924809</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>401.1106620754289</v>
+        <v>383.4091835116031</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>150.8907870177247</v>
+        <v>150.7092285673434</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>601.6134768311737</v>
+        <v>644.832878604541</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>333.4968271120907</v>
+        <v>386.5578479680894</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>297.5346239583078</v>
+        <v>248.8832803425618</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>354.7885118014855</v>
+        <v>450.012681833806</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>309.0229374952685</v>
+        <v>309.9293397670932</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>441.8717472093049</v>
+        <v>420.1104430962302</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887">
-        <v>794.7597314807879</v>
+        <v>616.6712745514911</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888">
-        <v>301.242568901674</v>
+        <v>290.7761454628638</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889">
-        <v>395.1995675700011</v>
+        <v>314.8617199127456</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890">
-        <v>338.6477780353934</v>
+        <v>333.7449741308231</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891">
-        <v>593.064346725361</v>
+        <v>613.6459941855247</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>848.2868533544581</v>
+        <v>737.4480898488102</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>319.2149692317567</v>
+        <v>342.2366794846582</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>489.4625281604918</v>
+        <v>493.3862883470782</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>304.8505209743613</v>
+        <v>370.0837499651827</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896">
-        <v>530.9848702871835</v>
+        <v>530.168355328049</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>566.6930134873236</v>
+        <v>562.5089035124695</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>610.8935556379297</v>
+        <v>620.8684548838191</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>434.7184868869106</v>
+        <v>415.7011533629655</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>927.9682424322949</v>
+        <v>1084.641235544612</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>277.479423615418</v>
+        <v>289.1331522333077</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>252.2937835153089</v>
+        <v>243.7161822127619</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903">
-        <v>319.8713330222502</v>
+        <v>312.3700519051736</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>335.8506729061422</v>
+        <v>326.6822328231892</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>228.4235233257304</v>
+        <v>230.3294262466596</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>483.5072413608921</v>
+        <v>501.5080069862048</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>678.0114955410263</v>
+        <v>631.2024189472812</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>436.1819960326187</v>
+        <v>471.3665629665448</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909">
-        <v>242.1674529435267</v>
+        <v>229.7819754390796</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>506.7864384264688</v>
+        <v>451.3422249246628</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911">
-        <v>326.3885133862727</v>
+        <v>281.6089457753633</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912">
-        <v>315.9937885669119</v>
+        <v>302.8418913987283</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>447.1836094053321</v>
+        <v>469.3162513652717</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>233.6625799240472</v>
+        <v>216.9011638443638</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915">
-        <v>515.4828975470748</v>
+        <v>633.1022154964787</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>745.4998516281421</v>
+        <v>685.6526060678412</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>416.2951143160047</v>
+        <v>355.3490047915529</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>404.5102844680903</v>
+        <v>324.8273392759264</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919">
-        <v>464.63344959638</v>
+        <v>521.2996472542039</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>1426.07202579392</v>
+        <v>1638.797254604991</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>369.7678414949905</v>
+        <v>448.2433520055401</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>212.3816850415188</v>
+        <v>212.3160345031947</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>486.8334952839245</v>
+        <v>438.7897772064641</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>129.3794656978742</v>
+        <v>120.8009020780303</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>315.1505812756045</v>
+        <v>278.5451117131382</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926">
-        <v>251.0937666805811</v>
+        <v>285.8374291180377</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>868.0288696213838</v>
+        <v>793.981972081955</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>225.3513970865463</v>
+        <v>230.9984066352787</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929">
-        <v>318.294220206932</v>
+        <v>322.1364304667604</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>1074.890124957592</v>
+        <v>986.6526983490737</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931">
-        <v>256.1185119989372</v>
+        <v>276.1136329729691</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932">
-        <v>801.0440372211001</v>
+        <v>859.089469955724</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>481.7788655776169</v>
+        <v>492.7472429669431</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>318.6096050841249</v>
+        <v>284.8495033990166</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935">
-        <v>185.0879677228486</v>
+        <v>193.9337923350203</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>135.9619091437933</v>
+        <v>135.9657195802912</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937">
-        <v>319.2403717061155</v>
+        <v>292.0044939004557</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>641.8899002370752</v>
+        <v>778.187868832331</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939">
-        <v>307.0539576543226</v>
+        <v>277.7247325811087</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940">
-        <v>319.9989982618359</v>
+        <v>336.6797482243499</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941">
-        <v>225.5758309750832</v>
+        <v>217.6524902316028</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>1006.476734661491</v>
+        <v>1019.044595421747</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943">
-        <v>215.218361009368</v>
+        <v>229.1114213073984</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944">
-        <v>296.8010017329165</v>
+        <v>357.2617523935765</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945">
-        <v>451.0499895112856</v>
+        <v>453.2354025105082</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946">
-        <v>463.4227426475751</v>
+        <v>471.8258426300143</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947">
-        <v>369.3846866579374</v>
+        <v>381.3481042752387</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948">
-        <v>473.3692892517223</v>
+        <v>524.5096910335971</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949">
-        <v>335.4623397501173</v>
+        <v>307.3871822654984</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>346.3815692582975</v>
+        <v>346.9483262472486</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>274.0185385699651</v>
+        <v>295.4925907711486</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>294.4487704139036</v>
+        <v>326.7936526558478</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>424.901298155643</v>
+        <v>424.2356612983214</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954">
-        <v>293.7235107367298</v>
+        <v>269.292138556329</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955">
-        <v>663.1030509564081</v>
+        <v>597.3762722439715</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956">
-        <v>483.1833838077367</v>
+        <v>481.0644217253067</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957">
-        <v>261.1320802406557</v>
+        <v>210.4874413416779</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>708.4306491788715</v>
+        <v>625.6607275493467</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959">
-        <v>419.7671654328059</v>
+        <v>496.7210246093634</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960">
-        <v>269.6512031596126</v>
+        <v>254.5105274817616</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>418.2828092618562</v>
+        <v>436.7593699205473</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962">
-        <v>492.0635955173506</v>
+        <v>448.3974458238246</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>211.6831527137952</v>
+        <v>199.7574087608922</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>793.4446721829169</v>
+        <v>794.096233267245</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965">
-        <v>360.4770446901103</v>
+        <v>406.0198023205002</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966">
-        <v>522.7809222698854</v>
+        <v>586.5508147327674</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967">
-        <v>224.2888762154359</v>
+        <v>205.1524231601352</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968">
-        <v>408.5705428271033</v>
+        <v>371.4339402696933</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969">
-        <v>360.7623098918593</v>
+        <v>368.4166047199918</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970">
-        <v>401.1582495614265</v>
+        <v>417.0023129894073</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971">
-        <v>598.0075094430189</v>
+        <v>601.922603703235</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>507.8033160498904</v>
+        <v>488.6604200669859</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>568.2711386368513</v>
+        <v>432.502560526449</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974">
-        <v>543.3369694095616</v>
+        <v>523.3917804850309</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975">
-        <v>798.8872309006729</v>
+        <v>709.8049913430609</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>269.5389659672093</v>
+        <v>301.9645860808806</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977">
-        <v>319.0751492616632</v>
+        <v>402.0359347989545</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978">
-        <v>420.046999717125</v>
+        <v>372.3734880897572</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979">
-        <v>321.8062715524459</v>
+        <v>304.6845670644037</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980">
-        <v>775.8756385462336</v>
+        <v>828.5757219251552</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981">
-        <v>185.1894097008326</v>
+        <v>188.7802159377752</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982">
-        <v>158.1894667729947</v>
+        <v>149.8576200889322</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983">
-        <v>408.2396601134394</v>
+        <v>395.0786203751303</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984">
-        <v>80.28998280934745</v>
+        <v>74.60730464237233</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985">
-        <v>591.9924989190307</v>
+        <v>711.6105954925578</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986">
-        <v>581.3561758965583</v>
+        <v>561.3445503281973</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987">
-        <v>352.6239151260416</v>
+        <v>327.7334321523304</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>478.7794256057345</v>
+        <v>425.755945918922</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989">
-        <v>530.2033092979942</v>
+        <v>452.8293988565075</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990">
-        <v>427.383672910501</v>
+        <v>435.5820653092803</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991">
-        <v>395.9672778067884</v>
+        <v>412.5123132134265</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992">
-        <v>344.5732437657056</v>
+        <v>299.2125574928508</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993">
-        <v>503.1304349029234</v>
+        <v>431.206065647951</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994">
-        <v>476.4767317179449</v>
+        <v>599.5242844576726</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995">
-        <v>1287.802965956934</v>
+        <v>1511.387692864098</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>279.4343726067818</v>
+        <v>292.6167200293582</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997">
-        <v>1134.96219864293</v>
+        <v>1110.004311120645</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998">
-        <v>208.0552164822697</v>
+        <v>239.8346968764863</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999">
-        <v>282.5118379590862</v>
+        <v>281.1516934569557</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000">
-        <v>146.6040930967664</v>
+        <v>151.1254745930432</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001">
-        <v>309.8267551054435</v>
+        <v>306.9920788170894</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002">
-        <v>206.2157979139914</v>
+        <v>199.7375761758918</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003">
-        <v>239.2991231647466</v>
+        <v>229.6262614582665</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004">
-        <v>466.454461891597</v>
+        <v>457.2851509330254</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005">
-        <v>214.6008538496111</v>
+        <v>224.6872589545492</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006">
-        <v>350.737429705923</v>
+        <v>344.8487478672861</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007">
-        <v>444.1623625240217</v>
+        <v>405.5025340996213</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008">
-        <v>437.3882336275208</v>
+        <v>379.5883689985397</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009">
-        <v>334.4608453602102</v>
+        <v>352.5102025035854</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010">
-        <v>413.6226678917738</v>
+        <v>404.9091724373927</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011">
-        <v>630.3187798047999</v>
+        <v>623.4734246144035</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012">
-        <v>508.5699469522617</v>
+        <v>511.1835685220655</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013">
-        <v>1030.457055844631</v>
+        <v>1048.361123103384</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014">
-        <v>509.8322055502911</v>
+        <v>555.6481184504046</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015">
-        <v>277.9383794191988</v>
+        <v>247.9866222125802</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016">
-        <v>271.7079452311601</v>
+        <v>298.670334512815</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017">
-        <v>406.1034908432895</v>
+        <v>418.042511094659</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018">
-        <v>145.287742115573</v>
+        <v>164.5989512208306</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>303.3869680997135</v>
+        <v>312.3724176667368</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020">
-        <v>245.2814012338563</v>
+        <v>230.4307671680309</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>317.6805943627555</v>
+        <v>290.6633649115029</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>304.0005608739074</v>
+        <v>304.3522282052369</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023">
-        <v>301.9537017037484</v>
+        <v>278.441753333206</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024">
-        <v>324.073525843247</v>
+        <v>319.324626490369</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025">
-        <v>406.8142681633428</v>
+        <v>394.0098517263576</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026">
-        <v>323.809585983042</v>
+        <v>328.0577585324519</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027">
-        <v>259.7327652367173</v>
+        <v>276.3756385308996</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028">
-        <v>425.5949165147395</v>
+        <v>367.9985556324555</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029">
-        <v>304.1143186369998</v>
+        <v>274.9104315721389</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030">
-        <v>278.7477047259944</v>
+        <v>279.5960171707673</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>505.2773879722779</v>
+        <v>482.8975619011284</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032">
-        <v>243.925021052649</v>
+        <v>249.353287760114</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033">
-        <v>568.0131662875169</v>
+        <v>585.4867040130556</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>255.4296281073753</v>
+        <v>251.8123903817699</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>250.5663265061799</v>
+        <v>254.0693657954815</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036">
-        <v>291.8651579453661</v>
+        <v>258.8913146653045</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>547.3098476728404</v>
+        <v>582.818634151443</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038">
-        <v>318.1173738833552</v>
+        <v>291.8112880913489</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039">
-        <v>72.22322915482012</v>
+        <v>69.6656329321175</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040">
-        <v>271.9160558916522</v>
+        <v>283.4796422536569</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041">
-        <v>291.0828001420432</v>
+        <v>293.5143336643313</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042">
-        <v>165.3438280425058</v>
+        <v>163.5023002965158</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>446.1323359101892</v>
+        <v>551.5510529978179</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044">
-        <v>497.0653588339316</v>
+        <v>451.0896422759805</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>1024.461371040039</v>
+        <v>1080.41042509491</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>463.5438343902691</v>
+        <v>393.1757474445195</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047">
-        <v>315.3279794157806</v>
+        <v>234.3360206624029</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>363.7029291044689</v>
+        <v>337.1294713907289</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049">
-        <v>394.0344047495381</v>
+        <v>311.6895755099324</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>507.827817279296</v>
+        <v>504.1276646782982</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051">
-        <v>264.3047035394379</v>
+        <v>263.9151184789074</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>903.9481229820425</v>
+        <v>1137.655835388345</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053">
-        <v>355.9068790184047</v>
+        <v>365.2698128793651</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>2241.787245590414</v>
+        <v>2202.709595008168</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055">
-        <v>364.8361965362107</v>
+        <v>286.3820356079436</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>741.314683473237</v>
+        <v>751.7279941981711</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>357.2707782507425</v>
+        <v>353.6757328854756</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>1298.332340143723</v>
+        <v>1341.292017582412</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059">
-        <v>283.917836372061</v>
+        <v>291.6537655901124</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>614.5772818144884</v>
+        <v>624.6932892469285</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061">
-        <v>264.4632932812947</v>
+        <v>257.6360343091404</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062">
-        <v>299.97881567651</v>
+        <v>318.8112188245107</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>211.1775331639008</v>
+        <v>189.7517677171052</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>732.1308358760357</v>
+        <v>751.8987892672944</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>281.6205724294714</v>
+        <v>300.6945101317007</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>675.8065184946488</v>
+        <v>532.7062556990177</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>495.9445448490062</v>
+        <v>490.5941274460384</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068">
-        <v>289.6720782679089</v>
+        <v>292.8552877195503</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069">
-        <v>409.5294281412075</v>
+        <v>360.0194635165856</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>399.2865782159481</v>
+        <v>397.7077827750373</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>316.252380775383</v>
+        <v>334.1775660962091</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>503.816367929034</v>
+        <v>386.1289691919586</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073">
-        <v>277.9342188293743</v>
+        <v>278.7163798345476</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074">
-        <v>342.4814531969136</v>
+        <v>334.7684924781124</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075">
-        <v>253.5202323012042</v>
+        <v>248.0119898245899</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076">
-        <v>416.0073719104745</v>
+        <v>474.8876929355966</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077">
-        <v>762.3054467342624</v>
+        <v>816.1245250987423</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>274.7765260300147</v>
+        <v>300.2476832675243</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079">
-        <v>641.6160345922113</v>
+        <v>676.4296259207945</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>309.2123124542709</v>
+        <v>354.5185460393615</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>327.3936161448913</v>
+        <v>285.302143368184</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>504.3808526090619</v>
+        <v>458.8900377123509</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>311.60825946485</v>
+        <v>310.6011083907064</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>333.9783650145824</v>
+        <v>406.8155081949169</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>211.9675245157499</v>
+        <v>230.6833035139999</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>512.7418065870899</v>
+        <v>470.5381614397604</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>321.8683733972792</v>
+        <v>278.0311182982194</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>341.9506877760534</v>
+        <v>374.080872639512</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>258.693830974008</v>
+        <v>249.1742309769784</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>273.8108161795174</v>
+        <v>276.525863786239</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>311.8695712590912</v>
+        <v>309.7941499237355</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>299.7647733965049</v>
+        <v>280.3561954074816</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>282.3303438974031</v>
+        <v>252.2792791695943</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>759.7175281105577</v>
+        <v>827.0609257752035</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>413.9357817859528</v>
+        <v>415.5653919827843</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>466.6946518057383</v>
+        <v>433.6034049237892</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>618.0584663388806</v>
+        <v>631.1480007939093</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>706.9668534090932</v>
+        <v>618.2849797018654</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>334.5218794443638</v>
+        <v>351.0308670688246</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>289.6251590647088</v>
+        <v>310.2510141741598</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>476.4536484045693</v>
+        <v>568.1350929059736</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>443.0779588723537</v>
+        <v>388.4265289584349</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>557.2206943367391</v>
+        <v>779.7912932339178</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>693.7297788591421</v>
+        <v>679.8271513701089</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>377.9953915442279</v>
+        <v>355.3622330479169</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>193.2656622534498</v>
+        <v>192.2584929174184</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>272.0192443998461</v>
+        <v>302.4387703901551</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>423.1977773481265</v>
+        <v>398.8836874353956</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>689.5200180791425</v>
+        <v>813.4743282204778</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>372.1826205189305</v>
+        <v>331.3171456444839</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>198.7597707821789</v>
+        <v>194.6307424494673</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112">
-        <v>62.28287647397362</v>
+        <v>58.9444430457924</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113">
-        <v>527.3298664355272</v>
+        <v>446.8482816877394</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114">
-        <v>455.6551113918462</v>
+        <v>375.0709651309544</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115">
-        <v>346.3924836578555</v>
+        <v>375.8159308040445</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116">
-        <v>296.2185153699916</v>
+        <v>283.4116550458083</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117">
-        <v>942.6611734937132</v>
+        <v>896.3457761803927</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118">
-        <v>316.6595102664563</v>
+        <v>297.7512368967732</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119">
-        <v>350.4388811119672</v>
+        <v>393.4270132074514</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120">
-        <v>252.3216196017196</v>
+        <v>244.0087886307298</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121">
-        <v>331.3548653649593</v>
+        <v>308.0451337066112</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>298.159422535683</v>
+        <v>301.206515469442</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123">
-        <v>905.6634579390216</v>
+        <v>999.3220287366902</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124">
-        <v>1091.640529410921</v>
+        <v>881.1231136871112</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125">
-        <v>653.2839457398269</v>
+        <v>655.0637873851157</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126">
-        <v>488.1162661037477</v>
+        <v>506.5357127296311</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127">
-        <v>326.7941802873713</v>
+        <v>353.9217358593684</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128">
-        <v>760.8350343578146</v>
+        <v>685.3143465968869</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129">
-        <v>263.6257243832544</v>
+        <v>293.4928399736121</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130">
-        <v>275.6812941808479</v>
+        <v>285.4006500778188</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131">
-        <v>458.3484178892346</v>
+        <v>518.150651987521</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132">
-        <v>228.1539404921502</v>
+        <v>223.6388535691193</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133">
-        <v>172.5135148837931</v>
+        <v>213.2604688610303</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134">
-        <v>354.737623577469</v>
+        <v>437.3299043616702</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135">
-        <v>245.2344476916389</v>
+        <v>217.8332889912865</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136">
-        <v>290.1570301236552</v>
+        <v>290.7246511439166</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137">
-        <v>231.3716194071444</v>
+        <v>244.8339612185054</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138">
-        <v>552.1687651489671</v>
+        <v>491.4417604833886</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139">
-        <v>76.29036772851936</v>
+        <v>78.18616290272463</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140">
-        <v>163.6416838526148</v>
+        <v>161.831101458768</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141">
-        <v>743.3335685539809</v>
+        <v>792.4588835290652</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142">
-        <v>289.0645832585357</v>
+        <v>270.4219677136313</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143">
-        <v>615.4037373947183</v>
+        <v>634.7595717364039</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144">
-        <v>411.1518100724653</v>
+        <v>417.4906398748814</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145">
-        <v>552.4775395526021</v>
+        <v>474.8122926010188</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146">
-        <v>392.3290877136268</v>
+        <v>417.23901934796</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147">
-        <v>369.395191751971</v>
+        <v>378.3345585873612</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148">
-        <v>629.3404670415742</v>
+        <v>557.3179451625518</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149">
-        <v>275.35401991276</v>
+        <v>275.556511934233</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150">
-        <v>264.6039363935063</v>
+        <v>239.9933433458555</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151">
-        <v>493.8481885933366</v>
+        <v>535.6055689179433</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>334.361933955978</v>
+        <v>343.2244062364296</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>453.6328795635561</v>
+        <v>408.8464248258207</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>451.5764779427253</v>
+        <v>496.5467602510263</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>620.9288960351793</v>
+        <v>623.6978748128939</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>254.8067105253207</v>
+        <v>231.0000344389578</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>833.4445458217358</v>
+        <v>878.6200870727461</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>313.2251495820557</v>
+        <v>320.850520545571</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>250.809313137375</v>
+        <v>266.4469987585803</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>383.8255443011625</v>
+        <v>398.5636803484833</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>852.829117372706</v>
+        <v>966.2412797891334</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>237.7276605937867</v>
+        <v>212.5726649877537</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>837.3517523499415</v>
+        <v>763.3940423089903</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>275.4559925050491</v>
+        <v>269.2352233661875</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>331.7283157306023</v>
+        <v>318.0804777182759</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>711.1758393884897</v>
+        <v>606.3386578831881</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>536.5084187577809</v>
+        <v>657.6670283523753</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>257.5439242633895</v>
+        <v>244.5698818815219</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>794.6459739574647</v>
+        <v>830.7456651141692</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>376.8429175724389</v>
+        <v>357.2085564129478</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>311.1530839915078</v>
+        <v>286.4765043649572</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>326.4945340004202</v>
+        <v>327.4409876788096</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>306.0850251542012</v>
+        <v>265.0557182754459</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>655.0998478441854</v>
+        <v>617.4618949047413</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>232.5340048292078</v>
+        <v>191.3840568081242</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>311.6479408513061</v>
+        <v>312.6744843974175</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>285.9738651266561</v>
+        <v>376.6250871206174</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>403.4509493752031</v>
+        <v>411.7822264122917</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>481.7396927095895</v>
+        <v>571.108765557013</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>322.8198185848138</v>
+        <v>328.099758806411</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>677.6486739668427</v>
+        <v>616.045448231209</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>703.1520748829412</v>
+        <v>726.8913196363497</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>343.7640740852102</v>
+        <v>368.4020902215623</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>651.0652681618742</v>
+        <v>577.0669373216581</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>315.6581988676751</v>
+        <v>317.5899353030657</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>460.1273007988322</v>
+        <v>450.6623983615689</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>311.2235321300449</v>
+        <v>310.3671731057402</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>1402.119275992024</v>
+        <v>1486.988159218915</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>477.4673820565125</v>
+        <v>480.955777997709</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>624.921070937695</v>
+        <v>784.0593866185754</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>302.5240543097848</v>
+        <v>348.5383795109962</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>324.650720900788</v>
+        <v>333.3503109518832</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>376.1972036115229</v>
+        <v>458.6794520779841</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>304.7597928826733</v>
+        <v>279.26293817935</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>364.7373525654729</v>
+        <v>283.0106344669373</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>309.0806598436954</v>
+        <v>340.5675734160259</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>426.5377780919503</v>
+        <v>385.3160765126669</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>889.7480204756308</v>
+        <v>800.6380179940346</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>706.5480687694302</v>
+        <v>745.9234989663469</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>449.3671800639735</v>
+        <v>418.1298533480278</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>331.6641788119975</v>
+        <v>372.6886954568176</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>289.1442476428176</v>
+        <v>289.8327558116601</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>228.9426988705113</v>
+        <v>240.7388389744578</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>120.9894552542684</v>
+        <v>114.2432788432153</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>379.4269661692672</v>
+        <v>366.5982270626917</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>305.1654031567011</v>
+        <v>308.3797160784176</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>222.1031201620333</v>
+        <v>215.9961840280703</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>406.8433486286549</v>
+        <v>385.4687595259692</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>298.6660581563759</v>
+        <v>333.1925693941006</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>844.357206074577</v>
+        <v>658.0133694718518</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>545.186274157616</v>
+        <v>536.435297304222</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>710.5041209878964</v>
+        <v>751.8497789255147</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>817.7467400933535</v>
+        <v>761.6047027940665</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>349.8366120915184</v>
+        <v>353.4109667059932</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>316.5498804877848</v>
+        <v>315.4592418644904</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>346.0033480479488</v>
+        <v>344.7284622456507</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>563.1049197393965</v>
+        <v>593.8606902166143</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>392.7031550067929</v>
+        <v>373.4839714132987</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>365.2359653211183</v>
+        <v>375.3747062940321</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>201.7726761378032</v>
+        <v>202.9817504635978</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>585.20683874894</v>
+        <v>565.1135616819234</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>297.3401173900984</v>
+        <v>320.9040971986111</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>373.855031376995</v>
+        <v>443.1313973727705</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>194.559731651034</v>
+        <v>198.4181329663403</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>511.7322453915232</v>
+        <v>508.696728018076</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>711.2379548887384</v>
+        <v>677.8370068176283</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>444.207891717649</v>
+        <v>470.4580363545876</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>262.7572605646947</v>
+        <v>260.8048763261312</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>447.3918537113582</v>
+        <v>409.5397801972284</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>495.4446836615923</v>
+        <v>451.0826898362539</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>396.2989351598093</v>
+        <v>412.8072292444949</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>492.0860653718747</v>
+        <v>518.8823666346736</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>297.048915659842</v>
+        <v>343.6581985126557</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>505.6606162308442</v>
+        <v>534.6074911750671</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>452.5139445020945</v>
+        <v>445.5321832466771</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>412.3745602153284</v>
+        <v>409.332658883001</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>770.5563399702515</v>
+        <v>677.2011721489574</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>689.2900009994502</v>
+        <v>771.5687015449256</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>348.5561159812748</v>
+        <v>351.4282685058974</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>326.3983802323787</v>
+        <v>338.5227640644032</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>473.6989377603954</v>
+        <v>478.8239671686048</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242">
-        <v>264.9739637424621</v>
+        <v>259.8433095571104</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>617.9859051076337</v>
+        <v>672.7561743264191</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244">
-        <v>250.230086537322</v>
+        <v>260.912202271408</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245">
-        <v>4005.459460009185</v>
+        <v>4120.163307884839</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246">
-        <v>288.5281312517587</v>
+        <v>332.5556282154572</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247">
-        <v>570.2968157564327</v>
+        <v>605.434504260424</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248">
-        <v>230.2035200935517</v>
+        <v>183.2157343918233</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249">
-        <v>265.1850943688927</v>
+        <v>248.3317984377238</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250">
-        <v>717.354521596465</v>
+        <v>830.5076482831265</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251">
-        <v>338.1308820105154</v>
+        <v>334.8628501373275</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252">
-        <v>603.8144963915933</v>
+        <v>609.8392794245385</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>318.3769258056056</v>
+        <v>327.3642818050764</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>230.1147348844207</v>
+        <v>288.1439547541983</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>306.0850251542012</v>
+        <v>265.0557182754459</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>365.3454186323809</v>
+        <v>391.8997940074613</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>1411.184015805132</v>
+        <v>1431.884158842611</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>297.979425624448</v>
+        <v>300.215287247272</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>320.8977104520149</v>
+        <v>350.3294295143554</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>443.9069185689054</v>
+        <v>447.0268452328396</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>234.9850730867133</v>
+        <v>225.5642940408989</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>408.2204794553449</v>
+        <v>468.7288174396083</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>247.2834433691493</v>
+        <v>301.1380349671494</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>829.0947959406384</v>
+        <v>968.27318263832</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>584.5911235669901</v>
+        <v>558.1548432951232</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>270.1131831827988</v>
+        <v>293.165375714713</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>312.1158507887593</v>
+        <v>374.4505788605394</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>390.1444321132465</v>
+        <v>350.4096778429133</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269">
-        <v>477.3791142712217</v>
+        <v>559.3085369523907</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270">
-        <v>432.5519440164359</v>
+        <v>462.0288644288553</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271">
-        <v>521.036094630022</v>
+        <v>577.2393845975104</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272">
-        <v>510.3520851828615</v>
+        <v>507.23465649769</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>232.3353486627353</v>
+        <v>223.4590009355684</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274">
-        <v>313.7426100514264</v>
+        <v>253.7622901452656</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275">
-        <v>285.0240054844373</v>
+        <v>266.6396731439532</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276">
-        <v>427.7444126915177</v>
+        <v>414.9914300284625</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277">
-        <v>269.7352393002657</v>
+        <v>274.8213142120949</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278">
-        <v>297.1675499923495</v>
+        <v>279.3383803333495</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279">
-        <v>931.0535008123039</v>
+        <v>910.3777070465211</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280">
-        <v>429.1914977740096</v>
+        <v>448.1134855192166</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281">
-        <v>537.8083912899141</v>
+        <v>673.4946538276675</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282">
-        <v>595.1598489437989</v>
+        <v>610.0915896356632</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283">
-        <v>350.1403303120773</v>
+        <v>350.0089737574109</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284">
-        <v>716.606250985139</v>
+        <v>667.8919212364151</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285">
-        <v>666.2892307665012</v>
+        <v>748.863272705539</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>435.0052247535472</v>
+        <v>440.969066625763</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287">
-        <v>298.8802865622937</v>
+        <v>273.3314969769315</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288">
-        <v>292.7253756553717</v>
+        <v>255.930721284916</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>495.0285929303058</v>
+        <v>571.0275363554132</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290">
-        <v>546.0924935008246</v>
+        <v>555.8396210917928</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>411.5228850760804</v>
+        <v>438.0726177203328</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>644.7216080007142</v>
+        <v>494.1982802283754</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>458.3742803061182</v>
+        <v>473.7016947934711</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294">
-        <v>206.2558343949905</v>
+        <v>182.8429837891323</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295">
-        <v>301.8054384035509</v>
+        <v>349.7253068799006</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296">
-        <v>437.8115972501506</v>
+        <v>438.5092539761305</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297">
-        <v>332.3318102371508</v>
+        <v>313.2328265498863</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298">
-        <v>622.7885185830977</v>
+        <v>649.0150530603261</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299">
-        <v>409.9059222324555</v>
+        <v>526.1607950505188</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300">
-        <v>140.6340758272277</v>
+        <v>158.6670684499333</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301">
-        <v>412.7312561170033</v>
+        <v>392.8200041872456</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302">
-        <v>587.3515488339208</v>
+        <v>566.5369166036189</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303">
-        <v>707.911643023099</v>
+        <v>991.8505531504951</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304">
-        <v>410.367929311785</v>
+        <v>451.1317640054633</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305">
-        <v>158.6776460258284</v>
+        <v>177.5883952844726</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>356.1710253329894</v>
+        <v>361.4222948992121</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307">
-        <v>321.3948327431856</v>
+        <v>270.9618913152233</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308">
-        <v>1088.294320542809</v>
+        <v>1097.560414507164</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309">
-        <v>799.080457194253</v>
+        <v>778.0729314764687</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310">
-        <v>666.4255452995003</v>
+        <v>663.7396662962502</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311">
-        <v>816.8149922665697</v>
+        <v>841.5911903389206</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
       <c r="A1312">
-        <v>696.156036207833</v>
+        <v>631.3968798558169</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313">
-        <v>867.78596608311</v>
+        <v>1096.063646526289</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314">
-        <v>285.8558671352487</v>
+        <v>252.7422178301326</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>503.5115357065437</v>
+        <v>480.7676612375147</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316">
-        <v>1010.192437229351</v>
+        <v>975.9919324325241</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
       <c r="A1317">
-        <v>168.6995368159327</v>
+        <v>189.5675101471077</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>318.270032780194</v>
+        <v>318.6638653781876</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319">
-        <v>387.057166524179</v>
+        <v>388.1227575062159</v>
       </c>
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320">
-        <v>505.3072811883159</v>
+        <v>498.9488339135899</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
       <c r="A1321">
-        <v>445.4158898951109</v>
+        <v>457.4771772061293</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322">
-        <v>242.282106369789</v>
+        <v>220.9017219291456</v>
       </c>
     </row>
     <row r="1323" spans="1:1">
       <c r="A1323">
-        <v>267.2030153665766</v>
+        <v>284.802854781341</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>382.8965247509801</v>
+        <v>400.36191153318</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325">
-        <v>2018.65290831062</v>
+        <v>2168.833913389532</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
       <c r="A1326">
-        <v>446.0735779936792</v>
+        <v>466.8198663596036</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327">
-        <v>467.5849452838036</v>
+        <v>556.3731115851214</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328">
-        <v>519.0367936013408</v>
+        <v>538.4907168854963</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329">
-        <v>630.6612565884718</v>
+        <v>741.0704901659739</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330">
-        <v>917.2533910913148</v>
+        <v>907.7768786135834</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331">
-        <v>304.8739690197294</v>
+        <v>302.3827389801907</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>683.0354296652148</v>
+        <v>752.32255948597</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333">
-        <v>1128.091017755392</v>
+        <v>1003.667096152777</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334">
-        <v>1071.632150890158</v>
+        <v>1020.835712783106</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335">
-        <v>335.4688691881223</v>
+        <v>340.3441857194072</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336">
-        <v>216.3286669145594</v>
+        <v>226.0836972459953</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337">
-        <v>281.7017136867132</v>
+        <v>285.9943317892944</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338">
-        <v>326.7771994416041</v>
+        <v>298.6260581895529</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339">
-        <v>310.4844375755592</v>
+        <v>348.1841050148117</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340">
-        <v>119.7488739144295</v>
+        <v>120.9758567948537</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341">
-        <v>230.6850139407173</v>
+        <v>216.8781896096483</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342">
-        <v>356.8255880140876</v>
+        <v>292.0222273190167</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343">
-        <v>461.127327614177</v>
+        <v>416.8251847485502</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344">
-        <v>494.3696847509015</v>
+        <v>467.596544137767</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345">
-        <v>238.9385385207207</v>
+        <v>230.8044355205017</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346">
-        <v>1031.166392434276</v>
+        <v>1233.565585244669</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347">
-        <v>171.9423957740896</v>
+        <v>169.1820523301322</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348">
-        <v>253.9078947439082</v>
+        <v>258.3994358187693</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349">
-        <v>276.5452716444622</v>
+        <v>281.3465150392661</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350">
-        <v>566.7134270428426</v>
+        <v>623.1195369691403</v>
       </c>
     </row>
     <row r="1351" spans="1:1">
       <c r="A1351">
-        <v>334.1172631833292</v>
+        <v>372.1406233580855</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352">
-        <v>511.846436155423</v>
+        <v>499.009430624932</v>
       </c>
     </row>
     <row r="1353" spans="1:1">
       <c r="A1353">
-        <v>468.7705166359571</v>
+        <v>459.9471123211957</v>
       </c>
     </row>
     <row r="1354" spans="1:1">
       <c r="A1354">
-        <v>1157.588791361949</v>
+        <v>1272.380996840815</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355">
-        <v>423.2236104589667</v>
+        <v>442.7629067442041</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356">
-        <v>292.8542817406395</v>
+        <v>304.1302516276928</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357">
-        <v>400.0990813889952</v>
+        <v>373.9835081252394</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358">
-        <v>431.2590340620455</v>
+        <v>431.4087022858423</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359">
-        <v>533.3387308962579</v>
+        <v>554.0602052711458</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360">
-        <v>923.9752302732579</v>
+        <v>987.3711612546066</v>
       </c>
     </row>
     <row r="1361" spans="1:1">
       <c r="A1361">
-        <v>525.1750361317388</v>
+        <v>525.5758999783848</v>
       </c>
     </row>
     <row r="1362" spans="1:1">
       <c r="A1362">
-        <v>787.2383559859898</v>
+        <v>753.7406739850619</v>
       </c>
     </row>
     <row r="1363" spans="1:1">
       <c r="A1363">
-        <v>307.9596386403204</v>
+        <v>252.3842620368097</v>
       </c>
     </row>
     <row r="1364" spans="1:1">
       <c r="A1364">
-        <v>730.6161277779457</v>
+        <v>671.1063960276449</v>
       </c>
     </row>
     <row r="1365" spans="1:1">
       <c r="A1365">
-        <v>260.3354120697845</v>
+        <v>247.3998158728113</v>
       </c>
     </row>
     <row r="1366" spans="1:1">
       <c r="A1366">
-        <v>784.2620631557419</v>
+        <v>712.60351542323</v>
       </c>
     </row>
     <row r="1367" spans="1:1">
       <c r="A1367">
-        <v>345.5216765653771</v>
+        <v>358.1147253446657</v>
       </c>
     </row>
     <row r="1368" spans="1:1">
       <c r="A1368">
-        <v>662.0577869243926</v>
+        <v>681.0391590926743</v>
       </c>
     </row>
     <row r="1369" spans="1:1">
       <c r="A1369">
-        <v>1136.964926883437</v>
+        <v>1389.929999533126</v>
       </c>
     </row>
     <row r="1370" spans="1:1">
       <c r="A1370">
-        <v>581.5351244061699</v>
+        <v>621.1835233267632</v>
       </c>
     </row>
     <row r="1371" spans="1:1">
       <c r="A1371">
-        <v>411.0698219192586</v>
+        <v>333.2589726626431</v>
       </c>
     </row>
     <row r="1372" spans="1:1">
       <c r="A1372">
-        <v>305.67254113449</v>
+        <v>366.0550839068796</v>
       </c>
     </row>
     <row r="1373" spans="1:1">
       <c r="A1373">
-        <v>216.5182145721317</v>
+        <v>220.1420052192435</v>
       </c>
     </row>
     <row r="1374" spans="1:1">
       <c r="A1374">
-        <v>462.3551318180732</v>
+        <v>407.8336594224636</v>
       </c>
     </row>
     <row r="1375" spans="1:1">
       <c r="A1375">
-        <v>557.2522591517942</v>
+        <v>574.4376235899041</v>
       </c>
     </row>
     <row r="1376" spans="1:1">
       <c r="A1376">
-        <v>1283.070103409965</v>
+        <v>1268.315489252488</v>
       </c>
     </row>
     <row r="1377" spans="1:1">
       <c r="A1377">
-        <v>377.5804982778014</v>
+        <v>448.372201760931</v>
       </c>
     </row>
     <row r="1378" spans="1:1">
       <c r="A1378">
-        <v>1305.185285560299</v>
+        <v>1287.307846968682</v>
       </c>
     </row>
     <row r="1379" spans="1:1">
       <c r="A1379">
-        <v>220.889404143077</v>
+        <v>215.0331835301892</v>
       </c>
     </row>
     <row r="1380" spans="1:1">
       <c r="A1380">
-        <v>434.0464969885352</v>
+        <v>471.5112602980379</v>
       </c>
     </row>
     <row r="1381" spans="1:1">
       <c r="A1381">
-        <v>332.8643126149166</v>
+        <v>320.2631459733421</v>
       </c>
     </row>
     <row r="1382" spans="1:1">
       <c r="A1382">
-        <v>332.5097482510005</v>
+        <v>328.0961828797877</v>
       </c>
     </row>
     <row r="1383" spans="1:1">
       <c r="A1383">
-        <v>245.287787197675</v>
+        <v>288.0202449451461</v>
       </c>
     </row>
     <row r="1384" spans="1:1">
       <c r="A1384">
-        <v>241.3190771558341</v>
+        <v>238.3358646126835</v>
       </c>
     </row>
     <row r="1385" spans="1:1">
       <c r="A1385">
-        <v>809.2149335156215</v>
+        <v>806.0520369938406</v>
       </c>
     </row>
     <row r="1386" spans="1:1">
       <c r="A1386">
-        <v>285.8762666334403</v>
+        <v>277.6805463711099</v>
       </c>
     </row>
     <row r="1387" spans="1:1">
       <c r="A1387">
-        <v>446.2705475859414</v>
+        <v>424.339780758283</v>
       </c>
     </row>
     <row r="1388" spans="1:1">
       <c r="A1388">
-        <v>599.9423382396151</v>
+        <v>609.319913211183</v>
       </c>
     </row>
     <row r="1389" spans="1:1">
       <c r="A1389">
-        <v>769.9545770081381</v>
+        <v>917.2042086672897</v>
       </c>
     </row>
     <row r="1390" spans="1:1">
       <c r="A1390">
-        <v>310.0433865071056</v>
+        <v>273.2297120295572</v>
       </c>
     </row>
     <row r="1391" spans="1:1">
       <c r="A1391">
-        <v>153.624855845959</v>
+        <v>163.7433586844132</v>
       </c>
     </row>
     <row r="1392" spans="1:1">
       <c r="A1392">
-        <v>642.6721724249527</v>
+        <v>626.0349350264603</v>
       </c>
     </row>
     <row r="1393" spans="1:1">
       <c r="A1393">
-        <v>381.5818061717005</v>
+        <v>377.0285039250405</v>
       </c>
     </row>
     <row r="1394" spans="1:1">
       <c r="A1394">
-        <v>525.3554132843597</v>
+        <v>440.7772600339972</v>
       </c>
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395">
-        <v>1050.631001604566</v>
+        <v>1081.032256724822</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
       <c r="A1396">
-        <v>297.4635264847271</v>
+        <v>253.6149209576735</v>
       </c>
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397">
-        <v>232.8748968792184</v>
+        <v>213.4135509849123</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
       <c r="A1398">
-        <v>503.00088547726</v>
+        <v>476.1598803013786</v>
       </c>
     </row>
     <row r="1399" spans="1:1">
       <c r="A1399">
-        <v>268.7468012947814</v>
+        <v>245.1866340621866</v>
       </c>
     </row>
     <row r="1400" spans="1:1">
       <c r="A1400">
-        <v>342.9293487418761</v>
+        <v>346.6324859285767</v>
       </c>
     </row>
     <row r="1401" spans="1:1">
       <c r="A1401">
-        <v>472.9546919111628</v>
+        <v>424.2709746207022</v>
       </c>
     </row>
     <row r="1402" spans="1:1">
       <c r="A1402">
-        <v>918.8869148902089</v>
+        <v>934.322238301718</v>
       </c>
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403">
-        <v>950.9192818425765</v>
+        <v>827.2822184665624</v>
       </c>
     </row>
     <row r="1404" spans="1:1">
       <c r="A1404">
-        <v>842.6284463056153</v>
+        <v>851.762348998496</v>
       </c>
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405">
-        <v>120.0332124716115</v>
+        <v>111.6842521222109</v>
       </c>
     </row>
     <row r="1406" spans="1:1">
       <c r="A1406">
-        <v>362.6247458826778</v>
+        <v>440.2004695220015</v>
       </c>
     </row>
     <row r="1407" spans="1:1">
       <c r="A1407">
-        <v>254.7080454295577</v>
+        <v>241.6300709763515</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
       <c r="A1408">
-        <v>310.7247470468009</v>
+        <v>307.8341870720914</v>
       </c>
     </row>
     <row r="1409" spans="1:1">
       <c r="A1409">
-        <v>218.8485856721182</v>
+        <v>221.4591752910123</v>
       </c>
     </row>
     <row r="1410" spans="1:1">
       <c r="A1410">
-        <v>1464.614247270496</v>
+        <v>1499.163848521341</v>
       </c>
     </row>
     <row r="1411" spans="1:1">
       <c r="A1411">
-        <v>499.0415027596806</v>
+        <v>543.5572010925636</v>
       </c>
     </row>
     <row r="1412" spans="1:1">
       <c r="A1412">
-        <v>619.6670390273222</v>
+        <v>663.0005939484373</v>
       </c>
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413">
-        <v>561.7356953963151</v>
+        <v>596.4988614105275</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
       <c r="A1414">
-        <v>706.7077931295989</v>
+        <v>702.0401586556445</v>
       </c>
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415">
-        <v>615.684296339335</v>
+        <v>585.1733530400336</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
       <c r="A1416">
-        <v>143.2101764698212</v>
+        <v>111.8896025478706</v>
       </c>
     </row>
     <row r="1417" spans="1:1">
       <c r="A1417">
-        <v>369.2949612304313</v>
+        <v>407.5083682440866</v>
       </c>
     </row>
     <row r="1418" spans="1:1">
       <c r="A1418">
-        <v>305.9337600131713</v>
+        <v>250.613574206877</v>
       </c>
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419">
-        <v>337.9786301095831</v>
+        <v>310.1588227828893</v>
       </c>
     </row>
     <row r="1420" spans="1:1">
       <c r="A1420">
-        <v>417.3507923502814</v>
+        <v>491.5752561036379</v>
       </c>
     </row>
     <row r="1421" spans="1:1">
       <c r="A1421">
-        <v>423.2142357430922</v>
+        <v>448.8353550577829</v>
       </c>
     </row>
     <row r="1422" spans="1:1">
       <c r="A1422">
-        <v>388.0686996677713</v>
+        <v>408.0337020057981</v>
       </c>
     </row>
     <row r="1423" spans="1:1">
       <c r="A1423">
-        <v>197.2227900918738</v>
+        <v>195.603319627083</v>
       </c>
     </row>
     <row r="1424" spans="1:1">
       <c r="A1424">
-        <v>887.4512998323733</v>
+        <v>906.0719724825445</v>
       </c>
     </row>
     <row r="1425" spans="1:1">
       <c r="A1425">
-        <v>705.1025957226876</v>
+        <v>691.3892890620981</v>
       </c>
     </row>
     <row r="1426" spans="1:1">
       <c r="A1426">
-        <v>299.4460102952185</v>
+        <v>316.7530421867825</v>
       </c>
     </row>
     <row r="1427" spans="1:1">
       <c r="A1427">
-        <v>270.6300089285688</v>
+        <v>303.7525739268257</v>
       </c>
     </row>
     <row r="1428" spans="1:1">
       <c r="A1428">
-        <v>250.5322546765271</v>
+        <v>266.1378693115909</v>
       </c>
     </row>
     <row r="1429" spans="1:1">
       <c r="A1429">
-        <v>441.4230037677245</v>
+        <v>481.4667849989511</v>
       </c>
     </row>
     <row r="1430" spans="1:1">
       <c r="A1430">
-        <v>311.1610334830902</v>
+        <v>305.7420049442439</v>
       </c>
     </row>
     <row r="1431" spans="1:1">
       <c r="A1431">
-        <v>931.7230654185294</v>
+        <v>975.6778178726539</v>
       </c>
     </row>
     <row r="1432" spans="1:1">
       <c r="A1432">
-        <v>778.073774920666</v>
+        <v>764.3436132482817</v>
       </c>
     </row>
     <row r="1433" spans="1:1">
       <c r="A1433">
-        <v>160.1872655377764</v>
+        <v>156.3366188824299</v>
       </c>
     </row>
     <row r="1434" spans="1:1">
       <c r="A1434">
-        <v>316.60983957396</v>
+        <v>320.9165857447875</v>
       </c>
     </row>
     <row r="1435" spans="1:1">
       <c r="A1435">
-        <v>264.5839573597162</v>
+        <v>274.8808895555172</v>
       </c>
     </row>
     <row r="1436" spans="1:1">
       <c r="A1436">
-        <v>570.5834211323908</v>
+        <v>702.9160675223899</v>
       </c>
     </row>
     <row r="1437" spans="1:1">
       <c r="A1437">
-        <v>794.6432509560407</v>
+        <v>829.1109778814132</v>
       </c>
     </row>
     <row r="1438" spans="1:1">
       <c r="A1438">
-        <v>468.0219868354895</v>
+        <v>392.5611800260934</v>
       </c>
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439">
-        <v>268.0851730254848</v>
+        <v>259.2629254371316</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
       <c r="A1440">
-        <v>252.6597444895842</v>
+        <v>299.4514882813325</v>
       </c>
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441">
-        <v>260.8782462217316</v>
+        <v>290.7359434470634</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
       <c r="A1442">
-        <v>227.751950618333</v>
+        <v>235.5896638850795</v>
       </c>
     </row>
     <row r="1443" spans="1:1">
       <c r="A1443">
-        <v>1506.494811403953</v>
+        <v>1458.476786916681</v>
       </c>
     </row>
     <row r="1444" spans="1:1">
       <c r="A1444">
-        <v>347.2642038332253</v>
+        <v>318.5142402656689</v>
       </c>
     </row>
     <row r="1445" spans="1:1">
       <c r="A1445">
-        <v>859.5044015794365</v>
+        <v>784.7868436001353</v>
       </c>
     </row>
     <row r="1446" spans="1:1">
       <c r="A1446">
-        <v>611.6163292526941</v>
+        <v>567.7941825000127</v>
       </c>
     </row>
     <row r="1447" spans="1:1">
       <c r="A1447">
-        <v>126.2660913331534</v>
+        <v>121.3793907439764</v>
       </c>
     </row>
     <row r="1448" spans="1:1">
       <c r="A1448">
-        <v>320.4298243525579</v>
+        <v>308.6652024464969</v>
       </c>
     </row>
     <row r="1449" spans="1:1">
       <c r="A1449">
-        <v>244.0246290433522</v>
+        <v>255.3073099806255</v>
       </c>
     </row>
     <row r="1450" spans="1:1">
       <c r="A1450">
-        <v>341.5644439397191</v>
+        <v>299.0496971361679</v>
       </c>
     </row>
     <row r="1451" spans="1:1">
       <c r="A1451">
-        <v>651.6849601574016</v>
+        <v>630.5279875661253</v>
       </c>
     </row>
     <row r="1452" spans="1:1">
       <c r="A1452">
-        <v>130.6294798603233</v>
+        <v>129.7092242986348</v>
       </c>
     </row>
     <row r="1453" spans="1:1">
       <c r="A1453">
-        <v>1242.912429794723</v>
+        <v>1369.467339848392</v>
       </c>
     </row>
     <row r="1454" spans="1:1">
       <c r="A1454">
-        <v>491.6758234248993</v>
+        <v>509.3559874391776</v>
       </c>
     </row>
     <row r="1455" spans="1:1">
       <c r="A1455">
-        <v>931.0535008123039</v>
+        <v>910.3777070465211</v>
       </c>
     </row>
     <row r="1456" spans="1:1">
       <c r="A1456">
-        <v>129.6177373239786</v>
+        <v>129.6604432134841</v>
       </c>
     </row>
     <row r="1457" spans="1:1">
       <c r="A1457">
-        <v>294.7795476278778</v>
+        <v>304.9484701856558</v>
       </c>
     </row>
     <row r="1458" spans="1:1">
       <c r="A1458">
-        <v>445.858070864545</v>
+        <v>419.5571636331192</v>
       </c>
     </row>
     <row r="1459" spans="1:1">
       <c r="A1459">
-        <v>479.9406224227191</v>
+        <v>491.7733992704373</v>
       </c>
     </row>
     <row r="1460" spans="1:1">
       <c r="A1460">
-        <v>2390.037392809944</v>
+        <v>2358.581913265317</v>
       </c>
     </row>
     <row r="1461" spans="1:1">
       <c r="A1461">
-        <v>741.4656720331682</v>
+        <v>684.8815747482782</v>
       </c>
     </row>
     <row r="1462" spans="1:1">
       <c r="A1462">
-        <v>397.4173973339753</v>
+        <v>465.7974407147344</v>
       </c>
     </row>
     <row r="1463" spans="1:1">
       <c r="A1463">
-        <v>382.0364584021792</v>
+        <v>362.9943132103436</v>
       </c>
     </row>
     <row r="1464" spans="1:1">
       <c r="A1464">
-        <v>666.682748221824</v>
+        <v>577.1109799080124</v>
       </c>
     </row>
     <row r="1465" spans="1:1">
       <c r="A1465">
-        <v>242.806218810401</v>
+        <v>287.6434399984483</v>
       </c>
     </row>
     <row r="1466" spans="1:1">
       <c r="A1466">
-        <v>1579.018488996704</v>
+        <v>1548.796900750999</v>
       </c>
     </row>
     <row r="1467" spans="1:1">
       <c r="A1467">
-        <v>324.1717324584441</v>
+        <v>312.7148911142797</v>
       </c>
     </row>
     <row r="1468" spans="1:1">
       <c r="A1468">
-        <v>581.6708545163767</v>
+        <v>575.0309824527553</v>
       </c>
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469">
-        <v>165.3104430776492</v>
+        <v>144.0359236539386</v>
       </c>
     </row>
     <row r="1470" spans="1:1">
       <c r="A1470">
-        <v>216.537095804694</v>
+        <v>214.3915944870598</v>
       </c>
     </row>
     <row r="1471" spans="1:1">
       <c r="A1471">
-        <v>235.8502267964944</v>
+        <v>268.1732951689548</v>
       </c>
     </row>
     <row r="1472" spans="1:1">
       <c r="A1472">
-        <v>502.1906541770809</v>
+        <v>508.3359012993613</v>
       </c>
     </row>
     <row r="1473" spans="1:1">
       <c r="A1473">
-        <v>528.6640953255263</v>
+        <v>444.3408763454002</v>
       </c>
     </row>
     <row r="1474" spans="1:1">
       <c r="A1474">
-        <v>780.6615212967959</v>
+        <v>765.2734381850789</v>
       </c>
     </row>
     <row r="1475" spans="1:1">
       <c r="A1475">
-        <v>101.252599017968</v>
+        <v>119.7815444321631</v>
       </c>
     </row>
     <row r="1476" spans="1:1">
       <c r="A1476">
-        <v>417.7182285325491</v>
+        <v>378.8206952249411</v>
       </c>
     </row>
     <row r="1477" spans="1:1">
       <c r="A1477">
-        <v>291.1364100019018</v>
+        <v>314.8410784985491</v>
       </c>
     </row>
     <row r="1478" spans="1:1">
       <c r="A1478">
-        <v>307.1107278451896</v>
+        <v>327.6351139001541</v>
       </c>
     </row>
     <row r="1479" spans="1:1">
       <c r="A1479">
-        <v>275.6698805903436</v>
+        <v>248.7576996473171</v>
       </c>
     </row>
     <row r="1480" spans="1:1">
       <c r="A1480">
-        <v>348.1460387101686</v>
+        <v>299.7806893938744</v>
       </c>
     </row>
     <row r="1481" spans="1:1">
       <c r="A1481">
-        <v>453.1107610140822</v>
+        <v>463.8592146035697</v>
       </c>
     </row>
     <row r="1482" spans="1:1">
       <c r="A1482">
-        <v>1004.145442518607</v>
+        <v>1028.286386929246</v>
       </c>
     </row>
     <row r="1483" spans="1:1">
       <c r="A1483">
-        <v>426.1468862947955</v>
+        <v>437.9213783603533</v>
       </c>
     </row>
     <row r="1484" spans="1:1">
       <c r="A1484">
-        <v>143.7115062632421</v>
+        <v>159.3478263411507</v>
       </c>
     </row>
     <row r="1485" spans="1:1">
       <c r="A1485">
-        <v>922.7297297390537</v>
+        <v>867.1231505830383</v>
       </c>
     </row>
     <row r="1486" spans="1:1">
       <c r="A1486">
-        <v>708.5660457955526</v>
+        <v>884.6984974848643</v>
       </c>
     </row>
     <row r="1487" spans="1:1">
       <c r="A1487">
-        <v>314.8660087844567</v>
+        <v>310.1490280092602</v>
       </c>
     </row>
     <row r="1488" spans="1:1">
       <c r="A1488">
-        <v>260.8804663850332</v>
+        <v>266.9606534145114</v>
       </c>
     </row>
     <row r="1489" spans="1:1">
       <c r="A1489">
-        <v>364.5540388808669</v>
+        <v>305.0653884423517</v>
       </c>
     </row>
     <row r="1490" spans="1:1">
       <c r="A1490">
-        <v>520.4695836520683</v>
+        <v>581.305989598467</v>
       </c>
     </row>
     <row r="1491" spans="1:1">
       <c r="A1491">
-        <v>483.3412575294472</v>
+        <v>674.2728270614737</v>
       </c>
     </row>
     <row r="1492" spans="1:1">
       <c r="A1492">
-        <v>631.4980282586833</v>
+        <v>560.821178530622</v>
       </c>
     </row>
     <row r="1493" spans="1:1">
       <c r="A1493">
-        <v>295.6160444854954</v>
+        <v>289.3114102657678</v>
       </c>
     </row>
     <row r="1494" spans="1:1">
       <c r="A1494">
-        <v>552.1759946139618</v>
+        <v>572.7023004112809</v>
       </c>
     </row>
     <row r="1495" spans="1:1">
       <c r="A1495">
-        <v>518.670105605189</v>
+        <v>531.0879476191767</v>
       </c>
     </row>
     <row r="1496" spans="1:1">
       <c r="A1496">
-        <v>957.6268740131129</v>
+        <v>955.0028312196299</v>
       </c>
     </row>
     <row r="1497" spans="1:1">
       <c r="A1497">
-        <v>628.2094638202385</v>
+        <v>593.0306103649494</v>
       </c>
     </row>
     <row r="1498" spans="1:1">
       <c r="A1498">
-        <v>282.8447651307304</v>
+        <v>297.4465372900888</v>
       </c>
     </row>
     <row r="1499" spans="1:1">
       <c r="A1499">
-        <v>2647.821756018928</v>
+        <v>2713.726534994606</v>
       </c>
     </row>
     <row r="1500" spans="1:1">
       <c r="A1500">
-        <v>280.5765931720749</v>
+        <v>302.1992504064424</v>
       </c>
     </row>
     <row r="1501" spans="1:1">
       <c r="A1501">
-        <v>378.5829176150118</v>
+        <v>449.2823899489663</v>
       </c>
     </row>
     <row r="1502" spans="1:1">
       <c r="A1502">
-        <v>235.7236129868901</v>
+        <v>230.9432470814826</v>
       </c>
     </row>
     <row r="1503" spans="1:1">
       <c r="A1503">
-        <v>169.1072195561859</v>
+        <v>169.0509381658297</v>
       </c>
     </row>
     <row r="1504" spans="1:1">
       <c r="A1504">
-        <v>343.5985821517467</v>
+        <v>361.1378651096305</v>
       </c>
     </row>
     <row r="1505" spans="1:1">
       <c r="A1505">
-        <v>599.3556117920564</v>
+        <v>526.7474132201006</v>
       </c>
     </row>
     <row r="1506" spans="1:1">
       <c r="A1506">
-        <v>782.3948647262895</v>
+        <v>777.311002268686</v>
       </c>
     </row>
     <row r="1507" spans="1:1">
       <c r="A1507">
-        <v>263.7025959142933</v>
+        <v>279.08961324618</v>
       </c>
     </row>
     <row r="1508" spans="1:1">
       <c r="A1508">
-        <v>288.5032154908268</v>
+        <v>282.1667606145595</v>
       </c>
     </row>
     <row r="1509" spans="1:1">
       <c r="A1509">
-        <v>806.1281298436593</v>
+        <v>958.308666407801</v>
       </c>
     </row>
     <row r="1510" spans="1:1">
       <c r="A1510">
-        <v>436.2443464078447</v>
+        <v>349.141638952594</v>
       </c>
     </row>
     <row r="1511" spans="1:1">
       <c r="A1511">
-        <v>446.3657176264918</v>
+        <v>451.4402671363956</v>
       </c>
     </row>
     <row r="1512" spans="1:1">
       <c r="A1512">
-        <v>1199.911919460116</v>
+        <v>1177.124137671557</v>
       </c>
     </row>
     <row r="1513" spans="1:1">
       <c r="A1513">
-        <v>396.7756625400599</v>
+        <v>396.9880565541429</v>
       </c>
     </row>
     <row r="1514" spans="1:1">
       <c r="A1514">
-        <v>126.1389152217205</v>
+        <v>120.1645657247278</v>
       </c>
     </row>
     <row r="1515" spans="1:1">
       <c r="A1515">
-        <v>126.7741166795637</v>
+        <v>132.4532619875733</v>
       </c>
     </row>
     <row r="1516" spans="1:1">
       <c r="A1516">
-        <v>317.185094154797</v>
+        <v>347.2048587495883</v>
       </c>
     </row>
     <row r="1517" spans="1:1">
       <c r="A1517">
-        <v>732.4528531687872</v>
+        <v>846.0251185344756</v>
       </c>
     </row>
     <row r="1518" spans="1:1">
       <c r="A1518">
-        <v>264.1320604885418</v>
+        <v>265.110669054159</v>
       </c>
     </row>
     <row r="1519" spans="1:1">
       <c r="A1519">
-        <v>247.7879898897775</v>
+        <v>216.0798315243405</v>
       </c>
     </row>
     <row r="1520" spans="1:1">
       <c r="A1520">
-        <v>437.9928328943496</v>
+        <v>412.9240392760025</v>
       </c>
     </row>
     <row r="1521" spans="1:1">
       <c r="A1521">
-        <v>325.6804365440573</v>
+        <v>347.1519378132153</v>
       </c>
     </row>
     <row r="1522" spans="1:1">
       <c r="A1522">
-        <v>114.5074834376294</v>
+        <v>136.3150791717192</v>
       </c>
     </row>
     <row r="1523" spans="1:1">
       <c r="A1523">
-        <v>920.5400305081115</v>
+        <v>864.9182764341057</v>
       </c>
     </row>
     <row r="1524" spans="1:1">
       <c r="A1524">
-        <v>399.1757752680203</v>
+        <v>366.983163568618</v>
       </c>
     </row>
     <row r="1525" spans="1:1">
       <c r="A1525">
-        <v>280.9477849247944</v>
+        <v>238.6621254413632</v>
       </c>
     </row>
     <row r="1526" spans="1:1">
       <c r="A1526">
-        <v>612.8775210354886</v>
+        <v>614.2473927766041</v>
       </c>
     </row>
     <row r="1527" spans="1:1">
       <c r="A1527">
-        <v>477.294435313593</v>
+        <v>430.9017988562636</v>
       </c>
     </row>
     <row r="1528" spans="1:1">
       <c r="A1528">
-        <v>353.1274840922221</v>
+        <v>309.553493201855</v>
       </c>
     </row>
     <row r="1529" spans="1:1">
       <c r="A1529">
-        <v>693.9954366249101</v>
+        <v>554.6774962772306</v>
       </c>
     </row>
     <row r="1530" spans="1:1">
       <c r="A1530">
-        <v>885.2305254190456</v>
+        <v>908.6901225683418</v>
       </c>
     </row>
     <row r="1531" spans="1:1">
       <c r="A1531">
-        <v>311.3220177717804</v>
+        <v>327.3582676546141</v>
       </c>
     </row>
     <row r="1532" spans="1:1">
       <c r="A1532">
-        <v>995.1472299520831</v>
+        <v>1045.894641191569</v>
       </c>
     </row>
     <row r="1533" spans="1:1">
       <c r="A1533">
-        <v>355.76814652837</v>
+        <v>362.1898265839311</v>
       </c>
     </row>
     <row r="1534" spans="1:1">
       <c r="A1534">
-        <v>466.1582157633405</v>
+        <v>443.0951720129968</v>
       </c>
     </row>
     <row r="1535" spans="1:1">
       <c r="A1535">
-        <v>380.3646283105574</v>
+        <v>407.7926281496091</v>
       </c>
     </row>
     <row r="1536" spans="1:1">
       <c r="A1536">
-        <v>544.20307135213</v>
+        <v>524.1920386519211</v>
       </c>
     </row>
     <row r="1537" spans="1:1">
       <c r="A1537">
-        <v>637.2364693536832</v>
+        <v>588.465915103153</v>
       </c>
     </row>
     <row r="1538" spans="1:1">
       <c r="A1538">
-        <v>277.3092158202256</v>
+        <v>336.1782867946567</v>
       </c>
     </row>
     <row r="1539" spans="1:1">
       <c r="A1539">
-        <v>551.3621778470294</v>
+        <v>557.9278118354499</v>
       </c>
     </row>
     <row r="1540" spans="1:1">
       <c r="A1540">
-        <v>894.9821950860937</v>
+        <v>796.616440230186</v>
       </c>
     </row>
     <row r="1541" spans="1:1">
       <c r="A1541">
-        <v>638.243370968808</v>
+        <v>652.4170969276774</v>
       </c>
     </row>
     <row r="1542" spans="1:1">
       <c r="A1542">
-        <v>408.3723798290049</v>
+        <v>449.2277065077322</v>
       </c>
     </row>
     <row r="1543" spans="1:1">
       <c r="A1543">
-        <v>446.5862580090099</v>
+        <v>447.5519680221309</v>
       </c>
     </row>
     <row r="1544" spans="1:1">
       <c r="A1544">
-        <v>262.2988181891986</v>
+        <v>275.1709281274742</v>
       </c>
     </row>
     <row r="1545" spans="1:1">
       <c r="A1545">
-        <v>425.7360064384055</v>
+        <v>410.8889435203724</v>
       </c>
     </row>
     <row r="1546" spans="1:1">
       <c r="A1546">
-        <v>887.7812695381728</v>
+        <v>907.1748218560281</v>
       </c>
     </row>
     <row r="1547" spans="1:1">
       <c r="A1547">
-        <v>654.8405472132474</v>
+        <v>660.3932952706747</v>
       </c>
     </row>
     <row r="1548" spans="1:1">
       <c r="A1548">
-        <v>173.2280788733057</v>
+        <v>172.012361404804</v>
       </c>
     </row>
     <row r="1549" spans="1:1">
       <c r="A1549">
-        <v>740.659036952981</v>
+        <v>931.2597435702162</v>
       </c>
     </row>
     <row r="1550" spans="1:1">
       <c r="A1550">
-        <v>282.8369681975584</v>
+        <v>310.0214705928234</v>
       </c>
     </row>
     <row r="1551" spans="1:1">
       <c r="A1551">
-        <v>203.4307637263913</v>
+        <v>236.6548652138267</v>
       </c>
     </row>
     <row r="1552" spans="1:1">
       <c r="A1552">
-        <v>2353.81188016864</v>
+        <v>2277.775691682601</v>
       </c>
     </row>
     <row r="1553" spans="1:1">
       <c r="A1553">
-        <v>603.8774015188021</v>
+        <v>651.3746842575431</v>
       </c>
     </row>
     <row r="1554" spans="1:1">
       <c r="A1554">
-        <v>521.2671981184776</v>
+        <v>528.10345586836</v>
       </c>
     </row>
     <row r="1555" spans="1:1">
       <c r="A1555">
-        <v>240.320907334476</v>
+        <v>225.3760160228675</v>
       </c>
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556">
-        <v>795.3990455773679</v>
+        <v>755.6535722885635</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
       <c r="A1557">
-        <v>1534.372695026698</v>
+        <v>1732.415058265274</v>
       </c>
     </row>
     <row r="1558" spans="1:1">
       <c r="A1558">
-        <v>174.6188771727285</v>
+        <v>186.6176970420695</v>
       </c>
     </row>
     <row r="1559" spans="1:1">
       <c r="A1559">
-        <v>468.8080265004615</v>
+        <v>632.0823511634678</v>
       </c>
     </row>
     <row r="1560" spans="1:1">
       <c r="A1560">
-        <v>455.4181698221261</v>
+        <v>441.5479081626102</v>
       </c>
     </row>
     <row r="1561" spans="1:1">
       <c r="A1561">
-        <v>835.7428735401563</v>
+        <v>824.7846043290109</v>
       </c>
     </row>
   </sheetData>

--- a/answer8.xlsx
+++ b/answer8.xlsx
@@ -387,7802 +387,7802 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>470.5264091568907</v>
+        <v>455.7784499438368</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1081.017503590682</v>
+        <v>1148.032972380619</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>328.1305095894533</v>
+        <v>320.9710819313079</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>781.8053951863153</v>
+        <v>743.104511392989</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>357.1848958081957</v>
+        <v>344.88660152706</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>473.2480623673121</v>
+        <v>411.7505720081492</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>587.6329020602548</v>
+        <v>596.5447899285759</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>423.7504834154294</v>
+        <v>401.2230678008855</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>407.245850490561</v>
+        <v>433.6737199464361</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>409.006122218576</v>
+        <v>363.1623098262928</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>302.0192976261815</v>
+        <v>317.4736605567445</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>213.7625008203428</v>
+        <v>187.1384292542143</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>201.857716334359</v>
+        <v>200.5463046835559</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>551.2599894867265</v>
+        <v>762.1793985753926</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>384.9604450329023</v>
+        <v>371.0421988759817</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>735.6272284206959</v>
+        <v>874.6122269021869</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>349.1186596664983</v>
+        <v>359.5011599311907</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>966.871510125071</v>
+        <v>975.252535592595</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>499.9209623145143</v>
+        <v>426.5425254450877</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>354.493100882641</v>
+        <v>273.8567326990486</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>373.0191846884277</v>
+        <v>353.6406663610924</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>441.4202921244679</v>
+        <v>422.5558193461073</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>663.0863925104462</v>
+        <v>550.5922339151347</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>683.2069453438471</v>
+        <v>752.5724368901261</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>343.9392819095024</v>
+        <v>351.0677487304134</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>409.047524981853</v>
+        <v>458.0443533383668</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>310.8014117928054</v>
+        <v>331.9057937304996</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>74.22163773927163</v>
+        <v>60.91932879538049</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>341.4573712908994</v>
+        <v>349.2548610927125</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>325.6271043191068</v>
+        <v>384.7285215388779</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>326.3188546515161</v>
+        <v>305.2103814450064</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>276.3200557565037</v>
+        <v>283.8719412174974</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>286.1320933867497</v>
+        <v>338.4639711754962</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>182.0424702116104</v>
+        <v>180.0702482638985</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>942.4713309427119</v>
+        <v>877.554391975914</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>360.369190682899</v>
+        <v>340.2057564467119</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>290.0313755656235</v>
+        <v>262.8982405945329</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>154.1974395472527</v>
+        <v>153.1822060754791</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>2161.282764070873</v>
+        <v>2619.405829152761</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>361.0814147927011</v>
+        <v>341.0364473376265</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>513.7656408435222</v>
+        <v>713.4069425692771</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>836.4319883914993</v>
+        <v>1088.451456334613</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>404.8910504654002</v>
+        <v>418.3343183768209</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>384.3156340689969</v>
+        <v>397.8762595495278</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>291.9190994415003</v>
+        <v>299.0443039971871</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>277.979072413417</v>
+        <v>238.9068744726123</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>889.4051180107248</v>
+        <v>874.0838734111155</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>416.4327763367809</v>
+        <v>390.2808425257809</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>436.0062300887154</v>
+        <v>501.001332236561</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>719.7391411514041</v>
+        <v>686.9567437123162</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>450.419383848644</v>
+        <v>421.5971499315419</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>505.7654084724724</v>
+        <v>580.4249606331902</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>245.98855964951</v>
+        <v>246.3313327298698</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>286.4761583622675</v>
+        <v>259.5385447911048</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>691.6216807460347</v>
+        <v>670.6307330365867</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>578.9804918609051</v>
+        <v>615.9127971087037</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>323.4046531924606</v>
+        <v>383.9797778793526</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1443.069995971235</v>
+        <v>1430.39977121976</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>333.820916542149</v>
+        <v>337.714248644912</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>368.9944361066212</v>
+        <v>301.2838534032744</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>312.1848551671192</v>
+        <v>335.3318746714386</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>466.1875823244896</v>
+        <v>473.4594949711048</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>410.4461041415242</v>
+        <v>456.8601780022806</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>484.8012604961571</v>
+        <v>409.0644938388806</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>422.1312656222719</v>
+        <v>415.1259604088966</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>365.1266188107765</v>
+        <v>363.6702347779304</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>351.0690414071996</v>
+        <v>332.4490589819439</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>356.9536668830473</v>
+        <v>362.9476761460847</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>255.2542871108332</v>
+        <v>238.2466241877504</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>631.1480007939093</v>
+        <v>640.938180941242</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>103.2734643356605</v>
+        <v>96.44744770659594</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>201.2987029365549</v>
+        <v>214.5243483834466</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>544.7648419233606</v>
+        <v>547.8327141259047</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>513.3326610626078</v>
+        <v>467.1481493095775</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>282.853713020764</v>
+        <v>274.1500161474889</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>201.617434396478</v>
+        <v>172.4547354017139</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>261.8159435201647</v>
+        <v>257.0878829444511</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>569.7383691003615</v>
+        <v>575.5258346243269</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>263.6488669637944</v>
+        <v>266.7619122917501</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>348.4291178530917</v>
+        <v>322.4622072111219</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>288.835416562531</v>
+        <v>320.3015272764808</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>396.5271486131909</v>
+        <v>402.8749623360026</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>546.7346032080718</v>
+        <v>570.5551735294002</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>977.0323802309133</v>
+        <v>937.7591022947463</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>347.3193652178691</v>
+        <v>347.5933170454316</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>1038.987672455205</v>
+        <v>968.3052472607028</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>632.2049714259721</v>
+        <v>402.4537831540159</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>243.844379988835</v>
+        <v>242.7782808587183</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>836.7767359779106</v>
+        <v>681.1591790867827</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>281.588402307282</v>
+        <v>302.5792109570677</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>474.5729467964335</v>
+        <v>517.8485337113451</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>386.0603161294189</v>
+        <v>373.3423321185288</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>357.7579869757282</v>
+        <v>350.8631310637937</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>235.1020268134307</v>
+        <v>255.2010136645371</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>335.4161099214356</v>
+        <v>358.1920555072851</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>685.7574093159881</v>
+        <v>660.6720565093103</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>854.9013966109703</v>
+        <v>1054.733855040998</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>114.2908469486638</v>
+        <v>109.6331256312968</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>388.0436212519621</v>
+        <v>390.3878128883962</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>117.2816596017414</v>
+        <v>112.1068814161164</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>844.8851819123105</v>
+        <v>837.2889738055395</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>333.5591604754543</v>
+        <v>325.2602497478806</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>713.6639612302249</v>
+        <v>779.7345061740674</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>341.3394960609812</v>
+        <v>354.2731137508069</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>608.7653069318329</v>
+        <v>711.1830979843116</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>440.9053700283362</v>
+        <v>490.8815057992883</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>383.1785690603261</v>
+        <v>382.3204954213377</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>854.7627264882278</v>
+        <v>859.5135287701079</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>762.482369402667</v>
+        <v>709.1297940386921</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>384.2438714642733</v>
+        <v>333.3277750678309</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>289.0434661806635</v>
+        <v>396.8820133638018</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>325.190325789863</v>
+        <v>332.5984827463548</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>201.0142544330027</v>
+        <v>200.3212468664017</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>445.7545528044431</v>
+        <v>419.3785131201471</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>367.2390433507267</v>
+        <v>318.1800142347223</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>234.7270442879912</v>
+        <v>235.7829694659184</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>326.6084842554503</v>
+        <v>328.3674977458628</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>385.1233892003874</v>
+        <v>382.468897847472</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>339.625695505689</v>
+        <v>277.3702279272578</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>512.8818624715063</v>
+        <v>480.4520891100186</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>513.1212764300661</v>
+        <v>497.1483183448103</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>271.7286487720081</v>
+        <v>311.6364993231449</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>580.481501737258</v>
+        <v>555.635436598597</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>745.6266741576466</v>
+        <v>869.5750399402526</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>315.7466357841561</v>
+        <v>327.7710109408316</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>730.8576519907791</v>
+        <v>648.7484875623917</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>341.5416926828297</v>
+        <v>306.2489244601958</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>414.1503973009611</v>
+        <v>400.7949516906277</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>682.9733441625774</v>
+        <v>974.8020889838646</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>322.602532889289</v>
+        <v>330.6776968943433</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>1394.52039340659</v>
+        <v>1149.685416760408</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>719.4982095955628</v>
+        <v>643.1861366116005</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>473.8311198345166</v>
+        <v>485.2525504969961</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>873.7689696235259</v>
+        <v>901.6791915494608</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>237.9860030370926</v>
+        <v>239.449665224714</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>338.7394967729589</v>
+        <v>366.753962205839</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>404.4715573305093</v>
+        <v>431.2798520242058</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>345.4700684518488</v>
+        <v>335.3932971930103</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>245.7684872724128</v>
+        <v>237.5231841055503</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>484.4798448896947</v>
+        <v>398.9781412108709</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>216.2564605059033</v>
+        <v>198.8551601069123</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>285.5659572610899</v>
+        <v>255.4062587719832</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>1076.422117153142</v>
+        <v>1450.39687249366</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>400.0791719059932</v>
+        <v>396.9608196623171</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>761.6518942920463</v>
+        <v>776.9340052367331</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>934.3080163555453</v>
+        <v>992.8758780365984</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>345.0577877350372</v>
+        <v>366.0085997194532</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>566.6042696714551</v>
+        <v>508.7297076559045</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>101.8251899797811</v>
+        <v>110.4004391071067</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>427.1071582145768</v>
+        <v>392.357034443112</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>318.4332827978499</v>
+        <v>368.3141127356627</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>144.1648414539837</v>
+        <v>128.5261924931501</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>439.0973185210447</v>
+        <v>427.6518912744079</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>428.3155666172409</v>
+        <v>420.4742847325606</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>532.8994263853242</v>
+        <v>533.5842088218833</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>271.1135056127446</v>
+        <v>256.0801688320925</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>286.1856170573205</v>
+        <v>294.3567303796231</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>239.7613128313812</v>
+        <v>272.9334187988528</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>457.6736353807919</v>
+        <v>451.1177485055366</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>499.0256748109737</v>
+        <v>484.5677588681729</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>214.4243357730247</v>
+        <v>199.5121783567975</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>369.3320225194558</v>
+        <v>359.3517180552841</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>697.4869777717322</v>
+        <v>710.7508081390026</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>660.2040521280144</v>
+        <v>795.9013505595824</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>755.6731060960976</v>
+        <v>934.4256786725026</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>648.6944743276956</v>
+        <v>567.6714943608566</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>371.9269324700988</v>
+        <v>387.4805689160752</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>367.6664870825325</v>
+        <v>337.8632205805199</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>463.5651642704145</v>
+        <v>498.2848219231524</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>309.1405846994704</v>
+        <v>275.5429723500807</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>427.2446006635074</v>
+        <v>455.5478165470937</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>262.5807372387572</v>
+        <v>289.5298945873507</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>334.2293274821525</v>
+        <v>320.4469544981346</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>582.2535497354152</v>
+        <v>475.1159627688723</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>175.0284075605917</v>
+        <v>163.4177931622931</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>428.2780338106431</v>
+        <v>407.6317806982688</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>953.2831093653991</v>
+        <v>1071.569363933539</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>284.8338043028014</v>
+        <v>295.9558383022018</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>205.7482454627115</v>
+        <v>173.4017856871938</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>423.7639849860399</v>
+        <v>410.5301726092307</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>743.8510123099514</v>
+        <v>618.5696423597876</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>368.9593354860257</v>
+        <v>368.2193203687157</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>1303.438447102937</v>
+        <v>1106.051533247778</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>758.8811051741112</v>
+        <v>606.6219659557987</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>590.5390006362596</v>
+        <v>697.7577326386415</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>426.0680247501791</v>
+        <v>374.7435264931322</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>401.2484243446461</v>
+        <v>442.0068988267773</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>448.2487846553078</v>
+        <v>474.3928309943668</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>328.231318713639</v>
+        <v>304.4434854391259</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>362.0505705668353</v>
+        <v>340.6909361717741</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>625.238131019571</v>
+        <v>693.7697017452809</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>433.8468735824507</v>
+        <v>407.7892069910698</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>327.4742287693642</v>
+        <v>323.9157195373615</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>336.8036879292816</v>
+        <v>429.8666689295355</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>959.2897925410336</v>
+        <v>949.8849510381215</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>695.9671515175866</v>
+        <v>705.2760241897298</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>404.8921148405855</v>
+        <v>406.2712305762817</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>1105.034928458332</v>
+        <v>1189.932322876596</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>243.2766466016148</v>
+        <v>218.6928697357753</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>1001.123106780304</v>
+        <v>1065.979874008215</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>151.4063185752825</v>
+        <v>158.9366598701009</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>204.7049876747888</v>
+        <v>256.9833943532428</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>271.5261368725722</v>
+        <v>287.1995513579877</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>315.3045543231926</v>
+        <v>326.2417159814281</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>408.9678938966923</v>
+        <v>443.8389249203611</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>637.6077485062941</v>
+        <v>441.5303819790936</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>730.32738253345</v>
+        <v>914.2035295015078</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>563.3340759503202</v>
+        <v>545.8141725971304</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>351.8294439594496</v>
+        <v>291.9934617798756</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>557.6600737346724</v>
+        <v>628.7134543696915</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>490.8916576615754</v>
+        <v>455.5969253586749</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>134.516698299566</v>
+        <v>130.0069333351613</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>712.5025433383738</v>
+        <v>641.0151382648314</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>613.4355188597549</v>
+        <v>706.1085774172628</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>380.3014430171415</v>
+        <v>380.3419660361712</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>472.7558335448089</v>
+        <v>473.7428715104696</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>685.4999281817462</v>
+        <v>680.0115593751899</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>334.8348813789321</v>
+        <v>372.0631811763175</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>428.6172831553851</v>
+        <v>425.3841326168084</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>174.134059229302</v>
+        <v>174.524606274851</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>834.989225793262</v>
+        <v>855.0272203638722</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>155.0110800635033</v>
+        <v>150.8149172510477</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>524.6004264241138</v>
+        <v>536.4954726556565</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>362.148147966039</v>
+        <v>360.3245872084642</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>982.7396584145515</v>
+        <v>1179.851878947122</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>311.6192986684039</v>
+        <v>315.0777984080717</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>468.2384294476594</v>
+        <v>467.5218673407169</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>581.5458847214875</v>
+        <v>510.0097096786795</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>305.7096896129867</v>
+        <v>320.9620655154488</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>449.2148454177535</v>
+        <v>395.3989272986138</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>641.7406249091372</v>
+        <v>532.6214638630871</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>332.1018819314074</v>
+        <v>330.1230322409921</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>295.3308283315041</v>
+        <v>330.8864342722433</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>171.8775561542377</v>
+        <v>172.5319736055384</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>324.5967619633263</v>
+        <v>286.9756981557152</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>768.8249458518585</v>
+        <v>860.6693135791195</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>402.846953605457</v>
+        <v>392.2014953461456</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>387.0012083399732</v>
+        <v>396.8157643310721</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>711.7012439731961</v>
+        <v>691.4046970903458</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>333.4181213568825</v>
+        <v>338.5576125785203</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1364.035716641212</v>
+        <v>1377.835727372616</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>293.9266404343504</v>
+        <v>294.9210824497996</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>525.0812657860176</v>
+        <v>410.5185696009853</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>383.6226919350793</v>
+        <v>352.0620047247915</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>321.5606055663034</v>
+        <v>293.2291160574799</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>121.6705847087712</v>
+        <v>117.3635894024164</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>474.987084430169</v>
+        <v>628.0352860687566</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>799.5404716284937</v>
+        <v>869.6347260105447</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>627.3906128491634</v>
+        <v>547.2642644614527</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>213.6367919366594</v>
+        <v>230.5408196024705</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>297.5749276448411</v>
+        <v>302.4869192060095</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>361.0670407797116</v>
+        <v>326.2000991421718</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>1073.931147568153</v>
+        <v>1084.966219442187</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>415.0749045570512</v>
+        <v>484.9345187201516</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>330.3809135109514</v>
+        <v>339.6714697531316</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>434.8286212434386</v>
+        <v>487.8359256779592</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>391.3104791723393</v>
+        <v>376.1583722487042</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>432.4714338479373</v>
+        <v>430.5554543040233</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>471.9730416691143</v>
+        <v>477.5802231080409</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>294.0621525280869</v>
+        <v>284.8751377396183</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>515.81553484212</v>
+        <v>524.9366851767386</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>814.8631568901134</v>
+        <v>894.7451649497219</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>341.326968855711</v>
+        <v>347.4296859467979</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>349.445796608306</v>
+        <v>357.480502533084</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>1064.911073038657</v>
+        <v>1076.600277719381</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>786.9369211406289</v>
+        <v>1062.86312861669</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>327.3549965637181</v>
+        <v>292.3890539646709</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>265.5017674928099</v>
+        <v>264.9507445163656</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>322.5340173447046</v>
+        <v>300.5946883992002</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>182.0378388300534</v>
+        <v>195.5497900175554</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>327.8847955352487</v>
+        <v>323.2179923965585</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>549.9608200156893</v>
+        <v>576.3649351382334</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>745.3959911743904</v>
+        <v>829.3933709343565</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>233.1531082206944</v>
+        <v>238.3063071235978</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>309.6280955732128</v>
+        <v>293.461575848534</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>415.0782505110925</v>
+        <v>516.5054388727658</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>235.0996845411161</v>
+        <v>225.1297609924214</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>286.2368592209082</v>
+        <v>281.2768457270392</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>567.566280151398</v>
+        <v>535.0889182595096</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>664.4303373421986</v>
+        <v>612.9106827657234</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>401.4090311918047</v>
+        <v>375.2431339604223</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>261.2336866897731</v>
+        <v>210.4634473828986</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>336.6053251913246</v>
+        <v>404.8184535161022</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>872.1020924668053</v>
+        <v>738.7188233155254</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>357.6253413105277</v>
+        <v>364.7892502463715</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>271.8372541927279</v>
+        <v>271.4478613062432</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>303.8929989777644</v>
+        <v>296.9832183629954</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>1176.977161777271</v>
+        <v>1067.097345578654</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>354.0605791098874</v>
+        <v>376.4584577381027</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>369.8408075387726</v>
+        <v>358.8159254582779</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>484.7741939404991</v>
+        <v>540.276527180039</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>399.3144159576722</v>
+        <v>397.6018695718979</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>366.1587667981547</v>
+        <v>325.8247846359711</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>149.6532787067538</v>
+        <v>182.0005381101213</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>338.0613569609788</v>
+        <v>338.1006487247722</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>343.8538644593491</v>
+        <v>342.0230612169591</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>795.7936621519846</v>
+        <v>744.4729263327391</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>374.6074414465353</v>
+        <v>411.4855678010965</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>310.7290925628789</v>
+        <v>297.6872348100987</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>262.7966696019133</v>
+        <v>285.8055646215878</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>275.9943322426673</v>
+        <v>276.6860675135397</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>429.2987780778162</v>
+        <v>447.9727638852173</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>241.1343892226265</v>
+        <v>239.1537666099124</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>332.1741836908354</v>
+        <v>304.4816202020695</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>367.2441961598186</v>
+        <v>378.3297919260022</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>765.8164908501957</v>
+        <v>918.6405263883973</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>318.0484591557468</v>
+        <v>329.4293238415287</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>312.164356345379</v>
+        <v>261.5672446009241</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>417.7261841007593</v>
+        <v>448.4073840555839</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>642.7891507691685</v>
+        <v>850.0309718473334</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>104.5778137053469</v>
+        <v>105.2494612028091</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>701.39512928403</v>
+        <v>704.9842853787211</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>327.764916141026</v>
+        <v>281.5720318101054</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>388.1993061174791</v>
+        <v>486.1234127530957</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>754.4047443403277</v>
+        <v>717.6600275096652</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>280.1479328998224</v>
+        <v>332.3783474708713</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>273.1849534865105</v>
+        <v>260.4549367596435</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>965.825344813779</v>
+        <v>940.9573718445281</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>575.5961214080473</v>
+        <v>525.1980391266809</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>150.1114922044457</v>
+        <v>145.9596797709328</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>193.1262456982531</v>
+        <v>197.9224013405608</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>503.3655932682869</v>
+        <v>561.3291052013302</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>633.408787034813</v>
+        <v>701.4237641966729</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>466.0445749476672</v>
+        <v>485.2900961282772</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>467.6349384556686</v>
+        <v>460.441008510879</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>208.186177188895</v>
+        <v>203.535745698144</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>414.1719795703789</v>
+        <v>415.9217826208277</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>1384.244833222126</v>
+        <v>1296.466083038116</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>629.641679867698</v>
+        <v>580.8499407909381</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>923.9954460050079</v>
+        <v>875.0280563507524</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>446.3765234345493</v>
+        <v>408.7019288579755</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>227.3243679523813</v>
+        <v>235.6807948297949</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>677.1983996527611</v>
+        <v>787.9698051096839</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>399.0923260195892</v>
+        <v>365.8755029875785</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>245.8426713573875</v>
+        <v>234.404168847497</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>483.6543249120959</v>
+        <v>470.7579171904884</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>597.7064035098133</v>
+        <v>741.2206368651426</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>249.2847194333193</v>
+        <v>246.9033742169057</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>378.064781642335</v>
+        <v>362.8405065798514</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>312.5735537493071</v>
+        <v>339.0718161484132</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>409.2586192623471</v>
+        <v>409.9013420913539</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>308.9369672537615</v>
+        <v>245.499212722941</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>917.4892029219585</v>
+        <v>910.7665312778719</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>332.7252322482284</v>
+        <v>361.5813549580658</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>293.8814687699823</v>
+        <v>295.6160378929482</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>558.217612010289</v>
+        <v>601.3801800078834</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>371.6063404537303</v>
+        <v>408.3996667855452</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>526.8420818509443</v>
+        <v>621.3746747905426</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>1489.57794754442</v>
+        <v>1529.68841929422</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>206.4393570212873</v>
+        <v>206.35548242169</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>364.9595569566582</v>
+        <v>323.8501338674337</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>234.3948742801984</v>
+        <v>211.2576849295723</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>236.9206861082916</v>
+        <v>236.3012510589919</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>1659.066246865691</v>
+        <v>1675.135974810154</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>850.262804224168</v>
+        <v>798.4876690193776</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>177.1986267823514</v>
+        <v>192.8094185633167</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>377.3579696481108</v>
+        <v>381.9649429820159</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>302.187665580544</v>
+        <v>300.3874812464661</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>356.6493299650082</v>
+        <v>360.0199478167851</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>129.5772087476071</v>
+        <v>129.0973012988332</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>394.283608146674</v>
+        <v>388.5030058287227</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>260.2429266203156</v>
+        <v>260.6256250248333</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>291.4002192157223</v>
+        <v>288.4950005331708</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>1073.390863252936</v>
+        <v>885.2949217733772</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>342.2638455468514</v>
+        <v>349.5594766829946</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>346.6409078902915</v>
+        <v>341.2380739081012</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>294.7210232168798</v>
+        <v>324.9186534370921</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>254.6511142604947</v>
+        <v>262.8810089479302</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>1030.878846746035</v>
+        <v>817.2376032612748</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>212.6909430050733</v>
+        <v>211.8723596413981</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>399.6688293650786</v>
+        <v>522.0804114511017</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>305.1725721324781</v>
+        <v>309.6523665577726</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>281.2627172263936</v>
+        <v>251.6889491542211</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>277.8799951126594</v>
+        <v>288.5971347287664</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>257.708842166106</v>
+        <v>257.9649572596803</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>207.8168956497363</v>
+        <v>209.4217598721957</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>291.9098360614552</v>
+        <v>296.6975641296744</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>290.7233337892399</v>
+        <v>291.3558512039728</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>351.5760256197669</v>
+        <v>352.0626094069144</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>914.1786363862597</v>
+        <v>1115.52432990073</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>365.1566365224177</v>
+        <v>344.799667373435</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>422.6082653289952</v>
+        <v>436.7490024534711</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>366.4255614626102</v>
+        <v>363.9875790387676</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>1326.791008234565</v>
+        <v>1334.065787167021</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>326.9507459744127</v>
+        <v>267.7361728663294</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>237.7299280469637</v>
+        <v>219.9095393620207</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>702.3231445121971</v>
+        <v>635.7254569490688</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>769.3226534514994</v>
+        <v>738.0115943161196</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>541.6451200987502</v>
+        <v>542.1207205398832</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>422.4559512588958</v>
+        <v>414.0612902437801</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>605.7328791611726</v>
+        <v>637.3144692019924</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>637.7037919920016</v>
+        <v>684.8145474529226</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>804.3471965415235</v>
+        <v>868.5358786229566</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>341.9779380673701</v>
+        <v>361.485238997779</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>432.4583503329617</v>
+        <v>393.224442636634</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>304.6988271889521</v>
+        <v>307.6923669646201</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>431.9763534897058</v>
+        <v>451.3136872246967</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>403.8210986297699</v>
+        <v>477.8434058093885</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>519.6517246257205</v>
+        <v>375.7909197687619</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>283.017090866173</v>
+        <v>282.1791555729822</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>252.6060646791652</v>
+        <v>257.6731660063367</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>365.828906556342</v>
+        <v>360.283660641873</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>298.2585842883118</v>
+        <v>320.428690021251</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>694.5642981269826</v>
+        <v>964.8631120499856</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>407.825909787312</v>
+        <v>397.2873693816694</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>824.253862336456</v>
+        <v>838.9970228174917</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>197.6103611737281</v>
+        <v>197.8543326708468</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>520.4564097825298</v>
+        <v>512.3607240351548</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>740.3672830166768</v>
+        <v>823.9902308676324</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>238.1918556393705</v>
+        <v>262.1610706895207</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>884.6029174191987</v>
+        <v>952.9850233366402</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>488.2766688141317</v>
+        <v>430.7350995204014</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>1092.044835818644</v>
+        <v>1009.467865482217</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>483.4157931646349</v>
+        <v>465.9248332785177</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>651.387652709447</v>
+        <v>627.5854298022547</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>584.3441248465559</v>
+        <v>703.526912103599</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>297.2561994552881</v>
+        <v>339.1514265534875</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>769.3998003381834</v>
+        <v>927.1578247533653</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>321.52788504066</v>
+        <v>318.9276938466575</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>300.106983284008</v>
+        <v>297.6585356109742</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>451.3915859264817</v>
+        <v>412.1732160933407</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>716.5708455964613</v>
+        <v>680.4198147787181</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>258.1622002572601</v>
+        <v>255.4482704628288</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>331.4096313673545</v>
+        <v>265.4405818002475</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>607.8516734555727</v>
+        <v>644.768596762709</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>318.2235919575904</v>
+        <v>322.0518759334189</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>369.4440310926688</v>
+        <v>366.5343166753555</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>238.0463935520983</v>
+        <v>255.9746559269599</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>421.0486553409505</v>
+        <v>426.7365549619378</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>561.8076925907744</v>
+        <v>589.2094357549258</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>412.0898847571825</v>
+        <v>411.5908485379868</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>1055.137112330157</v>
+        <v>1152.487979939955</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>437.7026638191675</v>
+        <v>479.7891826159174</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>338.1533167691551</v>
+        <v>320.7414390135881</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>998.0576621002606</v>
+        <v>999.5741985380572</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>234.8710519075682</v>
+        <v>227.3181221041381</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>217.3831571226101</v>
+        <v>255.9885861743674</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>99.1396440999619</v>
+        <v>97.5498382999596</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>526.3352423071084</v>
+        <v>447.8725584699212</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>301.6032603856522</v>
+        <v>300.3608690884627</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>467.1994865657447</v>
+        <v>451.6512547709592</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>800.29404376379</v>
+        <v>805.8983184946273</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>253.0365028632802</v>
+        <v>261.3447742514319</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>375.4754111642383</v>
+        <v>376.0623618230308</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>221.328667617166</v>
+        <v>222.4149014945933</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>244.3683854667466</v>
+        <v>242.1146772754016</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>624.1917906205269</v>
+        <v>670.4594009746015</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>269.3202987500622</v>
+        <v>243.3860936592156</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>349.0833239611816</v>
+        <v>311.9131960328326</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>292.0222273190167</v>
+        <v>351.5098276955322</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>400.8471911756409</v>
+        <v>403.8464926043472</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>156.4682267935421</v>
+        <v>160.6905637854835</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>254.3070749092607</v>
+        <v>268.0688997021478</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>546.678252518022</v>
+        <v>425.6527747394468</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>515.7145761958802</v>
+        <v>497.6296677343274</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>264.5233142367379</v>
+        <v>335.7729620746225</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>375.5159633410985</v>
+        <v>353.0951314805977</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>182.8658979785824</v>
+        <v>182.3994524872216</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>336.3096511669586</v>
+        <v>284.5221320134521</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>1338.568624470548</v>
+        <v>1169.004966030958</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>352.9935272397536</v>
+        <v>299.0042004416927</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>666.9850501422894</v>
+        <v>744.5585006177697</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>504.0046128023763</v>
+        <v>527.3939581081838</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>503.253114352839</v>
+        <v>687.4188211354199</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>280.6437811798981</v>
+        <v>286.8054308375869</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>402.1006993591091</v>
+        <v>390.0756018273742</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>227.0328713837251</v>
+        <v>193.6378860919357</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>247.0652792005851</v>
+        <v>309.4659539722354</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>305.2463524562119</v>
+        <v>301.9449279748453</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>412.5889269140212</v>
+        <v>419.9975631907024</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>365.8698133419811</v>
+        <v>325.399620666666</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>938.1710261943476</v>
+        <v>998.4257096410452</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>304.1369596693355</v>
+        <v>301.6363114957541</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>273.5598953477602</v>
+        <v>210.3880672589941</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>375.5209202190724</v>
+        <v>396.8839455779006</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>403.7268301947535</v>
+        <v>394.268229235605</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>555.9332398869932</v>
+        <v>558.1823588740634</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>648.9874120235731</v>
+        <v>682.3039859181201</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>119.4222654494128</v>
+        <v>128.8709347806957</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>573.9922422916408</v>
+        <v>509.4733382332259</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>563.7679112454019</v>
+        <v>500.4059808729509</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>441.1885519773092</v>
+        <v>451.9669911316383</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>428.9635323265761</v>
+        <v>426.1396055941924</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>112.9223631924714</v>
+        <v>116.2072390657264</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>473.7068843266583</v>
+        <v>464.7597007218818</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>373.7245630335589</v>
+        <v>469.8718897527345</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>416.2387367769339</v>
+        <v>398.3499798829992</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>1038.846746444771</v>
+        <v>896.9290007307211</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>734.4693561794638</v>
+        <v>695.4479981344515</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>295.9298720340178</v>
+        <v>290.8959556871355</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>864.3814157705299</v>
+        <v>854.0729214936975</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>376.5326861320245</v>
+        <v>425.695605739408</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>439.8709517680874</v>
+        <v>457.357388185171</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>180.3724556904325</v>
+        <v>202.4863864209656</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>834.6529947395663</v>
+        <v>1012.843858268451</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>542.0781349927921</v>
+        <v>588.5180950022373</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>563.6045492576859</v>
+        <v>506.7347712543359</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>242.7176974661773</v>
+        <v>253.0398137792733</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>353.1559422721465</v>
+        <v>388.8528562288922</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>274.6570482870426</v>
+        <v>253.7041512112896</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>274.2095741653251</v>
+        <v>272.2010797338479</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>236.5783815941023</v>
+        <v>238.1022012414005</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>397.6063667074309</v>
+        <v>377.9333403491824</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>152.8054411289173</v>
+        <v>155.5468727973218</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>237.5226701430025</v>
+        <v>236.1286129656716</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>282.7509499179743</v>
+        <v>266.8875763459967</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>651.36447111981</v>
+        <v>679.6829609358675</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>127.1588532306746</v>
+        <v>110.38658664379</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>361.6421495943555</v>
+        <v>478.564056825036</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>260.3699277914466</v>
+        <v>293.6213071785413</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>264.9195433905352</v>
+        <v>257.47633212054</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>1406.121971819162</v>
+        <v>1770.288551728433</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>289.5386158840726</v>
+        <v>255.3229656896022</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>418.0784013962054</v>
+        <v>389.0142278860983</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>292.997356206553</v>
+        <v>327.0216902372066</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>342.434302840515</v>
+        <v>262.200876694493</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>263.7283269013054</v>
+        <v>245.9908635117801</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>554.5012426072915</v>
+        <v>509.1708004863182</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>485.2257369985492</v>
+        <v>426.8437055392802</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>373.9400743105646</v>
+        <v>358.621071344985</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>259.9153513771457</v>
+        <v>225.1275784834874</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>374.0024415790403</v>
+        <v>320.2946053287004</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>343.0594076633008</v>
+        <v>348.0038756949562</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>331.9764378956276</v>
+        <v>365.4830791226175</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>152.6473540662037</v>
+        <v>141.2694307537097</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>718.0460344369917</v>
+        <v>754.1574282684085</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>310.8719988700028</v>
+        <v>309.952826950497</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>321.6337411249038</v>
+        <v>339.0972178237112</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>420.0470070637062</v>
+        <v>387.7284494852375</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>875.8082930520048</v>
+        <v>838.1817124743709</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>233.5791116493803</v>
+        <v>174.756043582446</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>334.3972532811006</v>
+        <v>311.9975188902322</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>377.0735152338297</v>
+        <v>374.0988830860177</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>557.5337782866376</v>
+        <v>571.6630964706576</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>300.7949623170387</v>
+        <v>332.4048213999712</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>247.2446661706962</v>
+        <v>215.1721192737886</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>873.5274274138721</v>
+        <v>814.0037050381399</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>299.6380329256076</v>
+        <v>313.3528938223869</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>1201.64601562778</v>
+        <v>988.9194504751019</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>383.4388122719358</v>
+        <v>354.8156924165148</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>541.5741655465922</v>
+        <v>640.5598333560489</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>179.9687696623872</v>
+        <v>174.1579343643885</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>452.9126266799187</v>
+        <v>455.8293979857571</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>196.9467566780708</v>
+        <v>196.1389488685713</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>468.4095378748735</v>
+        <v>512.8488977055106</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>334.8422570142474</v>
+        <v>292.6974394071346</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>233.6801239569779</v>
+        <v>220.6940034948596</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>291.3140627503133</v>
+        <v>288.1326448375274</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>224.8446862171749</v>
+        <v>254.5195830670773</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>542.4865995862299</v>
+        <v>627.0663363372466</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>1024.291371648705</v>
+        <v>1020.755107578483</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>276.1548795331182</v>
+        <v>270.6727812719803</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>201.9072661688438</v>
+        <v>225.002448453462</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>1106.073680640913</v>
+        <v>905.0506784749093</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>338.5968831101411</v>
+        <v>297.3271555370908</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>149.0871040679073</v>
+        <v>169.9474706298024</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>564.9061213718184</v>
+        <v>509.4892809345964</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>444.4101889410546</v>
+        <v>456.85621264221</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>1162.567045691209</v>
+        <v>1195.902099781103</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>618.7235711010768</v>
+        <v>593.2497865673952</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>782.0026897874378</v>
+        <v>815.7647900604721</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>257.4463968694046</v>
+        <v>231.7795851698142</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>271.3788431584518</v>
+        <v>262.54229481901</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>302.3228502199325</v>
+        <v>344.5910528241302</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>1123.771558723605</v>
+        <v>1174.243323807235</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>493.7538955821494</v>
+        <v>501.4003875769546</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>915.4608090599679</v>
+        <v>866.0039476077072</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>234.3057785209739</v>
+        <v>203.5550013278012</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>470.8013463030481</v>
+        <v>466.0836956908483</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>296.5632355256196</v>
+        <v>280.7274490441577</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>450.1487124271466</v>
+        <v>513.1680779493705</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>299.7418756143688</v>
+        <v>298.7118936773158</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>242.8674920035647</v>
+        <v>248.8747941982369</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>309.4240627877753</v>
+        <v>274.1797494586488</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>163.1048388805429</v>
+        <v>166.0987234872842</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>1411.259919723095</v>
+        <v>1429.988057542739</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>376.6419993022928</v>
+        <v>374.5302871590636</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>351.5039617252179</v>
+        <v>338.7703294044044</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>329.1997716845858</v>
+        <v>330.5220779578916</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>329.2805445714821</v>
+        <v>366.6274947984309</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>182.2086779705177</v>
+        <v>185.4026075560372</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>223.4497795801144</v>
+        <v>268.8759713642345</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>483.5685508378187</v>
+        <v>490.9685183239777</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>780.074621742428</v>
+        <v>784.1766891784075</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>256.6455130616723</v>
+        <v>271.7335527568023</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>307.4499337789351</v>
+        <v>304.0597998204209</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>278.7741876988731</v>
+        <v>305.7582617540181</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>318.6638653781876</v>
+        <v>318.8639489403849</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>330.6410752610586</v>
+        <v>282.3584449199911</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>333.9610704473741</v>
+        <v>320.9237108814821</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>280.3561954074816</v>
+        <v>341.5369280672761</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>533.9492380698866</v>
+        <v>569.9760497322841</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>408.2698129526588</v>
+        <v>409.7439914770886</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>482.9593358108862</v>
+        <v>458.9189619067291</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>300.686602274641</v>
+        <v>246.8286501937251</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>454.212100424244</v>
+        <v>409.4549525330588</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>110.1815366466147</v>
+        <v>117.0428120225488</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>438.3026608354928</v>
+        <v>420.8265541804082</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>634.2739006077763</v>
+        <v>556.5425261139585</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>655.8838466173804</v>
+        <v>641.36976234603</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>574.6945702658134</v>
+        <v>509.6337770329609</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>205.2379053585647</v>
+        <v>207.9028226252986</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>1244.252680182598</v>
+        <v>1207.907099526423</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>686.7410143509643</v>
+        <v>656.4071060855363</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>276.2202077519288</v>
+        <v>287.7327840094696</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>302.2083855189331</v>
+        <v>301.6728198286873</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>272.4266939414612</v>
+        <v>272.5767847925551</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>179.8040966761023</v>
+        <v>202.0437962677948</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>237.5339719305773</v>
+        <v>251.6160501968031</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>290.3147690964753</v>
+        <v>300.767465343217</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>685.7252468228361</v>
+        <v>617.9936067616682</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>339.5474385108045</v>
+        <v>340.3773640093653</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>320.650233456505</v>
+        <v>281.7218489023119</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>467.8176501449665</v>
+        <v>467.6433341216039</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>472.2208761946357</v>
+        <v>617.0285098348143</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>447.4623638817647</v>
+        <v>356.5688952180538</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>686.0308956923841</v>
+        <v>771.3261609919088</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>269.9537681150702</v>
+        <v>288.7528899220579</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>398.9545618817208</v>
+        <v>430.8580393236314</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>276.1837386494922</v>
+        <v>276.145088429578</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>286.4991540819203</v>
+        <v>344.5248930610618</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>517.3942244161782</v>
+        <v>479.6201861563486</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>428.5623853327899</v>
+        <v>442.6998529333919</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>328.7719354395169</v>
+        <v>278.4082847773612</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>281.6715256459551</v>
+        <v>264.0529224520357</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>250.2811139434759</v>
+        <v>288.3724949517951</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>495.0051092144901</v>
+        <v>640.384037764568</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>307.444925173582</v>
+        <v>256.6913510441202</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>344.7032174871148</v>
+        <v>344.205021775151</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>380.9465800734004</v>
+        <v>377.4665312734402</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>297.4447463383348</v>
+        <v>298.777617023145</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>511.7154743911171</v>
+        <v>492.5721552657633</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>219.2498349340518</v>
+        <v>195.2413118325256</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>2203.038100655661</v>
+        <v>2185.440479241426</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>446.3658355781846</v>
+        <v>437.6823278299368</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>218.3828604620708</v>
+        <v>216.652383019389</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>324.8675865583885</v>
+        <v>328.3047497359298</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>346.6095848802869</v>
+        <v>396.7561512189415</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>334.7835780868581</v>
+        <v>305.0592652683654</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>742.804866217943</v>
+        <v>554.7842214012384</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>238.9513949192893</v>
+        <v>276.5539160512939</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>414.5985799452711</v>
+        <v>299.4593849174927</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>230.5205869791156</v>
+        <v>247.3732402072038</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>72.87201563965962</v>
+        <v>71.946370263237</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>309.6656876566273</v>
+        <v>291.649072054674</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>321.8222394162738</v>
+        <v>354.9207486308774</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>358.2445557815495</v>
+        <v>396.3817518876303</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>514.5976134198447</v>
+        <v>508.6386177815916</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>801.638106633908</v>
+        <v>840.5348539460394</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>351.4593949551275</v>
+        <v>333.0165397682467</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>344.0167175055982</v>
+        <v>358.9971409860183</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>261.3321802049367</v>
+        <v>259.9414225849814</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>667.3159698760783</v>
+        <v>683.4498165518347</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>456.1829702519506</v>
+        <v>363.8981375330031</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>516.0890407502482</v>
+        <v>512.9782743044698</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>216.2851700308043</v>
+        <v>208.6184228106464</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>93.94797182697724</v>
+        <v>89.86023758984233</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>252.4892901413443</v>
+        <v>240.5786318972172</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>783.6880894021454</v>
+        <v>827.8054864984558</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>246.3585985722526</v>
+        <v>249.6779615513175</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>312.6264203605683</v>
+        <v>321.9915361395194</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>244.2361628660007</v>
+        <v>268.8472436904418</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>420.3562082768325</v>
+        <v>378.715522107842</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>273.2160138151302</v>
+        <v>273.6085774549538</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>242.6622824074288</v>
+        <v>245.0511517791214</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>388.4116708973835</v>
+        <v>341.0834468279257</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>303.5470456431949</v>
+        <v>319.0177997494388</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>348.7826299938118</v>
+        <v>346.4345915706642</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>728.3398384430803</v>
+        <v>639.6048392913546</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>727.4947457303551</v>
+        <v>832.658984227615</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>285.6388645924417</v>
+        <v>257.2056908707471</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>440.7761495462838</v>
+        <v>380.4112417468796</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>285.7514534514443</v>
+        <v>283.7143304510332</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>272.0931944574039</v>
+        <v>309.062523787402</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>548.7591583188118</v>
+        <v>639.5333579695528</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>237.3163074919729</v>
+        <v>274.7420285730922</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>1088.514298015977</v>
+        <v>1288.089665395632</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>351.0025175075492</v>
+        <v>352.6386007981317</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>193.2791190460526</v>
+        <v>191.7866642485558</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>262.6913153296983</v>
+        <v>269.3886514251091</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>483.1754782444552</v>
+        <v>587.3348712303348</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>783.4232543914434</v>
+        <v>931.8142776323645</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>346.5892931005893</v>
+        <v>374.3936614513815</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>289.3340247992851</v>
+        <v>292.0361654970169</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>235.8649612018116</v>
+        <v>235.7985478858551</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>298.4497463540246</v>
+        <v>329.9242433519632</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>500.9413172833831</v>
+        <v>553.6371402630109</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>304.9854838069948</v>
+        <v>357.5284180102606</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>462.4327546701537</v>
+        <v>486.2882421337765</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>355.3622330479169</v>
+        <v>344.451474451577</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>122.9702722071697</v>
+        <v>121.9945058110582</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>261.1623540111631</v>
+        <v>275.7850446232405</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>340.1686436571067</v>
+        <v>429.6347025000168</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>445.7101020111665</v>
+        <v>339.2869771274525</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>283.3226099212879</v>
+        <v>341.6694098691816</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>531.9291827748796</v>
+        <v>494.6062779415195</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>647.3839237927217</v>
+        <v>529.5063610751636</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>508.6814187302663</v>
+        <v>505.7840522262671</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>239.8120354449619</v>
+        <v>218.2826631432962</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>411.3652975116544</v>
+        <v>463.6139040274003</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>232.5663213719671</v>
+        <v>230.1977644521838</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>458.5744694338602</v>
+        <v>525.5815635107342</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>494.2101090290751</v>
+        <v>464.198222907146</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>1071.710700187974</v>
+        <v>1274.566340105431</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>283.6963486955088</v>
+        <v>276.757435420438</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>465.9597695837755</v>
+        <v>469.2472863860464</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>336.6563900370966</v>
+        <v>317.2285494468879</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>414.8508346740259</v>
+        <v>428.0553739043388</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>431.5547684679512</v>
+        <v>453.454196497254</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>1328.87863635341</v>
+        <v>1160.410547764593</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>491.4724529476672</v>
+        <v>396.7677682238914</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>237.1882139284366</v>
+        <v>260.9469376628136</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>570.0827884446963</v>
+        <v>576.3207343371121</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>638.8613763344537</v>
+        <v>580.0764870493825</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>410.9784461381522</v>
+        <v>424.2346702984726</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>342.0276206065462</v>
+        <v>360.869658025773</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>1114.539698242954</v>
+        <v>1252.884853239364</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>498.7940313928501</v>
+        <v>523.9349715020707</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>374.061973817917</v>
+        <v>447.3220047867696</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>749.378572693811</v>
+        <v>623.5197863188913</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>444.923486830911</v>
+        <v>420.9520522147037</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>1117.398194628807</v>
+        <v>1291.166225753859</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>712.1742812163056</v>
+        <v>769.0470653210817</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>379.3275987309959</v>
+        <v>357.0394678719798</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>438.8001369116597</v>
+        <v>412.8480130561708</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>424.1103772736673</v>
+        <v>417.653653856796</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>1084.527206844259</v>
+        <v>1083.012438414265</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>526.4970652239361</v>
+        <v>518.0896429268061</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>343.2325591125947</v>
+        <v>375.3233837828931</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>363.8363475631721</v>
+        <v>374.2411034005067</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>433.4474911607166</v>
+        <v>415.5242673962629</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>262.1925154387338</v>
+        <v>284.7352889955481</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>491.5251258099149</v>
+        <v>479.7036306139138</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>360.9508420563398</v>
+        <v>391.6953797395787</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>1027.868293054582</v>
+        <v>1307.843716463178</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>337.9958839570317</v>
+        <v>343.8917273548909</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>947.7585728159187</v>
+        <v>936.652101517964</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>581.8740883460325</v>
+        <v>552.0573929334233</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>171.8923383905224</v>
+        <v>178.1373516114431</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>330.2289964972685</v>
+        <v>309.7578709090602</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>208.9279122824713</v>
+        <v>225.4148772875604</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>198.9032488159577</v>
+        <v>238.0384421855927</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>390.1384112702544</v>
+        <v>383.3107474943965</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>183.9265907641337</v>
+        <v>181.282361914876</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>224.8928977490279</v>
+        <v>235.1067054780853</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>406.847795960996</v>
+        <v>374.1859166843368</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>458.4842863510574</v>
+        <v>390.2824994786249</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>324.2706201339747</v>
+        <v>348.4794186553816</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>349.8120321409613</v>
+        <v>318.0921570692266</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>443.4930534994929</v>
+        <v>447.4981834456045</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>575.7699402497917</v>
+        <v>562.4077585244648</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>559.3858901897207</v>
+        <v>567.2703637391036</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>491.5711805162587</v>
+        <v>468.1695929364631</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>330.2568700671891</v>
+        <v>303.3536785873122</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>550.9009428569587</v>
+        <v>559.7400243548344</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>997.6160714074578</v>
+        <v>1117.103036197649</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>913.928909270555</v>
+        <v>919.7069009741314</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>3328.34470027927</v>
+        <v>3287.422374300547</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>198.9801172865709</v>
+        <v>199.4334006150024</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>378.5456447586819</v>
+        <v>443.9335476642894</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>502.3949689915026</v>
+        <v>610.9992957035181</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>408.2995230536784</v>
+        <v>420.8022532171878</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>202.4110153876325</v>
+        <v>249.7749309577395</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>916.4738250242688</v>
+        <v>1043.563240267435</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>624.2194820043167</v>
+        <v>667.5775825742332</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>174.47723631683</v>
+        <v>158.7097704383807</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>226.8578391894928</v>
+        <v>269.2737524061073</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>1487.334796397732</v>
+        <v>1643.361792389252</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>948.1008191398639</v>
+        <v>1265.804186029386</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>207.0834912796913</v>
+        <v>217.638877201126</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>537.0025069288417</v>
+        <v>531.1666675897345</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>578.0371988454528</v>
+        <v>565.9778519741658</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>303.8443893418075</v>
+        <v>378.5508937381735</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>463.3713242180656</v>
+        <v>453.8641552280204</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>537.3675191636677</v>
+        <v>474.6211341551214</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>806.0166962715434</v>
+        <v>808.6635190942845</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>221.4616051893271</v>
+        <v>233.0459449667192</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>381.5617197476257</v>
+        <v>351.2588210627203</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>268.8260849727432</v>
+        <v>266.2020419812739</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>445.5525846514635</v>
+        <v>491.0588004060041</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>236.5002482678873</v>
+        <v>283.278140842238</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>541.8930018090857</v>
+        <v>652.3918251996839</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>535.2303065206933</v>
+        <v>581.0587077351765</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>290.4935314522314</v>
+        <v>326.7737104858377</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>614.3576175797011</v>
+        <v>615.6456555332783</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>344.0614560456317</v>
+        <v>316.061469279382</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>361.0531945091663</v>
+        <v>326.7416249571483</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>764.5537834195258</v>
+        <v>787.1919547483009</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>318.7801443921197</v>
+        <v>338.3341161360643</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>517.8297344493991</v>
+        <v>595.2212155820223</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>144.4780852269867</v>
+        <v>136.1754705622778</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>715.1487735975628</v>
+        <v>655.7613034381376</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>136.6715858487138</v>
+        <v>130.5864257102853</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>246.5811016166934</v>
+        <v>257.9247681502021</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>145.0177248558536</v>
+        <v>145.2834711892684</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>324.2130425528231</v>
+        <v>357.2631762982763</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>625.6813438763094</v>
+        <v>624.9908726432789</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>305.1305270989934</v>
+        <v>288.0106768015593</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>445.160817369468</v>
+        <v>428.500217265371</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>372.6825775589815</v>
+        <v>374.4829774142695</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>304.6382544576889</v>
+        <v>266.4176770954744</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>169.2652440238735</v>
+        <v>144.4475746260137</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>473.9182072238499</v>
+        <v>430.9367974492503</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>238.2421281072856</v>
+        <v>238.8473582846078</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>180.4678691635499</v>
+        <v>184.2287097068441</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>281.365573292977</v>
+        <v>299.4410208078319</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>575.2232772603007</v>
+        <v>547.6319441950014</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>156.3366188824299</v>
+        <v>159.0964165040209</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>273.3624624426274</v>
+        <v>255.7386902290152</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>273.636541082639</v>
+        <v>309.3394172428747</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>450.8683316972182</v>
+        <v>418.1272542164859</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>284.3732152664642</v>
+        <v>271.8121498895729</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>151.576513529627</v>
+        <v>152.1570210741148</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>685.8680039432553</v>
+        <v>807.1967579163132</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>619.2272723580847</v>
+        <v>621.9231235635624</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>555.297891668684</v>
+        <v>542.7930853984972</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>574.2984844507041</v>
+        <v>456.260459365311</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>268.3621035213898</v>
+        <v>287.3525838978025</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>575.3799385014843</v>
+        <v>537.7938425295273</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>264.4112843146886</v>
+        <v>249.9612229350452</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>322.2339396227077</v>
+        <v>296.2786498418605</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>512.4452239405371</v>
+        <v>508.7498368425505</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>484.5450825686009</v>
+        <v>481.5275480109786</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>260.9238339483817</v>
+        <v>299.0341068456046</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>468.0312585156641</v>
+        <v>443.2046215529616</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>809.1229941988938</v>
+        <v>783.4965281873275</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>422.7733527113887</v>
+        <v>402.9693819722897</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>221.4591752910123</v>
+        <v>220.3420386450825</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>237.9558738049484</v>
+        <v>247.8879906946831</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>301.3543761872602</v>
+        <v>318.4429039732627</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>394.4521704839908</v>
+        <v>451.0685827687259</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>271.9929045878368</v>
+        <v>267.6575046655913</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>396.6544939229833</v>
+        <v>432.8010920284525</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>377.4071797562201</v>
+        <v>375.2451890531987</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>81.29265435536111</v>
+        <v>85.34583502271367</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>257.5557300667944</v>
+        <v>324.3825898375651</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>352.3031240478288</v>
+        <v>357.7827468615379</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>359.8843430082719</v>
+        <v>343.6020292226036</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>1092.719188790375</v>
+        <v>898.5087179833201</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>386.8080145266561</v>
+        <v>431.2905086231761</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>581.4455708578987</v>
+        <v>545.349129608176</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>1119.728174619091</v>
+        <v>1157.042355120839</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>223.5220112160273</v>
+        <v>261.6466621937758</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>428.1763084277958</v>
+        <v>524.338877451541</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>650.0042132411679</v>
+        <v>656.6542837307741</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>415.3924353143622</v>
+        <v>407.432827238505</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>428.9367166209868</v>
+        <v>404.6091621885314</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>573.865554086015</v>
+        <v>578.9651254167899</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>319.6363315395028</v>
+        <v>358.6078985304117</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>479.179078466606</v>
+        <v>486.6386157810406</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>526.5258430553677</v>
+        <v>475.2191332063799</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>666.172248748184</v>
+        <v>664.1160997819138</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>455.8639443338255</v>
+        <v>420.962973374186</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>226.2859170359823</v>
+        <v>218.8954801142865</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>442.3694791158977</v>
+        <v>433.9362068725918</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>398.9393826291583</v>
+        <v>426.1571244669862</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>202.3537252559748</v>
+        <v>176.207976641782</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>242.3308922045593</v>
+        <v>198.0706294006467</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>414.0186850325011</v>
+        <v>332.922280288387</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>406.5341485801343</v>
+        <v>392.7494505707107</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>541.6013206479588</v>
+        <v>492.1845988714858</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>287.6302643143032</v>
+        <v>226.6707236433281</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>393.4646771215433</v>
+        <v>364.4878621971572</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>295.8775408164906</v>
+        <v>293.450326201981</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>160.2113728682993</v>
+        <v>174.344421407546</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>513.7936874528683</v>
+        <v>447.2922397785687</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>279.4144099887223</v>
+        <v>260.9098732569411</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>599.9643210942229</v>
+        <v>475.3780379271163</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>488.8728624794647</v>
+        <v>457.3650525596586</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>347.0073671229498</v>
+        <v>358.6607424686915</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>301.2536179457311</v>
+        <v>314.9026578134477</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>801.6114486237872</v>
+        <v>814.021324315984</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>110.6400523808682</v>
+        <v>127.3561686812133</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>546.6505274327372</v>
+        <v>584.5871968783878</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>756.0673969822572</v>
+        <v>703.49569990099</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>272.3479621811115</v>
+        <v>296.6674408746412</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>219.1300446924809</v>
+        <v>230.4120718554838</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>383.4091835116031</v>
+        <v>396.1164030339791</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>150.7092285673434</v>
+        <v>122.8980964218529</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>644.832878604541</v>
+        <v>604.9031708673633</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>386.5578479680894</v>
+        <v>331.9782353403633</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>248.8832803425618</v>
+        <v>257.5938357113007</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>450.012681833806</v>
+        <v>327.4348779493732</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>309.9293397670932</v>
+        <v>321.059385860088</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>420.1104430962302</v>
+        <v>373.1291160771672</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887">
-        <v>616.6712745514911</v>
+        <v>673.2116943090092</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888">
-        <v>290.7761454628638</v>
+        <v>327.5064430406819</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889">
-        <v>314.8617199127456</v>
+        <v>326.5664057918215</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890">
-        <v>333.7449741308231</v>
+        <v>407.8660642532088</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891">
-        <v>613.6459941855247</v>
+        <v>659.7871606261962</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>737.4480898488102</v>
+        <v>831.5888492232033</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>342.2366794846582</v>
+        <v>343.6920754164609</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>493.3862883470782</v>
+        <v>560.5575783837719</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>370.0837499651827</v>
+        <v>346.2081759385827</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896">
-        <v>530.168355328049</v>
+        <v>479.0289477478257</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>562.5089035124695</v>
+        <v>561.7428502259035</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>620.8684548838191</v>
+        <v>649.9155238004905</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>415.7011533629655</v>
+        <v>396.5921549843737</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>1084.641235544612</v>
+        <v>1257.213600416678</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>289.1331522333077</v>
+        <v>290.1646854364994</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>243.7161822127619</v>
+        <v>245.0090331266182</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903">
-        <v>312.3700519051736</v>
+        <v>302.8267504292744</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>326.6822328231892</v>
+        <v>325.1335718815399</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>230.3294262466596</v>
+        <v>229.0488703195692</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>501.5080069862048</v>
+        <v>498.1736711263636</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>631.2024189472812</v>
+        <v>652.9359127680634</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>471.3665629665448</v>
+        <v>437.5066420981299</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909">
-        <v>229.7819754390796</v>
+        <v>230.0793413178971</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>451.3422249246628</v>
+        <v>433.4927226648512</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911">
-        <v>281.6089457753633</v>
+        <v>265.9467084797948</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912">
-        <v>302.8418913987283</v>
+        <v>331.796656519839</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>469.3162513652717</v>
+        <v>469.5962076146075</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>216.9011638443638</v>
+        <v>214.8314888748693</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915">
-        <v>633.1022154964787</v>
+        <v>495.7220771276712</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>685.6526060678412</v>
+        <v>736.7968943540014</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>355.3490047915529</v>
+        <v>437.6336463765414</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>324.8273392759264</v>
+        <v>348.1430705210741</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919">
-        <v>521.2996472542039</v>
+        <v>419.380668175649</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>1638.797254604991</v>
+        <v>1610.423872886042</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>448.2433520055401</v>
+        <v>540.0900086844722</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>212.3160345031947</v>
+        <v>206.9226938495004</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>438.7897772064641</v>
+        <v>404.6734648734493</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>120.8009020780303</v>
+        <v>121.3628290269872</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>278.5451117131382</v>
+        <v>320.3482957244835</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926">
-        <v>285.8374291180377</v>
+        <v>223.6014736764721</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>793.981972081955</v>
+        <v>841.2121985537708</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>230.9984066352787</v>
+        <v>224.8304489022576</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929">
-        <v>322.1364304667604</v>
+        <v>308.7928553396241</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>986.6526983490737</v>
+        <v>1007.513434927383</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931">
-        <v>276.1136329729691</v>
+        <v>265.8395360759565</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932">
-        <v>859.089469955724</v>
+        <v>852.03294117138</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>492.7472429669431</v>
+        <v>470.8688463966171</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>284.8495033990166</v>
+        <v>275.6942738480354</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935">
-        <v>193.9337923350203</v>
+        <v>196.564993053468</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>135.9657195802912</v>
+        <v>131.8827679388903</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937">
-        <v>292.0044939004557</v>
+        <v>338.3941018770631</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>778.187868832331</v>
+        <v>805.7750632331778</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939">
-        <v>277.7247325811087</v>
+        <v>276.1562077827339</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940">
-        <v>336.6797482243499</v>
+        <v>320.5485704051636</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941">
-        <v>217.6524902316028</v>
+        <v>217.2021389838161</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>1019.044595421747</v>
+        <v>1012.2420834466</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943">
-        <v>229.1114213073984</v>
+        <v>225.8425186740746</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944">
-        <v>357.2617523935765</v>
+        <v>335.8899524797517</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945">
-        <v>453.2354025105082</v>
+        <v>412.2129760298536</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946">
-        <v>471.8258426300143</v>
+        <v>490.070467566597</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947">
-        <v>381.3481042752387</v>
+        <v>372.844569441992</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948">
-        <v>524.5096910335971</v>
+        <v>463.0493682673633</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949">
-        <v>307.3871822654984</v>
+        <v>306.5876099303151</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>346.9483262472486</v>
+        <v>342.3103066064542</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>295.4925907711486</v>
+        <v>279.213607769304</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>326.7936526558478</v>
+        <v>328.3532383223904</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>424.2356612983214</v>
+        <v>448.4423839556507</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954">
-        <v>269.292138556329</v>
+        <v>262.3278918088927</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955">
-        <v>597.3762722439715</v>
+        <v>702.0276075081737</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956">
-        <v>481.0644217253067</v>
+        <v>528.5106359062041</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957">
-        <v>210.4874413416779</v>
+        <v>251.0731858231364</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>625.6607275493467</v>
+        <v>670.7310478582204</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959">
-        <v>496.7210246093634</v>
+        <v>493.3255144320992</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960">
-        <v>254.5105274817616</v>
+        <v>282.8891425301834</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>436.7593699205473</v>
+        <v>436.447940967405</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962">
-        <v>448.3974458238246</v>
+        <v>464.5767584422591</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>199.7574087608922</v>
+        <v>182.2969466159455</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>794.096233267245</v>
+        <v>835.5752012953851</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965">
-        <v>406.0198023205002</v>
+        <v>371.5496604757718</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966">
-        <v>586.5508147327674</v>
+        <v>607.9170862816012</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967">
-        <v>205.1524231601352</v>
+        <v>218.2831438559247</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968">
-        <v>371.4339402696933</v>
+        <v>320.0086856631667</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969">
-        <v>368.4166047199918</v>
+        <v>369.78718042588</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970">
-        <v>417.0023129894073</v>
+        <v>459.3084828198373</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971">
-        <v>601.922603703235</v>
+        <v>499.3792768410949</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>488.6604200669859</v>
+        <v>554.6401178633705</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>432.502560526449</v>
+        <v>475.2344773832733</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974">
-        <v>523.3917804850309</v>
+        <v>536.7970279924818</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975">
-        <v>709.8049913430609</v>
+        <v>637.3542132859645</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>301.9645860808806</v>
+        <v>268.2742409696812</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977">
-        <v>402.0359347989545</v>
+        <v>402.929293630005</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978">
-        <v>372.3734880897572</v>
+        <v>379.9755269268018</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979">
-        <v>304.6845670644037</v>
+        <v>278.9316842444269</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980">
-        <v>828.5757219251552</v>
+        <v>963.5537197664181</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981">
-        <v>188.7802159377752</v>
+        <v>186.6379109488967</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982">
-        <v>149.8576200889322</v>
+        <v>164.2252278857291</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983">
-        <v>395.0786203751303</v>
+        <v>448.2623251882716</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984">
-        <v>74.60730464237233</v>
+        <v>83.18144676888723</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985">
-        <v>711.6105954925578</v>
+        <v>616.5520481553065</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986">
-        <v>561.3445503281973</v>
+        <v>595.305875594208</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987">
-        <v>327.7334321523304</v>
+        <v>351.251464551587</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>425.755945918922</v>
+        <v>527.2583914628141</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989">
-        <v>452.8293988565075</v>
+        <v>470.7924162956917</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990">
-        <v>435.5820653092803</v>
+        <v>425.4963367128989</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991">
-        <v>412.5123132134265</v>
+        <v>411.7886014834315</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992">
-        <v>299.2125574928508</v>
+        <v>269.6062684874087</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993">
-        <v>431.206065647951</v>
+        <v>465.1259445059591</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994">
-        <v>599.5242844576726</v>
+        <v>538.8248237433857</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995">
-        <v>1511.387692864098</v>
+        <v>1652.479529857128</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>292.6167200293582</v>
+        <v>295.1392450297618</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997">
-        <v>1110.004311120645</v>
+        <v>1114.505648938687</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998">
-        <v>239.8346968764863</v>
+        <v>209.918267996834</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999">
-        <v>281.1516934569557</v>
+        <v>338.0980770556425</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000">
-        <v>151.1254745930432</v>
+        <v>150.349371167178</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001">
-        <v>306.9920788170894</v>
+        <v>302.4831400795798</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002">
-        <v>199.7375761758918</v>
+        <v>198.750549434424</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003">
-        <v>229.6262614582665</v>
+        <v>217.8505894389334</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004">
-        <v>457.2851509330254</v>
+        <v>436.978449145506</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005">
-        <v>224.6872589545492</v>
+        <v>231.1291559174144</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006">
-        <v>344.8487478672861</v>
+        <v>343.061329386727</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007">
-        <v>405.5025340996213</v>
+        <v>416.6001413739158</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008">
-        <v>379.5883689985397</v>
+        <v>360.4707313204939</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009">
-        <v>352.5102025035854</v>
+        <v>398.231299484489</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010">
-        <v>404.9091724373927</v>
+        <v>365.0127687431665</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011">
-        <v>623.4734246144035</v>
+        <v>625.5577358220683</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012">
-        <v>511.1835685220655</v>
+        <v>502.754224615142</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013">
-        <v>1048.361123103384</v>
+        <v>1055.545298459625</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014">
-        <v>555.6481184504046</v>
+        <v>503.8043402943717</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015">
-        <v>247.9866222125802</v>
+        <v>252.1530774315199</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016">
-        <v>298.670334512815</v>
+        <v>279.1424723481558</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017">
-        <v>418.042511094659</v>
+        <v>392.6418693103533</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018">
-        <v>164.5989512208306</v>
+        <v>127.9319546326581</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>312.3724176667368</v>
+        <v>277.0458666434622</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020">
-        <v>230.4307671680309</v>
+        <v>254.1980691056556</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>290.6633649115029</v>
+        <v>315.5856499411785</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>304.3522282052369</v>
+        <v>335.6233116149978</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023">
-        <v>278.441753333206</v>
+        <v>308.5053031905658</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024">
-        <v>319.324626490369</v>
+        <v>319.5016075261278</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025">
-        <v>394.0098517263576</v>
+        <v>412.3912698254983</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026">
-        <v>328.0577585324519</v>
+        <v>329.0923877145624</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027">
-        <v>276.3756385308996</v>
+        <v>294.5444624511991</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028">
-        <v>367.9985556324555</v>
+        <v>347.8968415471453</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029">
-        <v>274.9104315721389</v>
+        <v>266.7664261083757</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030">
-        <v>279.5960171707673</v>
+        <v>251.4794600782373</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>482.8975619011284</v>
+        <v>487.9201873164054</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032">
-        <v>249.353287760114</v>
+        <v>246.7451916439548</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033">
-        <v>585.4867040130556</v>
+        <v>587.2771457839414</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>251.8123903817699</v>
+        <v>284.7336583890036</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>254.0693657954815</v>
+        <v>249.2314191908046</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036">
-        <v>258.8913146653045</v>
+        <v>273.2450967891386</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>582.818634151443</v>
+        <v>541.5185843955851</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038">
-        <v>291.8112880913489</v>
+        <v>328.5282440386996</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039">
-        <v>69.6656329321175</v>
+        <v>71.79023897804596</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040">
-        <v>283.4796422536569</v>
+        <v>283.4130262093834</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041">
-        <v>293.5143336643313</v>
+        <v>292.5084384074498</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042">
-        <v>163.5023002965158</v>
+        <v>163.957450573273</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>551.5510529978179</v>
+        <v>490.7336254687083</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044">
-        <v>451.0896422759805</v>
+        <v>435.7605871277178</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>1080.41042509491</v>
+        <v>1065.721640688562</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>393.1757474445195</v>
+        <v>425.4600420250753</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047">
-        <v>234.3360206624029</v>
+        <v>213.3112142915496</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>337.1294713907289</v>
+        <v>384.970570484281</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049">
-        <v>311.6895755099324</v>
+        <v>316.6001813546706</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>504.1276646782982</v>
+        <v>527.4368556219936</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051">
-        <v>263.9151184789074</v>
+        <v>262.3027784098168</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>1137.655835388345</v>
+        <v>913.3642592246437</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053">
-        <v>365.2698128793651</v>
+        <v>369.3289126925919</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>2202.709595008168</v>
+        <v>2194.16094730979</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055">
-        <v>286.3820356079436</v>
+        <v>303.8799270499603</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>751.7279941981711</v>
+        <v>784.3942963152457</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>353.6757328854756</v>
+        <v>357.1967746588392</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>1341.292017582412</v>
+        <v>1338.226195573174</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059">
-        <v>291.6537655901124</v>
+        <v>249.7725634165359</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>624.6932892469285</v>
+        <v>625.296485129819</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061">
-        <v>257.6360343091404</v>
+        <v>274.3508594564477</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062">
-        <v>318.8112188245107</v>
+        <v>300.6983267625581</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>189.7517677171052</v>
+        <v>215.1167237583282</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>751.8987892672944</v>
+        <v>747.6038597393723</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>300.6945101317007</v>
+        <v>271.4535019550444</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>532.7062556990177</v>
+        <v>667.5919763575308</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>490.5941274460384</v>
+        <v>489.3814161377758</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068">
-        <v>292.8552877195503</v>
+        <v>264.8967902720143</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069">
-        <v>360.0194635165856</v>
+        <v>344.4302938248475</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>397.7077827750373</v>
+        <v>414.8294159172286</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>334.1775660962091</v>
+        <v>328.3613371033501</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>386.1289691919586</v>
+        <v>385.2660411651181</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073">
-        <v>278.7163798345476</v>
+        <v>338.8706490553257</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074">
-        <v>334.7684924781124</v>
+        <v>337.2237181923239</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075">
-        <v>248.0119898245899</v>
+        <v>252.1473826241403</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076">
-        <v>474.8876929355966</v>
+        <v>404.418010830899</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077">
-        <v>816.1245250987423</v>
+        <v>968.7424001220486</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>300.2476832675243</v>
+        <v>295.1599464278904</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079">
-        <v>676.4296259207945</v>
+        <v>624.8184850067296</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>354.5185460393615</v>
+        <v>355.4593354847161</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>285.302143368184</v>
+        <v>284.2231890800267</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>458.8900377123509</v>
+        <v>459.6073342575697</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>310.6011083907064</v>
+        <v>322.4088559973804</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>406.8155081949169</v>
+        <v>355.2386971776074</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>230.6833035139999</v>
+        <v>202.0911839759565</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>470.5381614397604</v>
+        <v>551.8956853175483</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>278.0311182982194</v>
+        <v>318.2840682035859</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>374.080872639512</v>
+        <v>367.0209988582902</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>249.1742309769784</v>
+        <v>246.8169321260864</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>276.525863786239</v>
+        <v>279.6477922882834</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>309.7941499237355</v>
+        <v>310.7334899799071</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>280.3561954074816</v>
+        <v>341.5369280672761</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>252.2792791695943</v>
+        <v>233.7812533321373</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>827.0609257752035</v>
+        <v>823.7069433700235</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>415.5653919827843</v>
+        <v>466.3416467487023</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>433.6034049237892</v>
+        <v>360.0656679817779</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>631.1480007939093</v>
+        <v>640.938180941242</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>618.2849797018654</v>
+        <v>752.1080653191208</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>351.0308670688246</v>
+        <v>364.0523584666855</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>310.2510141741598</v>
+        <v>319.4011539279343</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>568.1350929059736</v>
+        <v>536.8438369600294</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>388.4265289584349</v>
+        <v>442.0755711307078</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>779.7912932339178</v>
+        <v>618.4853616876513</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>679.8271513701089</v>
+        <v>717.7621589536952</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>355.3622330479169</v>
+        <v>344.451474451577</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>192.2584929174184</v>
+        <v>202.4613270027242</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>302.4387703901551</v>
+        <v>288.6740700470496</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>398.8836874353956</v>
+        <v>439.9407307028048</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>813.4743282204778</v>
+        <v>790.6769764863552</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>331.3171456444839</v>
+        <v>403.82599572703</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>194.6307424494673</v>
+        <v>192.9025100042847</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112">
-        <v>58.9444430457924</v>
+        <v>60.04031368509854</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113">
-        <v>446.8482816877394</v>
+        <v>556.6052812620364</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114">
-        <v>375.0709651309544</v>
+        <v>404.811236064073</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115">
-        <v>375.8159308040445</v>
+        <v>461.9607046592329</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116">
-        <v>283.4116550458083</v>
+        <v>292.777229905336</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117">
-        <v>896.3457761803927</v>
+        <v>952.8537708427516</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118">
-        <v>297.7512368967732</v>
+        <v>298.4167701120939</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119">
-        <v>393.4270132074514</v>
+        <v>423.902353190647</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120">
-        <v>244.0087886307298</v>
+        <v>251.0353458968162</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121">
-        <v>308.0451337066112</v>
+        <v>307.9796714872453</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>301.206515469442</v>
+        <v>273.3332427748309</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123">
-        <v>999.3220287366902</v>
+        <v>910.3172729393349</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124">
-        <v>881.1231136871112</v>
+        <v>936.9673262741189</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125">
-        <v>655.0637873851157</v>
+        <v>683.1949303438207</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126">
-        <v>506.5357127296311</v>
+        <v>465.7910847332563</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127">
-        <v>353.9217358593684</v>
+        <v>292.3484182200776</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128">
-        <v>685.3143465968869</v>
+        <v>846.0403744442114</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129">
-        <v>293.4928399736121</v>
+        <v>282.3638190223285</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130">
-        <v>285.4006500778188</v>
+        <v>295.6644988619023</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131">
-        <v>518.150651987521</v>
+        <v>555.2955295995525</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132">
-        <v>223.6388535691193</v>
+        <v>225.616290222091</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133">
-        <v>213.2604688610303</v>
+        <v>217.1572709204495</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134">
-        <v>437.3299043616702</v>
+        <v>410.4260343729238</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135">
-        <v>217.8332889912865</v>
+        <v>209.1528082215555</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136">
-        <v>290.7246511439166</v>
+        <v>274.6366890088307</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137">
-        <v>244.8339612185054</v>
+        <v>266.7557489994001</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138">
-        <v>491.4417604833886</v>
+        <v>462.0866409967259</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139">
-        <v>78.18616290272463</v>
+        <v>75.10039089075912</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140">
-        <v>161.831101458768</v>
+        <v>142.3709440622007</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141">
-        <v>792.4588835290652</v>
+        <v>794.9247611976847</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142">
-        <v>270.4219677136313</v>
+        <v>259.2096766888149</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143">
-        <v>634.7595717364039</v>
+        <v>662.0833840007549</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144">
-        <v>417.4906398748814</v>
+        <v>439.3032475388541</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145">
-        <v>474.8122926010188</v>
+        <v>589.3089254965042</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146">
-        <v>417.23901934796</v>
+        <v>401.4113968437755</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147">
-        <v>378.3345585873612</v>
+        <v>362.3572752249571</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148">
-        <v>557.3179451625518</v>
+        <v>610.7590281703665</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149">
-        <v>275.556511934233</v>
+        <v>264.333715634738</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150">
-        <v>239.9933433458555</v>
+        <v>240.5686169691637</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151">
-        <v>535.6055689179433</v>
+        <v>508.2663853750695</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>343.2244062364296</v>
+        <v>366.2466352065056</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>408.8464248258207</v>
+        <v>461.2617908114374</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>496.5467602510263</v>
+        <v>441.7606710289622</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>623.6978748128939</v>
+        <v>608.6258281874028</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>231.0000344389578</v>
+        <v>314.455581463843</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>878.6200870727461</v>
+        <v>714.2025402824024</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>320.850520545571</v>
+        <v>312.5465237727568</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>266.4469987585803</v>
+        <v>262.6661281337724</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>398.5636803484833</v>
+        <v>395.822984207608</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>966.2412797891334</v>
+        <v>926.3690786784058</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>212.5726649877537</v>
+        <v>215.9079793930521</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>763.3940423089903</v>
+        <v>808.8617260478665</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>269.2352233661875</v>
+        <v>265.9633681518344</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>318.0804777182759</v>
+        <v>297.4348772931062</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>606.3386578831881</v>
+        <v>684.4238544192123</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>657.6670283523753</v>
+        <v>577.1512847601334</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>244.5698818815219</v>
+        <v>236.916384227165</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>830.7456651141692</v>
+        <v>946.3024909437047</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>357.2085564129478</v>
+        <v>344.4782938696613</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>286.4765043649572</v>
+        <v>307.7163716548303</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>327.4409876788096</v>
+        <v>341.6000595372427</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>265.0557182754459</v>
+        <v>268.2127703366417</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>617.4618949047413</v>
+        <v>517.9672989698989</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>191.3840568081242</v>
+        <v>191.2192908056087</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>312.6744843974175</v>
+        <v>328.2526759261055</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>376.6250871206174</v>
+        <v>384.4958373850771</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>411.7822264122917</v>
+        <v>312.6468837704398</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>571.108765557013</v>
+        <v>657.6746165128443</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>328.099758806411</v>
+        <v>322.6962952679121</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>616.045448231209</v>
+        <v>667.1350233210841</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>726.8913196363497</v>
+        <v>730.6912260753636</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>368.4020902215623</v>
+        <v>387.4913934805988</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>577.0669373216581</v>
+        <v>597.0409339738208</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>317.5899353030657</v>
+        <v>310.9021137258063</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>450.6623983615689</v>
+        <v>455.9903299913504</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>310.3671731057402</v>
+        <v>309.4602810162516</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>1486.988159218915</v>
+        <v>1526.995794303431</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>480.955777997709</v>
+        <v>473.6454027448551</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>784.0593866185754</v>
+        <v>714.1942829250594</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>348.5383795109962</v>
+        <v>318.2964469709135</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>333.3503109518832</v>
+        <v>319.4986573356368</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>458.6794520779841</v>
+        <v>319.7709428457719</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>279.26293817935</v>
+        <v>253.529113937225</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>283.0106344669373</v>
+        <v>338.3253109807084</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>340.5675734160259</v>
+        <v>276.3228082091292</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>385.3160765126669</v>
+        <v>343.2981230866815</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>800.6380179940346</v>
+        <v>787.5792770016575</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>745.9234989663469</v>
+        <v>785.4250016346905</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>418.1298533480278</v>
+        <v>403.1202025353685</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>372.6886954568176</v>
+        <v>359.4366643139367</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>289.8327558116601</v>
+        <v>342.6770192362521</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>240.7388389744578</v>
+        <v>249.8047977692634</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>114.2432788432153</v>
+        <v>120.0854174453591</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>366.5982270626917</v>
+        <v>372.4637258159847</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>308.3797160784176</v>
+        <v>290.5443562146907</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>215.9961840280703</v>
+        <v>215.9060630610935</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>385.4687595259692</v>
+        <v>432.6920844419632</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>333.1925693941006</v>
+        <v>367.7997588852818</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>658.0133694718518</v>
+        <v>631.7625183032355</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>536.435297304222</v>
+        <v>548.0950071323329</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>751.8497789255147</v>
+        <v>618.7064366450916</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>761.6047027940665</v>
+        <v>775.5785857857704</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>353.4109667059932</v>
+        <v>345.8424683254338</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>315.4592418644904</v>
+        <v>316.107727475745</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>344.7284622456507</v>
+        <v>312.8061726068164</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>593.8606902166143</v>
+        <v>502.7493249969784</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>373.4839714132987</v>
+        <v>266.7804715468704</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>375.3747062940321</v>
+        <v>354.1674490692849</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>202.9817504635978</v>
+        <v>201.9381038954253</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>565.1135616819234</v>
+        <v>596.1959126239652</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>320.9040971986111</v>
+        <v>299.9267638726692</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>443.1313973727705</v>
+        <v>380.6338448661149</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>198.4181329663403</v>
+        <v>195.7765405445332</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>508.696728018076</v>
+        <v>560.805037124126</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>677.8370068176283</v>
+        <v>664.9576989553192</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>470.4580363545876</v>
+        <v>482.091945746893</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>260.8048763261312</v>
+        <v>269.5508520950253</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>409.5397801972284</v>
+        <v>398.1839128934601</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>451.0826898362539</v>
+        <v>438.0548734246117</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>412.8072292444949</v>
+        <v>364.5342473467039</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>518.8823666346736</v>
+        <v>615.9661550195756</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>343.6581985126557</v>
+        <v>321.994590237132</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>534.6074911750671</v>
+        <v>532.6598515392341</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>445.5321832466771</v>
+        <v>427.9814227441293</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>409.332658883001</v>
+        <v>422.2188713099837</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>677.2011721489574</v>
+        <v>656.1687332983657</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>771.5687015449256</v>
+        <v>727.3256003099435</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>351.4282685058974</v>
+        <v>332.5449719966767</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>338.5227640644032</v>
+        <v>310.1546121009224</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>478.8239671686048</v>
+        <v>493.1548513931479</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242">
-        <v>259.8433095571104</v>
+        <v>259.1181376794938</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>672.7561743264191</v>
+        <v>608.5601583109228</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244">
-        <v>260.912202271408</v>
+        <v>256.5362633402391</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245">
-        <v>4120.163307884839</v>
+        <v>4057.034839427181</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246">
-        <v>332.5556282154572</v>
+        <v>316.1491259639891</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247">
-        <v>605.434504260424</v>
+        <v>634.8159310455416</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248">
-        <v>183.2157343918233</v>
+        <v>216.1374343051628</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249">
-        <v>248.3317984377238</v>
+        <v>271.6030570657787</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250">
-        <v>830.5076482831265</v>
+        <v>802.8291323208991</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251">
-        <v>334.8628501373275</v>
+        <v>329.9259850459605</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252">
-        <v>609.8392794245385</v>
+        <v>695.6341769220514</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>327.3642818050764</v>
+        <v>367.3850430837612</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>288.1439547541983</v>
+        <v>236.8451145347982</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>265.0557182754459</v>
+        <v>268.2127703366417</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>391.8997940074613</v>
+        <v>400.4125697591682</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>1431.884158842611</v>
+        <v>1249.34164892475</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>300.215287247272</v>
+        <v>297.0244808509021</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>350.3294295143554</v>
+        <v>412.707392430418</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>447.0268452328396</v>
+        <v>444.2011989049804</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>225.5642940408989</v>
+        <v>237.7658242681244</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>468.7288174396083</v>
+        <v>404.5154418955744</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>301.1380349671494</v>
+        <v>248.0117326279299</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>968.27318263832</v>
+        <v>830.3746467648111</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>558.1548432951232</v>
+        <v>514.5363780620395</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>293.165375714713</v>
+        <v>287.877541829472</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>374.4505788605394</v>
+        <v>366.394642937431</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>350.4096778429133</v>
+        <v>482.2418539088428</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269">
-        <v>559.3085369523907</v>
+        <v>499.8187153027978</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270">
-        <v>462.0288644288553</v>
+        <v>461.6859316047356</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271">
-        <v>577.2393845975104</v>
+        <v>608.6701271920388</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272">
-        <v>507.23465649769</v>
+        <v>539.5084226102115</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>223.4590009355684</v>
+        <v>218.7936225211349</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274">
-        <v>253.7622901452656</v>
+        <v>287.9383168053449</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275">
-        <v>266.6396731439532</v>
+        <v>278.2799131014471</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276">
-        <v>414.9914300284625</v>
+        <v>440.4409949866006</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277">
-        <v>274.8213142120949</v>
+        <v>305.8940998816814</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278">
-        <v>279.3383803333495</v>
+        <v>267.4746907600414</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279">
-        <v>910.3777070465211</v>
+        <v>929.2373482596947</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280">
-        <v>448.1134855192166</v>
+        <v>426.0812735111123</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281">
-        <v>673.4946538276675</v>
+        <v>514.195367907463</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282">
-        <v>610.0915896356632</v>
+        <v>593.8739065424389</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283">
-        <v>350.0089737574109</v>
+        <v>349.1109946316958</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284">
-        <v>667.8919212364151</v>
+        <v>788.8786194770662</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285">
-        <v>748.863272705539</v>
+        <v>770.3349537979552</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>440.969066625763</v>
+        <v>443.537041313105</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287">
-        <v>273.3314969769315</v>
+        <v>308.812698650446</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288">
-        <v>255.930721284916</v>
+        <v>283.0823702712701</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>571.0275363554132</v>
+        <v>619.840025646504</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290">
-        <v>555.8396210917928</v>
+        <v>531.6865404677736</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>438.0726177203328</v>
+        <v>391.7768162857293</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>494.1982802283754</v>
+        <v>566.3081071155492</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>473.7016947934711</v>
+        <v>403.0665305235518</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294">
-        <v>182.8429837891323</v>
+        <v>222.6414012145701</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295">
-        <v>349.7253068799006</v>
+        <v>283.5293783056936</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296">
-        <v>438.5092539761305</v>
+        <v>431.5356071408285</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297">
-        <v>313.2328265498863</v>
+        <v>342.0619896921335</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298">
-        <v>649.0150530603261</v>
+        <v>728.523864037705</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299">
-        <v>526.1607950505188</v>
+        <v>499.4627919304952</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300">
-        <v>158.6670684499333</v>
+        <v>139.3079834882914</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301">
-        <v>392.8200041872456</v>
+        <v>371.1938500581626</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302">
-        <v>566.5369166036189</v>
+        <v>648.1268264925192</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303">
-        <v>991.8505531504951</v>
+        <v>794.7740143159015</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304">
-        <v>451.1317640054633</v>
+        <v>334.0984940212162</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305">
-        <v>177.5883952844726</v>
+        <v>167.7273703779977</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>361.4222948992121</v>
+        <v>361.178095172331</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307">
-        <v>270.9618913152233</v>
+        <v>281.9672783521688</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308">
-        <v>1097.560414507164</v>
+        <v>1073.061783941277</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309">
-        <v>778.0729314764687</v>
+        <v>650.0310549778952</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310">
-        <v>663.7396662962502</v>
+        <v>646.2647689414916</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311">
-        <v>841.5911903389206</v>
+        <v>827.8188658005915</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
       <c r="A1312">
-        <v>631.3968798558169</v>
+        <v>588.8971517638945</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313">
-        <v>1096.063646526289</v>
+        <v>1176.585728011369</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314">
-        <v>252.7422178301326</v>
+        <v>314.7420614004824</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>480.7676612375147</v>
+        <v>518.5067790415491</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316">
-        <v>975.9919324325241</v>
+        <v>1025.873598165888</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
       <c r="A1317">
-        <v>189.5675101471077</v>
+        <v>163.1223265095979</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>318.6638653781876</v>
+        <v>318.8639489403849</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319">
-        <v>388.1227575062159</v>
+        <v>471.7256734456984</v>
       </c>
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320">
-        <v>498.9488339135899</v>
+        <v>503.0505155800385</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
       <c r="A1321">
-        <v>457.4771772061293</v>
+        <v>453.8601733092755</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322">
-        <v>220.9017219291456</v>
+        <v>241.6435109157584</v>
       </c>
     </row>
     <row r="1323" spans="1:1">
       <c r="A1323">
-        <v>284.802854781341</v>
+        <v>319.922536506452</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>400.36191153318</v>
+        <v>434.3188310651008</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325">
-        <v>2168.833913389532</v>
+        <v>2194.506863945453</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
       <c r="A1326">
-        <v>466.8198663596036</v>
+        <v>475.7919113574609</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327">
-        <v>556.3731115851214</v>
+        <v>463.6806033572889</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328">
-        <v>538.4907168854963</v>
+        <v>541.3368973776012</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329">
-        <v>741.0704901659739</v>
+        <v>673.5270667560158</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330">
-        <v>907.7768786135834</v>
+        <v>964.1349733311914</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331">
-        <v>302.3827389801907</v>
+        <v>304.9798576650508</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>752.32255948597</v>
+        <v>633.98774064899</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333">
-        <v>1003.667096152777</v>
+        <v>955.9332391624757</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334">
-        <v>1020.835712783106</v>
+        <v>870.2857881736993</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335">
-        <v>340.3441857194072</v>
+        <v>342.8097497983618</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336">
-        <v>226.0836972459953</v>
+        <v>242.6004399111484</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337">
-        <v>285.9943317892944</v>
+        <v>255.7022602879906</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338">
-        <v>298.6260581895529</v>
+        <v>320.5869255584549</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339">
-        <v>348.1841050148117</v>
+        <v>354.8623726224491</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340">
-        <v>120.9758567948537</v>
+        <v>121.3653038245186</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341">
-        <v>216.8781896096483</v>
+        <v>231.2843687272996</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342">
-        <v>292.0222273190167</v>
+        <v>351.5098276955322</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343">
-        <v>416.8251847485502</v>
+        <v>432.7691748163915</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344">
-        <v>467.596544137767</v>
+        <v>549.6289878713396</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345">
-        <v>230.8044355205017</v>
+        <v>239.2485536645256</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346">
-        <v>1233.565585244669</v>
+        <v>1380.224693135248</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347">
-        <v>169.1820523301322</v>
+        <v>171.7797771399142</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348">
-        <v>258.3994358187693</v>
+        <v>259.9996092938546</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349">
-        <v>281.3465150392661</v>
+        <v>306.9590616737659</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350">
-        <v>623.1195369691403</v>
+        <v>513.3114380027189</v>
       </c>
     </row>
     <row r="1351" spans="1:1">
       <c r="A1351">
-        <v>372.1406233580855</v>
+        <v>415.0003884887424</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352">
-        <v>499.009430624932</v>
+        <v>499.893435334175</v>
       </c>
     </row>
     <row r="1353" spans="1:1">
       <c r="A1353">
-        <v>459.9471123211957</v>
+        <v>464.2539318267981</v>
       </c>
     </row>
     <row r="1354" spans="1:1">
       <c r="A1354">
-        <v>1272.380996840815</v>
+        <v>1074.312134338076</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355">
-        <v>442.7629067442041</v>
+        <v>408.7708636793816</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356">
-        <v>304.1302516276928</v>
+        <v>336.6901305539874</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357">
-        <v>373.9835081252394</v>
+        <v>431.4860396938629</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358">
-        <v>431.4087022858423</v>
+        <v>397.38623661604</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359">
-        <v>554.0602052711458</v>
+        <v>528.081603043755</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360">
-        <v>987.3711612546066</v>
+        <v>864.1810413654666</v>
       </c>
     </row>
     <row r="1361" spans="1:1">
       <c r="A1361">
-        <v>525.5758999783848</v>
+        <v>573.4495970626615</v>
       </c>
     </row>
     <row r="1362" spans="1:1">
       <c r="A1362">
-        <v>753.7406739850619</v>
+        <v>770.9724783503231</v>
       </c>
     </row>
     <row r="1363" spans="1:1">
       <c r="A1363">
-        <v>252.3842620368097</v>
+        <v>297.7912530353389</v>
       </c>
     </row>
     <row r="1364" spans="1:1">
       <c r="A1364">
-        <v>671.1063960276449</v>
+        <v>711.9075700252457</v>
       </c>
     </row>
     <row r="1365" spans="1:1">
       <c r="A1365">
-        <v>247.3998158728113</v>
+        <v>284.7125096356221</v>
       </c>
     </row>
     <row r="1366" spans="1:1">
       <c r="A1366">
-        <v>712.60351542323</v>
+        <v>723.7438131034941</v>
       </c>
     </row>
     <row r="1367" spans="1:1">
       <c r="A1367">
-        <v>358.1147253446657</v>
+        <v>360.0010894421326</v>
       </c>
     </row>
     <row r="1368" spans="1:1">
       <c r="A1368">
-        <v>681.0391590926743</v>
+        <v>760.4229495767271</v>
       </c>
     </row>
     <row r="1369" spans="1:1">
       <c r="A1369">
-        <v>1389.929999533126</v>
+        <v>1211.53031691029</v>
       </c>
     </row>
     <row r="1370" spans="1:1">
       <c r="A1370">
-        <v>621.1835233267632</v>
+        <v>541.325955817666</v>
       </c>
     </row>
     <row r="1371" spans="1:1">
       <c r="A1371">
-        <v>333.2589726626431</v>
+        <v>330.7072913428957</v>
       </c>
     </row>
     <row r="1372" spans="1:1">
       <c r="A1372">
-        <v>366.0550839068796</v>
+        <v>359.5804465324038</v>
       </c>
     </row>
     <row r="1373" spans="1:1">
       <c r="A1373">
-        <v>220.1420052192435</v>
+        <v>216.9865077900923</v>
       </c>
     </row>
     <row r="1374" spans="1:1">
       <c r="A1374">
-        <v>407.8336594224636</v>
+        <v>401.1901338796217</v>
       </c>
     </row>
     <row r="1375" spans="1:1">
       <c r="A1375">
-        <v>574.4376235899041</v>
+        <v>584.7562195796477</v>
       </c>
     </row>
     <row r="1376" spans="1:1">
       <c r="A1376">
-        <v>1268.315489252488</v>
+        <v>1374.390602227354</v>
       </c>
     </row>
     <row r="1377" spans="1:1">
       <c r="A1377">
-        <v>448.372201760931</v>
+        <v>430.2421956203178</v>
       </c>
     </row>
     <row r="1378" spans="1:1">
       <c r="A1378">
-        <v>1287.307846968682</v>
+        <v>1269.814370003243</v>
       </c>
     </row>
     <row r="1379" spans="1:1">
       <c r="A1379">
-        <v>215.0331835301892</v>
+        <v>208.1820190387582</v>
       </c>
     </row>
     <row r="1380" spans="1:1">
       <c r="A1380">
-        <v>471.5112602980379</v>
+        <v>436.399951399723</v>
       </c>
     </row>
     <row r="1381" spans="1:1">
       <c r="A1381">
-        <v>320.2631459733421</v>
+        <v>344.4569145973494</v>
       </c>
     </row>
     <row r="1382" spans="1:1">
       <c r="A1382">
-        <v>328.0961828797877</v>
+        <v>330.5095361326939</v>
       </c>
     </row>
     <row r="1383" spans="1:1">
       <c r="A1383">
-        <v>288.0202449451461</v>
+        <v>247.6634869611878</v>
       </c>
     </row>
     <row r="1384" spans="1:1">
       <c r="A1384">
-        <v>238.3358646126835</v>
+        <v>244.0243866077664</v>
       </c>
     </row>
     <row r="1385" spans="1:1">
       <c r="A1385">
-        <v>806.0520369938406</v>
+        <v>749.8749652257467</v>
       </c>
     </row>
     <row r="1386" spans="1:1">
       <c r="A1386">
-        <v>277.6805463711099</v>
+        <v>302.1574778982805</v>
       </c>
     </row>
     <row r="1387" spans="1:1">
       <c r="A1387">
-        <v>424.339780758283</v>
+        <v>483.8712695732654</v>
       </c>
     </row>
     <row r="1388" spans="1:1">
       <c r="A1388">
-        <v>609.319913211183</v>
+        <v>565.3843788537953</v>
       </c>
     </row>
     <row r="1389" spans="1:1">
       <c r="A1389">
-        <v>917.2042086672897</v>
+        <v>849.8204776372837</v>
       </c>
     </row>
     <row r="1390" spans="1:1">
       <c r="A1390">
-        <v>273.2297120295572</v>
+        <v>314.7238608067337</v>
       </c>
     </row>
     <row r="1391" spans="1:1">
       <c r="A1391">
-        <v>163.7433586844132</v>
+        <v>156.0418830098419</v>
       </c>
     </row>
     <row r="1392" spans="1:1">
       <c r="A1392">
-        <v>626.0349350264603</v>
+        <v>615.9570213621112</v>
       </c>
     </row>
     <row r="1393" spans="1:1">
       <c r="A1393">
-        <v>377.0285039250405</v>
+        <v>442.7995811528232</v>
       </c>
     </row>
     <row r="1394" spans="1:1">
       <c r="A1394">
-        <v>440.7772600339972</v>
+        <v>477.3916570119592</v>
       </c>
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395">
-        <v>1081.032256724822</v>
+        <v>950.331128143557</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
       <c r="A1396">
-        <v>253.6149209576735</v>
+        <v>292.3015019197161</v>
       </c>
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397">
-        <v>213.4135509849123</v>
+        <v>230.3488393478699</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
       <c r="A1398">
-        <v>476.1598803013786</v>
+        <v>470.1794206318993</v>
       </c>
     </row>
     <row r="1399" spans="1:1">
       <c r="A1399">
-        <v>245.1866340621866</v>
+        <v>216.5597207621478</v>
       </c>
     </row>
     <row r="1400" spans="1:1">
       <c r="A1400">
-        <v>346.6324859285767</v>
+        <v>357.4890468214347</v>
       </c>
     </row>
     <row r="1401" spans="1:1">
       <c r="A1401">
-        <v>424.2709746207022</v>
+        <v>437.4538820507888</v>
       </c>
     </row>
     <row r="1402" spans="1:1">
       <c r="A1402">
-        <v>934.322238301718</v>
+        <v>1072.413212323206</v>
       </c>
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403">
-        <v>827.2822184665624</v>
+        <v>817.346986650559</v>
       </c>
     </row>
     <row r="1404" spans="1:1">
       <c r="A1404">
-        <v>851.762348998496</v>
+        <v>848.1745646408111</v>
       </c>
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405">
-        <v>111.6842521222109</v>
+        <v>114.6050136283791</v>
       </c>
     </row>
     <row r="1406" spans="1:1">
       <c r="A1406">
-        <v>440.2004695220015</v>
+        <v>421.4698415347794</v>
       </c>
     </row>
     <row r="1407" spans="1:1">
       <c r="A1407">
-        <v>241.6300709763515</v>
+        <v>255.1073567559941</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
       <c r="A1408">
-        <v>307.8341870720914</v>
+        <v>305.4836984914647</v>
       </c>
     </row>
     <row r="1409" spans="1:1">
       <c r="A1409">
-        <v>221.4591752910123</v>
+        <v>220.3420386450825</v>
       </c>
     </row>
     <row r="1410" spans="1:1">
       <c r="A1410">
-        <v>1499.163848521341</v>
+        <v>1485.828446443453</v>
       </c>
     </row>
     <row r="1411" spans="1:1">
       <c r="A1411">
-        <v>543.5572010925636</v>
+        <v>612.5810437307878</v>
       </c>
     </row>
     <row r="1412" spans="1:1">
       <c r="A1412">
-        <v>663.0005939484373</v>
+        <v>697.104132530258</v>
       </c>
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413">
-        <v>596.4988614105275</v>
+        <v>592.1178108711993</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
       <c r="A1414">
-        <v>702.0401586556445</v>
+        <v>698.5565983484802</v>
       </c>
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415">
-        <v>585.1733530400336</v>
+        <v>651.7607852778887</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
       <c r="A1416">
-        <v>111.8896025478706</v>
+        <v>134.5331434314503</v>
       </c>
     </row>
     <row r="1417" spans="1:1">
       <c r="A1417">
-        <v>407.5083682440866</v>
+        <v>341.3550398466284</v>
       </c>
     </row>
     <row r="1418" spans="1:1">
       <c r="A1418">
-        <v>250.613574206877</v>
+        <v>271.9351353792973</v>
       </c>
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419">
-        <v>310.1588227828893</v>
+        <v>324.6727028982185</v>
       </c>
     </row>
     <row r="1420" spans="1:1">
       <c r="A1420">
-        <v>491.5752561036379</v>
+        <v>541.7678227946271</v>
       </c>
     </row>
     <row r="1421" spans="1:1">
       <c r="A1421">
-        <v>448.8353550577829</v>
+        <v>438.5956415360885</v>
       </c>
     </row>
     <row r="1422" spans="1:1">
       <c r="A1422">
-        <v>408.0337020057981</v>
+        <v>384.2223109538804</v>
       </c>
     </row>
     <row r="1423" spans="1:1">
       <c r="A1423">
-        <v>195.603319627083</v>
+        <v>195.3765076643069</v>
       </c>
     </row>
     <row r="1424" spans="1:1">
       <c r="A1424">
-        <v>906.0719724825445</v>
+        <v>1172.868086224406</v>
       </c>
     </row>
     <row r="1425" spans="1:1">
       <c r="A1425">
-        <v>691.3892890620981</v>
+        <v>711.139232657517</v>
       </c>
     </row>
     <row r="1426" spans="1:1">
       <c r="A1426">
-        <v>316.7530421867825</v>
+        <v>298.614389784148</v>
       </c>
     </row>
     <row r="1427" spans="1:1">
       <c r="A1427">
-        <v>303.7525739268257</v>
+        <v>296.9736315843962</v>
       </c>
     </row>
     <row r="1428" spans="1:1">
       <c r="A1428">
-        <v>266.1378693115909</v>
+        <v>265.6382255415116</v>
       </c>
     </row>
     <row r="1429" spans="1:1">
       <c r="A1429">
-        <v>481.4667849989511</v>
+        <v>467.0523693439292</v>
       </c>
     </row>
     <row r="1430" spans="1:1">
       <c r="A1430">
-        <v>305.7420049442439</v>
+        <v>304.9621123895544</v>
       </c>
     </row>
     <row r="1431" spans="1:1">
       <c r="A1431">
-        <v>975.6778178726539</v>
+        <v>994.674208244013</v>
       </c>
     </row>
     <row r="1432" spans="1:1">
       <c r="A1432">
-        <v>764.3436132482817</v>
+        <v>773.9268236863439</v>
       </c>
     </row>
     <row r="1433" spans="1:1">
       <c r="A1433">
-        <v>156.3366188824299</v>
+        <v>156.5321653802054</v>
       </c>
     </row>
     <row r="1434" spans="1:1">
       <c r="A1434">
-        <v>320.9165857447875</v>
+        <v>318.8019559889296</v>
       </c>
     </row>
     <row r="1435" spans="1:1">
       <c r="A1435">
-        <v>274.8808895555172</v>
+        <v>246.8214421746989</v>
       </c>
     </row>
     <row r="1436" spans="1:1">
       <c r="A1436">
-        <v>702.9160675223899</v>
+        <v>607.7266444149927</v>
       </c>
     </row>
     <row r="1437" spans="1:1">
       <c r="A1437">
-        <v>829.1109778814132</v>
+        <v>847.0007641463579</v>
       </c>
     </row>
     <row r="1438" spans="1:1">
       <c r="A1438">
-        <v>392.5611800260934</v>
+        <v>407.3670122079888</v>
       </c>
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439">
-        <v>259.2629254371316</v>
+        <v>250.5916091463793</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
       <c r="A1440">
-        <v>299.4514882813325</v>
+        <v>262.40845341601</v>
       </c>
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441">
-        <v>290.7359434470634</v>
+        <v>277.5930766152314</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
       <c r="A1442">
-        <v>235.5896638850795</v>
+        <v>248.5509827875575</v>
       </c>
     </row>
     <row r="1443" spans="1:1">
       <c r="A1443">
-        <v>1458.476786916681</v>
+        <v>1403.508737013846</v>
       </c>
     </row>
     <row r="1444" spans="1:1">
       <c r="A1444">
-        <v>318.5142402656689</v>
+        <v>311.0768217444739</v>
       </c>
     </row>
     <row r="1445" spans="1:1">
       <c r="A1445">
-        <v>784.7868436001353</v>
+        <v>958.6813872366838</v>
       </c>
     </row>
     <row r="1446" spans="1:1">
       <c r="A1446">
-        <v>567.7941825000127</v>
+        <v>574.3666690999376</v>
       </c>
     </row>
     <row r="1447" spans="1:1">
       <c r="A1447">
-        <v>121.3793907439764</v>
+        <v>120.4848719613503</v>
       </c>
     </row>
     <row r="1448" spans="1:1">
       <c r="A1448">
-        <v>308.6652024464969</v>
+        <v>314.2833974297602</v>
       </c>
     </row>
     <row r="1449" spans="1:1">
       <c r="A1449">
-        <v>255.3073099806255</v>
+        <v>268.8744375054801</v>
       </c>
     </row>
     <row r="1450" spans="1:1">
       <c r="A1450">
-        <v>299.0496971361679</v>
+        <v>234.8599083457538</v>
       </c>
     </row>
     <row r="1451" spans="1:1">
       <c r="A1451">
-        <v>630.5279875661253</v>
+        <v>619.1336976779545</v>
       </c>
     </row>
     <row r="1452" spans="1:1">
       <c r="A1452">
-        <v>129.7092242986348</v>
+        <v>143.4845754120209</v>
       </c>
     </row>
     <row r="1453" spans="1:1">
       <c r="A1453">
-        <v>1369.467339848392</v>
+        <v>1341.134761754875</v>
       </c>
     </row>
     <row r="1454" spans="1:1">
       <c r="A1454">
-        <v>509.3559874391776</v>
+        <v>475.2936015056704</v>
       </c>
     </row>
     <row r="1455" spans="1:1">
       <c r="A1455">
-        <v>910.3777070465211</v>
+        <v>929.2373482596947</v>
       </c>
     </row>
     <row r="1456" spans="1:1">
       <c r="A1456">
-        <v>129.6604432134841</v>
+        <v>125.2951244574286</v>
       </c>
     </row>
     <row r="1457" spans="1:1">
       <c r="A1457">
-        <v>304.9484701856558</v>
+        <v>313.2811841270089</v>
       </c>
     </row>
     <row r="1458" spans="1:1">
       <c r="A1458">
-        <v>419.5571636331192</v>
+        <v>466.7969532013486</v>
       </c>
     </row>
     <row r="1459" spans="1:1">
       <c r="A1459">
-        <v>491.7733992704373</v>
+        <v>522.4312052953752</v>
       </c>
     </row>
     <row r="1460" spans="1:1">
       <c r="A1460">
-        <v>2358.581913265317</v>
+        <v>2443.679403620765</v>
       </c>
     </row>
     <row r="1461" spans="1:1">
       <c r="A1461">
-        <v>684.8815747482782</v>
+        <v>563.581073878624</v>
       </c>
     </row>
     <row r="1462" spans="1:1">
       <c r="A1462">
-        <v>465.7974407147344</v>
+        <v>407.4398812017832</v>
       </c>
     </row>
     <row r="1463" spans="1:1">
       <c r="A1463">
-        <v>362.9943132103436</v>
+        <v>357.3857451021714</v>
       </c>
     </row>
     <row r="1464" spans="1:1">
       <c r="A1464">
-        <v>577.1109799080124</v>
+        <v>574.4741004765922</v>
       </c>
     </row>
     <row r="1465" spans="1:1">
       <c r="A1465">
-        <v>287.6434399984483</v>
+        <v>236.437197899318</v>
       </c>
     </row>
     <row r="1466" spans="1:1">
       <c r="A1466">
-        <v>1548.796900750999</v>
+        <v>1452.500700688122</v>
       </c>
     </row>
     <row r="1467" spans="1:1">
       <c r="A1467">
-        <v>312.7148911142797</v>
+        <v>333.776050290484</v>
       </c>
     </row>
     <row r="1468" spans="1:1">
       <c r="A1468">
-        <v>575.0309824527553</v>
+        <v>571.5703550010865</v>
       </c>
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469">
-        <v>144.0359236539386</v>
+        <v>151.3305881406395</v>
       </c>
     </row>
     <row r="1470" spans="1:1">
       <c r="A1470">
-        <v>214.3915944870598</v>
+        <v>241.624012310708</v>
       </c>
     </row>
     <row r="1471" spans="1:1">
       <c r="A1471">
-        <v>268.1732951689548</v>
+        <v>189.5411372460089</v>
       </c>
     </row>
     <row r="1472" spans="1:1">
       <c r="A1472">
-        <v>508.3359012993613</v>
+        <v>506.6326539385612</v>
       </c>
     </row>
     <row r="1473" spans="1:1">
       <c r="A1473">
-        <v>444.3408763454002</v>
+        <v>474.530308431051</v>
       </c>
     </row>
     <row r="1474" spans="1:1">
       <c r="A1474">
-        <v>765.2734381850789</v>
+        <v>754.6992543486741</v>
       </c>
     </row>
     <row r="1475" spans="1:1">
       <c r="A1475">
-        <v>119.7815444321631</v>
+        <v>117.6178049787325</v>
       </c>
     </row>
     <row r="1476" spans="1:1">
       <c r="A1476">
-        <v>378.8206952249411</v>
+        <v>444.5760942555566</v>
       </c>
     </row>
     <row r="1477" spans="1:1">
       <c r="A1477">
-        <v>314.8410784985491</v>
+        <v>303.844686784822</v>
       </c>
     </row>
     <row r="1478" spans="1:1">
       <c r="A1478">
-        <v>327.6351139001541</v>
+        <v>331.2497392050746</v>
       </c>
     </row>
     <row r="1479" spans="1:1">
       <c r="A1479">
-        <v>248.7576996473171</v>
+        <v>271.4039891062802</v>
       </c>
     </row>
     <row r="1480" spans="1:1">
       <c r="A1480">
-        <v>299.7806893938744</v>
+        <v>390.6884642914538</v>
       </c>
     </row>
     <row r="1481" spans="1:1">
       <c r="A1481">
-        <v>463.8592146035697</v>
+        <v>470.0272071170763</v>
       </c>
     </row>
     <row r="1482" spans="1:1">
       <c r="A1482">
-        <v>1028.286386929246</v>
+        <v>1001.849767654702</v>
       </c>
     </row>
     <row r="1483" spans="1:1">
       <c r="A1483">
-        <v>437.9213783603533</v>
+        <v>417.3748140028131</v>
       </c>
     </row>
     <row r="1484" spans="1:1">
       <c r="A1484">
-        <v>159.3478263411507</v>
+        <v>156.3932196554473</v>
       </c>
     </row>
     <row r="1485" spans="1:1">
       <c r="A1485">
-        <v>867.1231505830383</v>
+        <v>901.6797736731465</v>
       </c>
     </row>
     <row r="1486" spans="1:1">
       <c r="A1486">
-        <v>884.6984974848643</v>
+        <v>738.9361144224636</v>
       </c>
     </row>
     <row r="1487" spans="1:1">
       <c r="A1487">
-        <v>310.1490280092602</v>
+        <v>295.478474411607</v>
       </c>
     </row>
     <row r="1488" spans="1:1">
       <c r="A1488">
-        <v>266.9606534145114</v>
+        <v>265.9504571590853</v>
       </c>
     </row>
     <row r="1489" spans="1:1">
       <c r="A1489">
-        <v>305.0653884423517</v>
+        <v>374.1808927706221</v>
       </c>
     </row>
     <row r="1490" spans="1:1">
       <c r="A1490">
-        <v>581.305989598467</v>
+        <v>490.7480314860441</v>
       </c>
     </row>
     <row r="1491" spans="1:1">
       <c r="A1491">
-        <v>674.2728270614737</v>
+        <v>631.8240886666313</v>
       </c>
     </row>
     <row r="1492" spans="1:1">
       <c r="A1492">
-        <v>560.821178530622</v>
+        <v>669.8647734924203</v>
       </c>
     </row>
     <row r="1493" spans="1:1">
       <c r="A1493">
-        <v>289.3114102657678</v>
+        <v>334.0625815326674</v>
       </c>
     </row>
     <row r="1494" spans="1:1">
       <c r="A1494">
-        <v>572.7023004112809</v>
+        <v>517.9226237085709</v>
       </c>
     </row>
     <row r="1495" spans="1:1">
       <c r="A1495">
-        <v>531.0879476191767</v>
+        <v>596.8183323814706</v>
       </c>
     </row>
     <row r="1496" spans="1:1">
       <c r="A1496">
-        <v>955.0028312196299</v>
+        <v>941.5662427047788</v>
       </c>
     </row>
     <row r="1497" spans="1:1">
       <c r="A1497">
-        <v>593.0306103649494</v>
+        <v>704.0527101104002</v>
       </c>
     </row>
     <row r="1498" spans="1:1">
       <c r="A1498">
-        <v>297.4465372900888</v>
+        <v>277.8640496922927</v>
       </c>
     </row>
     <row r="1499" spans="1:1">
       <c r="A1499">
-        <v>2713.726534994606</v>
+        <v>2762.321568469795</v>
       </c>
     </row>
     <row r="1500" spans="1:1">
       <c r="A1500">
-        <v>302.1992504064424</v>
+        <v>279.4917875095972</v>
       </c>
     </row>
     <row r="1501" spans="1:1">
       <c r="A1501">
-        <v>449.2823899489663</v>
+        <v>505.4514483317995</v>
       </c>
     </row>
     <row r="1502" spans="1:1">
       <c r="A1502">
-        <v>230.9432470814826</v>
+        <v>235.2099129067435</v>
       </c>
     </row>
     <row r="1503" spans="1:1">
       <c r="A1503">
-        <v>169.0509381658297</v>
+        <v>167.64876163274</v>
       </c>
     </row>
     <row r="1504" spans="1:1">
       <c r="A1504">
-        <v>361.1378651096305</v>
+        <v>333.7695544299694</v>
       </c>
     </row>
     <row r="1505" spans="1:1">
       <c r="A1505">
-        <v>526.7474132201006</v>
+        <v>420.170704341377</v>
       </c>
     </row>
     <row r="1506" spans="1:1">
       <c r="A1506">
-        <v>777.311002268686</v>
+        <v>721.0000681854757</v>
       </c>
     </row>
     <row r="1507" spans="1:1">
       <c r="A1507">
-        <v>279.08961324618</v>
+        <v>272.1065205540832</v>
       </c>
     </row>
     <row r="1508" spans="1:1">
       <c r="A1508">
-        <v>282.1667606145595</v>
+        <v>318.8425181773773</v>
       </c>
     </row>
     <row r="1509" spans="1:1">
       <c r="A1509">
-        <v>958.308666407801</v>
+        <v>1001.138184544795</v>
       </c>
     </row>
     <row r="1510" spans="1:1">
       <c r="A1510">
-        <v>349.141638952594</v>
+        <v>411.5920568329882</v>
       </c>
     </row>
     <row r="1511" spans="1:1">
       <c r="A1511">
-        <v>451.4402671363956</v>
+        <v>412.9939987871924</v>
       </c>
     </row>
     <row r="1512" spans="1:1">
       <c r="A1512">
-        <v>1177.124137671557</v>
+        <v>1183.325686945436</v>
       </c>
     </row>
     <row r="1513" spans="1:1">
       <c r="A1513">
-        <v>396.9880565541429</v>
+        <v>398.8504200998071</v>
       </c>
     </row>
     <row r="1514" spans="1:1">
       <c r="A1514">
-        <v>120.1645657247278</v>
+        <v>120.988335987868</v>
       </c>
     </row>
     <row r="1515" spans="1:1">
       <c r="A1515">
-        <v>132.4532619875733</v>
+        <v>143.6099715104486</v>
       </c>
     </row>
     <row r="1516" spans="1:1">
       <c r="A1516">
-        <v>347.2048587495883</v>
+        <v>294.4868173813975</v>
       </c>
     </row>
     <row r="1517" spans="1:1">
       <c r="A1517">
-        <v>846.0251185344756</v>
+        <v>667.1183693342228</v>
       </c>
     </row>
     <row r="1518" spans="1:1">
       <c r="A1518">
-        <v>265.110669054159</v>
+        <v>265.5042248790691</v>
       </c>
     </row>
     <row r="1519" spans="1:1">
       <c r="A1519">
-        <v>216.0798315243405</v>
+        <v>246.1527965591528</v>
       </c>
     </row>
     <row r="1520" spans="1:1">
       <c r="A1520">
-        <v>412.9240392760025</v>
+        <v>439.0099875761524</v>
       </c>
     </row>
     <row r="1521" spans="1:1">
       <c r="A1521">
-        <v>347.1519378132153</v>
+        <v>327.0891332820265</v>
       </c>
     </row>
     <row r="1522" spans="1:1">
       <c r="A1522">
-        <v>136.3150791717192</v>
+        <v>117.576273840447</v>
       </c>
     </row>
     <row r="1523" spans="1:1">
       <c r="A1523">
-        <v>864.9182764341057</v>
+        <v>1066.029407471435</v>
       </c>
     </row>
     <row r="1524" spans="1:1">
       <c r="A1524">
-        <v>366.983163568618</v>
+        <v>365.2435555827471</v>
       </c>
     </row>
     <row r="1525" spans="1:1">
       <c r="A1525">
-        <v>238.6621254413632</v>
+        <v>240.957955772109</v>
       </c>
     </row>
     <row r="1526" spans="1:1">
       <c r="A1526">
-        <v>614.2473927766041</v>
+        <v>552.6395984391871</v>
       </c>
     </row>
     <row r="1527" spans="1:1">
       <c r="A1527">
-        <v>430.9017988562636</v>
+        <v>501.9636823866277</v>
       </c>
     </row>
     <row r="1528" spans="1:1">
       <c r="A1528">
-        <v>309.553493201855</v>
+        <v>290.7126237907999</v>
       </c>
     </row>
     <row r="1529" spans="1:1">
       <c r="A1529">
-        <v>554.6774962772306</v>
+        <v>514.371969522493</v>
       </c>
     </row>
     <row r="1530" spans="1:1">
       <c r="A1530">
-        <v>908.6901225683418</v>
+        <v>905.9692341362882</v>
       </c>
     </row>
     <row r="1531" spans="1:1">
       <c r="A1531">
-        <v>327.3582676546141</v>
+        <v>309.2265295917928</v>
       </c>
     </row>
     <row r="1532" spans="1:1">
       <c r="A1532">
-        <v>1045.894641191569</v>
+        <v>1132.439736810238</v>
       </c>
     </row>
     <row r="1533" spans="1:1">
       <c r="A1533">
-        <v>362.1898265839311</v>
+        <v>358.3919822120503</v>
       </c>
     </row>
     <row r="1534" spans="1:1">
       <c r="A1534">
-        <v>443.0951720129968</v>
+        <v>435.5897068691091</v>
       </c>
     </row>
     <row r="1535" spans="1:1">
       <c r="A1535">
-        <v>407.7926281496091</v>
+        <v>348.0597619597697</v>
       </c>
     </row>
     <row r="1536" spans="1:1">
       <c r="A1536">
-        <v>524.1920386519211</v>
+        <v>513.5714774783994</v>
       </c>
     </row>
     <row r="1537" spans="1:1">
       <c r="A1537">
-        <v>588.465915103153</v>
+        <v>778.2731460973132</v>
       </c>
     </row>
     <row r="1538" spans="1:1">
       <c r="A1538">
-        <v>336.1782867946567</v>
+        <v>287.4108353327231</v>
       </c>
     </row>
     <row r="1539" spans="1:1">
       <c r="A1539">
-        <v>557.9278118354499</v>
+        <v>540.6026962649701</v>
       </c>
     </row>
     <row r="1540" spans="1:1">
       <c r="A1540">
-        <v>796.616440230186</v>
+        <v>819.8351352474351</v>
       </c>
     </row>
     <row r="1541" spans="1:1">
       <c r="A1541">
-        <v>652.4170969276774</v>
+        <v>660.8555455167482</v>
       </c>
     </row>
     <row r="1542" spans="1:1">
       <c r="A1542">
-        <v>449.2277065077322</v>
+        <v>445.8392140367135</v>
       </c>
     </row>
     <row r="1543" spans="1:1">
       <c r="A1543">
-        <v>447.5519680221309</v>
+        <v>454.479537667445</v>
       </c>
     </row>
     <row r="1544" spans="1:1">
       <c r="A1544">
-        <v>275.1709281274742</v>
+        <v>270.5154726132095</v>
       </c>
     </row>
     <row r="1545" spans="1:1">
       <c r="A1545">
-        <v>410.8889435203724</v>
+        <v>411.4655939103284</v>
       </c>
     </row>
     <row r="1546" spans="1:1">
       <c r="A1546">
-        <v>907.1748218560281</v>
+        <v>907.848152228407</v>
       </c>
     </row>
     <row r="1547" spans="1:1">
       <c r="A1547">
-        <v>660.3932952706747</v>
+        <v>641.7900605512264</v>
       </c>
     </row>
     <row r="1548" spans="1:1">
       <c r="A1548">
-        <v>172.012361404804</v>
+        <v>181.0325219953625</v>
       </c>
     </row>
     <row r="1549" spans="1:1">
       <c r="A1549">
-        <v>931.2597435702162</v>
+        <v>772.708512085719</v>
       </c>
     </row>
     <row r="1550" spans="1:1">
       <c r="A1550">
-        <v>310.0214705928234</v>
+        <v>312.8024816926963</v>
       </c>
     </row>
     <row r="1551" spans="1:1">
       <c r="A1551">
-        <v>236.6548652138267</v>
+        <v>268.3734092849009</v>
       </c>
     </row>
     <row r="1552" spans="1:1">
       <c r="A1552">
-        <v>2277.775691682601</v>
+        <v>2280.006908579159</v>
       </c>
     </row>
     <row r="1553" spans="1:1">
       <c r="A1553">
-        <v>651.3746842575431</v>
+        <v>602.249104735341</v>
       </c>
     </row>
     <row r="1554" spans="1:1">
       <c r="A1554">
-        <v>528.10345586836</v>
+        <v>472.0417310281014</v>
       </c>
     </row>
     <row r="1555" spans="1:1">
       <c r="A1555">
-        <v>225.3760160228675</v>
+        <v>202.8768558687322</v>
       </c>
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556">
-        <v>755.6535722885635</v>
+        <v>795.0872746584583</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
       <c r="A1557">
-        <v>1732.415058265274</v>
+        <v>1739.863794949409</v>
       </c>
     </row>
     <row r="1558" spans="1:1">
       <c r="A1558">
-        <v>186.6176970420695</v>
+        <v>198.6007557192075</v>
       </c>
     </row>
     <row r="1559" spans="1:1">
       <c r="A1559">
-        <v>632.0823511634678</v>
+        <v>453.9768110685456</v>
       </c>
     </row>
     <row r="1560" spans="1:1">
       <c r="A1560">
-        <v>441.5479081626102</v>
+        <v>503.9146805405055</v>
       </c>
     </row>
     <row r="1561" spans="1:1">
       <c r="A1561">
-        <v>824.7846043290109</v>
+        <v>717.1052074707272</v>
       </c>
     </row>
   </sheetData>

--- a/answer8.xlsx
+++ b/answer8.xlsx
@@ -387,7802 +387,7802 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>455.7784499438368</v>
+        <v>478.6980609654431</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1148.032972380619</v>
+        <v>1072.74451002551</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>320.9710819313079</v>
+        <v>349.592726369437</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>743.104511392989</v>
+        <v>800.6610571606204</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>344.88660152706</v>
+        <v>346.3585753375033</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>411.7505720081492</v>
+        <v>457.8870970125749</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>596.5447899285759</v>
+        <v>681.9100662511985</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>401.2230678008855</v>
+        <v>442.1390937390741</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>433.6737199464361</v>
+        <v>408.1137013174889</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>363.1623098262928</v>
+        <v>386.2739436868306</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>317.4736605567445</v>
+        <v>295.2937424192222</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>187.1384292542143</v>
+        <v>204.0220768910832</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>200.5463046835559</v>
+        <v>203.3805418631297</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>762.1793985753926</v>
+        <v>622.7805483262189</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>371.0421988759817</v>
+        <v>353.1508282289996</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>874.6122269021869</v>
+        <v>751.637747172148</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>359.5011599311907</v>
+        <v>296.4819048037281</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>975.252535592595</v>
+        <v>1116.698092905877</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>426.5425254450877</v>
+        <v>524.6890900951443</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>273.8567326990486</v>
+        <v>298.5537477914826</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>353.6406663610924</v>
+        <v>364.1094504777712</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>422.5558193461073</v>
+        <v>432.0211208851055</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>550.5922339151347</v>
+        <v>642.9259287023424</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>752.5724368901261</v>
+        <v>711.3090775532343</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>351.0677487304134</v>
+        <v>354.0754837261463</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>458.0443533383668</v>
+        <v>379.7795350702437</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>331.9057937304996</v>
+        <v>362.9849819577322</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>60.91932879538049</v>
+        <v>76.56714282315582</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>349.2548610927125</v>
+        <v>386.6736645523707</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>384.7285215388779</v>
+        <v>332.042036275453</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>305.2103814450064</v>
+        <v>307.0183050059992</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>283.8719412174974</v>
+        <v>283.2591819670919</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>338.4639711754962</v>
+        <v>304.7049260655835</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>180.0702482638985</v>
+        <v>181.0776886945627</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>877.554391975914</v>
+        <v>930.2324948042174</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>340.2057564467119</v>
+        <v>314.7150388074355</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>262.8982405945329</v>
+        <v>287.4613256558228</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>153.1822060754791</v>
+        <v>156.8787566778109</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>2619.405829152761</v>
+        <v>2304.033278088073</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>341.0364473376265</v>
+        <v>365.1746994761564</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>713.4069425692771</v>
+        <v>619.5929671917978</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>1088.451456334613</v>
+        <v>777.2921165363192</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>418.3343183768209</v>
+        <v>434.8632814114487</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>397.8762595495278</v>
+        <v>412.5221317907752</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>299.0443039971871</v>
+        <v>289.8105868307471</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>238.9068744726123</v>
+        <v>249.2062846457505</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>874.0838734111155</v>
+        <v>958.4693619837049</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>390.2808425257809</v>
+        <v>386.2120554774066</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>501.001332236561</v>
+        <v>479.010673167943</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>686.9567437123162</v>
+        <v>848.6897321894656</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>421.5971499315419</v>
+        <v>431.7294759439245</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>580.4249606331902</v>
+        <v>540.113914979398</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>246.3313327298698</v>
+        <v>227.6857721089687</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>259.5385447911048</v>
+        <v>287.6009777158653</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>670.6307330365867</v>
+        <v>685.5788298866138</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>615.9127971087037</v>
+        <v>835.8887860147051</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>383.9797778793526</v>
+        <v>340.8392662925217</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1430.39977121976</v>
+        <v>1559.689051333805</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>337.714248644912</v>
+        <v>341.3626292480188</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>301.2838534032744</v>
+        <v>430.9656794709977</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>335.3318746714386</v>
+        <v>340.7872172405092</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>473.4594949711048</v>
+        <v>496.5916028190247</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>456.8601780022806</v>
+        <v>434.3824260542653</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>409.0644938388806</v>
+        <v>556.9081510559618</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>415.1259604088966</v>
+        <v>380.4531675776481</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>363.6702347779304</v>
+        <v>348.2625398471033</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>332.4490589819439</v>
+        <v>397.3169883621507</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>362.9476761460847</v>
+        <v>381.4191568615972</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>238.2466241877504</v>
+        <v>227.3251891360449</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>640.938180941242</v>
+        <v>590.2016723393641</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>96.44744770659594</v>
+        <v>120.9761024389568</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>214.5243483834466</v>
+        <v>196.1938119269404</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>547.8327141259047</v>
+        <v>559.4022679280451</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>467.1481493095775</v>
+        <v>580.3978918159399</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>274.1500161474889</v>
+        <v>275.6206691087355</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>172.4547354017139</v>
+        <v>178.4849476741704</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>257.0878829444511</v>
+        <v>281.5848039432316</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>575.5258346243269</v>
+        <v>520.8920050220087</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>266.7619122917501</v>
+        <v>361.7673105316845</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>322.4622072111219</v>
+        <v>297.9577162299859</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>320.3015272764808</v>
+        <v>292.8440718716986</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>402.8749623360026</v>
+        <v>427.9819302423743</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>570.5551735294002</v>
+        <v>621.961822589284</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>937.7591022947463</v>
+        <v>1107.950849351673</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>347.5933170454316</v>
+        <v>411.6432374262226</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>968.3052472607028</v>
+        <v>1107.334405284004</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>402.4537831540159</v>
+        <v>425.2894221808354</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>242.7782808587183</v>
+        <v>257.7103717750799</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>681.1591790867827</v>
+        <v>579.0779022662072</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>302.5792109570677</v>
+        <v>323.197926140828</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>517.8485337113451</v>
+        <v>490.0187032106222</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>373.3423321185288</v>
+        <v>351.3031859266922</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>350.8631310637937</v>
+        <v>351.93142984836</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>255.2010136645371</v>
+        <v>256.2539071079417</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>358.1920555072851</v>
+        <v>399.816346179872</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>660.6720565093103</v>
+        <v>646.7102299196744</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>1054.733855040998</v>
+        <v>1127.317568765672</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>109.6331256312968</v>
+        <v>109.5907895690095</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>390.3878128883962</v>
+        <v>322.1626774092355</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>112.1068814161164</v>
+        <v>109.6621573286456</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>837.2889738055395</v>
+        <v>826.2902779288102</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>325.2602497478806</v>
+        <v>313.5012883250148</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>779.7345061740674</v>
+        <v>722.0688904203092</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>354.2731137508069</v>
+        <v>332.0394828016462</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>711.1830979843116</v>
+        <v>758.2637261944741</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>490.8815057992883</v>
+        <v>457.4098314138229</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>382.3204954213377</v>
+        <v>431.22720497909</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>859.5135287701079</v>
+        <v>841.1982338227533</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>709.1297940386921</v>
+        <v>777.5397516931379</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>333.3277750678309</v>
+        <v>350.6942603748222</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>396.8820133638018</v>
+        <v>311.2230578586496</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>332.5984827463548</v>
+        <v>249.3432045646621</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>200.3212468664017</v>
+        <v>205.6086367153636</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>419.3785131201471</v>
+        <v>385.0485187783099</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>318.1800142347223</v>
+        <v>326.6769371604726</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>235.7829694659184</v>
+        <v>237.7839847186711</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>328.3674977458628</v>
+        <v>329.190611334125</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>382.468897847472</v>
+        <v>368.8116909230483</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>277.3702279272578</v>
+        <v>308.5807552666151</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>480.4520891100186</v>
+        <v>492.3687237927463</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>497.1483183448103</v>
+        <v>504.1624637330523</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>311.6364993231449</v>
+        <v>274.9677052202915</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>555.635436598597</v>
+        <v>627.6449338231138</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>869.5750399402526</v>
+        <v>1106.298765175992</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>327.7710109408316</v>
+        <v>307.465790130564</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>648.7484875623917</v>
+        <v>528.7939240701525</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>306.2489244601958</v>
+        <v>355.8550092570612</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>400.7949516906277</v>
+        <v>445.729917454631</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>974.8020889838646</v>
+        <v>938.703701189643</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>330.6776968943433</v>
+        <v>320.7863540525648</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>1149.685416760408</v>
+        <v>947.4579223527372</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>643.1861366116005</v>
+        <v>641.1030152214671</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>485.2525504969961</v>
+        <v>582.546531208574</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>901.6791915494608</v>
+        <v>765.3503814177765</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>239.449665224714</v>
+        <v>232.1042735852</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>366.753962205839</v>
+        <v>328.7775247955879</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>431.2798520242058</v>
+        <v>451.6535383263648</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>335.3932971930103</v>
+        <v>316.6471924210304</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>237.5231841055503</v>
+        <v>265.0750184300125</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>398.9781412108709</v>
+        <v>434.5990074788888</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>198.8551601069123</v>
+        <v>199.9621692685455</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>255.4062587719832</v>
+        <v>292.3121823662372</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>1450.39687249366</v>
+        <v>1241.193640424667</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>396.9608196623171</v>
+        <v>419.5127048455097</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>776.9340052367331</v>
+        <v>777.677282291243</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>992.8758780365984</v>
+        <v>1056.128547498625</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>366.0085997194532</v>
+        <v>390.7074333654174</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>508.7297076559045</v>
+        <v>470.7948176885025</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>110.4004391071067</v>
+        <v>109.094437287237</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>392.357034443112</v>
+        <v>326.3487781990011</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>368.3141127356627</v>
+        <v>347.4258874777254</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>128.5261924931501</v>
+        <v>117.8514782908382</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>427.6518912744079</v>
+        <v>410.9093820260889</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>420.4742847325606</v>
+        <v>388.9352674986545</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>533.5842088218833</v>
+        <v>490.222203288214</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>256.0801688320925</v>
+        <v>292.8879339039877</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>294.3567303796231</v>
+        <v>320.1809673357719</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>272.9334187988528</v>
+        <v>244.2392117623062</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>451.1177485055366</v>
+        <v>408.8588479651709</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>484.5677588681729</v>
+        <v>488.2791964150913</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>199.5121783567975</v>
+        <v>206.4599510499601</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>359.3517180552841</v>
+        <v>342.4111770798471</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>710.7508081390026</v>
+        <v>707.3591343518274</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>795.9013505595824</v>
+        <v>671.1628866853591</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>934.4256786725026</v>
+        <v>813.7670202481744</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>567.6714943608566</v>
+        <v>621.6341236899568</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>387.4805689160752</v>
+        <v>404.5608695340568</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>337.8632205805199</v>
+        <v>324.7494906821701</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>498.2848219231524</v>
+        <v>538.2523870787576</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>275.5429723500807</v>
+        <v>307.3885610927057</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>455.5478165470937</v>
+        <v>428.5546664900073</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>289.5298945873507</v>
+        <v>277.8487862581489</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>320.4469544981346</v>
+        <v>353.7736530369386</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>475.1159627688723</v>
+        <v>511.43383718531</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>163.4177931622931</v>
+        <v>141.4734456103672</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>407.6317806982688</v>
+        <v>326.9640046682995</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>1071.569363933539</v>
+        <v>1101.052715371641</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>295.9558383022018</v>
+        <v>296.7805512295907</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>173.4017856871938</v>
+        <v>213.3410844403676</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>410.5301726092307</v>
+        <v>471.0794567011795</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>618.5696423597876</v>
+        <v>580.3930356463818</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>368.2193203687157</v>
+        <v>304.9436909964446</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>1106.051533247778</v>
+        <v>1081.775407689127</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>606.6219659557987</v>
+        <v>541.2741239978044</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>697.7577326386415</v>
+        <v>528.3659572486122</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>374.7435264931322</v>
+        <v>417.2612145564187</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>442.0068988267773</v>
+        <v>369.5166620554585</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>474.3928309943668</v>
+        <v>502.8028593297035</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>304.4434854391259</v>
+        <v>305.7198993617756</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>340.6909361717741</v>
+        <v>378.3991655092315</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>693.7697017452809</v>
+        <v>621.3413199948801</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>407.7892069910698</v>
+        <v>385.7884208016458</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>323.9157195373615</v>
+        <v>293.5509507666497</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>429.8666689295355</v>
+        <v>479.2843330269341</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>949.8849510381215</v>
+        <v>923.4533991650255</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>705.2760241897298</v>
+        <v>741.88861578159</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>406.2712305762817</v>
+        <v>407.1033105878474</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>1189.932322876596</v>
+        <v>971.8051757925064</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>218.6928697357753</v>
+        <v>213.6824822172795</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>1065.979874008215</v>
+        <v>1164.92500509347</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>158.9366598701009</v>
+        <v>162.3442769480348</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>256.9833943532428</v>
+        <v>205.9306649195949</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>287.1995513579877</v>
+        <v>267.1113105443516</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>326.2417159814281</v>
+        <v>327.15468478142</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>443.8389249203611</v>
+        <v>436.7885612224498</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>441.5303819790936</v>
+        <v>474.1387093700361</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>914.2035295015078</v>
+        <v>816.1258130296038</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>545.8141725971304</v>
+        <v>514.3083246048532</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>291.9934617798756</v>
+        <v>332.2978281427358</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>628.7134543696915</v>
+        <v>613.8383443909148</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>455.5969253586749</v>
+        <v>584.024338809808</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>130.0069333351613</v>
+        <v>150.6960983504915</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>641.0151382648314</v>
+        <v>798.9198820432089</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>706.1085774172628</v>
+        <v>722.0470426623617</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>380.3419660361712</v>
+        <v>383.8182111088466</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>473.7428715104696</v>
+        <v>483.1464523422101</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>680.0115593751899</v>
+        <v>584.7929216806436</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>372.0631811763175</v>
+        <v>380.9118618593826</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>425.3841326168084</v>
+        <v>574.0521374884016</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>174.524606274851</v>
+        <v>167.2205575635297</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>855.0272203638722</v>
+        <v>877.0302310739438</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>150.8149172510477</v>
+        <v>162.2614529324164</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>536.4954726556565</v>
+        <v>498.0336401920404</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>360.3245872084642</v>
+        <v>388.0192375597685</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>1179.851878947122</v>
+        <v>1283.822355133083</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>315.0777984080717</v>
+        <v>321.2121014769057</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>467.5218673407169</v>
+        <v>484.512046734666</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>510.0097096786795</v>
+        <v>541.687916322513</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>320.9620655154488</v>
+        <v>344.0892564590978</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>395.3989272986138</v>
+        <v>413.875466008144</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>532.6214638630871</v>
+        <v>593.1961285523147</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>330.1230322409921</v>
+        <v>330.8926316673719</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>330.8864342722433</v>
+        <v>321.6007982010146</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>172.5319736055384</v>
+        <v>172.6191296811187</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>286.9756981557152</v>
+        <v>275.9012317592888</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>860.6693135791195</v>
+        <v>904.9864615430299</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>392.2014953461456</v>
+        <v>468.6779389984865</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>396.8157643310721</v>
+        <v>404.2015946239677</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>691.4046970903458</v>
+        <v>717.8331742039403</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>338.5576125785203</v>
+        <v>361.812239037412</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1377.835727372616</v>
+        <v>1151.395064269539</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>294.9210824497996</v>
+        <v>288.1778580176784</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>410.5185696009853</v>
+        <v>544.3302764295142</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>352.0620047247915</v>
+        <v>307.9847717775918</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>293.2291160574799</v>
+        <v>317.8866857349886</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>117.3635894024164</v>
+        <v>132.0312120993476</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>628.0352860687566</v>
+        <v>523.9076811882824</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>869.6347260105447</v>
+        <v>756.9357081770299</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>547.2642644614527</v>
+        <v>594.1463616267797</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>230.5408196024705</v>
+        <v>182.8575631185838</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>302.4869192060095</v>
+        <v>260.2636068189759</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>326.2000991421718</v>
+        <v>288.5415063745453</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>1084.966219442187</v>
+        <v>1150.473804360468</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>484.9345187201516</v>
+        <v>417.1473422145956</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>339.6714697531316</v>
+        <v>394.922395885986</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>487.8359256779592</v>
+        <v>483.2093859560473</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>376.1583722487042</v>
+        <v>376.8740367132439</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>430.5554543040233</v>
+        <v>427.4869696274351</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>477.5802231080409</v>
+        <v>471.2707174666887</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>284.8751377396183</v>
+        <v>297.8147104923061</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>524.9366851767386</v>
+        <v>508.093309043393</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>894.7451649497219</v>
+        <v>796.5123733296033</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>347.4296859467979</v>
+        <v>290.0975182860399</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>357.480502533084</v>
+        <v>388.6781720608282</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>1076.600277719381</v>
+        <v>965.3621268935341</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>1062.86312861669</v>
+        <v>1005.309880347368</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>292.3890539646709</v>
+        <v>253.5214703133528</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>264.9507445163656</v>
+        <v>265.4823350110568</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>300.5946883992002</v>
+        <v>306.0369709557483</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>195.5497900175554</v>
+        <v>222.7128578346163</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>323.2179923965585</v>
+        <v>314.0974684479363</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>576.3649351382334</v>
+        <v>481.2698779880073</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>829.3933709343565</v>
+        <v>857.775120267836</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>238.3063071235978</v>
+        <v>224.1100020310931</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>293.461575848534</v>
+        <v>307.446754351196</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>516.5054388727658</v>
+        <v>440.4791414422988</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>225.1297609924214</v>
+        <v>198.527058655927</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>281.2768457270392</v>
+        <v>268.9205383308388</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>535.0889182595096</v>
+        <v>504.3144253555311</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>612.9106827657234</v>
+        <v>693.416373043005</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>375.2431339604223</v>
+        <v>433.3878405510094</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>210.4634473828986</v>
+        <v>231.6428016425836</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>404.8184535161022</v>
+        <v>364.5949417629844</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>738.7188233155254</v>
+        <v>711.9174334769042</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>364.7892502463715</v>
+        <v>354.6376941555016</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>271.4478613062432</v>
+        <v>272.7177561713382</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>296.9832183629954</v>
+        <v>317.1676170529</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>1067.097345578654</v>
+        <v>1133.024194410988</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>376.4584577381027</v>
+        <v>346.4111790850431</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>358.8159254582779</v>
+        <v>312.875007552719</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>540.276527180039</v>
+        <v>530.5662668761404</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>397.6018695718979</v>
+        <v>397.1037765799214</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>325.8247846359711</v>
+        <v>351.7169700688102</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>182.0005381101213</v>
+        <v>173.2798274155957</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>338.1006487247722</v>
+        <v>334.5304259568003</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>342.0230612169591</v>
+        <v>343.5385146899056</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>744.4729263327391</v>
+        <v>869.6812889928602</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>411.4855678010965</v>
+        <v>399.1659094958753</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>297.6872348100987</v>
+        <v>353.0808368553112</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>285.8055646215878</v>
+        <v>289.2826312855896</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>276.6860675135397</v>
+        <v>277.1592942656533</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>447.9727638852173</v>
+        <v>444.1026573792521</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>239.1537666099124</v>
+        <v>249.876856840808</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>304.4816202020695</v>
+        <v>290.5190670649035</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>378.3297919260022</v>
+        <v>332.4158634628743</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>918.6405263883973</v>
+        <v>1073.294478441743</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>329.4293238415287</v>
+        <v>293.169202618079</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>261.5672446009241</v>
+        <v>274.9561765150719</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>448.4073840555839</v>
+        <v>455.2577209500646</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>850.0309718473334</v>
+        <v>663.9090187126237</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>105.2494612028091</v>
+        <v>113.3447527675319</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>704.9842853787211</v>
+        <v>669.7573864836239</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>281.5720318101054</v>
+        <v>318.1809803780731</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>486.1234127530957</v>
+        <v>375.9427971751253</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>717.6600275096652</v>
+        <v>627.331950727923</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>332.3783474708713</v>
+        <v>347.0297729033952</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>260.4549367596435</v>
+        <v>269.288635343472</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>940.9573718445281</v>
+        <v>823.73395566226</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>525.1980391266809</v>
+        <v>576.3629691679702</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>145.9596797709328</v>
+        <v>154.3652968954715</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>197.9224013405608</v>
+        <v>172.9395217492892</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>561.3291052013302</v>
+        <v>611.9704474926864</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>701.4237641966729</v>
+        <v>566.7447524028554</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>485.2900961282772</v>
+        <v>550.5736756779536</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>460.441008510879</v>
+        <v>423.4441793855698</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>203.535745698144</v>
+        <v>261.5977711508422</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>415.9217826208277</v>
+        <v>420.0974395750404</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>1296.466083038116</v>
+        <v>1350.217457188187</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>580.8499407909381</v>
+        <v>520.6586432240007</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>875.0280563507524</v>
+        <v>698.0475043608293</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>408.7019288579755</v>
+        <v>448.835287572641</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>235.6807948297949</v>
+        <v>232.6428125363742</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>787.9698051096839</v>
+        <v>598.7437981212826</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>365.8755029875785</v>
+        <v>373.1414620470762</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>234.404168847497</v>
+        <v>263.6251944862896</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>470.7579171904884</v>
+        <v>472.6200201649912</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>741.2206368651426</v>
+        <v>622.923916038052</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>246.9033742169057</v>
+        <v>254.7320867558635</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>362.8405065798514</v>
+        <v>381.8389374636922</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>339.0718161484132</v>
+        <v>326.9427153825217</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>409.9013420913539</v>
+        <v>397.7347439527163</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>245.499212722941</v>
+        <v>308.4343715273244</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>910.7665312778719</v>
+        <v>935.581956308814</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>361.5813549580658</v>
+        <v>352.8427666022705</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>295.6160378929482</v>
+        <v>306.1661706984581</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>601.3801800078834</v>
+        <v>618.1371915474139</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>408.3996667855452</v>
+        <v>427.1408182049252</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>621.3746747905426</v>
+        <v>553.0058832962825</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>1529.68841929422</v>
+        <v>1455.396587385766</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>206.35548242169</v>
+        <v>206.274486867348</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>323.8501338674337</v>
+        <v>336.4691127166807</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>211.2576849295723</v>
+        <v>231.9236302657659</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>236.3012510589919</v>
+        <v>235.2300238098761</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>1675.135974810154</v>
+        <v>1769.689795264153</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>798.4876690193776</v>
+        <v>1072.509864593481</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>192.8094185633167</v>
+        <v>180.1507872576943</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>381.9649429820159</v>
+        <v>423.9924274054229</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>300.3874812464661</v>
+        <v>340.2864302646076</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>360.0199478167851</v>
+        <v>370.1021269790049</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>129.0973012988332</v>
+        <v>138.7905442785582</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>388.5030058287227</v>
+        <v>392.5900295900899</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>260.6256250248333</v>
+        <v>265.4997067919098</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>288.4950005331708</v>
+        <v>292.0278804799349</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>885.2949217733772</v>
+        <v>894.1502306135811</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>349.5594766829946</v>
+        <v>385.4872706283714</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>341.2380739081012</v>
+        <v>341.8155367685552</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>324.9186534370921</v>
+        <v>286.3129268099515</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>262.8810089479302</v>
+        <v>269.0158969989627</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>817.2376032612748</v>
+        <v>813.1658401781973</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>211.8723596413981</v>
+        <v>185.8444032488102</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>522.0804114511017</v>
+        <v>465.0464970262705</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>309.6523665577726</v>
+        <v>363.6876274181889</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>251.6889491542211</v>
+        <v>223.2666521725184</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>288.5971347287664</v>
+        <v>246.5914778014579</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>257.9649572596803</v>
+        <v>259.4949477253756</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>209.4217598721957</v>
+        <v>210.367805645838</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>296.6975641296744</v>
+        <v>299.3898274393845</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>291.3558512039728</v>
+        <v>260.7562648551747</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>352.0626094069144</v>
+        <v>351.2709189384645</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>1115.52432990073</v>
+        <v>1167.66031298404</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>344.799667373435</v>
+        <v>349.9128329246049</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>436.7490024534711</v>
+        <v>431.0944345440533</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>363.9875790387676</v>
+        <v>360.9124589540768</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>1334.065787167021</v>
+        <v>1216.141461804742</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>267.7361728663294</v>
+        <v>277.8906220070929</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>219.9095393620207</v>
+        <v>242.4601817594868</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>635.7254569490688</v>
+        <v>566.4592759717983</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>738.0115943161196</v>
+        <v>751.9909439770162</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>542.1207205398832</v>
+        <v>596.705473582041</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>414.0612902437801</v>
+        <v>426.3822073782474</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>637.3144692019924</v>
+        <v>583.7668495499129</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>684.8145474529226</v>
+        <v>637.6973573850873</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>868.5358786229566</v>
+        <v>804.3434927400269</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>361.485238997779</v>
+        <v>311.7621586455606</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>393.224442636634</v>
+        <v>398.208224734379</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>307.6923669646201</v>
+        <v>306.338649076464</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>451.3136872246967</v>
+        <v>397.6899126749331</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>477.8434058093885</v>
+        <v>375.2453067824772</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>375.7909197687619</v>
+        <v>519.806061479003</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>282.1791555729822</v>
+        <v>288.3534496535582</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>257.6731660063367</v>
+        <v>288.0655027802289</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>360.283660641873</v>
+        <v>383.7690740424008</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>320.428690021251</v>
+        <v>308.0127177199786</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>964.8631120499856</v>
+        <v>990.5488430145568</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>397.2873693816694</v>
+        <v>362.9433123296934</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>838.9970228174917</v>
+        <v>824.435342170455</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>197.8543326708468</v>
+        <v>189.356175404842</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>512.3607240351548</v>
+        <v>568.1118475238909</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>823.9902308676324</v>
+        <v>819.8355965622477</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>262.1610706895207</v>
+        <v>230.3477453207504</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>952.9850233366402</v>
+        <v>971.2729136076927</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>430.7350995204014</v>
+        <v>485.2773135707176</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>1009.467865482217</v>
+        <v>952.4554941975354</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>465.9248332785177</v>
+        <v>730.9383474642136</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>627.5854298022547</v>
+        <v>636.5905084353343</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>703.526912103599</v>
+        <v>558.7438923270785</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>339.1514265534875</v>
+        <v>372.4319187845659</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>927.1578247533653</v>
+        <v>1109.53892041479</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>318.9276938466575</v>
+        <v>305.613205384295</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>297.6585356109742</v>
+        <v>308.298955377027</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>412.1732160933407</v>
+        <v>381.3546237505321</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>680.4198147787181</v>
+        <v>639.9755776407934</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>255.4482704628288</v>
+        <v>262.8590411460112</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>265.4405818002475</v>
+        <v>304.1966901606676</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>644.768596762709</v>
+        <v>704.00758666409</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>322.0518759334189</v>
+        <v>288.2981990199594</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>366.5343166753555</v>
+        <v>365.4386997929564</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>255.9746559269599</v>
+        <v>269.4578402932659</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>426.7365549619378</v>
+        <v>498.7953617987723</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>589.2094357549258</v>
+        <v>543.105631781968</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>411.5908485379868</v>
+        <v>370.6725475198489</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>1152.487979939955</v>
+        <v>1068.32090328106</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>479.7891826159174</v>
+        <v>420.4226464253551</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>320.7414390135881</v>
+        <v>398.7146671185006</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>999.5741985380572</v>
+        <v>1018.713842908249</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>227.3181221041381</v>
+        <v>264.3432219471084</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>255.9885861743674</v>
+        <v>236.4975191764527</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>97.5498382999596</v>
+        <v>104.5726429122231</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>447.8725584699212</v>
+        <v>387.3399013602523</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>300.3608690884627</v>
+        <v>321.5252513679833</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>451.6512547709592</v>
+        <v>429.6231384143577</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>805.8983184946273</v>
+        <v>737.5720960391964</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>261.3447742514319</v>
+        <v>264.5190058812278</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>376.0623618230308</v>
+        <v>375.8215901410101</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>222.4149014945933</v>
+        <v>230.8897051147293</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>242.1146772754016</v>
+        <v>255.9056626331648</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>670.4594009746015</v>
+        <v>659.0150712835876</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>243.3860936592156</v>
+        <v>264.6233030604442</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>311.9131960328326</v>
+        <v>306.7891499023315</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>351.5098276955322</v>
+        <v>314.7522885695866</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>403.8464926043472</v>
+        <v>366.8487469132586</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>160.6905637854835</v>
+        <v>170.8353253519467</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>268.0688997021478</v>
+        <v>264.6090699939618</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>425.6527747394468</v>
+        <v>474.7422253166413</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>497.6296677343274</v>
+        <v>416.9349983421596</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>335.7729620746225</v>
+        <v>349.6611689595736</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>353.0951314805977</v>
+        <v>354.7915149650655</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>182.3994524872216</v>
+        <v>210.6897473738918</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>284.5221320134521</v>
+        <v>303.6372174279873</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>1169.004966030958</v>
+        <v>1129.828181494869</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>299.0042004416927</v>
+        <v>255.195172858228</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>744.5585006177697</v>
+        <v>732.4630806615846</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>527.3939581081838</v>
+        <v>405.9275587134903</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>687.4188211354199</v>
+        <v>527.0615285297564</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>286.8054308375869</v>
+        <v>274.299209354932</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>390.0756018273742</v>
+        <v>398.9538297893393</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>193.6378860919357</v>
+        <v>185.1816276475558</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>309.4659539722354</v>
+        <v>303.589697551759</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>301.9449279748453</v>
+        <v>279.0989667629088</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>419.9975631907024</v>
+        <v>454.7066858202896</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>325.399620666666</v>
+        <v>370.0675397527457</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>998.4257096410452</v>
+        <v>1119.316453742103</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>301.6363114957541</v>
+        <v>302.6102731025528</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>210.3880672589941</v>
+        <v>260.9360386636941</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>396.8839455779006</v>
+        <v>386.2825011669584</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>394.268229235605</v>
+        <v>421.8758636548922</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>558.1823588740634</v>
+        <v>789.1289563338021</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>682.3039859181201</v>
+        <v>739.9533485333752</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>128.8709347806957</v>
+        <v>137.1792945792311</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>509.4733382332259</v>
+        <v>433.8514020582471</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>500.4059808729509</v>
+        <v>516.5865273968739</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>451.9669911316383</v>
+        <v>477.1221273844148</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>426.1396055941924</v>
+        <v>404.6470976958335</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>116.2072390657264</v>
+        <v>120.4308358553217</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>464.7597007218818</v>
+        <v>467.8064443860525</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>469.8718897527345</v>
+        <v>435.5039671411004</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>398.3499798829992</v>
+        <v>453.9077391284701</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>896.9290007307211</v>
+        <v>976.9370895992258</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>695.4479981344515</v>
+        <v>738.524454337263</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>290.8959556871355</v>
+        <v>258.1510919606203</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>854.0729214936975</v>
+        <v>799.8809926238182</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>425.695605739408</v>
+        <v>408.2879994468377</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>457.357388185171</v>
+        <v>368.494261441039</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>202.4863864209656</v>
+        <v>199.8705170985917</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>1012.843858268451</v>
+        <v>892.6787468830709</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>588.5180950022373</v>
+        <v>787.528476238321</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>506.7347712543359</v>
+        <v>626.157376213369</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>253.0398137792733</v>
+        <v>266.1303071668026</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>388.8528562288922</v>
+        <v>370.3342510263207</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>253.7041512112896</v>
+        <v>226.1573374434712</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>272.2010797338479</v>
+        <v>271.2984180046916</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>238.1022012414005</v>
+        <v>230.6833898012736</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>377.9333403491824</v>
+        <v>372.2198756545786</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>155.5468727973218</v>
+        <v>156.6588157820612</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>236.1286129656716</v>
+        <v>206.878410246782</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>266.8875763459967</v>
+        <v>272.0983166524355</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>679.6829609358675</v>
+        <v>729.8053659882287</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>110.38658664379</v>
+        <v>121.0945642745087</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>478.564056825036</v>
+        <v>478.4266765214599</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>293.6213071785413</v>
+        <v>291.2449806690715</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>257.47633212054</v>
+        <v>244.5226093987376</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>1770.288551728433</v>
+        <v>1303.414290938329</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>255.3229656896022</v>
+        <v>267.2770842790289</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>389.0142278860983</v>
+        <v>370.1610599561072</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>327.0216902372066</v>
+        <v>315.5634569957414</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>262.200876694493</v>
+        <v>270.6969249449752</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>245.9908635117801</v>
+        <v>271.7307344184356</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>509.1708004863182</v>
+        <v>516.2778299534015</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>426.8437055392802</v>
+        <v>470.7182970868325</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>358.621071344985</v>
+        <v>341.0211982715161</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>225.1275784834874</v>
+        <v>240.8888673411015</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>320.2946053287004</v>
+        <v>375.8521167916743</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>348.0038756949562</v>
+        <v>346.7363362488022</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>365.4830791226175</v>
+        <v>401.3849427787395</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>141.2694307537097</v>
+        <v>146.8874339046416</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>754.1574282684085</v>
+        <v>740.505464724993</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>309.952826950497</v>
+        <v>328.8705875236153</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>339.0972178237112</v>
+        <v>357.1910985667163</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>387.7284494852375</v>
+        <v>448.3091406614244</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>838.1817124743709</v>
+        <v>830.0882974460338</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>174.756043582446</v>
+        <v>235.2162662189689</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>311.9975188902322</v>
+        <v>320.7100876615788</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>374.0988830860177</v>
+        <v>374.7142076472936</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>571.6630964706576</v>
+        <v>522.9487965159921</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>332.4048213999712</v>
+        <v>296.4396262775865</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>215.1721192737886</v>
+        <v>237.9759344017885</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>814.0037050381399</v>
+        <v>877.1702752646726</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>313.3528938223869</v>
+        <v>315.0564180906395</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>988.9194504751019</v>
+        <v>1052.204186607243</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>354.8156924165148</v>
+        <v>356.7039195487438</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>640.5598333560489</v>
+        <v>464.3504835070864</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>174.1579343643885</v>
+        <v>197.5905083589533</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>455.8293979857571</v>
+        <v>373.7921587097613</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>196.1389488685713</v>
+        <v>182.5789494233795</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>512.8488977055106</v>
+        <v>481.779097427234</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>292.6974394071346</v>
+        <v>329.2926418722608</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>220.6940034948596</v>
+        <v>233.6211330416833</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>288.1326448375274</v>
+        <v>297.8398235110826</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>254.5195830670773</v>
+        <v>291.7585936188899</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>627.0663363372466</v>
+        <v>535.0618106721134</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>1020.755107578483</v>
+        <v>1157.273887050141</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>270.6727812719803</v>
+        <v>246.6884350433346</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>225.002448453462</v>
+        <v>187.4971296236199</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>905.0506784749093</v>
+        <v>1006.742527552308</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>297.3271555370908</v>
+        <v>301.6740783045109</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>169.9474706298024</v>
+        <v>172.6209171432671</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>509.4892809345964</v>
+        <v>648.7159415491823</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>456.85621264221</v>
+        <v>483.0341905244656</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>1195.902099781103</v>
+        <v>1029.095196128775</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>593.2497865673952</v>
+        <v>627.6796081100024</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>815.7647900604721</v>
+        <v>909.3148600894973</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>231.7795851698142</v>
+        <v>260.9411732834057</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>262.54229481901</v>
+        <v>270.3476406675983</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>344.5910528241302</v>
+        <v>319.2528216099609</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>1174.243323807235</v>
+        <v>1200.088619223449</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>501.4003875769546</v>
+        <v>539.9759986146158</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>866.0039476077072</v>
+        <v>764.114841790324</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>203.5550013278012</v>
+        <v>217.2874463889563</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>466.0836956908483</v>
+        <v>434.6328787096052</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>280.7274490441577</v>
+        <v>285.5998935843901</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>513.1680779493705</v>
+        <v>532.5511997474422</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>298.7118936773158</v>
+        <v>296.3925569650349</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>248.8747941982369</v>
+        <v>236.9346793274324</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>274.1797494586488</v>
+        <v>290.2963408125604</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>166.0987234872842</v>
+        <v>166.9734158404323</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>1429.988057542739</v>
+        <v>1177.260770497561</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>374.5302871590636</v>
+        <v>415.1243302943511</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>338.7703294044044</v>
+        <v>412.3780491838203</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>330.5220779578916</v>
+        <v>326.8597608671826</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>366.6274947984309</v>
+        <v>338.3117648443393</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>185.4026075560372</v>
+        <v>190.9296481020495</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>268.8759713642345</v>
+        <v>255.7661841563118</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>490.9685183239777</v>
+        <v>486.5840686096417</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>784.1766891784075</v>
+        <v>654.5341224502791</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>271.7335527568023</v>
+        <v>258.1819173613617</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>304.0597998204209</v>
+        <v>308.1069406362903</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>305.7582617540181</v>
+        <v>300.4337485064882</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>318.8639489403849</v>
+        <v>326.8360597220547</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>282.3584449199911</v>
+        <v>251.201899064248</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>320.9237108814821</v>
+        <v>305.3033917713989</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>341.5369280672761</v>
+        <v>326.3107427926441</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>569.9760497322841</v>
+        <v>592.6171689418427</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>409.7439914770886</v>
+        <v>400.962868402449</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>458.9189619067291</v>
+        <v>503.0972713735106</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>246.8286501937251</v>
+        <v>272.9275857113446</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>409.4549525330588</v>
+        <v>420.5355998653247</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>117.0428120225488</v>
+        <v>134.7719607043112</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>420.8265541804082</v>
+        <v>401.469144457457</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>556.5425261139585</v>
+        <v>583.5790096829002</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>641.36976234603</v>
+        <v>725.9501975286137</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>509.6337770329609</v>
+        <v>430.3444850488331</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>207.9028226252986</v>
+        <v>206.8156973646527</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>1207.907099526423</v>
+        <v>1335.48164741204</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>656.4071060855363</v>
+        <v>746.6104639280795</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>287.7327840094696</v>
+        <v>284.3314365509855</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>301.6728198286873</v>
+        <v>313.4630542226919</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>272.5767847925551</v>
+        <v>274.0501225114339</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>202.0437962677948</v>
+        <v>225.6474167380419</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>251.6160501968031</v>
+        <v>211.1971760857324</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>300.767465343217</v>
+        <v>345.4750991040998</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>617.9936067616682</v>
+        <v>519.1933603087639</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>340.3773640093653</v>
+        <v>340.6543634611155</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>281.7218489023119</v>
+        <v>313.7085521372396</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>467.6433341216039</v>
+        <v>445.1389594814984</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>617.0285098348143</v>
+        <v>712.2342146787638</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>356.5688952180538</v>
+        <v>386.4920545584349</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>771.3261609919088</v>
+        <v>582.6327074480655</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>288.7528899220579</v>
+        <v>260.3073947454814</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>430.8580393236314</v>
+        <v>355.9857052307498</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>276.145088429578</v>
+        <v>287.5453417914691</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>344.5248930610618</v>
+        <v>363.8377774004302</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>479.6201861563486</v>
+        <v>469.2081939774611</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>442.6998529333919</v>
+        <v>378.6522291226154</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>278.4082847773612</v>
+        <v>316.3321206035096</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>264.0529224520357</v>
+        <v>290.0663690524929</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>288.3724949517951</v>
+        <v>265.395523428485</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>640.384037764568</v>
+        <v>586.5126092916213</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>256.6913510441202</v>
+        <v>334.6036193920465</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>344.205021775151</v>
+        <v>371.6282418540821</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>377.4665312734402</v>
+        <v>413.9729997333586</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>298.777617023145</v>
+        <v>259.6335695033198</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>492.5721552657633</v>
+        <v>508.4926934418765</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>195.2413118325256</v>
+        <v>219.1128479480321</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>2185.440479241426</v>
+        <v>2183.272864927668</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>437.6823278299368</v>
+        <v>473.2049034922319</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>216.652383019389</v>
+        <v>230.5276675919241</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>328.3047497359298</v>
+        <v>307.3772153158786</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>396.7561512189415</v>
+        <v>407.0078350590213</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>305.0592652683654</v>
+        <v>311.3328690457161</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>554.7842214012384</v>
+        <v>592.5682896577894</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>276.5539160512939</v>
+        <v>274.8459063936875</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>299.4593849174927</v>
+        <v>468.7403420766802</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>247.3732402072038</v>
+        <v>231.6166014287971</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>71.946370263237</v>
+        <v>70.34684035259627</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>291.649072054674</v>
+        <v>300.4558766984549</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>354.9207486308774</v>
+        <v>340.0030827715217</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>396.3817518876303</v>
+        <v>376.3203615736834</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>508.6386177815916</v>
+        <v>508.7559904361793</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>840.5348539460394</v>
+        <v>903.2470217066616</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>333.0165397682467</v>
+        <v>316.4045452317905</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>358.9971409860183</v>
+        <v>362.7575608840072</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>259.9414225849814</v>
+        <v>257.7074431046685</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>683.4498165518347</v>
+        <v>572.7177402189377</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>363.8981375330031</v>
+        <v>421.1194940536221</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>512.9782743044698</v>
+        <v>566.5356637681457</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>208.6184228106464</v>
+        <v>229.3034741913912</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>89.86023758984233</v>
+        <v>98.8534398013504</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>240.5786318972172</v>
+        <v>269.4419785701045</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>827.8054864984558</v>
+        <v>667.7421251176789</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>249.6779615513175</v>
+        <v>243.9745458993658</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>321.9915361395194</v>
+        <v>303.8641156209289</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>268.8472436904418</v>
+        <v>242.5491097606933</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>378.715522107842</v>
+        <v>354.5513583533347</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>273.6085774549538</v>
+        <v>273.1717248656777</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>245.0511517791214</v>
+        <v>249.2007640716597</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>341.0834468279257</v>
+        <v>363.5898311584817</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>319.0177997494388</v>
+        <v>306.0514520781861</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>346.4345915706642</v>
+        <v>366.8315434488804</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>639.6048392913546</v>
+        <v>550.0450170745142</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>832.658984227615</v>
+        <v>780.8394764659619</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>257.2056908707471</v>
+        <v>277.8194281723058</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>380.4112417468796</v>
+        <v>411.9344485797283</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>283.7143304510332</v>
+        <v>289.2233981169477</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>309.062523787402</v>
+        <v>272.7041372756246</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>639.5333579695528</v>
+        <v>492.5974047060438</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>274.7420285730922</v>
+        <v>296.0890342234604</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>1288.089665395632</v>
+        <v>1210.592054050773</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>352.6386007981317</v>
+        <v>344.9712578495361</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>191.7866642485558</v>
+        <v>197.6112972547739</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>269.3886514251091</v>
+        <v>254.0243256995411</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>587.3348712303348</v>
+        <v>593.1850105698023</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>931.8142776323645</v>
+        <v>749.5818529719794</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>374.3936614513815</v>
+        <v>392.1706619478771</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>292.0361654970169</v>
+        <v>314.6759685193633</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>235.7985478858551</v>
+        <v>236.5847975141172</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>329.9242433519632</v>
+        <v>321.2828788902009</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>553.6371402630109</v>
+        <v>460.322417541865</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>357.5284180102606</v>
+        <v>370.4109198708711</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>486.2882421337765</v>
+        <v>457.9752405401462</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>344.451474451577</v>
+        <v>374.202518595996</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>121.9945058110582</v>
+        <v>123.7053132783768</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>275.7850446232405</v>
+        <v>256.0225978739036</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>429.6347025000168</v>
+        <v>506.0659246873407</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>339.2869771274525</v>
+        <v>393.4345399174185</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>341.6694098691816</v>
+        <v>349.1347000853436</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>494.6062779415195</v>
+        <v>506.1531889854602</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>529.5063610751636</v>
+        <v>502.9811822187291</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>505.7840522262671</v>
+        <v>565.8343289631183</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>218.2826631432962</v>
+        <v>221.6804316838811</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>463.6139040274003</v>
+        <v>458.0287376119845</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>230.1977644521838</v>
+        <v>210.3796796242642</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>525.5815635107342</v>
+        <v>469.6707934182988</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>464.198222907146</v>
+        <v>365.0727487284519</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>1274.566340105431</v>
+        <v>1299.733508058958</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>276.757435420438</v>
+        <v>281.5944983550058</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>469.2472863860464</v>
+        <v>471.9037977520182</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>317.2285494468879</v>
+        <v>305.7589010198371</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>428.0553739043388</v>
+        <v>434.3767347971301</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>453.454196497254</v>
+        <v>440.059950657479</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>1160.410547764593</v>
+        <v>1094.19377611019</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>396.7677682238914</v>
+        <v>410.569636881853</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>260.9469376628136</v>
+        <v>257.6224587039575</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>576.3207343371121</v>
+        <v>580.2423725910063</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>580.0764870493825</v>
+        <v>508.911340475052</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>424.2346702984726</v>
+        <v>435.0794722742661</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>360.869658025773</v>
+        <v>343.9588411746705</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>1252.884853239364</v>
+        <v>1139.440234535134</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>523.9349715020707</v>
+        <v>517.9004847125875</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>447.3220047867696</v>
+        <v>380.6690041183489</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>623.5197863188913</v>
+        <v>728.6540139430671</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>420.9520522147037</v>
+        <v>484.2828067082998</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>1291.166225753859</v>
+        <v>1242.325467232719</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>769.0470653210817</v>
+        <v>777.0488248087854</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>357.0394678719798</v>
+        <v>432.5211138069368</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>412.8480130561708</v>
+        <v>506.9486386092661</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>417.653653856796</v>
+        <v>341.6614587378563</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>1083.012438414265</v>
+        <v>1101.504296422978</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>518.0896429268061</v>
+        <v>487.0954308715801</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>375.3233837828931</v>
+        <v>392.398254950054</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>374.2411034005067</v>
+        <v>338.9667059294184</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>415.5242673962629</v>
+        <v>422.0617848540757</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>284.7352889955481</v>
+        <v>271.5547302985005</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>479.7036306139138</v>
+        <v>492.7614344947261</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>391.6953797395787</v>
+        <v>490.5573798505625</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>1307.843716463178</v>
+        <v>1107.513353540713</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>343.8917273548909</v>
+        <v>330.4890505960105</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>936.652101517964</v>
+        <v>918.3521976796543</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>552.0573929334233</v>
+        <v>519.7595836114939</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>178.1373516114431</v>
+        <v>172.0292586892121</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>309.7578709090602</v>
+        <v>321.4444760442984</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>225.4148772875604</v>
+        <v>240.5206043408092</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>238.0384421855927</v>
+        <v>213.0536074179994</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>383.3107474943965</v>
+        <v>462.9862621789018</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>181.282361914876</v>
+        <v>169.2635168507148</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>235.1067054780853</v>
+        <v>224.7051051316958</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>374.1859166843368</v>
+        <v>351.8557671591888</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>390.2824994786249</v>
+        <v>459.8895062860278</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>348.4794186553816</v>
+        <v>333.5907981332022</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>318.0921570692266</v>
+        <v>354.7244768773286</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>447.4981834456045</v>
+        <v>399.3467889569803</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>562.4077585244648</v>
+        <v>579.2435325415152</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>567.2703637391036</v>
+        <v>567.9409132278671</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>468.1695929364631</v>
+        <v>446.3890255128359</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>303.3536785873122</v>
+        <v>345.7428455829905</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>559.7400243548344</v>
+        <v>570.8553357337796</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>1117.103036197649</v>
+        <v>1083.836176244456</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>919.7069009741314</v>
+        <v>1009.383492305178</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>3287.422374300547</v>
+        <v>2414.243312138659</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>199.4334006150024</v>
+        <v>204.7492256813024</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>443.9335476642894</v>
+        <v>377.8073690239527</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>610.9992957035181</v>
+        <v>432.5638506670264</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>420.8022532171878</v>
+        <v>417.0712155188883</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>249.7749309577395</v>
+        <v>202.84362890402</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>1043.563240267435</v>
+        <v>825.425166630693</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>667.5775825742332</v>
+        <v>713.8397114762034</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>158.7097704383807</v>
+        <v>169.6622076027352</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>269.2737524061073</v>
+        <v>259.3952742276958</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>1643.361792389252</v>
+        <v>1331.216613434215</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>1265.804186029386</v>
+        <v>1156.827824777186</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>217.638877201126</v>
+        <v>197.9460021669478</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>531.1666675897345</v>
+        <v>608.458452901125</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>565.9778519741658</v>
+        <v>602.2289241771709</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>378.5508937381735</v>
+        <v>298.1513889647162</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>453.8641552280204</v>
+        <v>464.3372943709722</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>474.6211341551214</v>
+        <v>582.7955303465881</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>808.6635190942845</v>
+        <v>778.0718593872646</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>233.0459449667192</v>
+        <v>230.8539775773879</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>351.2588210627203</v>
+        <v>320.379443835862</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>266.2020419812739</v>
+        <v>269.3710652637787</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>491.0588004060041</v>
+        <v>389.9727344321424</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>283.278140842238</v>
+        <v>297.2990484798092</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>652.3918251996839</v>
+        <v>576.061506607634</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>581.0587077351765</v>
+        <v>534.3562476383721</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>326.7737104858377</v>
+        <v>297.1648548631481</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>615.6456555332783</v>
+        <v>634.6927705157535</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>316.061469279382</v>
+        <v>334.4955339265816</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>326.7416249571483</v>
+        <v>369.9269031594639</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>787.1919547483009</v>
+        <v>876.0545931596887</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>338.3341161360643</v>
+        <v>354.4460656059642</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>595.2212155820223</v>
+        <v>581.561814133025</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>136.1754705622778</v>
+        <v>146.7061819549448</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>655.7613034381376</v>
+        <v>839.2697488600571</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>130.5864257102853</v>
+        <v>137.5347598871855</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>257.9247681502021</v>
+        <v>267.4352021653873</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>145.2834711892684</v>
+        <v>143.7263642630178</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>357.2631762982763</v>
+        <v>311.6613105016147</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>624.9908726432789</v>
+        <v>618.591892725016</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>288.0106768015593</v>
+        <v>306.3971900155017</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>428.500217265371</v>
+        <v>467.0907397564762</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>374.4829774142695</v>
+        <v>351.1391020395081</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>266.4176770954744</v>
+        <v>283.9089537447593</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>144.4475746260137</v>
+        <v>170.9295028046946</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>430.9367974492503</v>
+        <v>407.8188025307301</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>238.8473582846078</v>
+        <v>236.1928558450122</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>184.2287097068441</v>
+        <v>165.144224502455</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>299.4410208078319</v>
+        <v>311.8288747057649</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>547.6319441950014</v>
+        <v>578.8024473523179</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>159.0964165040209</v>
+        <v>156.7410491302209</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>255.7386902290152</v>
+        <v>288.8815567872543</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>309.3394172428747</v>
+        <v>386.5645462561694</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>418.1272542164859</v>
+        <v>389.0520271615449</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>271.8121498895729</v>
+        <v>326.9646213238422</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>152.1570210741148</v>
+        <v>156.1373378166814</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>807.1967579163132</v>
+        <v>698.9799204005499</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>621.9231235635624</v>
+        <v>613.9071239993914</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>542.7930853984972</v>
+        <v>527.2369528754593</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>456.260459365311</v>
+        <v>491.5986892541725</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>287.3525838978025</v>
+        <v>265.1492059910972</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>537.7938425295273</v>
+        <v>679.6466998020221</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>249.9612229350452</v>
+        <v>271.561048988914</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>296.2786498418605</v>
+        <v>275.4219580404692</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>508.7498368425505</v>
+        <v>572.7294080120657</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>481.5275480109786</v>
+        <v>541.9057085166968</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>299.0341068456046</v>
+        <v>244.9395380040573</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>443.2046215529616</v>
+        <v>505.3231812578718</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>783.4965281873275</v>
+        <v>721.8555126248825</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>402.9693819722897</v>
+        <v>409.0928776249126</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>220.3420386450825</v>
+        <v>222.2130464112649</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>247.8879906946831</v>
+        <v>271.4034243529326</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>318.4429039732627</v>
+        <v>368.2480409835741</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>451.0685827687259</v>
+        <v>472.7418021988548</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>267.6575046655913</v>
+        <v>242.6495697901477</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>432.8010920284525</v>
+        <v>420.5197309494198</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>375.2451890531987</v>
+        <v>387.1279665887251</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>85.34583502271367</v>
+        <v>79.2878172176185</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>324.3825898375651</v>
+        <v>253.4665226877276</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>357.7827468615379</v>
+        <v>335.6600255021351</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>343.6020292226036</v>
+        <v>320.303643590591</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>898.5087179833201</v>
+        <v>880.4030645189705</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>431.2905086231761</v>
+        <v>410.9866730965873</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>545.349129608176</v>
+        <v>496.9906955286012</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>1157.042355120839</v>
+        <v>1041.926773989377</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>261.6466621937758</v>
+        <v>244.277962846392</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>524.338877451541</v>
+        <v>343.73290076721</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>656.6542837307741</v>
+        <v>644.8291252327883</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>407.432827238505</v>
+        <v>423.3286109077613</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>404.6091621885314</v>
+        <v>348.5058911923881</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>578.9651254167899</v>
+        <v>706.2952557063119</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>358.6078985304117</v>
+        <v>301.2142466228243</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>486.6386157810406</v>
+        <v>488.4917711977222</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>475.2191332063799</v>
+        <v>525.7310922939032</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>664.1160997819138</v>
+        <v>571.4418044397797</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>420.962973374186</v>
+        <v>446.3041610797125</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>218.8954801142865</v>
+        <v>220.8315366349862</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>433.9362068725918</v>
+        <v>376.2807592363052</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>426.1571244669862</v>
+        <v>327.4212078093159</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>176.207976641782</v>
+        <v>193.2030370135643</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>198.0706294006467</v>
+        <v>246.9890542421316</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>332.922280288387</v>
+        <v>370.1706049984871</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>392.7494505707107</v>
+        <v>407.6642398121762</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>492.1845988714858</v>
+        <v>508.9502020137879</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>226.6707236433281</v>
+        <v>211.4094451350213</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>364.4878621971572</v>
+        <v>400.8336736014567</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>293.450326201981</v>
+        <v>341.845154381884</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>174.344421407546</v>
+        <v>189.2079765889818</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>447.2922397785687</v>
+        <v>364.4373126300102</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>260.9098732569411</v>
+        <v>249.7093218114297</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>475.3780379271163</v>
+        <v>468.9524297659896</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>457.3650525596586</v>
+        <v>535.873000566299</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>358.6607424686915</v>
+        <v>412.8647298920828</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>314.9026578134477</v>
+        <v>284.4414718808416</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>814.021324315984</v>
+        <v>674.5210494727482</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>127.3561686812133</v>
+        <v>119.0600404396788</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>584.5871968783878</v>
+        <v>491.2569917984542</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>703.49569990099</v>
+        <v>721.4482324104562</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>296.6674408746412</v>
+        <v>269.9165193338759</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>230.4120718554838</v>
+        <v>241.0499754856498</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>396.1164030339791</v>
+        <v>452.9905615759616</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>122.8980964218529</v>
+        <v>124.6152802960144</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>604.9031708673633</v>
+        <v>700.0704002824904</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>331.9782353403633</v>
+        <v>363.3599612160448</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>257.5938357113007</v>
+        <v>290.5473754385017</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>327.4348779493732</v>
+        <v>455.2819967499314</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>321.059385860088</v>
+        <v>294.073243681694</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>373.1291160771672</v>
+        <v>419.8710265995678</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887">
-        <v>673.2116943090092</v>
+        <v>625.0092775492533</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888">
-        <v>327.5064430406819</v>
+        <v>335.6970020589558</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889">
-        <v>326.5664057918215</v>
+        <v>377.9844700010202</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890">
-        <v>407.8660642532088</v>
+        <v>381.1512765607606</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891">
-        <v>659.7871606261962</v>
+        <v>584.160453435789</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>831.5888492232033</v>
+        <v>792.8781909721563</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>343.6920754164609</v>
+        <v>346.6246838266477</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>560.5575783837719</v>
+        <v>494.5247003788757</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>346.2081759385827</v>
+        <v>330.0629673449362</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896">
-        <v>479.0289477478257</v>
+        <v>429.6216976413326</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>561.7428502259035</v>
+        <v>549.7136082304853</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>649.9155238004905</v>
+        <v>723.5353803111169</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>396.5921549843737</v>
+        <v>417.5504963316157</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>1257.213600416678</v>
+        <v>1132.045092306587</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>290.1646854364994</v>
+        <v>283.8761875253622</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>245.0090331266182</v>
+        <v>237.4432837850757</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903">
-        <v>302.8267504292744</v>
+        <v>318.8017911805886</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>325.1335718815399</v>
+        <v>334.9931334200731</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>229.0488703195692</v>
+        <v>252.5991507496776</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>498.1736711263636</v>
+        <v>524.1445809756128</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>652.9359127680634</v>
+        <v>601.1329977645707</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>437.5066420981299</v>
+        <v>486.9855522075955</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909">
-        <v>230.0793413178971</v>
+        <v>226.6552692261572</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>433.4927226648512</v>
+        <v>457.8282360144836</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911">
-        <v>265.9467084797948</v>
+        <v>275.9716487651887</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912">
-        <v>331.796656519839</v>
+        <v>324.7382359000142</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>469.5962076146075</v>
+        <v>452.6889605373314</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>214.8314888748693</v>
+        <v>192.718562113895</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915">
-        <v>495.7220771276712</v>
+        <v>512.0773826733155</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>736.7968943540014</v>
+        <v>707.8800603873755</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>437.6336463765414</v>
+        <v>422.6104340280597</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>348.1430705210741</v>
+        <v>376.8926878114341</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919">
-        <v>419.380668175649</v>
+        <v>434.9851411840298</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>1610.423872886042</v>
+        <v>1428.013506247323</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>540.0900086844722</v>
+        <v>400.1603374822789</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>206.9226938495004</v>
+        <v>212.4056515676165</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>404.6734648734493</v>
+        <v>470.4948164880842</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>121.3628290269872</v>
+        <v>147.2467706621182</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>320.3482957244835</v>
+        <v>298.5923192467047</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926">
-        <v>223.6014736764721</v>
+        <v>219.6871076190221</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>841.2121985537708</v>
+        <v>915.8853320459748</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>224.8304489022576</v>
+        <v>241.1176050636126</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929">
-        <v>308.7928553396241</v>
+        <v>300.4716013431577</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>1007.513434927383</v>
+        <v>936.5334831956914</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931">
-        <v>265.8395360759565</v>
+        <v>267.9557786560919</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932">
-        <v>852.03294117138</v>
+        <v>894.5914327779631</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>470.8688463966171</v>
+        <v>517.3169452291447</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>275.6942738480354</v>
+        <v>303.4414371929105</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935">
-        <v>196.564993053468</v>
+        <v>210.5052575132098</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>131.8827679388903</v>
+        <v>140.6485537541097</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937">
-        <v>338.3941018770631</v>
+        <v>337.6931900973109</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>805.7750632331778</v>
+        <v>867.0015020025643</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939">
-        <v>276.1562077827339</v>
+        <v>306.1335432562212</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940">
-        <v>320.5485704051636</v>
+        <v>370.3084418662077</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941">
-        <v>217.2021389838161</v>
+        <v>218.8744233542813</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>1012.2420834466</v>
+        <v>1040.231047801811</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943">
-        <v>225.8425186740746</v>
+        <v>210.9103277916774</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944">
-        <v>335.8899524797517</v>
+        <v>371.1860015178581</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945">
-        <v>412.2129760298536</v>
+        <v>413.2498531880896</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946">
-        <v>490.070467566597</v>
+        <v>495.1625724810623</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947">
-        <v>372.844569441992</v>
+        <v>369.6886477033776</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948">
-        <v>463.0493682673633</v>
+        <v>457.0556829722368</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949">
-        <v>306.5876099303151</v>
+        <v>354.3332326896186</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>342.3103066064542</v>
+        <v>403.8211657958069</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>279.213607769304</v>
+        <v>248.6170428781154</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>328.3532383223904</v>
+        <v>257.5396373312684</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>448.4423839556507</v>
+        <v>425.7294823367536</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954">
-        <v>262.3278918088927</v>
+        <v>285.3436463745555</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955">
-        <v>702.0276075081737</v>
+        <v>646.737916737663</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956">
-        <v>528.5106359062041</v>
+        <v>499.5785223384092</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957">
-        <v>251.0731858231364</v>
+        <v>311.2152220906884</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>670.7310478582204</v>
+        <v>695.6644958651007</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959">
-        <v>493.3255144320992</v>
+        <v>412.346168942677</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960">
-        <v>282.8891425301834</v>
+        <v>282.3773016356307</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>436.447940967405</v>
+        <v>431.9048433883575</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962">
-        <v>464.5767584422591</v>
+        <v>456.8201509792246</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>182.2969466159455</v>
+        <v>189.7916426467233</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>835.5752012953851</v>
+        <v>716.7051768887112</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965">
-        <v>371.5496604757718</v>
+        <v>429.4997959554833</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966">
-        <v>607.9170862816012</v>
+        <v>561.4013159126401</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967">
-        <v>218.2831438559247</v>
+        <v>201.7593370787643</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968">
-        <v>320.0086856631667</v>
+        <v>371.6569300423929</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969">
-        <v>369.78718042588</v>
+        <v>366.5016146750905</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970">
-        <v>459.3084828198373</v>
+        <v>374.1042575273762</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971">
-        <v>499.3792768410949</v>
+        <v>510.5874723277767</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>554.6401178633705</v>
+        <v>480.8880597019059</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>475.2344773832733</v>
+        <v>511.1700644861874</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974">
-        <v>536.7970279924818</v>
+        <v>514.1421432524256</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975">
-        <v>637.3542132859645</v>
+        <v>618.5406478016071</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>268.2742409696812</v>
+        <v>278.9458791800159</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977">
-        <v>402.929293630005</v>
+        <v>415.2177123122643</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978">
-        <v>379.9755269268018</v>
+        <v>345.3052660492316</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979">
-        <v>278.9316842444269</v>
+        <v>331.0293933528538</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980">
-        <v>963.5537197664181</v>
+        <v>790.2208815416662</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981">
-        <v>186.6379109488967</v>
+        <v>191.9183132013313</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982">
-        <v>164.2252278857291</v>
+        <v>172.8099421560579</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983">
-        <v>448.2623251882716</v>
+        <v>552.078134003327</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984">
-        <v>83.18144676888723</v>
+        <v>88.68391195595704</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985">
-        <v>616.5520481553065</v>
+        <v>672.4249732096232</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986">
-        <v>595.305875594208</v>
+        <v>577.2271610589961</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987">
-        <v>351.251464551587</v>
+        <v>328.696722105362</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>527.2583914628141</v>
+        <v>522.7911694247778</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989">
-        <v>470.7924162956917</v>
+        <v>458.053070643626</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990">
-        <v>425.4963367128989</v>
+        <v>450.7013682032735</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991">
-        <v>411.7886014834315</v>
+        <v>419.0920002359193</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992">
-        <v>269.6062684874087</v>
+        <v>291.8730579315085</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993">
-        <v>465.1259445059591</v>
+        <v>458.6851740964789</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994">
-        <v>538.8248237433857</v>
+        <v>582.9169788730908</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995">
-        <v>1652.479529857128</v>
+        <v>1620.73210492687</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>295.1392450297618</v>
+        <v>317.1504212517535</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997">
-        <v>1114.505648938687</v>
+        <v>1145.19582795121</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998">
-        <v>209.918267996834</v>
+        <v>219.8082094273735</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999">
-        <v>338.0980770556425</v>
+        <v>258.1009641567716</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000">
-        <v>150.349371167178</v>
+        <v>151.3772245273502</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001">
-        <v>302.4831400795798</v>
+        <v>317.1427701176034</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002">
-        <v>198.750549434424</v>
+        <v>203.7996708146839</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003">
-        <v>217.8505894389334</v>
+        <v>237.7855077534423</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004">
-        <v>436.978449145506</v>
+        <v>444.0603603625077</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005">
-        <v>231.1291559174144</v>
+        <v>221.2067045644646</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006">
-        <v>343.061329386727</v>
+        <v>343.7032680302353</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007">
-        <v>416.6001413739158</v>
+        <v>525.8682460214524</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008">
-        <v>360.4707313204939</v>
+        <v>422.932634456224</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009">
-        <v>398.231299484489</v>
+        <v>395.8521296410036</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010">
-        <v>365.0127687431665</v>
+        <v>386.9096033284594</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011">
-        <v>625.5577358220683</v>
+        <v>643.013542748776</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012">
-        <v>502.754224615142</v>
+        <v>602.4544984087485</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013">
-        <v>1055.545298459625</v>
+        <v>1041.278567041736</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014">
-        <v>503.8043402943717</v>
+        <v>391.8177797547514</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015">
-        <v>252.1530774315199</v>
+        <v>263.5351988290405</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016">
-        <v>279.1424723481558</v>
+        <v>285.8532453514119</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017">
-        <v>392.6418693103533</v>
+        <v>427.6188044819584</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018">
-        <v>127.9319546326581</v>
+        <v>128.2893980351415</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>277.0458666434622</v>
+        <v>313.4571158927888</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020">
-        <v>254.1980691056556</v>
+        <v>242.6208419329732</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>315.5856499411785</v>
+        <v>289.616763599695</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>335.6233116149978</v>
+        <v>337.4252529463161</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023">
-        <v>308.5053031905658</v>
+        <v>290.0558278179364</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024">
-        <v>319.5016075261278</v>
+        <v>332.3824438337856</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025">
-        <v>412.3912698254983</v>
+        <v>374.1178678898057</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026">
-        <v>329.0923877145624</v>
+        <v>324.8016428273786</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027">
-        <v>294.5444624511991</v>
+        <v>286.6581428380965</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028">
-        <v>347.8968415471453</v>
+        <v>359.7454668833961</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029">
-        <v>266.7664261083757</v>
+        <v>262.9492408350732</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030">
-        <v>251.4794600782373</v>
+        <v>269.2621226671661</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>487.9201873164054</v>
+        <v>518.9526942456574</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032">
-        <v>246.7451916439548</v>
+        <v>240.3531505317119</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033">
-        <v>587.2771457839414</v>
+        <v>557.8301010976809</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>284.7336583890036</v>
+        <v>280.5767938936687</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>249.2314191908046</v>
+        <v>255.8084832652769</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036">
-        <v>273.2450967891386</v>
+        <v>279.5523326171447</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>541.5185843955851</v>
+        <v>471.9200287234416</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038">
-        <v>328.5282440386996</v>
+        <v>312.0723462717003</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039">
-        <v>71.79023897804596</v>
+        <v>71.69969871298976</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040">
-        <v>283.4130262093834</v>
+        <v>307.2170372980724</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041">
-        <v>292.5084384074498</v>
+        <v>289.440579271801</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042">
-        <v>163.957450573273</v>
+        <v>162.9412443567285</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>490.7336254687083</v>
+        <v>418.7961612258496</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044">
-        <v>435.7605871277178</v>
+        <v>420.0936365579983</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>1065.721640688562</v>
+        <v>1046.775546648567</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>425.4600420250753</v>
+        <v>361.1220239681887</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047">
-        <v>213.3112142915496</v>
+        <v>232.3814614625134</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>384.970570484281</v>
+        <v>363.7617915008115</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049">
-        <v>316.6001813546706</v>
+        <v>308.5394171432493</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>527.4368556219936</v>
+        <v>605.0402340806645</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051">
-        <v>262.3027784098168</v>
+        <v>261.1738038038408</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>913.3642592246437</v>
+        <v>852.7928128616908</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053">
-        <v>369.3289126925919</v>
+        <v>384.2617900420965</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>2194.16094730979</v>
+        <v>2284.706763831873</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055">
-        <v>303.8799270499603</v>
+        <v>388.3912076654021</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>784.3942963152457</v>
+        <v>851.9782954919724</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>357.1967746588392</v>
+        <v>351.7802280248729</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>1338.226195573174</v>
+        <v>1290.42253673613</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059">
-        <v>249.7725634165359</v>
+        <v>251.9803392018183</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>625.296485129819</v>
+        <v>543.4300850555494</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061">
-        <v>274.3508594564477</v>
+        <v>240.8108366737428</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062">
-        <v>300.6983267625581</v>
+        <v>348.807732139452</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>215.1167237583282</v>
+        <v>216.3060934737215</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>747.6038597393723</v>
+        <v>748.3749803012266</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>271.4535019550444</v>
+        <v>248.1026834157087</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>667.5919763575308</v>
+        <v>642.2510959622891</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>489.3814161377758</v>
+        <v>525.1473282559243</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068">
-        <v>264.8967902720143</v>
+        <v>285.9547890208027</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069">
-        <v>344.4302938248475</v>
+        <v>390.0026376468874</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>414.8294159172286</v>
+        <v>365.873080516052</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>328.3613371033501</v>
+        <v>298.0149496006564</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>385.2660411651181</v>
+        <v>429.4627007506238</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073">
-        <v>338.8706490553257</v>
+        <v>323.0089098735515</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074">
-        <v>337.2237181923239</v>
+        <v>343.5435052679329</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075">
-        <v>252.1473826241403</v>
+        <v>243.1678645806504</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076">
-        <v>404.418010830899</v>
+        <v>524.5424980486546</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077">
-        <v>968.7424001220486</v>
+        <v>888.9924712980583</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>295.1599464278904</v>
+        <v>395.8942122250198</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079">
-        <v>624.8184850067296</v>
+        <v>794.3727004160988</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>355.4593354847161</v>
+        <v>324.4554090491184</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>284.2231890800267</v>
+        <v>309.4858352373367</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>459.6073342575697</v>
+        <v>508.2453541376768</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>322.4088559973804</v>
+        <v>292.0862874464279</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>355.2386971776074</v>
+        <v>294.0744040341082</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>202.0911839759565</v>
+        <v>211.4172410663894</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>551.8956853175483</v>
+        <v>496.2637368587912</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>318.2840682035859</v>
+        <v>336.7671765285758</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>367.0209988582902</v>
+        <v>357.5607565604396</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>246.8169321260864</v>
+        <v>274.9115158438486</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>279.6477922882834</v>
+        <v>276.400982577853</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>310.7334899799071</v>
+        <v>298.8068080968203</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>341.5369280672761</v>
+        <v>326.3107427926441</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>233.7812533321373</v>
+        <v>274.847100660811</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>823.7069433700235</v>
+        <v>865.8231239330468</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>466.3416467487023</v>
+        <v>465.0409393251498</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>360.0656679817779</v>
+        <v>423.42573065172</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>640.938180941242</v>
+        <v>590.2016723393641</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>752.1080653191208</v>
+        <v>685.3929267043691</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>364.0523584666855</v>
+        <v>389.0404823572314</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>319.4011539279343</v>
+        <v>280.8512660942282</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>536.8438369600294</v>
+        <v>576.7417987846427</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>442.0755711307078</v>
+        <v>451.4664075623245</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>618.4853616876513</v>
+        <v>713.451170932947</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>717.7621589536952</v>
+        <v>689.5371049336364</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>344.451474451577</v>
+        <v>374.202518595996</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>202.4613270027242</v>
+        <v>209.7585701970252</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>288.6740700470496</v>
+        <v>298.8232287182732</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>439.9407307028048</v>
+        <v>365.3568007527442</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>790.6769764863552</v>
+        <v>651.551392418938</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>403.82599572703</v>
+        <v>359.4725473779982</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>192.9025100042847</v>
+        <v>192.5046999582002</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112">
-        <v>60.04031368509854</v>
+        <v>61.73767534196217</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113">
-        <v>556.6052812620364</v>
+        <v>466.4168129626714</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114">
-        <v>404.811236064073</v>
+        <v>437.2236829990355</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115">
-        <v>461.9607046592329</v>
+        <v>385.2691472397692</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116">
-        <v>292.777229905336</v>
+        <v>271.3848964007946</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117">
-        <v>952.8537708427516</v>
+        <v>771.2964664912148</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118">
-        <v>298.4167701120939</v>
+        <v>283.7066615841023</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119">
-        <v>423.902353190647</v>
+        <v>371.9451104855755</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120">
-        <v>251.0353458968162</v>
+        <v>243.7086096877046</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121">
-        <v>307.9796714872453</v>
+        <v>320.0167330949344</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>273.3332427748309</v>
+        <v>285.2850870823611</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123">
-        <v>910.3172729393349</v>
+        <v>680.8676417250774</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124">
-        <v>936.9673262741189</v>
+        <v>1176.553776730596</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125">
-        <v>683.1949303438207</v>
+        <v>695.716128906873</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126">
-        <v>465.7910847332563</v>
+        <v>529.4423891718779</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127">
-        <v>292.3484182200776</v>
+        <v>321.88877861754</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128">
-        <v>846.0403744442114</v>
+        <v>758.8350551306394</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129">
-        <v>282.3638190223285</v>
+        <v>246.1792624553376</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130">
-        <v>295.6644988619023</v>
+        <v>264.5080284001996</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131">
-        <v>555.2955295995525</v>
+        <v>436.1059226721343</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132">
-        <v>225.616290222091</v>
+        <v>221.6596379981347</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133">
-        <v>217.1572709204495</v>
+        <v>210.7051537159278</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134">
-        <v>410.4260343729238</v>
+        <v>382.0511613091421</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135">
-        <v>209.1528082215555</v>
+        <v>210.9085403118618</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136">
-        <v>274.6366890088307</v>
+        <v>288.9063757157158</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137">
-        <v>266.7557489994001</v>
+        <v>256.8835515262592</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138">
-        <v>462.0866409967259</v>
+        <v>512.9032397867243</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139">
-        <v>75.10039089075912</v>
+        <v>75.38343407605083</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140">
-        <v>142.3709440622007</v>
+        <v>152.1304773332801</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141">
-        <v>794.9247611976847</v>
+        <v>901.5947773906136</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142">
-        <v>259.2096766888149</v>
+        <v>266.5029439581315</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143">
-        <v>662.0833840007549</v>
+        <v>626.3220238842877</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144">
-        <v>439.3032475388541</v>
+        <v>434.121160850959</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145">
-        <v>589.3089254965042</v>
+        <v>580.4971064863564</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146">
-        <v>401.4113968437755</v>
+        <v>472.5143849731054</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147">
-        <v>362.3572752249571</v>
+        <v>388.9477669773839</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148">
-        <v>610.7590281703665</v>
+        <v>657.4038006220806</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149">
-        <v>264.333715634738</v>
+        <v>231.2783936600867</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150">
-        <v>240.5686169691637</v>
+        <v>268.2963284348477</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151">
-        <v>508.2663853750695</v>
+        <v>487.4882699414064</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>366.2466352065056</v>
+        <v>331.5536686677675</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>461.2617908114374</v>
+        <v>455.5549915452592</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>441.7606710289622</v>
+        <v>429.9928676842306</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>608.6258281874028</v>
+        <v>569.6820896181542</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>314.455581463843</v>
+        <v>285.6638475009382</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>714.2025402824024</v>
+        <v>812.1929575738392</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>312.5465237727568</v>
+        <v>300.3753022999605</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>262.6661281337724</v>
+        <v>265.4652992855951</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>395.822984207608</v>
+        <v>404.2673022041886</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>926.3690786784058</v>
+        <v>1013.557350228431</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>215.9079793930521</v>
+        <v>234.8667886663983</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>808.8617260478665</v>
+        <v>854.2549748381635</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>265.9633681518344</v>
+        <v>257.0714127921984</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>297.4348772931062</v>
+        <v>339.2162900893666</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>684.4238544192123</v>
+        <v>643.916497207414</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>577.1512847601334</v>
+        <v>600.3146534047079</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>236.916384227165</v>
+        <v>223.756386629343</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>946.3024909437047</v>
+        <v>813.3136014512538</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>344.4782938696613</v>
+        <v>333.9001402033003</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>307.7163716548303</v>
+        <v>319.4823647819226</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>341.6000595372427</v>
+        <v>277.5754888486229</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>268.2127703366417</v>
+        <v>316.4305039689941</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>517.9672989698989</v>
+        <v>550.5429042854495</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>191.2192908056087</v>
+        <v>214.3421489829902</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>328.2526759261055</v>
+        <v>315.5196399085735</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>384.4958373850771</v>
+        <v>349.1667459455889</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>312.6468837704398</v>
+        <v>371.5607335105022</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>657.6746165128443</v>
+        <v>521.178279892647</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>322.6962952679121</v>
+        <v>373.0522421335539</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>667.1350233210841</v>
+        <v>539.2685959621508</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>730.6912260753636</v>
+        <v>770.4985672157989</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>387.4913934805988</v>
+        <v>355.8985646966159</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>597.0409339738208</v>
+        <v>573.493073705453</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>310.9021137258063</v>
+        <v>301.9547493274573</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>455.9903299913504</v>
+        <v>606.627882262732</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>309.4602810162516</v>
+        <v>309.4129090840549</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>1526.995794303431</v>
+        <v>1452.971725029108</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>473.6454027448551</v>
+        <v>481.7713353072955</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>714.1942829250594</v>
+        <v>802.6631821191215</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>318.2964469709135</v>
+        <v>288.7632273690793</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>319.4986573356368</v>
+        <v>357.5872865572251</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>319.7709428457719</v>
+        <v>359.2773998730506</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>253.529113937225</v>
+        <v>277.1113636752249</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>338.3253109807084</v>
+        <v>350.4678417250693</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>276.3228082091292</v>
+        <v>314.1691851879391</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>343.2981230866815</v>
+        <v>364.9787336747071</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>787.5792770016575</v>
+        <v>826.6405542577183</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>785.4250016346905</v>
+        <v>681.4958313034538</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>403.1202025353685</v>
+        <v>385.610748719738</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>359.4366643139367</v>
+        <v>349.941919270236</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>342.6770192362521</v>
+        <v>292.540427354255</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>249.8047977692634</v>
+        <v>248.2251904040844</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>120.0854174453591</v>
+        <v>123.9346853068142</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>372.4637258159847</v>
+        <v>356.4782167655731</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>290.5443562146907</v>
+        <v>350.4523668139545</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>215.9060630610935</v>
+        <v>220.9663761801616</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>432.6920844419632</v>
+        <v>382.546385042008</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>367.7997588852818</v>
+        <v>274.8376827276202</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>631.7625183032355</v>
+        <v>825.1717865000592</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>548.0950071323329</v>
+        <v>529.5996131558959</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>618.7064366450916</v>
+        <v>709.8102151744267</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>775.5785857857704</v>
+        <v>774.1927189540064</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>345.8424683254338</v>
+        <v>333.6932734446763</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>316.107727475745</v>
+        <v>324.4005692439607</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>312.8061726068164</v>
+        <v>312.4165191277909</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>502.7493249969784</v>
+        <v>595.5855510657575</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>266.7804715468704</v>
+        <v>371.4096991071207</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>354.1674490692849</v>
+        <v>334.034257354987</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>201.9381038954253</v>
+        <v>205.104786598736</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>596.1959126239652</v>
+        <v>584.3820965127844</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>299.9267638726692</v>
+        <v>268.9602332935195</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>380.6338448661149</v>
+        <v>400.9221739014368</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>195.7765405445332</v>
+        <v>184.1022750340284</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>560.805037124126</v>
+        <v>534.7737275018417</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>664.9576989553192</v>
+        <v>619.3873553938407</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>482.091945746893</v>
+        <v>462.8066781064916</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>269.5508520950253</v>
+        <v>243.8835596388018</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>398.1839128934601</v>
+        <v>377.8148184909425</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>438.0548734246117</v>
+        <v>423.8723547060434</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>364.5342473467039</v>
+        <v>445.807072251967</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>615.9661550195756</v>
+        <v>677.5763124934427</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>321.994590237132</v>
+        <v>273.6882093934499</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>532.6598515392341</v>
+        <v>482.8644496435237</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>427.9814227441293</v>
+        <v>438.0100703635395</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>422.2188713099837</v>
+        <v>423.1617064615619</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>656.1687332983657</v>
+        <v>801.0194692884299</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>727.3256003099435</v>
+        <v>741.1689099019001</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>332.5449719966767</v>
+        <v>318.3778615783617</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>310.1546121009224</v>
+        <v>353.2544541493432</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>493.1548513931479</v>
+        <v>484.4345157128796</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242">
-        <v>259.1181376794938</v>
+        <v>260.0223438186468</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>608.5601583109228</v>
+        <v>679.4575767156242</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244">
-        <v>256.5362633402391</v>
+        <v>238.7658101534253</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245">
-        <v>4057.034839427181</v>
+        <v>3816.592419811899</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246">
-        <v>316.1491259639891</v>
+        <v>331.8482159837441</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247">
-        <v>634.8159310455416</v>
+        <v>554.2964020504783</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248">
-        <v>216.1374343051628</v>
+        <v>230.9156649867175</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249">
-        <v>271.6030570657787</v>
+        <v>256.7907669453367</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250">
-        <v>802.8291323208991</v>
+        <v>748.7411517099705</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251">
-        <v>329.9259850459605</v>
+        <v>389.1905590269968</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252">
-        <v>695.6341769220514</v>
+        <v>505.0527633157006</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>367.3850430837612</v>
+        <v>336.4660100536582</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>236.8451145347982</v>
+        <v>266.8444669162922</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>268.2127703366417</v>
+        <v>316.4305039689941</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>400.4125697591682</v>
+        <v>369.6277608779981</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>1249.34164892475</v>
+        <v>1431.517759392998</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>297.0244808509021</v>
+        <v>291.4346014189263</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>412.707392430418</v>
+        <v>385.2453802967931</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>444.2011989049804</v>
+        <v>433.3020430486426</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>237.7658242681244</v>
+        <v>234.8220296734965</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>404.5154418955744</v>
+        <v>435.3360230641155</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>248.0117326279299</v>
+        <v>274.3370127075429</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>830.3746467648111</v>
+        <v>1112.008118512728</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>514.5363780620395</v>
+        <v>641.4886601694485</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>287.877541829472</v>
+        <v>286.3572956385491</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>366.394642937431</v>
+        <v>384.7654942868006</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>482.2418539088428</v>
+        <v>428.9407967085848</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269">
-        <v>499.8187153027978</v>
+        <v>568.7956682658703</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270">
-        <v>461.6859316047356</v>
+        <v>596.6131306097363</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271">
-        <v>608.6701271920388</v>
+        <v>562.3206237151389</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272">
-        <v>539.5084226102115</v>
+        <v>472.8955868381083</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>218.7936225211349</v>
+        <v>227.6217940965189</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274">
-        <v>287.9383168053449</v>
+        <v>270.561184992517</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275">
-        <v>278.2799131014471</v>
+        <v>250.3633171843973</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276">
-        <v>440.4409949866006</v>
+        <v>360.975312160518</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277">
-        <v>305.8940998816814</v>
+        <v>260.7618930061211</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278">
-        <v>267.4746907600414</v>
+        <v>326.151313749057</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279">
-        <v>929.2373482596947</v>
+        <v>852.2232860486423</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280">
-        <v>426.0812735111123</v>
+        <v>504.0872663085452</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281">
-        <v>514.195367907463</v>
+        <v>621.3396650812674</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282">
-        <v>593.8739065424389</v>
+        <v>545.0026619969107</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283">
-        <v>349.1109946316958</v>
+        <v>388.2983164781588</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284">
-        <v>788.8786194770662</v>
+        <v>632.5629487350125</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285">
-        <v>770.3349537979552</v>
+        <v>683.8126287217397</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>443.537041313105</v>
+        <v>440.4858229148181</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287">
-        <v>308.812698650446</v>
+        <v>304.3760540710228</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288">
-        <v>283.0823702712701</v>
+        <v>217.3042827440932</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>619.840025646504</v>
+        <v>578.7802967879026</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290">
-        <v>531.6865404677736</v>
+        <v>579.5242666190051</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>391.7768162857293</v>
+        <v>454.5068913833238</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>566.3081071155492</v>
+        <v>502.0778144647768</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>403.0665305235518</v>
+        <v>542.5176286814705</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294">
-        <v>222.6414012145701</v>
+        <v>219.8256461502892</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295">
-        <v>283.5293783056936</v>
+        <v>234.6210336117062</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296">
-        <v>431.5356071408285</v>
+        <v>497.6435341724629</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297">
-        <v>342.0619896921335</v>
+        <v>339.4222695981793</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298">
-        <v>728.523864037705</v>
+        <v>750.9489169714911</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299">
-        <v>499.4627919304952</v>
+        <v>438.0474266773068</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300">
-        <v>139.3079834882914</v>
+        <v>148.3920829877201</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301">
-        <v>371.1938500581626</v>
+        <v>435.838750371579</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302">
-        <v>648.1268264925192</v>
+        <v>657.3536796116982</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303">
-        <v>794.7740143159015</v>
+        <v>761.6933845814284</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304">
-        <v>334.0984940212162</v>
+        <v>354.9456350001675</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305">
-        <v>167.7273703779977</v>
+        <v>146.1290934469201</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>361.178095172331</v>
+        <v>361.7002751330915</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307">
-        <v>281.9672783521688</v>
+        <v>250.9847770513095</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308">
-        <v>1073.061783941277</v>
+        <v>1302.633259508593</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309">
-        <v>650.0310549778952</v>
+        <v>764.3846375944963</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310">
-        <v>646.2647689414916</v>
+        <v>590.186983873503</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311">
-        <v>827.8188658005915</v>
+        <v>833.9592541193807</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
       <c r="A1312">
-        <v>588.8971517638945</v>
+        <v>665.72117682957</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313">
-        <v>1176.585728011369</v>
+        <v>1169.616985254457</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314">
-        <v>314.7420614004824</v>
+        <v>281.6845153241962</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>518.5067790415491</v>
+        <v>526.6146383274731</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316">
-        <v>1025.873598165888</v>
+        <v>838.0137809074325</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
       <c r="A1317">
-        <v>163.1223265095979</v>
+        <v>218.7694252182839</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>318.8639489403849</v>
+        <v>326.8360597220547</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319">
-        <v>471.7256734456984</v>
+        <v>470.0176910467555</v>
       </c>
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320">
-        <v>503.0505155800385</v>
+        <v>506.8583065461418</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
       <c r="A1321">
-        <v>453.8601733092755</v>
+        <v>412.5820855040114</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322">
-        <v>241.6435109157584</v>
+        <v>236.8597865108329</v>
       </c>
     </row>
     <row r="1323" spans="1:1">
       <c r="A1323">
-        <v>319.922536506452</v>
+        <v>308.3541184526537</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>434.3188310651008</v>
+        <v>393.1071551097098</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325">
-        <v>2194.506863945453</v>
+        <v>2104.711078494869</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
       <c r="A1326">
-        <v>475.7919113574609</v>
+        <v>465.8853393867367</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327">
-        <v>463.6806033572889</v>
+        <v>473.1824681890963</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328">
-        <v>541.3368973776012</v>
+        <v>541.6112255222388</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329">
-        <v>673.5270667560158</v>
+        <v>878.1064333157086</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330">
-        <v>964.1349733311914</v>
+        <v>878.0528159601295</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331">
-        <v>304.9798576650508</v>
+        <v>306.4019022437383</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>633.98774064899</v>
+        <v>606.2846304034117</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333">
-        <v>955.9332391624757</v>
+        <v>1015.572354275113</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334">
-        <v>870.2857881736993</v>
+        <v>1163.788621352182</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335">
-        <v>342.8097497983618</v>
+        <v>359.798506196943</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336">
-        <v>242.6004399111484</v>
+        <v>228.5866545742643</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337">
-        <v>255.7022602879906</v>
+        <v>292.8978910087898</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338">
-        <v>320.5869255584549</v>
+        <v>307.0741671095956</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339">
-        <v>354.8623726224491</v>
+        <v>375.2174680640424</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340">
-        <v>121.3653038245186</v>
+        <v>119.0128480613915</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341">
-        <v>231.2843687272996</v>
+        <v>234.4208328445682</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342">
-        <v>351.5098276955322</v>
+        <v>314.7522885695866</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343">
-        <v>432.7691748163915</v>
+        <v>460.1632833761843</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344">
-        <v>549.6289878713396</v>
+        <v>595.4008513759821</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345">
-        <v>239.2485536645256</v>
+        <v>223.4420097354412</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346">
-        <v>1380.224693135248</v>
+        <v>1294.943492244194</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347">
-        <v>171.7797771399142</v>
+        <v>172.5855866853716</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348">
-        <v>259.9996092938546</v>
+        <v>261.608050201787</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349">
-        <v>306.9590616737659</v>
+        <v>294.4703885914144</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350">
-        <v>513.3114380027189</v>
+        <v>592.7684555678518</v>
       </c>
     </row>
     <row r="1351" spans="1:1">
       <c r="A1351">
-        <v>415.0003884887424</v>
+        <v>502.0826121387465</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352">
-        <v>499.893435334175</v>
+        <v>488.9696590100077</v>
       </c>
     </row>
     <row r="1353" spans="1:1">
       <c r="A1353">
-        <v>464.2539318267981</v>
+        <v>458.6329743566521</v>
       </c>
     </row>
     <row r="1354" spans="1:1">
       <c r="A1354">
-        <v>1074.312134338076</v>
+        <v>1135.949472966624</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355">
-        <v>408.7708636793816</v>
+        <v>473.4575428007598</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356">
-        <v>336.6901305539874</v>
+        <v>300.7437654427268</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357">
-        <v>431.4860396938629</v>
+        <v>406.7049335156616</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358">
-        <v>397.38623661604</v>
+        <v>489.5082241057532</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359">
-        <v>528.081603043755</v>
+        <v>523.558434772872</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360">
-        <v>864.1810413654666</v>
+        <v>641.41459213257</v>
       </c>
     </row>
     <row r="1361" spans="1:1">
       <c r="A1361">
-        <v>573.4495970626615</v>
+        <v>590.4089194754747</v>
       </c>
     </row>
     <row r="1362" spans="1:1">
       <c r="A1362">
-        <v>770.9724783503231</v>
+        <v>866.6596923546257</v>
       </c>
     </row>
     <row r="1363" spans="1:1">
       <c r="A1363">
-        <v>297.7912530353389</v>
+        <v>227.3824622438031</v>
       </c>
     </row>
     <row r="1364" spans="1:1">
       <c r="A1364">
-        <v>711.9075700252457</v>
+        <v>572.9175001081161</v>
       </c>
     </row>
     <row r="1365" spans="1:1">
       <c r="A1365">
-        <v>284.7125096356221</v>
+        <v>263.8062232623632</v>
       </c>
     </row>
     <row r="1366" spans="1:1">
       <c r="A1366">
-        <v>723.7438131034941</v>
+        <v>743.4019073955666</v>
       </c>
     </row>
     <row r="1367" spans="1:1">
       <c r="A1367">
-        <v>360.0010894421326</v>
+        <v>375.289865406296</v>
       </c>
     </row>
     <row r="1368" spans="1:1">
       <c r="A1368">
-        <v>760.4229495767271</v>
+        <v>691.9594566241275</v>
       </c>
     </row>
     <row r="1369" spans="1:1">
       <c r="A1369">
-        <v>1211.53031691029</v>
+        <v>1096.834301595839</v>
       </c>
     </row>
     <row r="1370" spans="1:1">
       <c r="A1370">
-        <v>541.325955817666</v>
+        <v>626.3301260853334</v>
       </c>
     </row>
     <row r="1371" spans="1:1">
       <c r="A1371">
-        <v>330.7072913428957</v>
+        <v>375.1807815660742</v>
       </c>
     </row>
     <row r="1372" spans="1:1">
       <c r="A1372">
-        <v>359.5804465324038</v>
+        <v>393.3408248554548</v>
       </c>
     </row>
     <row r="1373" spans="1:1">
       <c r="A1373">
-        <v>216.9865077900923</v>
+        <v>233.1793212585545</v>
       </c>
     </row>
     <row r="1374" spans="1:1">
       <c r="A1374">
-        <v>401.1901338796217</v>
+        <v>448.8826324291066</v>
       </c>
     </row>
     <row r="1375" spans="1:1">
       <c r="A1375">
-        <v>584.7562195796477</v>
+        <v>551.8361345814184</v>
       </c>
     </row>
     <row r="1376" spans="1:1">
       <c r="A1376">
-        <v>1374.390602227354</v>
+        <v>1305.955636086783</v>
       </c>
     </row>
     <row r="1377" spans="1:1">
       <c r="A1377">
-        <v>430.2421956203178</v>
+        <v>358.5156485931359</v>
       </c>
     </row>
     <row r="1378" spans="1:1">
       <c r="A1378">
-        <v>1269.814370003243</v>
+        <v>1320.465316841816</v>
       </c>
     </row>
     <row r="1379" spans="1:1">
       <c r="A1379">
-        <v>208.1820190387582</v>
+        <v>204.4520323659126</v>
       </c>
     </row>
     <row r="1380" spans="1:1">
       <c r="A1380">
-        <v>436.399951399723</v>
+        <v>401.4094109164151</v>
       </c>
     </row>
     <row r="1381" spans="1:1">
       <c r="A1381">
-        <v>344.4569145973494</v>
+        <v>327.0210110271985</v>
       </c>
     </row>
     <row r="1382" spans="1:1">
       <c r="A1382">
-        <v>330.5095361326939</v>
+        <v>277.4099508135234</v>
       </c>
     </row>
     <row r="1383" spans="1:1">
       <c r="A1383">
-        <v>247.6634869611878</v>
+        <v>258.928258348103</v>
       </c>
     </row>
     <row r="1384" spans="1:1">
       <c r="A1384">
-        <v>244.0243866077664</v>
+        <v>240.0342048716868</v>
       </c>
     </row>
     <row r="1385" spans="1:1">
       <c r="A1385">
-        <v>749.8749652257467</v>
+        <v>831.273406296761</v>
       </c>
     </row>
     <row r="1386" spans="1:1">
       <c r="A1386">
-        <v>302.1574778982805</v>
+        <v>258.0577308706993</v>
       </c>
     </row>
     <row r="1387" spans="1:1">
       <c r="A1387">
-        <v>483.8712695732654</v>
+        <v>442.5846793570944</v>
       </c>
     </row>
     <row r="1388" spans="1:1">
       <c r="A1388">
-        <v>565.3843788537953</v>
+        <v>665.7426812531446</v>
       </c>
     </row>
     <row r="1389" spans="1:1">
       <c r="A1389">
-        <v>849.8204776372837</v>
+        <v>767.3725197276856</v>
       </c>
     </row>
     <row r="1390" spans="1:1">
       <c r="A1390">
-        <v>314.7238608067337</v>
+        <v>278.0239211297122</v>
       </c>
     </row>
     <row r="1391" spans="1:1">
       <c r="A1391">
-        <v>156.0418830098419</v>
+        <v>170.844514897177</v>
       </c>
     </row>
     <row r="1392" spans="1:1">
       <c r="A1392">
-        <v>615.9570213621112</v>
+        <v>754.315315561402</v>
       </c>
     </row>
     <row r="1393" spans="1:1">
       <c r="A1393">
-        <v>442.7995811528232</v>
+        <v>419.6593139005269</v>
       </c>
     </row>
     <row r="1394" spans="1:1">
       <c r="A1394">
-        <v>477.3916570119592</v>
+        <v>536.388038659013</v>
       </c>
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395">
-        <v>950.331128143557</v>
+        <v>960.5298362180596</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
       <c r="A1396">
-        <v>292.3015019197161</v>
+        <v>321.844379722924</v>
       </c>
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397">
-        <v>230.3488393478699</v>
+        <v>209.3673253075721</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
       <c r="A1398">
-        <v>470.1794206318993</v>
+        <v>457.8301816908879</v>
       </c>
     </row>
     <row r="1399" spans="1:1">
       <c r="A1399">
-        <v>216.5597207621478</v>
+        <v>286.7201706505704</v>
       </c>
     </row>
     <row r="1400" spans="1:1">
       <c r="A1400">
-        <v>357.4890468214347</v>
+        <v>292.1919694714882</v>
       </c>
     </row>
     <row r="1401" spans="1:1">
       <c r="A1401">
-        <v>437.4538820507888</v>
+        <v>507.8349665217554</v>
       </c>
     </row>
     <row r="1402" spans="1:1">
       <c r="A1402">
-        <v>1072.413212323206</v>
+        <v>895.0597098690521</v>
       </c>
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403">
-        <v>817.346986650559</v>
+        <v>873.1959614374078</v>
       </c>
     </row>
     <row r="1404" spans="1:1">
       <c r="A1404">
-        <v>848.1745646408111</v>
+        <v>911.6993493737649</v>
       </c>
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405">
-        <v>114.6050136283791</v>
+        <v>119.3868694259127</v>
       </c>
     </row>
     <row r="1406" spans="1:1">
       <c r="A1406">
-        <v>421.4698415347794</v>
+        <v>364.0947738624322</v>
       </c>
     </row>
     <row r="1407" spans="1:1">
       <c r="A1407">
-        <v>255.1073567559941</v>
+        <v>263.4827769201245</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
       <c r="A1408">
-        <v>305.4836984914647</v>
+        <v>341.4213087024424</v>
       </c>
     </row>
     <row r="1409" spans="1:1">
       <c r="A1409">
-        <v>220.3420386450825</v>
+        <v>222.2130464112649</v>
       </c>
     </row>
     <row r="1410" spans="1:1">
       <c r="A1410">
-        <v>1485.828446443453</v>
+        <v>1214.659975041931</v>
       </c>
     </row>
     <row r="1411" spans="1:1">
       <c r="A1411">
-        <v>612.5810437307878</v>
+        <v>471.0760632283211</v>
       </c>
     </row>
     <row r="1412" spans="1:1">
       <c r="A1412">
-        <v>697.104132530258</v>
+        <v>658.5792661070769</v>
       </c>
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413">
-        <v>592.1178108711993</v>
+        <v>558.3030463202811</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
       <c r="A1414">
-        <v>698.5565983484802</v>
+        <v>759.3938379743969</v>
       </c>
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415">
-        <v>651.7607852778887</v>
+        <v>647.8481279265221</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
       <c r="A1416">
-        <v>134.5331434314503</v>
+        <v>126.5823067613308</v>
       </c>
     </row>
     <row r="1417" spans="1:1">
       <c r="A1417">
-        <v>341.3550398466284</v>
+        <v>337.1254516873659</v>
       </c>
     </row>
     <row r="1418" spans="1:1">
       <c r="A1418">
-        <v>271.9351353792973</v>
+        <v>282.9129971194577</v>
       </c>
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419">
-        <v>324.6727028982185</v>
+        <v>340.2200166901833</v>
       </c>
     </row>
     <row r="1420" spans="1:1">
       <c r="A1420">
-        <v>541.7678227946271</v>
+        <v>386.80274050589</v>
       </c>
     </row>
     <row r="1421" spans="1:1">
       <c r="A1421">
-        <v>438.5956415360885</v>
+        <v>515.9104119098644</v>
       </c>
     </row>
     <row r="1422" spans="1:1">
       <c r="A1422">
-        <v>384.2223109538804</v>
+        <v>382.5488020954473</v>
       </c>
     </row>
     <row r="1423" spans="1:1">
       <c r="A1423">
-        <v>195.3765076643069</v>
+        <v>197.3126858164891</v>
       </c>
     </row>
     <row r="1424" spans="1:1">
       <c r="A1424">
-        <v>1172.868086224406</v>
+        <v>1150.106839172686</v>
       </c>
     </row>
     <row r="1425" spans="1:1">
       <c r="A1425">
-        <v>711.139232657517</v>
+        <v>691.2283949334218</v>
       </c>
     </row>
     <row r="1426" spans="1:1">
       <c r="A1426">
-        <v>298.614389784148</v>
+        <v>292.6848346535396</v>
       </c>
     </row>
     <row r="1427" spans="1:1">
       <c r="A1427">
-        <v>296.9736315843962</v>
+        <v>284.0277269842143</v>
       </c>
     </row>
     <row r="1428" spans="1:1">
       <c r="A1428">
-        <v>265.6382255415116</v>
+        <v>254.0274057548785</v>
       </c>
     </row>
     <row r="1429" spans="1:1">
       <c r="A1429">
-        <v>467.0523693439292</v>
+        <v>435.8740919166454</v>
       </c>
     </row>
     <row r="1430" spans="1:1">
       <c r="A1430">
-        <v>304.9621123895544</v>
+        <v>334.5423618961782</v>
       </c>
     </row>
     <row r="1431" spans="1:1">
       <c r="A1431">
-        <v>994.674208244013</v>
+        <v>955.4694066333432</v>
       </c>
     </row>
     <row r="1432" spans="1:1">
       <c r="A1432">
-        <v>773.9268236863439</v>
+        <v>893.430229082692</v>
       </c>
     </row>
     <row r="1433" spans="1:1">
       <c r="A1433">
-        <v>156.5321653802054</v>
+        <v>158.4995160518021</v>
       </c>
     </row>
     <row r="1434" spans="1:1">
       <c r="A1434">
-        <v>318.8019559889296</v>
+        <v>321.1557500021408</v>
       </c>
     </row>
     <row r="1435" spans="1:1">
       <c r="A1435">
-        <v>246.8214421746989</v>
+        <v>264.6374252299247</v>
       </c>
     </row>
     <row r="1436" spans="1:1">
       <c r="A1436">
-        <v>607.7266444149927</v>
+        <v>656.2770930516133</v>
       </c>
     </row>
     <row r="1437" spans="1:1">
       <c r="A1437">
-        <v>847.0007641463579</v>
+        <v>817.9026525826006</v>
       </c>
     </row>
     <row r="1438" spans="1:1">
       <c r="A1438">
-        <v>407.3670122079888</v>
+        <v>449.6168166825487</v>
       </c>
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439">
-        <v>250.5916091463793</v>
+        <v>280.0562368686525</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
       <c r="A1440">
-        <v>262.40845341601</v>
+        <v>308.6480387768324</v>
       </c>
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441">
-        <v>277.5930766152314</v>
+        <v>286.1002368874333</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
       <c r="A1442">
-        <v>248.5509827875575</v>
+        <v>246.2431346232237</v>
       </c>
     </row>
     <row r="1443" spans="1:1">
       <c r="A1443">
-        <v>1403.508737013846</v>
+        <v>1530.982840872411</v>
       </c>
     </row>
     <row r="1444" spans="1:1">
       <c r="A1444">
-        <v>311.0768217444739</v>
+        <v>354.6212466399238</v>
       </c>
     </row>
     <row r="1445" spans="1:1">
       <c r="A1445">
-        <v>958.6813872366838</v>
+        <v>966.1958004166565</v>
       </c>
     </row>
     <row r="1446" spans="1:1">
       <c r="A1446">
-        <v>574.3666690999376</v>
+        <v>638.8401669535764</v>
       </c>
     </row>
     <row r="1447" spans="1:1">
       <c r="A1447">
-        <v>120.4848719613503</v>
+        <v>127.0900712005694</v>
       </c>
     </row>
     <row r="1448" spans="1:1">
       <c r="A1448">
-        <v>314.2833974297602</v>
+        <v>370.3620241812412</v>
       </c>
     </row>
     <row r="1449" spans="1:1">
       <c r="A1449">
-        <v>268.8744375054801</v>
+        <v>277.3995185167997</v>
       </c>
     </row>
     <row r="1450" spans="1:1">
       <c r="A1450">
-        <v>234.8599083457538</v>
+        <v>296.2087231142674</v>
       </c>
     </row>
     <row r="1451" spans="1:1">
       <c r="A1451">
-        <v>619.1336976779545</v>
+        <v>747.8677075710528</v>
       </c>
     </row>
     <row r="1452" spans="1:1">
       <c r="A1452">
-        <v>143.4845754120209</v>
+        <v>129.8132226702712</v>
       </c>
     </row>
     <row r="1453" spans="1:1">
       <c r="A1453">
-        <v>1341.134761754875</v>
+        <v>1302.217568421812</v>
       </c>
     </row>
     <row r="1454" spans="1:1">
       <c r="A1454">
-        <v>475.2936015056704</v>
+        <v>568.2364181962497</v>
       </c>
     </row>
     <row r="1455" spans="1:1">
       <c r="A1455">
-        <v>929.2373482596947</v>
+        <v>852.2232860486423</v>
       </c>
     </row>
     <row r="1456" spans="1:1">
       <c r="A1456">
-        <v>125.2951244574286</v>
+        <v>132.3254746728885</v>
       </c>
     </row>
     <row r="1457" spans="1:1">
       <c r="A1457">
-        <v>313.2811841270089</v>
+        <v>314.4354713662449</v>
       </c>
     </row>
     <row r="1458" spans="1:1">
       <c r="A1458">
-        <v>466.7969532013486</v>
+        <v>405.5545317966017</v>
       </c>
     </row>
     <row r="1459" spans="1:1">
       <c r="A1459">
-        <v>522.4312052953752</v>
+        <v>545.9322975486953</v>
       </c>
     </row>
     <row r="1460" spans="1:1">
       <c r="A1460">
-        <v>2443.679403620765</v>
+        <v>2269.224846986821</v>
       </c>
     </row>
     <row r="1461" spans="1:1">
       <c r="A1461">
-        <v>563.581073878624</v>
+        <v>659.9106457204149</v>
       </c>
     </row>
     <row r="1462" spans="1:1">
       <c r="A1462">
-        <v>407.4398812017832</v>
+        <v>494.1809027199619</v>
       </c>
     </row>
     <row r="1463" spans="1:1">
       <c r="A1463">
-        <v>357.3857451021714</v>
+        <v>374.1693316379363</v>
       </c>
     </row>
     <row r="1464" spans="1:1">
       <c r="A1464">
-        <v>574.4741004765922</v>
+        <v>717.2839384660606</v>
       </c>
     </row>
     <row r="1465" spans="1:1">
       <c r="A1465">
-        <v>236.437197899318</v>
+        <v>237.7269665263048</v>
       </c>
     </row>
     <row r="1466" spans="1:1">
       <c r="A1466">
-        <v>1452.500700688122</v>
+        <v>1494.642877030527</v>
       </c>
     </row>
     <row r="1467" spans="1:1">
       <c r="A1467">
-        <v>333.776050290484</v>
+        <v>345.0726474926042</v>
       </c>
     </row>
     <row r="1468" spans="1:1">
       <c r="A1468">
-        <v>571.5703550010865</v>
+        <v>636.3889796613201</v>
       </c>
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469">
-        <v>151.3305881406395</v>
+        <v>161.4499393248338</v>
       </c>
     </row>
     <row r="1470" spans="1:1">
       <c r="A1470">
-        <v>241.624012310708</v>
+        <v>218.339743146981</v>
       </c>
     </row>
     <row r="1471" spans="1:1">
       <c r="A1471">
-        <v>189.5411372460089</v>
+        <v>260.5277633983996</v>
       </c>
     </row>
     <row r="1472" spans="1:1">
       <c r="A1472">
-        <v>506.6326539385612</v>
+        <v>507.9780054457784</v>
       </c>
     </row>
     <row r="1473" spans="1:1">
       <c r="A1473">
-        <v>474.530308431051</v>
+        <v>442.3966539788596</v>
       </c>
     </row>
     <row r="1474" spans="1:1">
       <c r="A1474">
-        <v>754.6992543486741</v>
+        <v>732.5308110178768</v>
       </c>
     </row>
     <row r="1475" spans="1:1">
       <c r="A1475">
-        <v>117.6178049787325</v>
+        <v>118.3084204421484</v>
       </c>
     </row>
     <row r="1476" spans="1:1">
       <c r="A1476">
-        <v>444.5760942555566</v>
+        <v>342.9977093053315</v>
       </c>
     </row>
     <row r="1477" spans="1:1">
       <c r="A1477">
-        <v>303.844686784822</v>
+        <v>332.2882798080423</v>
       </c>
     </row>
     <row r="1478" spans="1:1">
       <c r="A1478">
-        <v>331.2497392050746</v>
+        <v>386.8531621648578</v>
       </c>
     </row>
     <row r="1479" spans="1:1">
       <c r="A1479">
-        <v>271.4039891062802</v>
+        <v>247.1999339821944</v>
       </c>
     </row>
     <row r="1480" spans="1:1">
       <c r="A1480">
-        <v>390.6884642914538</v>
+        <v>343.6014798772945</v>
       </c>
     </row>
     <row r="1481" spans="1:1">
       <c r="A1481">
-        <v>470.0272071170763</v>
+        <v>466.4605017733476</v>
       </c>
     </row>
     <row r="1482" spans="1:1">
       <c r="A1482">
-        <v>1001.849767654702</v>
+        <v>948.9699102045587</v>
       </c>
     </row>
     <row r="1483" spans="1:1">
       <c r="A1483">
-        <v>417.3748140028131</v>
+        <v>433.9660080948936</v>
       </c>
     </row>
     <row r="1484" spans="1:1">
       <c r="A1484">
-        <v>156.3932196554473</v>
+        <v>163.6502894505532</v>
       </c>
     </row>
     <row r="1485" spans="1:1">
       <c r="A1485">
-        <v>901.6797736731465</v>
+        <v>932.6083037009508</v>
       </c>
     </row>
     <row r="1486" spans="1:1">
       <c r="A1486">
-        <v>738.9361144224636</v>
+        <v>917.9629159713641</v>
       </c>
     </row>
     <row r="1487" spans="1:1">
       <c r="A1487">
-        <v>295.478474411607</v>
+        <v>294.3368277145854</v>
       </c>
     </row>
     <row r="1488" spans="1:1">
       <c r="A1488">
-        <v>265.9504571590853</v>
+        <v>287.2456849758094</v>
       </c>
     </row>
     <row r="1489" spans="1:1">
       <c r="A1489">
-        <v>374.1808927706221</v>
+        <v>372.052136416845</v>
       </c>
     </row>
     <row r="1490" spans="1:1">
       <c r="A1490">
-        <v>490.7480314860441</v>
+        <v>469.6304651315133</v>
       </c>
     </row>
     <row r="1491" spans="1:1">
       <c r="A1491">
-        <v>631.8240886666313</v>
+        <v>639.0306347948534</v>
       </c>
     </row>
     <row r="1492" spans="1:1">
       <c r="A1492">
-        <v>669.8647734924203</v>
+        <v>595.9429456190121</v>
       </c>
     </row>
     <row r="1493" spans="1:1">
       <c r="A1493">
-        <v>334.0625815326674</v>
+        <v>308.7182871456362</v>
       </c>
     </row>
     <row r="1494" spans="1:1">
       <c r="A1494">
-        <v>517.9226237085709</v>
+        <v>553.5242897755658</v>
       </c>
     </row>
     <row r="1495" spans="1:1">
       <c r="A1495">
-        <v>596.8183323814706</v>
+        <v>674.58720330873</v>
       </c>
     </row>
     <row r="1496" spans="1:1">
       <c r="A1496">
-        <v>941.5662427047788</v>
+        <v>874.7474904477718</v>
       </c>
     </row>
     <row r="1497" spans="1:1">
       <c r="A1497">
-        <v>704.0527101104002</v>
+        <v>664.4567119482182</v>
       </c>
     </row>
     <row r="1498" spans="1:1">
       <c r="A1498">
-        <v>277.8640496922927</v>
+        <v>280.7091035912229</v>
       </c>
     </row>
     <row r="1499" spans="1:1">
       <c r="A1499">
-        <v>2762.321568469795</v>
+        <v>2588.781016506868</v>
       </c>
     </row>
     <row r="1500" spans="1:1">
       <c r="A1500">
-        <v>279.4917875095972</v>
+        <v>296.590524991359</v>
       </c>
     </row>
     <row r="1501" spans="1:1">
       <c r="A1501">
-        <v>505.4514483317995</v>
+        <v>473.3423591488344</v>
       </c>
     </row>
     <row r="1502" spans="1:1">
       <c r="A1502">
-        <v>235.2099129067435</v>
+        <v>230.5883638262181</v>
       </c>
     </row>
     <row r="1503" spans="1:1">
       <c r="A1503">
-        <v>167.64876163274</v>
+        <v>169.0217742243334</v>
       </c>
     </row>
     <row r="1504" spans="1:1">
       <c r="A1504">
-        <v>333.7695544299694</v>
+        <v>303.4280218607794</v>
       </c>
     </row>
     <row r="1505" spans="1:1">
       <c r="A1505">
-        <v>420.170704341377</v>
+        <v>614.2998310070268</v>
       </c>
     </row>
     <row r="1506" spans="1:1">
       <c r="A1506">
-        <v>721.0000681854757</v>
+        <v>614.8297513268568</v>
       </c>
     </row>
     <row r="1507" spans="1:1">
       <c r="A1507">
-        <v>272.1065205540832</v>
+        <v>308.5469526107844</v>
       </c>
     </row>
     <row r="1508" spans="1:1">
       <c r="A1508">
-        <v>318.8425181773773</v>
+        <v>284.7888801040019</v>
       </c>
     </row>
     <row r="1509" spans="1:1">
       <c r="A1509">
-        <v>1001.138184544795</v>
+        <v>887.1049622930425</v>
       </c>
     </row>
     <row r="1510" spans="1:1">
       <c r="A1510">
-        <v>411.5920568329882</v>
+        <v>390.5968487718554</v>
       </c>
     </row>
     <row r="1511" spans="1:1">
       <c r="A1511">
-        <v>412.9939987871924</v>
+        <v>434.3492158591083</v>
       </c>
     </row>
     <row r="1512" spans="1:1">
       <c r="A1512">
-        <v>1183.325686945436</v>
+        <v>1339.569772544022</v>
       </c>
     </row>
     <row r="1513" spans="1:1">
       <c r="A1513">
-        <v>398.8504200998071</v>
+        <v>393.2659455024081</v>
       </c>
     </row>
     <row r="1514" spans="1:1">
       <c r="A1514">
-        <v>120.988335987868</v>
+        <v>119.6697739005492</v>
       </c>
     </row>
     <row r="1515" spans="1:1">
       <c r="A1515">
-        <v>143.6099715104486</v>
+        <v>130.5843901958094</v>
       </c>
     </row>
     <row r="1516" spans="1:1">
       <c r="A1516">
-        <v>294.4868173813975</v>
+        <v>304.5073659123393</v>
       </c>
     </row>
     <row r="1517" spans="1:1">
       <c r="A1517">
-        <v>667.1183693342228</v>
+        <v>678.3380112992182</v>
       </c>
     </row>
     <row r="1518" spans="1:1">
       <c r="A1518">
-        <v>265.5042248790691</v>
+        <v>258.9528546748842</v>
       </c>
     </row>
     <row r="1519" spans="1:1">
       <c r="A1519">
-        <v>246.1527965591528</v>
+        <v>212.5556373302151</v>
       </c>
     </row>
     <row r="1520" spans="1:1">
       <c r="A1520">
-        <v>439.0099875761524</v>
+        <v>484.6055885973147</v>
       </c>
     </row>
     <row r="1521" spans="1:1">
       <c r="A1521">
-        <v>327.0891332820265</v>
+        <v>307.2331895557173</v>
       </c>
     </row>
     <row r="1522" spans="1:1">
       <c r="A1522">
-        <v>117.576273840447</v>
+        <v>129.1189176210816</v>
       </c>
     </row>
     <row r="1523" spans="1:1">
       <c r="A1523">
-        <v>1066.029407471435</v>
+        <v>1060.499192006089</v>
       </c>
     </row>
     <row r="1524" spans="1:1">
       <c r="A1524">
-        <v>365.2435555827471</v>
+        <v>330.158950635295</v>
       </c>
     </row>
     <row r="1525" spans="1:1">
       <c r="A1525">
-        <v>240.957955772109</v>
+        <v>252.2298063137769</v>
       </c>
     </row>
     <row r="1526" spans="1:1">
       <c r="A1526">
-        <v>552.6395984391871</v>
+        <v>659.7817043763354</v>
       </c>
     </row>
     <row r="1527" spans="1:1">
       <c r="A1527">
-        <v>501.9636823866277</v>
+        <v>409.4121521001954</v>
       </c>
     </row>
     <row r="1528" spans="1:1">
       <c r="A1528">
-        <v>290.7126237907999</v>
+        <v>308.3301440330305</v>
       </c>
     </row>
     <row r="1529" spans="1:1">
       <c r="A1529">
-        <v>514.371969522493</v>
+        <v>699.2275737506361</v>
       </c>
     </row>
     <row r="1530" spans="1:1">
       <c r="A1530">
-        <v>905.9692341362882</v>
+        <v>907.2081155805217</v>
       </c>
     </row>
     <row r="1531" spans="1:1">
       <c r="A1531">
-        <v>309.2265295917928</v>
+        <v>293.0921902979562</v>
       </c>
     </row>
     <row r="1532" spans="1:1">
       <c r="A1532">
-        <v>1132.439736810238</v>
+        <v>1099.276294363136</v>
       </c>
     </row>
     <row r="1533" spans="1:1">
       <c r="A1533">
-        <v>358.3919822120503</v>
+        <v>409.1107137551558</v>
       </c>
     </row>
     <row r="1534" spans="1:1">
       <c r="A1534">
-        <v>435.5897068691091</v>
+        <v>520.3696129284938</v>
       </c>
     </row>
     <row r="1535" spans="1:1">
       <c r="A1535">
-        <v>348.0597619597697</v>
+        <v>376.094688174585</v>
       </c>
     </row>
     <row r="1536" spans="1:1">
       <c r="A1536">
-        <v>513.5714774783994</v>
+        <v>532.7135481273725</v>
       </c>
     </row>
     <row r="1537" spans="1:1">
       <c r="A1537">
-        <v>778.2731460973132</v>
+        <v>543.1128399756071</v>
       </c>
     </row>
     <row r="1538" spans="1:1">
       <c r="A1538">
-        <v>287.4108353327231</v>
+        <v>299.1697660011088</v>
       </c>
     </row>
     <row r="1539" spans="1:1">
       <c r="A1539">
-        <v>540.6026962649701</v>
+        <v>479.9504143959203</v>
       </c>
     </row>
     <row r="1540" spans="1:1">
       <c r="A1540">
-        <v>819.8351352474351</v>
+        <v>845.5835743948406</v>
       </c>
     </row>
     <row r="1541" spans="1:1">
       <c r="A1541">
-        <v>660.8555455167482</v>
+        <v>596.2001107959735</v>
       </c>
     </row>
     <row r="1542" spans="1:1">
       <c r="A1542">
-        <v>445.8392140367135</v>
+        <v>443.2222023556867</v>
       </c>
     </row>
     <row r="1543" spans="1:1">
       <c r="A1543">
-        <v>454.479537667445</v>
+        <v>568.5435938941781</v>
       </c>
     </row>
     <row r="1544" spans="1:1">
       <c r="A1544">
-        <v>270.5154726132095</v>
+        <v>244.9668007047001</v>
       </c>
     </row>
     <row r="1545" spans="1:1">
       <c r="A1545">
-        <v>411.4655939103284</v>
+        <v>414.2899829751847</v>
       </c>
     </row>
     <row r="1546" spans="1:1">
       <c r="A1546">
-        <v>907.848152228407</v>
+        <v>805.8618879332463</v>
       </c>
     </row>
     <row r="1547" spans="1:1">
       <c r="A1547">
-        <v>641.7900605512264</v>
+        <v>676.0521770721207</v>
       </c>
     </row>
     <row r="1548" spans="1:1">
       <c r="A1548">
-        <v>181.0325219953625</v>
+        <v>191.5717832783812</v>
       </c>
     </row>
     <row r="1549" spans="1:1">
       <c r="A1549">
-        <v>772.708512085719</v>
+        <v>877.0375028717833</v>
       </c>
     </row>
     <row r="1550" spans="1:1">
       <c r="A1550">
-        <v>312.8024816926963</v>
+        <v>284.0976767635585</v>
       </c>
     </row>
     <row r="1551" spans="1:1">
       <c r="A1551">
-        <v>268.3734092849009</v>
+        <v>246.8344170004131</v>
       </c>
     </row>
     <row r="1552" spans="1:1">
       <c r="A1552">
-        <v>2280.006908579159</v>
+        <v>2323.349502447375</v>
       </c>
     </row>
     <row r="1553" spans="1:1">
       <c r="A1553">
-        <v>602.249104735341</v>
+        <v>581.3318325478074</v>
       </c>
     </row>
     <row r="1554" spans="1:1">
       <c r="A1554">
-        <v>472.0417310281014</v>
+        <v>436.3995002763839</v>
       </c>
     </row>
     <row r="1555" spans="1:1">
       <c r="A1555">
-        <v>202.8768558687322</v>
+        <v>257.9706996379358</v>
       </c>
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556">
-        <v>795.0872746584583</v>
+        <v>753.2758286440977</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
       <c r="A1557">
-        <v>1739.863794949409</v>
+        <v>1639.520337953794</v>
       </c>
     </row>
     <row r="1558" spans="1:1">
       <c r="A1558">
-        <v>198.6007557192075</v>
+        <v>193.5599478324352</v>
       </c>
     </row>
     <row r="1559" spans="1:1">
       <c r="A1559">
-        <v>453.9768110685456</v>
+        <v>531.7082228830126</v>
       </c>
     </row>
     <row r="1560" spans="1:1">
       <c r="A1560">
-        <v>503.9146805405055</v>
+        <v>447.1682206000145</v>
       </c>
     </row>
     <row r="1561" spans="1:1">
       <c r="A1561">
-        <v>717.1052074707272</v>
+        <v>746.3052539180433</v>
       </c>
     </row>
   </sheetData>

--- a/answer8.xlsx
+++ b/answer8.xlsx
@@ -387,7802 +387,7802 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>478.6980609654431</v>
+        <v>460.1799438300949</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1072.74451002551</v>
+        <v>1337.003913372326</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>349.592726369437</v>
+        <v>353.5477482123972</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>800.6610571606204</v>
+        <v>617.1533511907202</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>346.3585753375033</v>
+        <v>363.2756188168659</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>457.8870970125749</v>
+        <v>476.8932021913912</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>681.9100662511985</v>
+        <v>683.5520316981962</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>442.1390937390741</v>
+        <v>369.3322515485858</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>408.1137013174889</v>
+        <v>355.9894434075196</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>386.2739436868306</v>
+        <v>318.8681924026163</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>295.2937424192222</v>
+        <v>297.3383370687609</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>204.0220768910832</v>
+        <v>215.9101169441207</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>203.3805418631297</v>
+        <v>198.8774384868382</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>622.7805483262189</v>
+        <v>694.4307657783036</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>353.1508282289996</v>
+        <v>351.5397415787175</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>751.637747172148</v>
+        <v>808.1722730434298</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>296.4819048037281</v>
+        <v>327.7773418544989</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1116.698092905877</v>
+        <v>1079.819716913635</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>524.6890900951443</v>
+        <v>491.6922962741905</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>298.5537477914826</v>
+        <v>264.4380726330411</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>364.1094504777712</v>
+        <v>363.421685365836</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>432.0211208851055</v>
+        <v>423.7397001036036</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>642.9259287023424</v>
+        <v>591.6287244968255</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>711.3090775532343</v>
+        <v>719.5863949935637</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>354.0754837261463</v>
+        <v>362.5127966064153</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>379.7795350702437</v>
+        <v>391.0454115871538</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>362.9849819577322</v>
+        <v>425.2157781312624</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>76.56714282315582</v>
+        <v>67.66848517337816</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>386.6736645523707</v>
+        <v>358.0224202155621</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>332.042036275453</v>
+        <v>323.1776991909864</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>307.0183050059992</v>
+        <v>310.7804517730092</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>283.2591819670919</v>
+        <v>270.1360592695327</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>304.7049260655835</v>
+        <v>277.3440704839712</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>181.0776886945627</v>
+        <v>186.7691422636368</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>930.2324948042174</v>
+        <v>985.7513616316543</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>314.7150388074355</v>
+        <v>349.4209048915544</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>287.4613256558228</v>
+        <v>309.779535174351</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>156.8787566778109</v>
+        <v>151.1286651397756</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>2304.033278088073</v>
+        <v>2183.598590303517</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>365.1746994761564</v>
+        <v>329.7852930178917</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>619.5929671917978</v>
+        <v>709.1908072270197</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>777.2921165363192</v>
+        <v>865.0561212083812</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>434.8632814114487</v>
+        <v>425.319774043038</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>412.5221317907752</v>
+        <v>346.1008661167349</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>289.8105868307471</v>
+        <v>323.0659843497877</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>249.2062846457505</v>
+        <v>259.2927093272492</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>958.4693619837049</v>
+        <v>741.3755995579659</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>386.2120554774066</v>
+        <v>415.4901088790872</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>479.010673167943</v>
+        <v>535.8251833218128</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>848.6897321894656</v>
+        <v>804.4468777231018</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>431.7294759439245</v>
+        <v>370.2594518754824</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>540.113914979398</v>
+        <v>573.2686424483414</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>227.6857721089687</v>
+        <v>217.7620862558685</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>287.6009777158653</v>
+        <v>323.906417324944</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>685.5788298866138</v>
+        <v>882.5972536523118</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>835.8887860147051</v>
+        <v>765.5632714465121</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>340.8392662925217</v>
+        <v>335.3131011708758</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1559.689051333805</v>
+        <v>1465.191959480374</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>341.3626292480188</v>
+        <v>349.9528716469078</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>430.9656794709977</v>
+        <v>382.7402866328761</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>340.7872172405092</v>
+        <v>311.6452916109619</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>496.5916028190247</v>
+        <v>505.696447102656</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>434.3824260542653</v>
+        <v>437.0233102718126</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>556.9081510559618</v>
+        <v>411.4993454488097</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>380.4531675776481</v>
+        <v>442.5213810403747</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>348.2625398471033</v>
+        <v>413.5265444107924</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>397.3169883621507</v>
+        <v>441.6775380182492</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>381.4191568615972</v>
+        <v>386.5593517230236</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>227.3251891360449</v>
+        <v>219.7755893391946</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>590.2016723393641</v>
+        <v>578.5375937399241</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>120.9761024389568</v>
+        <v>111.6621148242024</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>196.1938119269404</v>
+        <v>204.8990235129906</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>559.4022679280451</v>
+        <v>515.7597155583748</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>580.3978918159399</v>
+        <v>534.444850893634</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>275.6206691087355</v>
+        <v>245.0888824243125</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>178.4849476741704</v>
+        <v>184.7288971409355</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>281.5848039432316</v>
+        <v>268.1255001930732</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>520.8920050220087</v>
+        <v>563.844900787463</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>361.7673105316845</v>
+        <v>289.3547627855016</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>297.9577162299859</v>
+        <v>312.1504659843327</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>292.8440718716986</v>
+        <v>316.468538137897</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>427.9819302423743</v>
+        <v>430.1337122378291</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>621.961822589284</v>
+        <v>700.0016360357409</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>1107.950849351673</v>
+        <v>923.8746848824245</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>411.6432374262226</v>
+        <v>383.8129854329708</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>1107.334405284004</v>
+        <v>924.0651982270371</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>425.2894221808354</v>
+        <v>502.8304076415544</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>257.7103717750799</v>
+        <v>246.6694576338081</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>579.0779022662072</v>
+        <v>683.1848781412186</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>323.197926140828</v>
+        <v>300.3530766594138</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>490.0187032106222</v>
+        <v>545.4176744714773</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>351.3031859266922</v>
+        <v>362.3573111131348</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>351.93142984836</v>
+        <v>357.8959729831503</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>256.2539071079417</v>
+        <v>239.2162782998012</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>399.816346179872</v>
+        <v>337.9484487656406</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>646.7102299196744</v>
+        <v>652.5379781149302</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>1127.317568765672</v>
+        <v>1218.377143701687</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>109.5907895690095</v>
+        <v>106.2749249516941</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>322.1626774092355</v>
+        <v>334.6583147855296</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>109.6621573286456</v>
+        <v>105.0774288172788</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>826.2902779288102</v>
+        <v>828.0796741984013</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>313.5012883250148</v>
+        <v>309.6041341002142</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>722.0688904203092</v>
+        <v>811.3605579342153</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>332.0394828016462</v>
+        <v>362.4817355515302</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>758.2637261944741</v>
+        <v>600.476765897433</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>457.4098314138229</v>
+        <v>438.7519576764621</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>431.22720497909</v>
+        <v>402.7746064388361</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>841.1982338227533</v>
+        <v>803.1391705096108</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>777.5397516931379</v>
+        <v>958.6974863160069</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>350.6942603748222</v>
+        <v>399.1766007430576</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>311.2230578586496</v>
+        <v>326.7415277753929</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>249.3432045646621</v>
+        <v>283.6999637662511</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>205.6086367153636</v>
+        <v>201.205122529975</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>385.0485187783099</v>
+        <v>332.7678123422523</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>326.6769371604726</v>
+        <v>289.0362620439575</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>237.7839847186711</v>
+        <v>227.7761015917179</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>329.190611334125</v>
+        <v>341.8038899896235</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>368.8116909230483</v>
+        <v>325.1532433182392</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>308.5807552666151</v>
+        <v>259.6850382612948</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>492.3687237927463</v>
+        <v>456.0300107180328</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>504.1624637330523</v>
+        <v>591.3023567094162</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>274.9677052202915</v>
+        <v>297.1776112203899</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>627.6449338231138</v>
+        <v>574.384189461142</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>1106.298765175992</v>
+        <v>906.8243520439253</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>307.465790130564</v>
+        <v>304.398502479825</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>528.7939240701525</v>
+        <v>674.8188941048564</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>355.8550092570612</v>
+        <v>278.6847423370306</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>445.729917454631</v>
+        <v>471.3989314122397</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>938.703701189643</v>
+        <v>992.1604892872989</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>320.7863540525648</v>
+        <v>324.2572812752202</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>947.4579223527372</v>
+        <v>1229.193513978998</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>641.1030152214671</v>
+        <v>621.1682945532991</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>582.546531208574</v>
+        <v>449.0673617791227</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>765.3503814177765</v>
+        <v>855.7356067146975</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>232.1042735852</v>
+        <v>223.7862922926184</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>328.7775247955879</v>
+        <v>332.8633271334754</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>451.6535383263648</v>
+        <v>408.5555320098315</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>316.6471924210304</v>
+        <v>331.5804416687477</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>265.0750184300125</v>
+        <v>246.6607073374652</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>434.5990074788888</v>
+        <v>420.7874770167509</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>199.9621692685455</v>
+        <v>213.8575119630179</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>292.3121823662372</v>
+        <v>281.7836775822617</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>1241.193640424667</v>
+        <v>1133.810372237901</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>419.5127048455097</v>
+        <v>408.1981889235796</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>777.677282291243</v>
+        <v>747.0025257264932</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>1056.128547498625</v>
+        <v>1038.668151503163</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>390.7074333654174</v>
+        <v>377.3603642249184</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>470.7948176885025</v>
+        <v>501.9852110573331</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>109.094437287237</v>
+        <v>115.6233898731095</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>326.3487781990011</v>
+        <v>330.6915537093698</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>347.4258874777254</v>
+        <v>321.4838133263313</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>117.8514782908382</v>
+        <v>135.908624586142</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>410.9093820260889</v>
+        <v>417.8820275105709</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>388.9352674986545</v>
+        <v>450.1959149556083</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>490.222203288214</v>
+        <v>506.8022589799477</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>292.8879339039877</v>
+        <v>315.9666059786507</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>320.1809673357719</v>
+        <v>327.9918219821791</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>244.2392117623062</v>
+        <v>262.3676630642722</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>408.8588479651709</v>
+        <v>394.7102788461415</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>488.2791964150913</v>
+        <v>508.9644072515004</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>206.4599510499601</v>
+        <v>148.229241023664</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>342.4111770798471</v>
+        <v>337.3633475487741</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>707.3591343518274</v>
+        <v>742.077627999153</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>671.1628866853591</v>
+        <v>569.5862575932531</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>813.7670202481744</v>
+        <v>641.4212029114267</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>621.6341236899568</v>
+        <v>627.2680159888594</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>404.5608695340568</v>
+        <v>433.3559258082374</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>324.7494906821701</v>
+        <v>400.0898181806927</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>538.2523870787576</v>
+        <v>452.847587503495</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>307.3885610927057</v>
+        <v>273.1153640709085</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>428.5546664900073</v>
+        <v>487.7833267172292</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>277.8487862581489</v>
+        <v>275.6957260758809</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>353.7736530369386</v>
+        <v>334.646632618584</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>511.43383718531</v>
+        <v>474.4249194569516</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>141.4734456103672</v>
+        <v>175.5919436976418</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>326.9640046682995</v>
+        <v>413.5119417700031</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>1101.052715371641</v>
+        <v>1043.721951589282</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>296.7805512295907</v>
+        <v>332.2538800358546</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>213.3410844403676</v>
+        <v>197.5532594737786</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>471.0794567011795</v>
+        <v>375.8276680416581</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>580.3930356463818</v>
+        <v>532.6426097499333</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>304.9436909964446</v>
+        <v>359.0340759033235</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>1081.775407689127</v>
+        <v>1119.33132143076</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>541.2741239978044</v>
+        <v>594.804765354763</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>528.3659572486122</v>
+        <v>641.5339187324394</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>417.2612145564187</v>
+        <v>403.7768958187956</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>369.5166620554585</v>
+        <v>401.4785335885895</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>502.8028593297035</v>
+        <v>431.6857449730584</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>305.7198993617756</v>
+        <v>329.5172959611118</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>378.3991655092315</v>
+        <v>293.2207944521189</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>621.3413199948801</v>
+        <v>665.8044910449777</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>385.7884208016458</v>
+        <v>437.4051721921705</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>293.5509507666497</v>
+        <v>355.4134255189759</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>479.2843330269341</v>
+        <v>429.2994081046004</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>923.4533991650255</v>
+        <v>878.4889300743982</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>741.88861578159</v>
+        <v>696.1152055115223</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>407.1033105878474</v>
+        <v>382.5310450660717</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>971.8051757925064</v>
+        <v>929.0462993404625</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>213.6824822172795</v>
+        <v>229.621174606666</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>1164.92500509347</v>
+        <v>1068.204087569904</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>162.3442769480348</v>
+        <v>154.3629892773555</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>205.9306649195949</v>
+        <v>253.7977379631046</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>267.1113105443516</v>
+        <v>299.7039847228113</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>327.15468478142</v>
+        <v>308.48630188713</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>436.7885612224498</v>
+        <v>403.4395705483669</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>474.1387093700361</v>
+        <v>544.6029528493016</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>816.1258130296038</v>
+        <v>808.5224735916827</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>514.3083246048532</v>
+        <v>518.9916110395138</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>332.2978281427358</v>
+        <v>290.1172787298906</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>613.8383443909148</v>
+        <v>601.7711536613474</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>584.024338809808</v>
+        <v>449.4069781745216</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>150.6960983504915</v>
+        <v>112.8432178285057</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>798.9198820432089</v>
+        <v>764.9825195205071</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>722.0470426623617</v>
+        <v>733.9536697283489</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>383.8182111088466</v>
+        <v>387.2821874091024</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>483.1464523422101</v>
+        <v>605.4411378727594</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>584.7929216806436</v>
+        <v>729.4155211526805</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>380.9118618593826</v>
+        <v>356.7563160022562</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>574.0521374884016</v>
+        <v>585.6016064005647</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>167.2205575635297</v>
+        <v>166.5969505147625</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>877.0302310739438</v>
+        <v>846.181315161119</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>162.2614529324164</v>
+        <v>152.2097895227555</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>498.0336401920404</v>
+        <v>423.8441990892637</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>388.0192375597685</v>
+        <v>367.2231674108781</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>1283.822355133083</v>
+        <v>1041.911783100897</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>321.2121014769057</v>
+        <v>306.3045031376528</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>484.512046734666</v>
+        <v>465.6213376508689</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>541.687916322513</v>
+        <v>567.1479724210988</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>344.0892564590978</v>
+        <v>304.2333431066976</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>413.875466008144</v>
+        <v>397.3741418716956</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>593.1961285523147</v>
+        <v>651.3230743958823</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>330.8926316673719</v>
+        <v>334.0160740850041</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>321.6007982010146</v>
+        <v>327.8105411307973</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>172.6191296811187</v>
+        <v>178.774130527252</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>275.9012317592888</v>
+        <v>268.360975736041</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>904.9864615430299</v>
+        <v>909.0659214646007</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>468.6779389984865</v>
+        <v>440.6202019761617</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>404.2015946239677</v>
+        <v>402.0588827506484</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>717.8331742039403</v>
+        <v>670.9591069198342</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>361.812239037412</v>
+        <v>320.0375767145634</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1151.395064269539</v>
+        <v>1235.833387607382</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>288.1778580176784</v>
+        <v>296.3258925399647</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>544.3302764295142</v>
+        <v>419.4770707040119</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>307.9847717775918</v>
+        <v>303.8476766035635</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>317.8866857349886</v>
+        <v>384.1439269647441</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>132.0312120993476</v>
+        <v>127.7785334757705</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>523.9076811882824</v>
+        <v>572.8222621280179</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>756.9357081770299</v>
+        <v>905.0375885989155</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>594.1463616267797</v>
+        <v>584.6801330982624</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>182.8575631185838</v>
+        <v>221.6504272875823</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>260.2636068189759</v>
+        <v>268.6301457885969</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>288.5415063745453</v>
+        <v>361.2601486266623</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>1150.473804360468</v>
+        <v>1031.508114653186</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>417.1473422145956</v>
+        <v>469.8710257311755</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>394.922395885986</v>
+        <v>334.9928696184631</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>483.2093859560473</v>
+        <v>514.5861789327219</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>376.8740367132439</v>
+        <v>349.609790539827</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>427.4869696274351</v>
+        <v>394.8609236815539</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>471.2707174666887</v>
+        <v>459.8027743092528</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>297.8147104923061</v>
+        <v>282.3296423546169</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>508.093309043393</v>
+        <v>481.6529756518325</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>796.5123733296033</v>
+        <v>843.3068383169293</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>290.0975182860399</v>
+        <v>277.9519106519812</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>388.6781720608282</v>
+        <v>349.8334697055077</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>965.3621268935341</v>
+        <v>1092.690710770758</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>1005.309880347368</v>
+        <v>1045.207449916074</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>253.5214703133528</v>
+        <v>241.3955598852631</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>265.4823350110568</v>
+        <v>269.1900355702929</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>306.0369709557483</v>
+        <v>334.531446453241</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>222.7128578346163</v>
+        <v>215.2114416403562</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>314.0974684479363</v>
+        <v>310.663046088081</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>481.2698779880073</v>
+        <v>526.5439422167101</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>857.775120267836</v>
+        <v>989.6602525040122</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>224.1100020310931</v>
+        <v>237.3311096220806</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>307.446754351196</v>
+        <v>321.2782382249732</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>440.4791414422988</v>
+        <v>472.5136574682227</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>198.527058655927</v>
+        <v>196.8804001245732</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>268.9205383308388</v>
+        <v>283.765850315566</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>504.3144253555311</v>
+        <v>485.0972693562277</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>693.416373043005</v>
+        <v>597.3525257135982</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>433.3878405510094</v>
+        <v>435.5814778355746</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>231.6428016425836</v>
+        <v>235.6469769066344</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>364.5949417629844</v>
+        <v>349.0304710954106</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>711.9174334769042</v>
+        <v>896.2383350967895</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>354.6376941555016</v>
+        <v>363.9514443353851</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>272.7177561713382</v>
+        <v>270.3779257414723</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>317.1676170529</v>
+        <v>326.6797523568953</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>1133.024194410988</v>
+        <v>1185.705528639275</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>346.4111790850431</v>
+        <v>355.3387794637935</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>312.875007552719</v>
+        <v>361.6090109211259</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>530.5662668761404</v>
+        <v>485.9128948747679</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>397.1037765799214</v>
+        <v>402.684326466798</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>351.7169700688102</v>
+        <v>365.9525706845226</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>173.2798274155957</v>
+        <v>165.9222305604329</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>334.5304259568003</v>
+        <v>285.0811104120186</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>343.5385146899056</v>
+        <v>344.6382418936996</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>869.6812889928602</v>
+        <v>855.378914405385</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>399.1659094958753</v>
+        <v>386.3615305245652</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>353.0808368553112</v>
+        <v>267.7502997969116</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>289.2826312855896</v>
+        <v>284.3459754067292</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>277.1592942656533</v>
+        <v>275.304268900548</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>444.1026573792521</v>
+        <v>453.7244853628097</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>249.876856840808</v>
+        <v>241.7586659487659</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>290.5190670649035</v>
+        <v>305.5752384248535</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>332.4158634628743</v>
+        <v>265.8069427101643</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>1073.294478441743</v>
+        <v>956.4530001062054</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>293.169202618079</v>
+        <v>349.309374245554</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>274.9561765150719</v>
+        <v>281.3907002441373</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>455.2577209500646</v>
+        <v>438.7769481062792</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>663.9090187126237</v>
+        <v>746.6589630974224</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>113.3447527675319</v>
+        <v>116.3417595434036</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>669.7573864836239</v>
+        <v>727.6774297468536</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>318.1809803780731</v>
+        <v>322.4441266919371</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>375.9427971751253</v>
+        <v>487.9088674854594</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>627.331950727923</v>
+        <v>635.842483537915</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>347.0297729033952</v>
+        <v>413.9151135287066</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>269.288635343472</v>
+        <v>299.0130661192159</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>823.73395566226</v>
+        <v>832.6495677215769</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>576.3629691679702</v>
+        <v>510.5516229305215</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>154.3652968954715</v>
+        <v>142.3526222999845</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>172.9395217492892</v>
+        <v>167.7137094217897</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>611.9704474926864</v>
+        <v>620.1959859648005</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>566.7447524028554</v>
+        <v>676.8898169868417</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>550.5736756779536</v>
+        <v>553.2718179034014</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>423.4441793855698</v>
+        <v>428.0440607305217</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>261.5977711508422</v>
+        <v>223.975534406344</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>420.0974395750404</v>
+        <v>418.0166261474312</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>1350.217457188187</v>
+        <v>1322.462531577426</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>520.6586432240007</v>
+        <v>556.0292354286983</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>698.0475043608293</v>
+        <v>684.2692912411877</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>448.835287572641</v>
+        <v>513.0249182449846</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>232.6428125363742</v>
+        <v>230.72025168215</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>598.7437981212826</v>
+        <v>731.4224162025534</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>373.1414620470762</v>
+        <v>417.3236512790169</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>263.6251944862896</v>
+        <v>265.9032893915168</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>472.6200201649912</v>
+        <v>439.9171084747201</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>622.923916038052</v>
+        <v>557.4287514024186</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>254.7320867558635</v>
+        <v>233.4541436955915</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>381.8389374636922</v>
+        <v>377.9540463516753</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>326.9427153825217</v>
+        <v>378.6249553278388</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>397.7347439527163</v>
+        <v>400.613393486603</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>308.4343715273244</v>
+        <v>294.3726832981101</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>935.581956308814</v>
+        <v>774.4347085767857</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>352.8427666022705</v>
+        <v>340.711315756944</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>306.1661706984581</v>
+        <v>291.6801717620149</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>618.1371915474139</v>
+        <v>582.1686439003504</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>427.1408182049252</v>
+        <v>397.4342854045843</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>553.0058832962825</v>
+        <v>490.5921538624759</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>1455.396587385766</v>
+        <v>1405.495591336829</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>206.274486867348</v>
+        <v>206.7435144195218</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>336.4691127166807</v>
+        <v>349.2897286304918</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>231.9236302657659</v>
+        <v>217.550633822958</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>235.2300238098761</v>
+        <v>259.2719370985827</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>1769.689795264153</v>
+        <v>1488.464857388955</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>1072.509864593481</v>
+        <v>1340.331860551789</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>180.1507872576943</v>
+        <v>202.6238624703799</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>423.9924274054229</v>
+        <v>486.5273466040194</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>340.2864302646076</v>
+        <v>372.4189781978062</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>370.1021269790049</v>
+        <v>352.1711560172918</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>138.7905442785582</v>
+        <v>138.902984174832</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>392.5900295900899</v>
+        <v>432.5659168810914</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>265.4997067919098</v>
+        <v>262.5904904099405</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>292.0278804799349</v>
+        <v>276.500269505107</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>894.1502306135811</v>
+        <v>917.5777699288925</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>385.4872706283714</v>
+        <v>338.9095547941724</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>341.8155367685552</v>
+        <v>350.7428601775964</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>286.3129268099515</v>
+        <v>305.9997108900088</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>269.0158969989627</v>
+        <v>254.5169013434065</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>813.1658401781973</v>
+        <v>944.0903707898038</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>185.8444032488102</v>
+        <v>225.9812798561387</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>465.0464970262705</v>
+        <v>467.6817758911942</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>363.6876274181889</v>
+        <v>408.8123350870715</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>223.2666521725184</v>
+        <v>256.7505726141338</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>246.5914778014579</v>
+        <v>258.4914718947586</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>259.4949477253756</v>
+        <v>258.1256213840138</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>210.367805645838</v>
+        <v>209.3031683921016</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>299.3898274393845</v>
+        <v>360.4825039919388</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>260.7562648551747</v>
+        <v>245.1971173062655</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>351.2709189384645</v>
+        <v>352.9820579292709</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>1167.66031298404</v>
+        <v>1077.414526733177</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>349.9128329246049</v>
+        <v>341.7576773849707</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>431.0944345440533</v>
+        <v>422.2167861179136</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>360.9124589540768</v>
+        <v>389.4522926480218</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>1216.141461804742</v>
+        <v>1139.804816006254</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>277.8906220070929</v>
+        <v>264.7439638882277</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>242.4601817594868</v>
+        <v>230.6101549189393</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>566.4592759717983</v>
+        <v>632.3206362545247</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>751.9909439770162</v>
+        <v>671.3468501984669</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>596.705473582041</v>
+        <v>456.7340300074113</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>426.3822073782474</v>
+        <v>390.5551422238205</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>583.7668495499129</v>
+        <v>591.34743023408</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>637.6973573850873</v>
+        <v>622.4629837611905</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>804.3434927400269</v>
+        <v>765.0028686969955</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>311.7621586455606</v>
+        <v>367.3016634914211</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>398.208224734379</v>
+        <v>400.1115580893967</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>306.338649076464</v>
+        <v>337.4747608698569</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>397.6899126749331</v>
+        <v>469.3485777585524</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>375.2453067824772</v>
+        <v>389.0847435017153</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>519.806061479003</v>
+        <v>586.6231441825369</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>288.3534496535582</v>
+        <v>286.3955335907995</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>288.0655027802289</v>
+        <v>278.5641632345126</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>383.7690740424008</v>
+        <v>346.2321724772228</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>308.0127177199786</v>
+        <v>314.0217803873107</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>990.5488430145568</v>
+        <v>804.6207084187828</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>362.9433123296934</v>
+        <v>350.8180980051763</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>824.435342170455</v>
+        <v>853.8670504888753</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>189.356175404842</v>
+        <v>193.7441570265451</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>568.1118475238909</v>
+        <v>686.2913521950017</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>819.8355965622477</v>
+        <v>730.434075595078</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>230.3477453207504</v>
+        <v>219.1288331688673</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>971.2729136076927</v>
+        <v>1009.952565183434</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>485.2773135707176</v>
+        <v>524.3597208360284</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>952.4554941975354</v>
+        <v>1034.634348846796</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>730.9383474642136</v>
+        <v>589.1024570424452</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>636.5905084353343</v>
+        <v>685.2560972312972</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>558.7438923270785</v>
+        <v>722.6678214751637</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>372.4319187845659</v>
+        <v>368.7422751578461</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>1109.53892041479</v>
+        <v>1025.587574069535</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>305.613205384295</v>
+        <v>288.2907409578685</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>308.298955377027</v>
+        <v>326.9192323643823</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>381.3546237505321</v>
+        <v>409.6300786774178</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>639.9755776407934</v>
+        <v>647.110469993716</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>262.8590411460112</v>
+        <v>277.6703056199984</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>304.1966901606676</v>
+        <v>308.7540714469942</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>704.00758666409</v>
+        <v>694.97517258678</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>288.2981990199594</v>
+        <v>333.0753518454176</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>365.4386997929564</v>
+        <v>369.284926228316</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>269.4578402932659</v>
+        <v>289.4257011967381</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>498.7953617987723</v>
+        <v>474.2323912454215</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>543.105631781968</v>
+        <v>650.6537278314945</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>370.6725475198489</v>
+        <v>382.5437746458778</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>1068.32090328106</v>
+        <v>998.1335767132068</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>420.4226464253551</v>
+        <v>458.0787798794371</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>398.7146671185006</v>
+        <v>320.2607567442246</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>1018.713842908249</v>
+        <v>1042.758681371475</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>264.3432219471084</v>
+        <v>244.2825579381986</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>236.4975191764527</v>
+        <v>267.8838433025686</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>104.5726429122231</v>
+        <v>97.42621915108418</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>387.3399013602523</v>
+        <v>519.4484506455966</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>321.5252513679833</v>
+        <v>323.4442850194946</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>429.6231384143577</v>
+        <v>463.4434560265936</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>737.5720960391964</v>
+        <v>797.3927903033417</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>264.5190058812278</v>
+        <v>257.7405879624206</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>375.8215901410101</v>
+        <v>382.2685669043551</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>230.8897051147293</v>
+        <v>219.8991790151825</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>255.9056626331648</v>
+        <v>260.8930078311442</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>659.0150712835876</v>
+        <v>654.6468545168267</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>264.6233030604442</v>
+        <v>306.2166544139599</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>306.7891499023315</v>
+        <v>300.2394694782064</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>314.7522885695866</v>
+        <v>312.3415754031536</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>366.8487469132586</v>
+        <v>379.568544947936</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>170.8353253519467</v>
+        <v>173.6297092170543</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>264.6090699939618</v>
+        <v>254.9182048836025</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>474.7422253166413</v>
+        <v>507.0783347874564</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>416.9349983421596</v>
+        <v>484.208616735332</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>349.6611689595736</v>
+        <v>301.191379211269</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>354.7915149650655</v>
+        <v>371.8848361456083</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>210.6897473738918</v>
+        <v>204.7148684340155</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>303.6372174279873</v>
+        <v>309.9213258486129</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>1129.828181494869</v>
+        <v>1191.71397900941</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>255.195172858228</v>
+        <v>347.2876306355267</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>732.4630806615846</v>
+        <v>600.678260178301</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>405.9275587134903</v>
+        <v>360.4650651451277</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>527.0615285297564</v>
+        <v>601.6768650648453</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>274.299209354932</v>
+        <v>286.1322524005321</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>398.9538297893393</v>
+        <v>385.9702072606817</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>185.1816276475558</v>
+        <v>180.6276348670005</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>303.589697551759</v>
+        <v>261.4233185392939</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>279.0989667629088</v>
+        <v>309.8388880248037</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>454.7066858202896</v>
+        <v>455.1266480533162</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>370.0675397527457</v>
+        <v>359.4325312220744</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>1119.316453742103</v>
+        <v>874.2104579981395</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>302.6102731025528</v>
+        <v>304.8119461135374</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>260.9360386636941</v>
+        <v>283.3233398708608</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>386.2825011669584</v>
+        <v>345.8709307824564</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>421.8758636548922</v>
+        <v>416.5548776258044</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>789.1289563338021</v>
+        <v>607.4320447316762</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>739.9533485333752</v>
+        <v>551.9686612176298</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>137.1792945792311</v>
+        <v>136.6995501153625</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>433.8514020582471</v>
+        <v>459.6686094557427</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>516.5865273968739</v>
+        <v>603.7501491611033</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>477.1221273844148</v>
+        <v>538.422021152103</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>404.6470976958335</v>
+        <v>474.5313708212736</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>120.4308358553217</v>
+        <v>121.0058178723537</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>467.8064443860525</v>
+        <v>468.1502452368725</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>435.5039671411004</v>
+        <v>387.1545121529972</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>453.9077391284701</v>
+        <v>452.7104209159392</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>976.9370895992258</v>
+        <v>1040.995739069782</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>738.524454337263</v>
+        <v>646.930581703213</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>258.1510919606203</v>
+        <v>242.6702585221148</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>799.8809926238182</v>
+        <v>921.7295287644905</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>408.2879994468377</v>
+        <v>339.5275389045871</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>368.494261441039</v>
+        <v>376.4150908505857</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>199.8705170985917</v>
+        <v>181.2192948017126</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>892.6787468830709</v>
+        <v>838.6169183061402</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>787.528476238321</v>
+        <v>592.3876637756349</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>626.157376213369</v>
+        <v>567.8220428443877</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>266.1303071668026</v>
+        <v>266.1939445695082</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>370.3342510263207</v>
+        <v>362.9452487835295</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>226.1573374434712</v>
+        <v>308.1758883692347</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>271.2984180046916</v>
+        <v>272.2019036343683</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>230.6833898012736</v>
+        <v>231.3714261821864</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>372.2198756545786</v>
+        <v>405.3841731345364</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>156.6588157820612</v>
+        <v>158.9461652365588</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>206.878410246782</v>
+        <v>254.8717198245651</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>272.0983166524355</v>
+        <v>269.6283488465731</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>729.8053659882287</v>
+        <v>677.4723252785534</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>121.0945642745087</v>
+        <v>130.5878555252745</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>478.4266765214599</v>
+        <v>423.8273447615137</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>291.2449806690715</v>
+        <v>297.7441858940059</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>244.5226093987376</v>
+        <v>227.1741671949745</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>1303.414290938329</v>
+        <v>1838.775927810152</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>267.2770842790289</v>
+        <v>266.1614541520885</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>370.1610599561072</v>
+        <v>430.3927319300241</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>315.5634569957414</v>
+        <v>341.1562022098413</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>270.6969249449752</v>
+        <v>290.811845420738</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>271.7307344184356</v>
+        <v>236.9774061648968</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>516.2778299534015</v>
+        <v>562.0780929486111</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>470.7182970868325</v>
+        <v>432.8972594111277</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>341.0211982715161</v>
+        <v>354.5868680414883</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>240.8888673411015</v>
+        <v>251.2249965003512</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>375.8521167916743</v>
+        <v>363.4151172038252</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>346.7363362488022</v>
+        <v>345.502987367426</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>401.3849427787395</v>
+        <v>314.8080688474925</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>146.8874339046416</v>
+        <v>134.5620089975791</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>740.505464724993</v>
+        <v>721.2627260693017</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>328.8705875236153</v>
+        <v>353.7606566459052</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>357.1910985667163</v>
+        <v>350.2551316099731</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>448.3091406614244</v>
+        <v>442.2485602122456</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>830.0882974460338</v>
+        <v>941.3783259162614</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>235.2162662189689</v>
+        <v>174.3584147877458</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>320.7100876615788</v>
+        <v>289.1426832622229</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>374.7142076472936</v>
+        <v>372.2208777872972</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>522.9487965159921</v>
+        <v>502.5038531783269</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>296.4396262775865</v>
+        <v>279.0910671450276</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>237.9759344017885</v>
+        <v>252.3062133676541</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>877.1702752646726</v>
+        <v>889.7820742167065</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>315.0564180906395</v>
+        <v>309.7007464546499</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>1052.204186607243</v>
+        <v>1200.228392282143</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>356.7039195487438</v>
+        <v>360.8031990668445</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>464.3504835070864</v>
+        <v>411.2567832273687</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>197.5905083589533</v>
+        <v>178.527424276461</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>373.7921587097613</v>
+        <v>427.9167229050797</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>182.5789494233795</v>
+        <v>193.0540478785888</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>481.779097427234</v>
+        <v>520.011579492912</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>329.2926418722608</v>
+        <v>353.3423644352034</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>233.6211330416833</v>
+        <v>257.0583467211074</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>297.8398235110826</v>
+        <v>293.3293922335595</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>291.7585936188899</v>
+        <v>267.0851362517367</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>535.0618106721134</v>
+        <v>581.3402552124079</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>1157.273887050141</v>
+        <v>1055.541372537469</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>246.6884350433346</v>
+        <v>327.9937960253222</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>187.4971296236199</v>
+        <v>177.1455977454543</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>1006.742527552308</v>
+        <v>935.3311790913095</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>301.6740783045109</v>
+        <v>324.3899324749187</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>172.6209171432671</v>
+        <v>164.5174719232015</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>648.7159415491823</v>
+        <v>727.2791992204343</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>483.0341905244656</v>
+        <v>483.3993022966474</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>1029.095196128775</v>
+        <v>1001.9518165244</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>627.6796081100024</v>
+        <v>576.5651518570205</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>909.3148600894973</v>
+        <v>897.7668635138456</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>260.9411732834057</v>
+        <v>320.9287097509039</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>270.3476406675983</v>
+        <v>282.6919902609937</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>319.2528216099609</v>
+        <v>338.7729167754429</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>1200.088619223449</v>
+        <v>1170.071992386713</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>539.9759986146158</v>
+        <v>517.9754748648411</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>764.114841790324</v>
+        <v>798.5071127328695</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>217.2874463889563</v>
+        <v>209.0118962151662</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>434.6328787096052</v>
+        <v>431.6805994100454</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>285.5998935843901</v>
+        <v>284.418255129551</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>532.5511997474422</v>
+        <v>467.2850383803643</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>296.3925569650349</v>
+        <v>295.0726565785432</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>236.9346793274324</v>
+        <v>242.5871551737502</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>290.2963408125604</v>
+        <v>291.7466852090624</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>166.9734158404323</v>
+        <v>162.6244204107166</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>1177.260770497561</v>
+        <v>1073.593572166314</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>415.1243302943511</v>
+        <v>358.8880798681578</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>412.3780491838203</v>
+        <v>404.3989520918059</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>326.8597608671826</v>
+        <v>328.7243441126901</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>338.3117648443393</v>
+        <v>321.5134212047978</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>190.9296481020495</v>
+        <v>191.2231079380704</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>255.7661841563118</v>
+        <v>253.3214017673538</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>486.5840686096417</v>
+        <v>506.0795825312823</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>654.5341224502791</v>
+        <v>687.4436795956802</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>258.1819173613617</v>
+        <v>241.1940279464842</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>308.1069406362903</v>
+        <v>308.2503102136307</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>300.4337485064882</v>
+        <v>293.7272741708886</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>326.8360597220547</v>
+        <v>365.5595331322742</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>251.201899064248</v>
+        <v>258.3469688623877</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>305.3033917713989</v>
+        <v>312.7588958906055</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>326.3107427926441</v>
+        <v>280.8205829772369</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>592.6171689418427</v>
+        <v>499.9583686470757</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>400.962868402449</v>
+        <v>411.6754748463571</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>503.0972713735106</v>
+        <v>455.9699198378697</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>272.9275857113446</v>
+        <v>239.9891062229521</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>420.5355998653247</v>
+        <v>480.2563363410762</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>134.7719607043112</v>
+        <v>132.174915898719</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>401.469144457457</v>
+        <v>295.4862699788307</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>583.5790096829002</v>
+        <v>500.6245650589188</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>725.9501975286137</v>
+        <v>679.3847783435812</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>430.3444850488331</v>
+        <v>456.1523765423743</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>206.8156973646527</v>
+        <v>206.1394489094829</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>1335.48164741204</v>
+        <v>1097.456784514955</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>746.6104639280795</v>
+        <v>700.1729820438098</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>284.3314365509855</v>
+        <v>282.2699472678699</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>313.4630542226919</v>
+        <v>303.8667917507402</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>274.0501225114339</v>
+        <v>274.9652688695174</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>225.6474167380419</v>
+        <v>218.2734110341146</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>211.1971760857324</v>
+        <v>235.5313109933153</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>345.4750991040998</v>
+        <v>326.184616089486</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>519.1933603087639</v>
+        <v>529.3498147083553</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>340.6543634611155</v>
+        <v>333.7512770063985</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>313.7085521372396</v>
+        <v>343.3498752822569</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>445.1389594814984</v>
+        <v>454.1842900640055</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>712.2342146787638</v>
+        <v>670.9832829184354</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>386.4920545584349</v>
+        <v>357.4853285741228</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>582.6327074480655</v>
+        <v>624.4935176687193</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>260.3073947454814</v>
+        <v>310.6438914018303</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>355.9857052307498</v>
+        <v>424.8073600236627</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>287.5453417914691</v>
+        <v>272.6275416175188</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>363.8377774004302</v>
+        <v>295.3111266838118</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>469.2081939774611</v>
+        <v>518.8759317522789</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>378.6522291226154</v>
+        <v>397.2432787650806</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>316.3321206035096</v>
+        <v>335.5567695793066</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>290.0663690524929</v>
+        <v>303.1832405840341</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>265.395523428485</v>
+        <v>323.0228593983049</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>586.5126092916213</v>
+        <v>502.3927205161281</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>334.6036193920465</v>
+        <v>340.4345853737706</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>371.6282418540821</v>
+        <v>409.3491684732301</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>413.9729997333586</v>
+        <v>428.0534844114547</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>259.6335695033198</v>
+        <v>280.6544641750292</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>508.4926934418765</v>
+        <v>515.8514088223747</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>219.1128479480321</v>
+        <v>209.4112841225158</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>2183.272864927668</v>
+        <v>2201.597020271397</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>473.2049034922319</v>
+        <v>445.1102688832195</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>230.5276675919241</v>
+        <v>238.541192695559</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>307.3772153158786</v>
+        <v>289.333824172374</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>407.0078350590213</v>
+        <v>338.5143993618593</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>311.3328690457161</v>
+        <v>253.5067712537194</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>592.5682896577894</v>
+        <v>547.7314398659619</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>274.8459063936875</v>
+        <v>268.0535869855544</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>468.7403420766802</v>
+        <v>411.1233742471739</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>231.6166014287971</v>
+        <v>248.5196458123419</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>70.34684035259627</v>
+        <v>71.91753954654156</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>300.4558766984549</v>
+        <v>284.0991890283942</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>340.0030827715217</v>
+        <v>321.5255840472569</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>376.3203615736834</v>
+        <v>403.9921781270448</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>508.7559904361793</v>
+        <v>446.684418851387</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>903.2470217066616</v>
+        <v>815.4782813031608</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>316.4045452317905</v>
+        <v>369.0334453749554</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>362.7575608840072</v>
+        <v>336.2706917367597</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>257.7074431046685</v>
+        <v>261.5781469937408</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>572.7177402189377</v>
+        <v>497.7083768628344</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>421.1194940536221</v>
+        <v>460.5686649853591</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>566.5356637681457</v>
+        <v>505.0606623876172</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>229.3034741913912</v>
+        <v>181.6542030804984</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>98.8534398013504</v>
+        <v>80.86881519408728</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>269.4419785701045</v>
+        <v>255.8851118884674</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>667.7421251176789</v>
+        <v>708.227537679849</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>243.9745458993658</v>
+        <v>228.4124507010851</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>303.8641156209289</v>
+        <v>320.6260854540466</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>242.5491097606933</v>
+        <v>273.4269701074351</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>354.5513583533347</v>
+        <v>356.1213609842575</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>273.1717248656777</v>
+        <v>271.980210190575</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>249.2007640716597</v>
+        <v>245.6585088295636</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>363.5898311584817</v>
+        <v>358.1271220769812</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>306.0514520781861</v>
+        <v>361.9292108000432</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>366.8315434488804</v>
+        <v>368.1044008390882</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>550.0450170745142</v>
+        <v>605.1799477450161</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>780.8394764659619</v>
+        <v>678.4037743930729</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>277.8194281723058</v>
+        <v>295.3820481889981</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>411.9344485797283</v>
+        <v>332.289356045518</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>289.2233981169477</v>
+        <v>285.416962597375</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>272.7041372756246</v>
+        <v>281.2326371144864</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>492.5974047060438</v>
+        <v>642.7601286020949</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>296.0890342234604</v>
+        <v>271.0127923830315</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>1210.592054050773</v>
+        <v>1259.656880500406</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>344.9712578495361</v>
+        <v>353.5687743700001</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>197.6112972547739</v>
+        <v>198.9633572422611</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>254.0243256995411</v>
+        <v>249.9066215139976</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>593.1850105698023</v>
+        <v>591.5412296076252</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>749.5818529719794</v>
+        <v>938.1694991269973</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>392.1706619478771</v>
+        <v>378.5443961229637</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>314.6759685193633</v>
+        <v>386.5774648446774</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>236.5847975141172</v>
+        <v>239.0575604735353</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>321.2828788902009</v>
+        <v>328.3782748417223</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>460.322417541865</v>
+        <v>449.7602274968567</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>370.4109198708711</v>
+        <v>345.3620814439049</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>457.9752405401462</v>
+        <v>453.3772146750274</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>374.202518595996</v>
+        <v>314.2586355674554</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>123.7053132783768</v>
+        <v>120.9338130544655</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>256.0225978739036</v>
+        <v>259.4383118723488</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>506.0659246873407</v>
+        <v>439.9422657404403</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>393.4345399174185</v>
+        <v>415.3495173525981</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>349.1347000853436</v>
+        <v>335.5817936425578</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>506.1531889854602</v>
+        <v>492.2070280600091</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>502.9811822187291</v>
+        <v>512.296294875419</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>565.8343289631183</v>
+        <v>503.8792088138796</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>221.6804316838811</v>
+        <v>229.3947580253702</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>458.0287376119845</v>
+        <v>460.4607959075447</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>210.3796796242642</v>
+        <v>239.8334550088646</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>469.6707934182988</v>
+        <v>477.837714168006</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>365.0727487284519</v>
+        <v>525.0656295409941</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>1299.733508058958</v>
+        <v>1021.938402666632</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>281.5944983550058</v>
+        <v>274.089330918578</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>471.9037977520182</v>
+        <v>464.4621972066616</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>305.7589010198371</v>
+        <v>337.3993478157375</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>434.3767347971301</v>
+        <v>464.3643907842759</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>440.059950657479</v>
+        <v>468.6174267416021</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>1094.19377611019</v>
+        <v>1348.948903350055</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>410.569636881853</v>
+        <v>451.8676257944517</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>257.6224587039575</v>
+        <v>292.8940939787149</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>580.2423725910063</v>
+        <v>570.0654329580645</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>508.911340475052</v>
+        <v>502.6983812334963</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>435.0794722742661</v>
+        <v>450.1355938458794</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>343.9588411746705</v>
+        <v>334.7280821884734</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>1139.440234535134</v>
+        <v>1118.531606462714</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>517.9004847125875</v>
+        <v>633.0510328940113</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>380.6690041183489</v>
+        <v>375.4323556059061</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>728.6540139430671</v>
+        <v>702.2745501962055</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>484.2828067082998</v>
+        <v>499.5196504264971</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>1242.325467232719</v>
+        <v>1289.98206816691</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>777.0488248087854</v>
+        <v>929.1006270510544</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>432.5211138069368</v>
+        <v>352.8838706254202</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>506.9486386092661</v>
+        <v>499.6796601111915</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>341.6614587378563</v>
+        <v>351.7583285802627</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>1101.504296422978</v>
+        <v>1130.439222640253</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>487.0954308715801</v>
+        <v>460.8097791110295</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>392.398254950054</v>
+        <v>342.522353068427</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>338.9667059294184</v>
+        <v>312.0050006007643</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>422.0617848540757</v>
+        <v>402.0245347765485</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>271.5547302985005</v>
+        <v>286.0530892305053</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>492.7614344947261</v>
+        <v>498.9173310148838</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>490.5573798505625</v>
+        <v>440.5157424728291</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>1107.513353540713</v>
+        <v>1374.643440490522</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>330.4890505960105</v>
+        <v>426.5932121381101</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>918.3521976796543</v>
+        <v>928.6199083748739</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>519.7595836114939</v>
+        <v>555.8610839889481</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>172.0292586892121</v>
+        <v>200.5224337402282</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>321.4444760442984</v>
+        <v>304.2656638620479</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>240.5206043408092</v>
+        <v>216.5473873127615</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>213.0536074179994</v>
+        <v>270.5848398997873</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>462.9862621789018</v>
+        <v>404.1046776647254</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>169.2635168507148</v>
+        <v>171.9022568013677</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>224.7051051316958</v>
+        <v>231.2538535012836</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>351.8557671591888</v>
+        <v>346.4009195269988</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>459.8895062860278</v>
+        <v>398.4709682225545</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>333.5907981332022</v>
+        <v>281.8565930642448</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>354.7244768773286</v>
+        <v>322.6851971178361</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>399.3467889569803</v>
+        <v>485.0052232198489</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>579.2435325415152</v>
+        <v>530.0218907259843</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>567.9409132278671</v>
+        <v>568.8553596101586</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>446.3890255128359</v>
+        <v>522.5175911230624</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>345.7428455829905</v>
+        <v>370.074032238788</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>570.8553357337796</v>
+        <v>657.1858360478077</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>1083.836176244456</v>
+        <v>1182.84804492476</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>1009.383492305178</v>
+        <v>943.77633435385</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>2414.243312138659</v>
+        <v>2249.23704125471</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>204.7492256813024</v>
+        <v>204.518508438292</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>377.8073690239527</v>
+        <v>377.286403776218</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>432.5638506670264</v>
+        <v>568.4232428889563</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>417.0712155188883</v>
+        <v>453.5441921509807</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>202.84362890402</v>
+        <v>224.2334012977195</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>825.425166630693</v>
+        <v>953.4697889760918</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>713.8397114762034</v>
+        <v>652.1835681026639</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>169.6622076027352</v>
+        <v>162.5284417372596</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>259.3952742276958</v>
+        <v>267.1779915939631</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>1331.216613434215</v>
+        <v>1488.376581878332</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>1156.827824777186</v>
+        <v>1089.591679732548</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>197.9460021669478</v>
+        <v>203.2585433103594</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>608.458452901125</v>
+        <v>670.5577221167666</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>602.2289241771709</v>
+        <v>596.6346054102429</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>298.1513889647162</v>
+        <v>346.0538286349421</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>464.3372943709722</v>
+        <v>398.9441361850631</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>582.7955303465881</v>
+        <v>521.7775944107344</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>778.0718593872646</v>
+        <v>751.3811548945206</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>230.8539775773879</v>
+        <v>237.6274259451768</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>320.379443835862</v>
+        <v>338.0149799926583</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>269.3710652637787</v>
+        <v>272.757443670601</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>389.9727344321424</v>
+        <v>369.3615799136741</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>297.2990484798092</v>
+        <v>318.5529617015857</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>576.061506607634</v>
+        <v>577.4700054513951</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>534.3562476383721</v>
+        <v>485.7595621845061</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>297.1648548631481</v>
+        <v>277.4259040954302</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>634.6927705157535</v>
+        <v>585.6709198978225</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>334.4955339265816</v>
+        <v>369.6957627447779</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>369.9269031594639</v>
+        <v>398.1169105262458</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>876.0545931596887</v>
+        <v>791.8613349788043</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>354.4460656059642</v>
+        <v>319.3231461641532</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>581.561814133025</v>
+        <v>538.2246106519322</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>146.7061819549448</v>
+        <v>158.5715635205408</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>839.2697488600571</v>
+        <v>638.7814850904014</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>137.5347598871855</v>
+        <v>142.7185461957069</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>267.4352021653873</v>
+        <v>319.4211943299202</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>143.7263642630178</v>
+        <v>137.0441786784409</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>311.6613105016147</v>
+        <v>318.1399552766416</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>618.591892725016</v>
+        <v>668.878066880369</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>306.3971900155017</v>
+        <v>281.3091754560396</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>467.0907397564762</v>
+        <v>476.1448089530662</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>351.1391020395081</v>
+        <v>342.2206419514073</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>283.9089537447593</v>
+        <v>286.6573915810701</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>170.9295028046946</v>
+        <v>143.8174903060159</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>407.8188025307301</v>
+        <v>478.8888400176506</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>236.1928558450122</v>
+        <v>236.4873252320523</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>165.144224502455</v>
+        <v>154.9844860546217</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>311.8288747057649</v>
+        <v>306.409217364817</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>578.8024473523179</v>
+        <v>504.8369359035455</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>156.7410491302209</v>
+        <v>160.8870363166765</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>288.8815567872543</v>
+        <v>289.746255927762</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>386.5645462561694</v>
+        <v>358.109373066918</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>389.0520271615449</v>
+        <v>413.9689512797609</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>326.9646213238422</v>
+        <v>305.635523807201</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>156.1373378166814</v>
+        <v>153.68257056901</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>698.9799204005499</v>
+        <v>677.4451959718247</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>613.9071239993914</v>
+        <v>638.1896064950292</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>527.2369528754593</v>
+        <v>523.1123107424303</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>491.5986892541725</v>
+        <v>476.3567304910394</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>265.1492059910972</v>
+        <v>289.3340333946419</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>679.6466998020221</v>
+        <v>591.6012384780081</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>271.561048988914</v>
+        <v>249.4220992919781</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>275.4219580404692</v>
+        <v>369.2393518535763</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>572.7294080120657</v>
+        <v>476.0233697830161</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>541.9057085166968</v>
+        <v>395.2730639627677</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>244.9395380040573</v>
+        <v>263.8899095477828</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>505.3231812578718</v>
+        <v>452.9858263134564</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>721.8555126248825</v>
+        <v>716.1093895812179</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>409.0928776249126</v>
+        <v>445.7607547973232</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>222.2130464112649</v>
+        <v>221.0962618365646</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>271.4034243529326</v>
+        <v>273.2000886295164</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>368.2480409835741</v>
+        <v>332.5132856219454</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>472.7418021988548</v>
+        <v>425.8249092870394</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>242.6495697901477</v>
+        <v>277.5445141049536</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>420.5197309494198</v>
+        <v>439.4680048895257</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>387.1279665887251</v>
+        <v>398.6802799433843</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>79.2878172176185</v>
+        <v>80.65174165059972</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>253.4665226877276</v>
+        <v>334.2803054635175</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>335.6600255021351</v>
+        <v>346.6062412517912</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>320.303643590591</v>
+        <v>363.4679029949838</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>880.4030645189705</v>
+        <v>1157.5929230666</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>410.9866730965873</v>
+        <v>427.1750763613696</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>496.9906955286012</v>
+        <v>592.9476813149282</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>1041.926773989377</v>
+        <v>1288.107778835826</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>244.277962846392</v>
+        <v>265.5708745114453</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>343.73290076721</v>
+        <v>403.5874565149863</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>644.8291252327883</v>
+        <v>613.0768301573014</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>423.3286109077613</v>
+        <v>407.6830134413979</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>348.5058911923881</v>
+        <v>399.952804730805</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>706.2952557063119</v>
+        <v>719.3465618677484</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>301.2142466228243</v>
+        <v>283.6441680593957</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>488.4917711977222</v>
+        <v>465.8743378042209</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>525.7310922939032</v>
+        <v>665.6108455195656</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>571.4418044397797</v>
+        <v>645.1419527658933</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>446.3041610797125</v>
+        <v>475.5632050241909</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>220.8315366349862</v>
+        <v>202.731233219314</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>376.2807592363052</v>
+        <v>422.3149587352657</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>327.4212078093159</v>
+        <v>378.0359412635545</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>193.2030370135643</v>
+        <v>204.5561702392712</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>246.9890542421316</v>
+        <v>249.0594065713214</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>370.1706049984871</v>
+        <v>331.3111026488448</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>407.6642398121762</v>
+        <v>366.13928830843</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>508.9502020137879</v>
+        <v>498.1040148107028</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>211.4094451350213</v>
+        <v>303.5639604866322</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>400.8336736014567</v>
+        <v>392.0052862950622</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>341.845154381884</v>
+        <v>323.4587572559533</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>189.2079765889818</v>
+        <v>163.478210433553</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>364.4373126300102</v>
+        <v>442.420787889047</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>249.7093218114297</v>
+        <v>271.4368271278772</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>468.9524297659896</v>
+        <v>467.5003145507202</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>535.873000566299</v>
+        <v>569.8581245671179</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>412.8647298920828</v>
+        <v>434.9670109047633</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>284.4414718808416</v>
+        <v>279.9573737798426</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>674.5210494727482</v>
+        <v>729.261978199512</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>119.0600404396788</v>
+        <v>108.160169605362</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>491.2569917984542</v>
+        <v>522.219544393555</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>721.4482324104562</v>
+        <v>796.0052522951669</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>269.9165193338759</v>
+        <v>261.0333148996757</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>241.0499754856498</v>
+        <v>241.1812363964547</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>452.9905615759616</v>
+        <v>490.1196490439284</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>124.6152802960144</v>
+        <v>109.5513799540396</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>700.0704002824904</v>
+        <v>566.0950196286905</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>363.3599612160448</v>
+        <v>367.0751910488139</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>290.5473754385017</v>
+        <v>306.4488574389523</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>455.2819967499314</v>
+        <v>435.4624142575651</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>294.073243681694</v>
+        <v>291.6135529619011</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>419.8710265995678</v>
+        <v>426.1697599393596</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887">
-        <v>625.0092775492533</v>
+        <v>639.0538866844706</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888">
-        <v>335.6970020589558</v>
+        <v>300.2762841908768</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889">
-        <v>377.9844700010202</v>
+        <v>408.6992084441184</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890">
-        <v>381.1512765607606</v>
+        <v>457.7428875686784</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891">
-        <v>584.160453435789</v>
+        <v>604.8002311558288</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>792.8781909721563</v>
+        <v>870.6478100487365</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>346.6246838266477</v>
+        <v>306.3232544123867</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>494.5247003788757</v>
+        <v>490.8123738823718</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>330.0629673449362</v>
+        <v>326.0982945668453</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896">
-        <v>429.6216976413326</v>
+        <v>559.8982306707803</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>549.7136082304853</v>
+        <v>578.8752877864276</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>723.5353803111169</v>
+        <v>593.2895110340945</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>417.5504963316157</v>
+        <v>439.1849103652891</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>1132.045092306587</v>
+        <v>914.721740110823</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>283.8761875253622</v>
+        <v>294.2941786441028</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>237.4432837850757</v>
+        <v>266.6207104926153</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903">
-        <v>318.8017911805886</v>
+        <v>325.389432776233</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>334.9931334200731</v>
+        <v>343.2026985122148</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>252.5991507496776</v>
+        <v>255.9785733017771</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>524.1445809756128</v>
+        <v>516.8034548224531</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>601.1329977645707</v>
+        <v>588.869253149292</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>486.9855522075955</v>
+        <v>447.1882950476887</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909">
-        <v>226.6552692261572</v>
+        <v>237.5051780296625</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>457.8282360144836</v>
+        <v>466.4169771543295</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911">
-        <v>275.9716487651887</v>
+        <v>266.8210669429904</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912">
-        <v>324.7382359000142</v>
+        <v>299.228995119458</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>452.6889605373314</v>
+        <v>463.4425219877927</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>192.718562113895</v>
+        <v>226.1019791946724</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915">
-        <v>512.0773826733155</v>
+        <v>508.8433503564233</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>707.8800603873755</v>
+        <v>790.9725875198985</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>422.6104340280597</v>
+        <v>404.620357049362</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>376.8926878114341</v>
+        <v>400.4426764573979</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919">
-        <v>434.9851411840298</v>
+        <v>448.7034029960477</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>1428.013506247323</v>
+        <v>1903.09040489272</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>400.1603374822789</v>
+        <v>515.8635739191453</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>212.4056515676165</v>
+        <v>216.8123659721716</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>470.4948164880842</v>
+        <v>374.6000142719718</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>147.2467706621182</v>
+        <v>143.5864942185225</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>298.5923192467047</v>
+        <v>272.5954833293341</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926">
-        <v>219.6871076190221</v>
+        <v>252.1163456148373</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>915.8853320459748</v>
+        <v>785.9911628766939</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>241.1176050636126</v>
+        <v>233.0890108814961</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929">
-        <v>300.4716013431577</v>
+        <v>324.774010529818</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>936.5334831956914</v>
+        <v>1256.202083005832</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931">
-        <v>267.9557786560919</v>
+        <v>263.5083460266906</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932">
-        <v>894.5914327779631</v>
+        <v>902.557855652969</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>517.3169452291447</v>
+        <v>496.7368401567037</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>303.4414371929105</v>
+        <v>304.01595944633</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935">
-        <v>210.5052575132098</v>
+        <v>221.1176222427237</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>140.6485537541097</v>
+        <v>142.1592992238126</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937">
-        <v>337.6931900973109</v>
+        <v>289.6298417419196</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>867.0015020025643</v>
+        <v>947.5502841428485</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939">
-        <v>306.1335432562212</v>
+        <v>329.9675496895184</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940">
-        <v>370.3084418662077</v>
+        <v>396.0457898904065</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941">
-        <v>218.8744233542813</v>
+        <v>217.4971609028394</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>1040.231047801811</v>
+        <v>1001.544452879497</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943">
-        <v>210.9103277916774</v>
+        <v>196.142674070655</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944">
-        <v>371.1860015178581</v>
+        <v>382.9436826699755</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945">
-        <v>413.2498531880896</v>
+        <v>452.8000861386116</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946">
-        <v>495.1625724810623</v>
+        <v>468.2111925651816</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947">
-        <v>369.6886477033776</v>
+        <v>373.6625408715437</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948">
-        <v>457.0556829722368</v>
+        <v>456.2589775858985</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949">
-        <v>354.3332326896186</v>
+        <v>308.2536717605783</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>403.8211657958069</v>
+        <v>358.0348530242564</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>248.6170428781154</v>
+        <v>287.1407020742564</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>257.5396373312684</v>
+        <v>303.5804727893427</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>425.7294823367536</v>
+        <v>383.3514567283025</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954">
-        <v>285.3436463745555</v>
+        <v>251.2751551203503</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955">
-        <v>646.737916737663</v>
+        <v>636.6636713406015</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956">
-        <v>499.5785223384092</v>
+        <v>499.6155690036791</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957">
-        <v>311.2152220906884</v>
+        <v>252.5758868805385</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>695.6644958651007</v>
+        <v>683.5851841053367</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959">
-        <v>412.346168942677</v>
+        <v>518.9294220965048</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960">
-        <v>282.3773016356307</v>
+        <v>293.3923904595522</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>431.9048433883575</v>
+        <v>429.7736166801583</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962">
-        <v>456.8201509792246</v>
+        <v>387.2994557867908</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>189.7916426467233</v>
+        <v>212.7819897650398</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>716.7051768887112</v>
+        <v>828.5420116448705</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965">
-        <v>429.4997959554833</v>
+        <v>395.4838579917555</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966">
-        <v>561.4013159126401</v>
+        <v>587.73822810685</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967">
-        <v>201.7593370787643</v>
+        <v>215.5528654566949</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968">
-        <v>371.6569300423929</v>
+        <v>325.9744063604406</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969">
-        <v>366.5016146750905</v>
+        <v>369.3469681750298</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970">
-        <v>374.1042575273762</v>
+        <v>325.0499057753423</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971">
-        <v>510.5874723277767</v>
+        <v>519.1280967747659</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>480.8880597019059</v>
+        <v>552.4765561054259</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>511.1700644861874</v>
+        <v>485.5965316984174</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974">
-        <v>514.1421432524256</v>
+        <v>554.370278609828</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975">
-        <v>618.5406478016071</v>
+        <v>682.2668814030816</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>278.9458791800159</v>
+        <v>284.5681246179661</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977">
-        <v>415.2177123122643</v>
+        <v>388.7165802825891</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978">
-        <v>345.3052660492316</v>
+        <v>471.7705023630285</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979">
-        <v>331.0293933528538</v>
+        <v>309.6077649993113</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980">
-        <v>790.2208815416662</v>
+        <v>743.7495098871053</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981">
-        <v>191.9183132013313</v>
+        <v>163.4571199277385</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982">
-        <v>172.8099421560579</v>
+        <v>157.8140895914331</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983">
-        <v>552.078134003327</v>
+        <v>520.8312256505413</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984">
-        <v>88.68391195595704</v>
+        <v>73.9018587681897</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985">
-        <v>672.4249732096232</v>
+        <v>718.3366479721753</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986">
-        <v>577.2271610589961</v>
+        <v>535.6588641798969</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987">
-        <v>328.696722105362</v>
+        <v>369.5889713897904</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>522.7911694247778</v>
+        <v>596.6724577833505</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989">
-        <v>458.053070643626</v>
+        <v>502.014461788548</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990">
-        <v>450.7013682032735</v>
+        <v>407.317308008894</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991">
-        <v>419.0920002359193</v>
+        <v>386.0246409230124</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992">
-        <v>291.8730579315085</v>
+        <v>319.2139210703442</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993">
-        <v>458.6851740964789</v>
+        <v>406.3508683659306</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994">
-        <v>582.9169788730908</v>
+        <v>515.9328463205621</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995">
-        <v>1620.73210492687</v>
+        <v>1485.716467611908</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>317.1504212517535</v>
+        <v>362.7205197230614</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997">
-        <v>1145.19582795121</v>
+        <v>1156.005078957895</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998">
-        <v>219.8082094273735</v>
+        <v>222.9599076612383</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999">
-        <v>258.1009641567716</v>
+        <v>238.6241577427648</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000">
-        <v>151.3772245273502</v>
+        <v>153.7927473758344</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001">
-        <v>317.1427701176034</v>
+        <v>315.164065341101</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002">
-        <v>203.7996708146839</v>
+        <v>205.5946471344194</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003">
-        <v>237.7855077534423</v>
+        <v>226.3410445771647</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004">
-        <v>444.0603603625077</v>
+        <v>486.7360856981095</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005">
-        <v>221.2067045644646</v>
+        <v>233.6804681069048</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006">
-        <v>343.7032680302353</v>
+        <v>316.3000532975344</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007">
-        <v>525.8682460214524</v>
+        <v>496.1378527802084</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008">
-        <v>422.932634456224</v>
+        <v>499.5488270956814</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009">
-        <v>395.8521296410036</v>
+        <v>303.122584346362</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010">
-        <v>386.9096033284594</v>
+        <v>432.1036718820134</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011">
-        <v>643.013542748776</v>
+        <v>613.6277113177043</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012">
-        <v>602.4544984087485</v>
+        <v>561.0760921601823</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013">
-        <v>1041.278567041736</v>
+        <v>914.7024106455127</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014">
-        <v>391.8177797547514</v>
+        <v>461.2327087326423</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015">
-        <v>263.5351988290405</v>
+        <v>261.5492046780395</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016">
-        <v>285.8532453514119</v>
+        <v>239.9706623071586</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017">
-        <v>427.6188044819584</v>
+        <v>425.4527991949044</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018">
-        <v>128.2893980351415</v>
+        <v>159.162475242736</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>313.4571158927888</v>
+        <v>360.2400083699526</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020">
-        <v>242.6208419329732</v>
+        <v>227.7752056250311</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>289.616763599695</v>
+        <v>314.2064218360157</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>337.4252529463161</v>
+        <v>295.7942021011771</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023">
-        <v>290.0558278179364</v>
+        <v>246.055233686418</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024">
-        <v>332.3824438337856</v>
+        <v>318.7370032917984</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025">
-        <v>374.1178678898057</v>
+        <v>386.8506782295063</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026">
-        <v>324.8016428273786</v>
+        <v>326.7819277065773</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027">
-        <v>286.6581428380965</v>
+        <v>298.367980327417</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028">
-        <v>359.7454668833961</v>
+        <v>365.2912353815664</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029">
-        <v>262.9492408350732</v>
+        <v>277.5139367223273</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030">
-        <v>269.2621226671661</v>
+        <v>296.9098715510675</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>518.9526942456574</v>
+        <v>508.8943952678076</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032">
-        <v>240.3531505317119</v>
+        <v>243.6408955605415</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033">
-        <v>557.8301010976809</v>
+        <v>598.7241721610005</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>280.5767938936687</v>
+        <v>273.9434310072913</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>255.8084832652769</v>
+        <v>249.5731046812068</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036">
-        <v>279.5523326171447</v>
+        <v>266.4776612660598</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>471.9200287234416</v>
+        <v>639.3776471888616</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038">
-        <v>312.0723462717003</v>
+        <v>324.2536456963138</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039">
-        <v>71.69969871298976</v>
+        <v>70.5299057318414</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040">
-        <v>307.2170372980724</v>
+        <v>284.8192804770642</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041">
-        <v>289.440579271801</v>
+        <v>299.1510458477306</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042">
-        <v>162.9412443567285</v>
+        <v>162.4663843172197</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>418.7961612258496</v>
+        <v>397.8387372787985</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044">
-        <v>420.0936365579983</v>
+        <v>430.6509796306493</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>1046.775546648567</v>
+        <v>1045.57110603484</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>361.1220239681887</v>
+        <v>421.5221116509549</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047">
-        <v>232.3814614625134</v>
+        <v>242.4291217510959</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>363.7617915008115</v>
+        <v>323.8171158002778</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049">
-        <v>308.5394171432493</v>
+        <v>331.8728545674191</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>605.0402340806645</v>
+        <v>558.5640046284863</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051">
-        <v>261.1738038038408</v>
+        <v>261.0437889177578</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>852.7928128616908</v>
+        <v>1056.05684533667</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053">
-        <v>384.2617900420965</v>
+        <v>375.4326070389492</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>2284.706763831873</v>
+        <v>2119.116365218844</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055">
-        <v>388.3912076654021</v>
+        <v>333.8152785429896</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>851.9782954919724</v>
+        <v>894.5498965471595</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>351.7802280248729</v>
+        <v>374.955379657679</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>1290.42253673613</v>
+        <v>1207.164838813647</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059">
-        <v>251.9803392018183</v>
+        <v>245.953426614179</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>543.4300850555494</v>
+        <v>631.4978769190825</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061">
-        <v>240.8108366737428</v>
+        <v>255.4871241478267</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062">
-        <v>348.807732139452</v>
+        <v>335.0273104257585</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>216.3060934737215</v>
+        <v>196.4226146060625</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>748.3749803012266</v>
+        <v>782.4138160938777</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>248.1026834157087</v>
+        <v>279.7795914496485</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>642.2510959622891</v>
+        <v>562.8346391945202</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>525.1473282559243</v>
+        <v>533.1679100443793</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068">
-        <v>285.9547890208027</v>
+        <v>300.8681749486012</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069">
-        <v>390.0026376468874</v>
+        <v>410.6437017435049</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>365.873080516052</v>
+        <v>361.9514845791571</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>298.0149496006564</v>
+        <v>271.0358124407624</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>429.4627007506238</v>
+        <v>402.3738052326094</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073">
-        <v>323.0089098735515</v>
+        <v>294.1701458675357</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074">
-        <v>343.5435052679329</v>
+        <v>339.1800989898275</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075">
-        <v>243.1678645806504</v>
+        <v>249.6256434495766</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076">
-        <v>524.5424980486546</v>
+        <v>519.4095788681509</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077">
-        <v>888.9924712980583</v>
+        <v>771.3318740986729</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>395.8942122250198</v>
+        <v>345.9026291608632</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079">
-        <v>794.3727004160988</v>
+        <v>576.4922507799284</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>324.4554090491184</v>
+        <v>330.419194314098</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>309.4858352373367</v>
+        <v>304.6670439877612</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>508.2453541376768</v>
+        <v>504.1601956830361</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>292.0862874464279</v>
+        <v>294.1596392515021</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>294.0744040341082</v>
+        <v>393.9986726159569</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>211.4172410663894</v>
+        <v>215.0158702783601</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>496.2637368587912</v>
+        <v>501.892356402856</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>336.7671765285758</v>
+        <v>325.5790612589637</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>357.5607565604396</v>
+        <v>319.6103082204311</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>274.9115158438486</v>
+        <v>269.9145172953994</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>276.400982577853</v>
+        <v>271.3586319844012</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>298.8068080968203</v>
+        <v>294.7015717507804</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>326.3107427926441</v>
+        <v>280.8205829772369</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>274.847100660811</v>
+        <v>256.9835511873865</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>865.8231239330468</v>
+        <v>897.4315352257673</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>465.0409393251498</v>
+        <v>393.3857344038238</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>423.42573065172</v>
+        <v>480.6828751734589</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>590.2016723393641</v>
+        <v>578.5375937399241</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>685.3929267043691</v>
+        <v>741.0373462250352</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>389.0404823572314</v>
+        <v>417.5486616408825</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>280.8512660942282</v>
+        <v>336.4601390382754</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>576.7417987846427</v>
+        <v>563.9772818403993</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>451.4664075623245</v>
+        <v>435.0073159720283</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>713.451170932947</v>
+        <v>724.6767963684123</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>689.5371049336364</v>
+        <v>623.1278560645276</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>374.202518595996</v>
+        <v>314.2586355674554</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>209.7585701970252</v>
+        <v>178.3148037483508</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>298.8232287182732</v>
+        <v>291.4322502086412</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>365.3568007527442</v>
+        <v>382.8917022598905</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>651.551392418938</v>
+        <v>629.1293960705874</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>359.4725473779982</v>
+        <v>329.7431988404092</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>192.5046999582002</v>
+        <v>193.6229367113397</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112">
-        <v>61.73767534196217</v>
+        <v>61.07886130147882</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113">
-        <v>466.4168129626714</v>
+        <v>593.1622619107895</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114">
-        <v>437.2236829990355</v>
+        <v>457.3478127459925</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115">
-        <v>385.2691472397692</v>
+        <v>457.609252152813</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116">
-        <v>271.3848964007946</v>
+        <v>276.7760921218789</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117">
-        <v>771.2964664912148</v>
+        <v>742.0914547567348</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118">
-        <v>283.7066615841023</v>
+        <v>269.9773292654828</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119">
-        <v>371.9451104855755</v>
+        <v>343.0847164510917</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120">
-        <v>243.7086096877046</v>
+        <v>252.8423997484521</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121">
-        <v>320.0167330949344</v>
+        <v>287.4907778769431</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>285.2850870823611</v>
+        <v>275.913324369702</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123">
-        <v>680.8676417250774</v>
+        <v>773.7493157936597</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124">
-        <v>1176.553776730596</v>
+        <v>1079.521804604532</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125">
-        <v>695.716128906873</v>
+        <v>646.7296100609906</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126">
-        <v>529.4423891718779</v>
+        <v>468.6819928565351</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127">
-        <v>321.88877861754</v>
+        <v>335.3977129402135</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128">
-        <v>758.8350551306394</v>
+        <v>725.5933274271416</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129">
-        <v>246.1792624553376</v>
+        <v>279.8574292898763</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130">
-        <v>264.5080284001996</v>
+        <v>285.172253193478</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131">
-        <v>436.1059226721343</v>
+        <v>592.847098044045</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132">
-        <v>221.6596379981347</v>
+        <v>223.3148131766723</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133">
-        <v>210.7051537159278</v>
+        <v>210.8470343705306</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134">
-        <v>382.0511613091421</v>
+        <v>360.9630414898289</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135">
-        <v>210.9085403118618</v>
+        <v>249.6671787302758</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136">
-        <v>288.9063757157158</v>
+        <v>282.582253444118</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137">
-        <v>256.8835515262592</v>
+        <v>249.8255462770116</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138">
-        <v>512.9032397867243</v>
+        <v>467.7866065221202</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139">
-        <v>75.38343407605083</v>
+        <v>78.30866967581214</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140">
-        <v>152.1304773332801</v>
+        <v>158.997843788974</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141">
-        <v>901.5947773906136</v>
+        <v>774.7538085899466</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142">
-        <v>266.5029439581315</v>
+        <v>269.388884180717</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143">
-        <v>626.3220238842877</v>
+        <v>615.8596068904394</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144">
-        <v>434.121160850959</v>
+        <v>438.8310327222526</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145">
-        <v>580.4971064863564</v>
+        <v>540.0843105628757</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146">
-        <v>472.5143849731054</v>
+        <v>466.5170278981043</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147">
-        <v>388.9477669773839</v>
+        <v>378.9478430214916</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148">
-        <v>657.4038006220806</v>
+        <v>684.796407660579</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149">
-        <v>231.2783936600867</v>
+        <v>235.0754112476517</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150">
-        <v>268.2963284348477</v>
+        <v>270.5451543005162</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151">
-        <v>487.4882699414064</v>
+        <v>516.3808200666798</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>331.5536686677675</v>
+        <v>344.2907865943062</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>455.5549915452592</v>
+        <v>565.3697214594258</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>429.9928676842306</v>
+        <v>530.4096144573367</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>569.6820896181542</v>
+        <v>595.3659691035356</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>285.6638475009382</v>
+        <v>260.9857382368143</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>812.1929575738392</v>
+        <v>841.9735178801569</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>300.3753022999605</v>
+        <v>320.6707026916144</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>265.4652992855951</v>
+        <v>269.5831640781069</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>404.2673022041886</v>
+        <v>436.0880962554496</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>1013.557350228431</v>
+        <v>976.3166485847505</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>234.8667886663983</v>
+        <v>240.4584207641415</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>854.2549748381635</v>
+        <v>634.1393912916652</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>257.0714127921984</v>
+        <v>299.3508945836987</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>339.2162900893666</v>
+        <v>308.6981947329455</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>643.916497207414</v>
+        <v>661.7178792529925</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>600.3146534047079</v>
+        <v>582.5279014483285</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>223.756386629343</v>
+        <v>302.7787799621109</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>813.3136014512538</v>
+        <v>998.9199356216569</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>333.9001402033003</v>
+        <v>327.0852574173212</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>319.4823647819226</v>
+        <v>342.0594653432348</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>277.5754888486229</v>
+        <v>295.5140731690073</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>316.4305039689941</v>
+        <v>309.7958953650861</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>550.5429042854495</v>
+        <v>613.7570799136969</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>214.3421489829902</v>
+        <v>199.8866090021463</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>315.5196399085735</v>
+        <v>311.9991693848633</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>349.1667459455889</v>
+        <v>370.3267957503204</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>371.5607335105022</v>
+        <v>376.1880502798015</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>521.178279892647</v>
+        <v>512.3641904734396</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>373.0522421335539</v>
+        <v>351.3249030208914</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>539.2685959621508</v>
+        <v>582.0207311122772</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>770.4985672157989</v>
+        <v>647.1008203587306</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>355.8985646966159</v>
+        <v>365.0127573852766</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>573.493073705453</v>
+        <v>634.3274756331472</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>301.9547493274573</v>
+        <v>273.966543304717</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>606.627882262732</v>
+        <v>600.5144253011171</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>309.4129090840549</v>
+        <v>309.708850626403</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>1452.971725029108</v>
+        <v>1339.627998509218</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>481.7713353072955</v>
+        <v>466.7910844936459</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>802.6631821191215</v>
+        <v>641.2715332798086</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>288.7632273690793</v>
+        <v>307.3020614639157</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>357.5872865572251</v>
+        <v>384.804844285411</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>359.2773998730506</v>
+        <v>380.9081329963592</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>277.1113636752249</v>
+        <v>283.385292748947</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>350.4678417250693</v>
+        <v>332.3655196662367</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>314.1691851879391</v>
+        <v>320.7909005122915</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>364.9787336747071</v>
+        <v>386.0354127659684</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>826.6405542577183</v>
+        <v>845.1764547779674</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>681.4958313034538</v>
+        <v>688.7423178672333</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>385.610748719738</v>
+        <v>435.8558190191603</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>349.941919270236</v>
+        <v>326.1842644757754</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>292.540427354255</v>
+        <v>338.2173053622843</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>248.2251904040844</v>
+        <v>211.7658627777264</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>123.9346853068142</v>
+        <v>110.7183398180903</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>356.4782167655731</v>
+        <v>358.4357425138188</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>350.4523668139545</v>
+        <v>341.2110205627081</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>220.9663761801616</v>
+        <v>219.9823767566777</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>382.546385042008</v>
+        <v>423.0587861791359</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>274.8376827276202</v>
+        <v>338.9717206582963</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>825.1717865000592</v>
+        <v>699.3990224285474</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>529.5996131558959</v>
+        <v>586.1149497899806</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>709.8102151744267</v>
+        <v>579.3044335165955</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>774.1927189540064</v>
+        <v>830.5260683504597</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>333.6932734446763</v>
+        <v>338.9829691113521</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>324.4005692439607</v>
+        <v>318.5253870400553</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>312.4165191277909</v>
+        <v>316.4031870154201</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>595.5855510657575</v>
+        <v>530.2972580526804</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>371.4096991071207</v>
+        <v>315.3245510596337</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>334.034257354987</v>
+        <v>359.7621712568981</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>205.104786598736</v>
+        <v>216.9331182227514</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>584.3820965127844</v>
+        <v>600.3784857758634</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>268.9602332935195</v>
+        <v>305.2520845183735</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>400.9221739014368</v>
+        <v>382.6574879390921</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>184.1022750340284</v>
+        <v>186.6472934563312</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>534.7737275018417</v>
+        <v>446.1258500036162</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>619.3873553938407</v>
+        <v>636.7053854956815</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>462.8066781064916</v>
+        <v>439.1265106202964</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>243.8835596388018</v>
+        <v>265.0800607509998</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>377.8148184909425</v>
+        <v>462.7678807044981</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>423.8723547060434</v>
+        <v>433.1643307332341</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>445.807072251967</v>
+        <v>385.4325264069541</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>677.5763124934427</v>
+        <v>597.37305510013</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>273.6882093934499</v>
+        <v>379.6853189951558</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>482.8644496435237</v>
+        <v>556.3631203858789</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>438.0100703635395</v>
+        <v>406.5015484362131</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>423.1617064615619</v>
+        <v>422.3036939200934</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>801.0194692884299</v>
+        <v>861.7047293786849</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>741.1689099019001</v>
+        <v>833.5014976625063</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>318.3778615783617</v>
+        <v>364.0829832164251</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>353.2544541493432</v>
+        <v>342.8239506256885</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>484.4345157128796</v>
+        <v>482.4276959612149</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242">
-        <v>260.0223438186468</v>
+        <v>260.3006028578509</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>679.4575767156242</v>
+        <v>767.8900132506482</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244">
-        <v>238.7658101534253</v>
+        <v>263.1659039044596</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245">
-        <v>3816.592419811899</v>
+        <v>3745.182906284734</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246">
-        <v>331.8482159837441</v>
+        <v>303.8100851425883</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247">
-        <v>554.2964020504783</v>
+        <v>666.4238293103315</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248">
-        <v>230.9156649867175</v>
+        <v>218.747449686306</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249">
-        <v>256.7907669453367</v>
+        <v>252.7382340957783</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250">
-        <v>748.7411517099705</v>
+        <v>796.807762699174</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251">
-        <v>389.1905590269968</v>
+        <v>352.5131505847181</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252">
-        <v>505.0527633157006</v>
+        <v>530.958554524129</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>336.4660100536582</v>
+        <v>388.6267994994619</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>266.8444669162922</v>
+        <v>298.5287968519238</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>316.4305039689941</v>
+        <v>309.7958953650861</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>369.6277608779981</v>
+        <v>396.293991095881</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>1431.517759392998</v>
+        <v>1248.926371281259</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>291.4346014189263</v>
+        <v>297.083326450847</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>385.2453802967931</v>
+        <v>336.9921527251796</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>433.3020430486426</v>
+        <v>433.4111068632043</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>234.8220296734965</v>
+        <v>232.6333459430768</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>435.3360230641155</v>
+        <v>468.218847636543</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>274.3370127075429</v>
+        <v>271.1431645908949</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>1112.008118512728</v>
+        <v>888.9146157536094</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>641.4886601694485</v>
+        <v>735.8352305414514</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>286.3572956385491</v>
+        <v>367.1338758716497</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>384.7654942868006</v>
+        <v>367.5597355056409</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>428.9407967085848</v>
+        <v>477.8444565011271</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269">
-        <v>568.7956682658703</v>
+        <v>534.3711949400101</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270">
-        <v>596.6131306097363</v>
+        <v>558.3840929930146</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271">
-        <v>562.3206237151389</v>
+        <v>553.9745861281848</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272">
-        <v>472.8955868381083</v>
+        <v>526.0626197472355</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>227.6217940965189</v>
+        <v>223.3675940922498</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274">
-        <v>270.561184992517</v>
+        <v>275.9577989822344</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275">
-        <v>250.3633171843973</v>
+        <v>270.7511052261508</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276">
-        <v>360.975312160518</v>
+        <v>326.311090040074</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277">
-        <v>260.7618930061211</v>
+        <v>271.8572637658697</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278">
-        <v>326.151313749057</v>
+        <v>303.0302023236582</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279">
-        <v>852.2232860486423</v>
+        <v>827.113171886427</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280">
-        <v>504.0872663085452</v>
+        <v>419.5214852473367</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281">
-        <v>621.3396650812674</v>
+        <v>596.6065078422085</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282">
-        <v>545.0026619969107</v>
+        <v>584.4036278430252</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283">
-        <v>388.2983164781588</v>
+        <v>346.7643486470659</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284">
-        <v>632.5629487350125</v>
+        <v>735.9641542435576</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285">
-        <v>683.8126287217397</v>
+        <v>747.6528916449947</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>440.4858229148181</v>
+        <v>445.4390651999561</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287">
-        <v>304.3760540710228</v>
+        <v>316.8638140521279</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288">
-        <v>217.3042827440932</v>
+        <v>271.309022486855</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>578.7802967879026</v>
+        <v>514.3792331327578</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290">
-        <v>579.5242666190051</v>
+        <v>643.7380921168092</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>454.5068913833238</v>
+        <v>408.8343906427727</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>502.0778144647768</v>
+        <v>442.0894658424519</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>542.5176286814705</v>
+        <v>429.3334848339512</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294">
-        <v>219.8256461502892</v>
+        <v>207.5559152310663</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295">
-        <v>234.6210336117062</v>
+        <v>255.8865964335164</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296">
-        <v>497.6435341724629</v>
+        <v>445.31732401564</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297">
-        <v>339.4222695981793</v>
+        <v>330.3661743368285</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298">
-        <v>750.9489169714911</v>
+        <v>785.6508228688484</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299">
-        <v>438.0474266773068</v>
+        <v>417.9519889998419</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300">
-        <v>148.3920829877201</v>
+        <v>149.6361057770227</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301">
-        <v>435.838750371579</v>
+        <v>421.2817379201329</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302">
-        <v>657.3536796116982</v>
+        <v>595.9541383704418</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303">
-        <v>761.6933845814284</v>
+        <v>715.4514874758162</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304">
-        <v>354.9456350001675</v>
+        <v>344.7002355487234</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305">
-        <v>146.1290934469201</v>
+        <v>168.7299282691245</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>361.7002751330915</v>
+        <v>356.1101115137151</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307">
-        <v>250.9847770513095</v>
+        <v>268.0879323141741</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308">
-        <v>1302.633259508593</v>
+        <v>808.3646713877137</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309">
-        <v>764.3846375944963</v>
+        <v>781.8578180447594</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310">
-        <v>590.186983873503</v>
+        <v>628.2182820808154</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311">
-        <v>833.9592541193807</v>
+        <v>853.0314556887483</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
       <c r="A1312">
-        <v>665.72117682957</v>
+        <v>616.710389619024</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313">
-        <v>1169.616985254457</v>
+        <v>1125.746919131754</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314">
-        <v>281.6845153241962</v>
+        <v>304.6243951008951</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>526.6146383274731</v>
+        <v>508.8435984149547</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316">
-        <v>838.0137809074325</v>
+        <v>794.0838746634371</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
       <c r="A1317">
-        <v>218.7694252182839</v>
+        <v>190.4442958992586</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>326.8360597220547</v>
+        <v>365.5595331322742</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319">
-        <v>470.0176910467555</v>
+        <v>423.8357512363899</v>
       </c>
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320">
-        <v>506.8583065461418</v>
+        <v>485.3697603211269</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
       <c r="A1321">
-        <v>412.5820855040114</v>
+        <v>415.6058762615704</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322">
-        <v>236.8597865108329</v>
+        <v>242.4286212808511</v>
       </c>
     </row>
     <row r="1323" spans="1:1">
       <c r="A1323">
-        <v>308.3541184526537</v>
+        <v>316.2219586915812</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>393.1071551097098</v>
+        <v>367.8663322244166</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325">
-        <v>2104.711078494869</v>
+        <v>2209.251908255225</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
       <c r="A1326">
-        <v>465.8853393867367</v>
+        <v>474.0328749715356</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327">
-        <v>473.1824681890963</v>
+        <v>458.7675267024445</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328">
-        <v>541.6112255222388</v>
+        <v>552.8718649344298</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329">
-        <v>878.1064333157086</v>
+        <v>789.4131899906038</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330">
-        <v>878.0528159601295</v>
+        <v>969.061084456284</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331">
-        <v>306.4019022437383</v>
+        <v>305.5871465460042</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>606.2846304034117</v>
+        <v>729.8821589212979</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333">
-        <v>1015.572354275113</v>
+        <v>1023.322656765877</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334">
-        <v>1163.788621352182</v>
+        <v>1118.60437898556</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335">
-        <v>359.798506196943</v>
+        <v>321.4370012454033</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336">
-        <v>228.5866545742643</v>
+        <v>253.1778989119852</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337">
-        <v>292.8978910087898</v>
+        <v>284.500280912144</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338">
-        <v>307.0741671095956</v>
+        <v>290.0097625269742</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339">
-        <v>375.2174680640424</v>
+        <v>329.1116048890647</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340">
-        <v>119.0128480613915</v>
+        <v>114.061450247466</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341">
-        <v>234.4208328445682</v>
+        <v>217.827441992</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342">
-        <v>314.7522885695866</v>
+        <v>312.3415754031536</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343">
-        <v>460.1632833761843</v>
+        <v>419.7495397651355</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344">
-        <v>595.4008513759821</v>
+        <v>569.0911512248064</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345">
-        <v>223.4420097354412</v>
+        <v>215.9986828913871</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346">
-        <v>1294.943492244194</v>
+        <v>1342.046322334003</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347">
-        <v>172.5855866853716</v>
+        <v>168.536615450745</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348">
-        <v>261.608050201787</v>
+        <v>260.7896883555389</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349">
-        <v>294.4703885914144</v>
+        <v>306.0474404823814</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350">
-        <v>592.7684555678518</v>
+        <v>599.1341877493219</v>
       </c>
     </row>
     <row r="1351" spans="1:1">
       <c r="A1351">
-        <v>502.0826121387465</v>
+        <v>431.7180278850498</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352">
-        <v>488.9696590100077</v>
+        <v>515.2995487155958</v>
       </c>
     </row>
     <row r="1353" spans="1:1">
       <c r="A1353">
-        <v>458.6329743566521</v>
+        <v>457.0539626822806</v>
       </c>
     </row>
     <row r="1354" spans="1:1">
       <c r="A1354">
-        <v>1135.949472966624</v>
+        <v>1087.407235875789</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355">
-        <v>473.4575428007598</v>
+        <v>462.1676687052345</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356">
-        <v>300.7437654427268</v>
+        <v>310.727808543016</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357">
-        <v>406.7049335156616</v>
+        <v>435.35181973102</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358">
-        <v>489.5082241057532</v>
+        <v>403.2776389677539</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359">
-        <v>523.558434772872</v>
+        <v>542.2791041408613</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360">
-        <v>641.41459213257</v>
+        <v>766.9226908786987</v>
       </c>
     </row>
     <row r="1361" spans="1:1">
       <c r="A1361">
-        <v>590.4089194754747</v>
+        <v>457.3918328079378</v>
       </c>
     </row>
     <row r="1362" spans="1:1">
       <c r="A1362">
-        <v>866.6596923546257</v>
+        <v>661.165610474618</v>
       </c>
     </row>
     <row r="1363" spans="1:1">
       <c r="A1363">
-        <v>227.3824622438031</v>
+        <v>267.2845189538969</v>
       </c>
     </row>
     <row r="1364" spans="1:1">
       <c r="A1364">
-        <v>572.9175001081161</v>
+        <v>719.4953141851566</v>
       </c>
     </row>
     <row r="1365" spans="1:1">
       <c r="A1365">
-        <v>263.8062232623632</v>
+        <v>248.1638445881027</v>
       </c>
     </row>
     <row r="1366" spans="1:1">
       <c r="A1366">
-        <v>743.4019073955666</v>
+        <v>712.6452077060385</v>
       </c>
     </row>
     <row r="1367" spans="1:1">
       <c r="A1367">
-        <v>375.289865406296</v>
+        <v>374.7721663359331</v>
       </c>
     </row>
     <row r="1368" spans="1:1">
       <c r="A1368">
-        <v>691.9594566241275</v>
+        <v>754.5406816062296</v>
       </c>
     </row>
     <row r="1369" spans="1:1">
       <c r="A1369">
-        <v>1096.834301595839</v>
+        <v>1096.863923291991</v>
       </c>
     </row>
     <row r="1370" spans="1:1">
       <c r="A1370">
-        <v>626.3301260853334</v>
+        <v>723.1141703417559</v>
       </c>
     </row>
     <row r="1371" spans="1:1">
       <c r="A1371">
-        <v>375.1807815660742</v>
+        <v>406.3960384840085</v>
       </c>
     </row>
     <row r="1372" spans="1:1">
       <c r="A1372">
-        <v>393.3408248554548</v>
+        <v>362.5495601052949</v>
       </c>
     </row>
     <row r="1373" spans="1:1">
       <c r="A1373">
-        <v>233.1793212585545</v>
+        <v>250.3363044744193</v>
       </c>
     </row>
     <row r="1374" spans="1:1">
       <c r="A1374">
-        <v>448.8826324291066</v>
+        <v>417.8958468989212</v>
       </c>
     </row>
     <row r="1375" spans="1:1">
       <c r="A1375">
-        <v>551.8361345814184</v>
+        <v>564.9168741384096</v>
       </c>
     </row>
     <row r="1376" spans="1:1">
       <c r="A1376">
-        <v>1305.955636086783</v>
+        <v>1214.702019132337</v>
       </c>
     </row>
     <row r="1377" spans="1:1">
       <c r="A1377">
-        <v>358.5156485931359</v>
+        <v>429.1684593924057</v>
       </c>
     </row>
     <row r="1378" spans="1:1">
       <c r="A1378">
-        <v>1320.465316841816</v>
+        <v>1253.514229607676</v>
       </c>
     </row>
     <row r="1379" spans="1:1">
       <c r="A1379">
-        <v>204.4520323659126</v>
+        <v>220.7928461674474</v>
       </c>
     </row>
     <row r="1380" spans="1:1">
       <c r="A1380">
-        <v>401.4094109164151</v>
+        <v>428.2765745242359</v>
       </c>
     </row>
     <row r="1381" spans="1:1">
       <c r="A1381">
-        <v>327.0210110271985</v>
+        <v>283.5682664157513</v>
       </c>
     </row>
     <row r="1382" spans="1:1">
       <c r="A1382">
-        <v>277.4099508135234</v>
+        <v>307.9262196758688</v>
       </c>
     </row>
     <row r="1383" spans="1:1">
       <c r="A1383">
-        <v>258.928258348103</v>
+        <v>246.4456518733564</v>
       </c>
     </row>
     <row r="1384" spans="1:1">
       <c r="A1384">
-        <v>240.0342048716868</v>
+        <v>273.7761227978442</v>
       </c>
     </row>
     <row r="1385" spans="1:1">
       <c r="A1385">
-        <v>831.273406296761</v>
+        <v>810.0459099882916</v>
       </c>
     </row>
     <row r="1386" spans="1:1">
       <c r="A1386">
-        <v>258.0577308706993</v>
+        <v>282.8875484333643</v>
       </c>
     </row>
     <row r="1387" spans="1:1">
       <c r="A1387">
-        <v>442.5846793570944</v>
+        <v>404.3892894337166</v>
       </c>
     </row>
     <row r="1388" spans="1:1">
       <c r="A1388">
-        <v>665.7426812531446</v>
+        <v>649.1671064126185</v>
       </c>
     </row>
     <row r="1389" spans="1:1">
       <c r="A1389">
-        <v>767.3725197276856</v>
+        <v>704.9584859067422</v>
       </c>
     </row>
     <row r="1390" spans="1:1">
       <c r="A1390">
-        <v>278.0239211297122</v>
+        <v>299.3940068149846</v>
       </c>
     </row>
     <row r="1391" spans="1:1">
       <c r="A1391">
-        <v>170.844514897177</v>
+        <v>146.5675336661602</v>
       </c>
     </row>
     <row r="1392" spans="1:1">
       <c r="A1392">
-        <v>754.315315561402</v>
+        <v>690.4786753161926</v>
       </c>
     </row>
     <row r="1393" spans="1:1">
       <c r="A1393">
-        <v>419.6593139005269</v>
+        <v>405.1444967679948</v>
       </c>
     </row>
     <row r="1394" spans="1:1">
       <c r="A1394">
-        <v>536.388038659013</v>
+        <v>525.1054590499223</v>
       </c>
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395">
-        <v>960.5298362180596</v>
+        <v>934.0790278307898</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
       <c r="A1396">
-        <v>321.844379722924</v>
+        <v>298.979612264416</v>
       </c>
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397">
-        <v>209.3673253075721</v>
+        <v>215.5949271554996</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
       <c r="A1398">
-        <v>457.8301816908879</v>
+        <v>514.3073568711138</v>
       </c>
     </row>
     <row r="1399" spans="1:1">
       <c r="A1399">
-        <v>286.7201706505704</v>
+        <v>272.3155410231452</v>
       </c>
     </row>
     <row r="1400" spans="1:1">
       <c r="A1400">
-        <v>292.1919694714882</v>
+        <v>319.934001720013</v>
       </c>
     </row>
     <row r="1401" spans="1:1">
       <c r="A1401">
-        <v>507.8349665217554</v>
+        <v>461.7248345055295</v>
       </c>
     </row>
     <row r="1402" spans="1:1">
       <c r="A1402">
-        <v>895.0597098690521</v>
+        <v>1026.40968443428</v>
       </c>
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403">
-        <v>873.1959614374078</v>
+        <v>829.3742497486394</v>
       </c>
     </row>
     <row r="1404" spans="1:1">
       <c r="A1404">
-        <v>911.6993493737649</v>
+        <v>747.5794689580564</v>
       </c>
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405">
-        <v>119.3868694259127</v>
+        <v>128.9437708367949</v>
       </c>
     </row>
     <row r="1406" spans="1:1">
       <c r="A1406">
-        <v>364.0947738624322</v>
+        <v>355.5130081176276</v>
       </c>
     </row>
     <row r="1407" spans="1:1">
       <c r="A1407">
-        <v>263.4827769201245</v>
+        <v>261.106095663663</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
       <c r="A1408">
-        <v>341.4213087024424</v>
+        <v>308.6474437025682</v>
       </c>
     </row>
     <row r="1409" spans="1:1">
       <c r="A1409">
-        <v>222.2130464112649</v>
+        <v>221.0962618365646</v>
       </c>
     </row>
     <row r="1410" spans="1:1">
       <c r="A1410">
-        <v>1214.659975041931</v>
+        <v>1330.085671633715</v>
       </c>
     </row>
     <row r="1411" spans="1:1">
       <c r="A1411">
-        <v>471.0760632283211</v>
+        <v>538.6423679259821</v>
       </c>
     </row>
     <row r="1412" spans="1:1">
       <c r="A1412">
-        <v>658.5792661070769</v>
+        <v>536.5866959711763</v>
       </c>
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413">
-        <v>558.3030463202811</v>
+        <v>515.8203197462708</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
       <c r="A1414">
-        <v>759.3938379743969</v>
+        <v>683.214181730075</v>
       </c>
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415">
-        <v>647.8481279265221</v>
+        <v>620.502477178103</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
       <c r="A1416">
-        <v>126.5823067613308</v>
+        <v>126.962187825691</v>
       </c>
     </row>
     <row r="1417" spans="1:1">
       <c r="A1417">
-        <v>337.1254516873659</v>
+        <v>351.5800207948353</v>
       </c>
     </row>
     <row r="1418" spans="1:1">
       <c r="A1418">
-        <v>282.9129971194577</v>
+        <v>321.4984791366077</v>
       </c>
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419">
-        <v>340.2200166901833</v>
+        <v>338.5361668350669</v>
       </c>
     </row>
     <row r="1420" spans="1:1">
       <c r="A1420">
-        <v>386.80274050589</v>
+        <v>432.2650905946267</v>
       </c>
     </row>
     <row r="1421" spans="1:1">
       <c r="A1421">
-        <v>515.9104119098644</v>
+        <v>409.4743729969242</v>
       </c>
     </row>
     <row r="1422" spans="1:1">
       <c r="A1422">
-        <v>382.5488020954473</v>
+        <v>410.0269789933657</v>
       </c>
     </row>
     <row r="1423" spans="1:1">
       <c r="A1423">
-        <v>197.3126858164891</v>
+        <v>194.3855535972143</v>
       </c>
     </row>
     <row r="1424" spans="1:1">
       <c r="A1424">
-        <v>1150.106839172686</v>
+        <v>1054.331021208147</v>
       </c>
     </row>
     <row r="1425" spans="1:1">
       <c r="A1425">
-        <v>691.2283949334218</v>
+        <v>721.1128155298715</v>
       </c>
     </row>
     <row r="1426" spans="1:1">
       <c r="A1426">
-        <v>292.6848346535396</v>
+        <v>275.2764918176471</v>
       </c>
     </row>
     <row r="1427" spans="1:1">
       <c r="A1427">
-        <v>284.0277269842143</v>
+        <v>282.0351718886904</v>
       </c>
     </row>
     <row r="1428" spans="1:1">
       <c r="A1428">
-        <v>254.0274057548785</v>
+        <v>225.7853381204665</v>
       </c>
     </row>
     <row r="1429" spans="1:1">
       <c r="A1429">
-        <v>435.8740919166454</v>
+        <v>434.0026645615551</v>
       </c>
     </row>
     <row r="1430" spans="1:1">
       <c r="A1430">
-        <v>334.5423618961782</v>
+        <v>336.0926282213827</v>
       </c>
     </row>
     <row r="1431" spans="1:1">
       <c r="A1431">
-        <v>955.4694066333432</v>
+        <v>1051.856733657691</v>
       </c>
     </row>
     <row r="1432" spans="1:1">
       <c r="A1432">
-        <v>893.430229082692</v>
+        <v>844.5647068784175</v>
       </c>
     </row>
     <row r="1433" spans="1:1">
       <c r="A1433">
-        <v>158.4995160518021</v>
+        <v>161.6187382720311</v>
       </c>
     </row>
     <row r="1434" spans="1:1">
       <c r="A1434">
-        <v>321.1557500021408</v>
+        <v>362.0407049535045</v>
       </c>
     </row>
     <row r="1435" spans="1:1">
       <c r="A1435">
-        <v>264.6374252299247</v>
+        <v>254.472654536159</v>
       </c>
     </row>
     <row r="1436" spans="1:1">
       <c r="A1436">
-        <v>656.2770930516133</v>
+        <v>726.7261416946977</v>
       </c>
     </row>
     <row r="1437" spans="1:1">
       <c r="A1437">
-        <v>817.9026525826006</v>
+        <v>777.7021975937768</v>
       </c>
     </row>
     <row r="1438" spans="1:1">
       <c r="A1438">
-        <v>449.6168166825487</v>
+        <v>465.2534129095807</v>
       </c>
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439">
-        <v>280.0562368686525</v>
+        <v>273.6857808646938</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
       <c r="A1440">
-        <v>308.6480387768324</v>
+        <v>292.033726427593</v>
       </c>
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441">
-        <v>286.1002368874333</v>
+        <v>288.8961553484575</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
       <c r="A1442">
-        <v>246.2431346232237</v>
+        <v>236.4732900448433</v>
       </c>
     </row>
     <row r="1443" spans="1:1">
       <c r="A1443">
-        <v>1530.982840872411</v>
+        <v>1506.870176555722</v>
       </c>
     </row>
     <row r="1444" spans="1:1">
       <c r="A1444">
-        <v>354.6212466399238</v>
+        <v>354.1560895123969</v>
       </c>
     </row>
     <row r="1445" spans="1:1">
       <c r="A1445">
-        <v>966.1958004166565</v>
+        <v>775.9479420367322</v>
       </c>
     </row>
     <row r="1446" spans="1:1">
       <c r="A1446">
-        <v>638.8401669535764</v>
+        <v>541.0919071859813</v>
       </c>
     </row>
     <row r="1447" spans="1:1">
       <c r="A1447">
-        <v>127.0900712005694</v>
+        <v>136.3942381021127</v>
       </c>
     </row>
     <row r="1448" spans="1:1">
       <c r="A1448">
-        <v>370.3620241812412</v>
+        <v>429.6972295585308</v>
       </c>
     </row>
     <row r="1449" spans="1:1">
       <c r="A1449">
-        <v>277.3995185167997</v>
+        <v>276.1343865499159</v>
       </c>
     </row>
     <row r="1450" spans="1:1">
       <c r="A1450">
-        <v>296.2087231142674</v>
+        <v>280.4783975902342</v>
       </c>
     </row>
     <row r="1451" spans="1:1">
       <c r="A1451">
-        <v>747.8677075710528</v>
+        <v>703.4132369474632</v>
       </c>
     </row>
     <row r="1452" spans="1:1">
       <c r="A1452">
-        <v>129.8132226702712</v>
+        <v>155.1247938333652</v>
       </c>
     </row>
     <row r="1453" spans="1:1">
       <c r="A1453">
-        <v>1302.217568421812</v>
+        <v>1239.192052972595</v>
       </c>
     </row>
     <row r="1454" spans="1:1">
       <c r="A1454">
-        <v>568.2364181962497</v>
+        <v>521.9482642099838</v>
       </c>
     </row>
     <row r="1455" spans="1:1">
       <c r="A1455">
-        <v>852.2232860486423</v>
+        <v>827.113171886427</v>
       </c>
     </row>
     <row r="1456" spans="1:1">
       <c r="A1456">
-        <v>132.3254746728885</v>
+        <v>132.0392706232237</v>
       </c>
     </row>
     <row r="1457" spans="1:1">
       <c r="A1457">
-        <v>314.4354713662449</v>
+        <v>295.8797669383061</v>
       </c>
     </row>
     <row r="1458" spans="1:1">
       <c r="A1458">
-        <v>405.5545317966017</v>
+        <v>443.8645533872678</v>
       </c>
     </row>
     <row r="1459" spans="1:1">
       <c r="A1459">
-        <v>545.9322975486953</v>
+        <v>518.9436401293824</v>
       </c>
     </row>
     <row r="1460" spans="1:1">
       <c r="A1460">
-        <v>2269.224846986821</v>
+        <v>2240.830462686263</v>
       </c>
     </row>
     <row r="1461" spans="1:1">
       <c r="A1461">
-        <v>659.9106457204149</v>
+        <v>713.0623794066906</v>
       </c>
     </row>
     <row r="1462" spans="1:1">
       <c r="A1462">
-        <v>494.1809027199619</v>
+        <v>495.088166122637</v>
       </c>
     </row>
     <row r="1463" spans="1:1">
       <c r="A1463">
-        <v>374.1693316379363</v>
+        <v>451.768968798874</v>
       </c>
     </row>
     <row r="1464" spans="1:1">
       <c r="A1464">
-        <v>717.2839384660606</v>
+        <v>692.7259935709841</v>
       </c>
     </row>
     <row r="1465" spans="1:1">
       <c r="A1465">
-        <v>237.7269665263048</v>
+        <v>273.871036694023</v>
       </c>
     </row>
     <row r="1466" spans="1:1">
       <c r="A1466">
-        <v>1494.642877030527</v>
+        <v>1483.109827000481</v>
       </c>
     </row>
     <row r="1467" spans="1:1">
       <c r="A1467">
-        <v>345.0726474926042</v>
+        <v>326.5469567969503</v>
       </c>
     </row>
     <row r="1468" spans="1:1">
       <c r="A1468">
-        <v>636.3889796613201</v>
+        <v>631.0113514787175</v>
       </c>
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469">
-        <v>161.4499393248338</v>
+        <v>155.534952043216</v>
       </c>
     </row>
     <row r="1470" spans="1:1">
       <c r="A1470">
-        <v>218.339743146981</v>
+        <v>216.8829067035416</v>
       </c>
     </row>
     <row r="1471" spans="1:1">
       <c r="A1471">
-        <v>260.5277633983996</v>
+        <v>250.4081726529307</v>
       </c>
     </row>
     <row r="1472" spans="1:1">
       <c r="A1472">
-        <v>507.9780054457784</v>
+        <v>509.5451428927487</v>
       </c>
     </row>
     <row r="1473" spans="1:1">
       <c r="A1473">
-        <v>442.3966539788596</v>
+        <v>452.3835219725212</v>
       </c>
     </row>
     <row r="1474" spans="1:1">
       <c r="A1474">
-        <v>732.5308110178768</v>
+        <v>663.157989982348</v>
       </c>
     </row>
     <row r="1475" spans="1:1">
       <c r="A1475">
-        <v>118.3084204421484</v>
+        <v>129.7369960728145</v>
       </c>
     </row>
     <row r="1476" spans="1:1">
       <c r="A1476">
-        <v>342.9977093053315</v>
+        <v>395.1945512554819</v>
       </c>
     </row>
     <row r="1477" spans="1:1">
       <c r="A1477">
-        <v>332.2882798080423</v>
+        <v>338.2161878966298</v>
       </c>
     </row>
     <row r="1478" spans="1:1">
       <c r="A1478">
-        <v>386.8531621648578</v>
+        <v>376.0128373943186</v>
       </c>
     </row>
     <row r="1479" spans="1:1">
       <c r="A1479">
-        <v>247.1999339821944</v>
+        <v>296.7371897575821</v>
       </c>
     </row>
     <row r="1480" spans="1:1">
       <c r="A1480">
-        <v>343.6014798772945</v>
+        <v>333.1378186968029</v>
       </c>
     </row>
     <row r="1481" spans="1:1">
       <c r="A1481">
-        <v>466.4605017733476</v>
+        <v>457.2830572364713</v>
       </c>
     </row>
     <row r="1482" spans="1:1">
       <c r="A1482">
-        <v>948.9699102045587</v>
+        <v>1011.187045812251</v>
       </c>
     </row>
     <row r="1483" spans="1:1">
       <c r="A1483">
-        <v>433.9660080948936</v>
+        <v>441.5606671514676</v>
       </c>
     </row>
     <row r="1484" spans="1:1">
       <c r="A1484">
-        <v>163.6502894505532</v>
+        <v>154.6267630503114</v>
       </c>
     </row>
     <row r="1485" spans="1:1">
       <c r="A1485">
-        <v>932.6083037009508</v>
+        <v>992.9366004487032</v>
       </c>
     </row>
     <row r="1486" spans="1:1">
       <c r="A1486">
-        <v>917.9629159713641</v>
+        <v>823.6597599758119</v>
       </c>
     </row>
     <row r="1487" spans="1:1">
       <c r="A1487">
-        <v>294.3368277145854</v>
+        <v>302.1608850737751</v>
       </c>
     </row>
     <row r="1488" spans="1:1">
       <c r="A1488">
-        <v>287.2456849758094</v>
+        <v>285.8188639105655</v>
       </c>
     </row>
     <row r="1489" spans="1:1">
       <c r="A1489">
-        <v>372.052136416845</v>
+        <v>330.9421798613904</v>
       </c>
     </row>
     <row r="1490" spans="1:1">
       <c r="A1490">
-        <v>469.6304651315133</v>
+        <v>529.2102532387246</v>
       </c>
     </row>
     <row r="1491" spans="1:1">
       <c r="A1491">
-        <v>639.0306347948534</v>
+        <v>545.8267011415647</v>
       </c>
     </row>
     <row r="1492" spans="1:1">
       <c r="A1492">
-        <v>595.9429456190121</v>
+        <v>629.9286464381394</v>
       </c>
     </row>
     <row r="1493" spans="1:1">
       <c r="A1493">
-        <v>308.7182871456362</v>
+        <v>280.0674617450907</v>
       </c>
     </row>
     <row r="1494" spans="1:1">
       <c r="A1494">
-        <v>553.5242897755658</v>
+        <v>574.9068192386134</v>
       </c>
     </row>
     <row r="1495" spans="1:1">
       <c r="A1495">
-        <v>674.58720330873</v>
+        <v>639.60831808083</v>
       </c>
     </row>
     <row r="1496" spans="1:1">
       <c r="A1496">
-        <v>874.7474904477718</v>
+        <v>841.5208662435841</v>
       </c>
     </row>
     <row r="1497" spans="1:1">
       <c r="A1497">
-        <v>664.4567119482182</v>
+        <v>587.3857936385509</v>
       </c>
     </row>
     <row r="1498" spans="1:1">
       <c r="A1498">
-        <v>280.7091035912229</v>
+        <v>266.0827332331017</v>
       </c>
     </row>
     <row r="1499" spans="1:1">
       <c r="A1499">
-        <v>2588.781016506868</v>
+        <v>2422.79668017279</v>
       </c>
     </row>
     <row r="1500" spans="1:1">
       <c r="A1500">
-        <v>296.590524991359</v>
+        <v>307.8828789811707</v>
       </c>
     </row>
     <row r="1501" spans="1:1">
       <c r="A1501">
-        <v>473.3423591488344</v>
+        <v>515.8431660123746</v>
       </c>
     </row>
     <row r="1502" spans="1:1">
       <c r="A1502">
-        <v>230.5883638262181</v>
+        <v>262.6671781594208</v>
       </c>
     </row>
     <row r="1503" spans="1:1">
       <c r="A1503">
-        <v>169.0217742243334</v>
+        <v>174.2802690539477</v>
       </c>
     </row>
     <row r="1504" spans="1:1">
       <c r="A1504">
-        <v>303.4280218607794</v>
+        <v>347.1089265759592</v>
       </c>
     </row>
     <row r="1505" spans="1:1">
       <c r="A1505">
-        <v>614.2998310070268</v>
+        <v>554.8087504581594</v>
       </c>
     </row>
     <row r="1506" spans="1:1">
       <c r="A1506">
-        <v>614.8297513268568</v>
+        <v>678.9250058576245</v>
       </c>
     </row>
     <row r="1507" spans="1:1">
       <c r="A1507">
-        <v>308.5469526107844</v>
+        <v>261.5695416026059</v>
       </c>
     </row>
     <row r="1508" spans="1:1">
       <c r="A1508">
-        <v>284.7888801040019</v>
+        <v>318.3683799648464</v>
       </c>
     </row>
     <row r="1509" spans="1:1">
       <c r="A1509">
-        <v>887.1049622930425</v>
+        <v>910.2706252839714</v>
       </c>
     </row>
     <row r="1510" spans="1:1">
       <c r="A1510">
-        <v>390.5968487718554</v>
+        <v>396.9511877677399</v>
       </c>
     </row>
     <row r="1511" spans="1:1">
       <c r="A1511">
-        <v>434.3492158591083</v>
+        <v>469.9097279327229</v>
       </c>
     </row>
     <row r="1512" spans="1:1">
       <c r="A1512">
-        <v>1339.569772544022</v>
+        <v>1131.681793350979</v>
       </c>
     </row>
     <row r="1513" spans="1:1">
       <c r="A1513">
-        <v>393.2659455024081</v>
+        <v>384.1238868418006</v>
       </c>
     </row>
     <row r="1514" spans="1:1">
       <c r="A1514">
-        <v>119.6697739005492</v>
+        <v>120.6324522005457</v>
       </c>
     </row>
     <row r="1515" spans="1:1">
       <c r="A1515">
-        <v>130.5843901958094</v>
+        <v>146.4608698199882</v>
       </c>
     </row>
     <row r="1516" spans="1:1">
       <c r="A1516">
-        <v>304.5073659123393</v>
+        <v>299.8396833421765</v>
       </c>
     </row>
     <row r="1517" spans="1:1">
       <c r="A1517">
-        <v>678.3380112992182</v>
+        <v>650.1914464463858</v>
       </c>
     </row>
     <row r="1518" spans="1:1">
       <c r="A1518">
-        <v>258.9528546748842</v>
+        <v>271.9192479209332</v>
       </c>
     </row>
     <row r="1519" spans="1:1">
       <c r="A1519">
-        <v>212.5556373302151</v>
+        <v>212.4159214420487</v>
       </c>
     </row>
     <row r="1520" spans="1:1">
       <c r="A1520">
-        <v>484.6055885973147</v>
+        <v>431.8428385672302</v>
       </c>
     </row>
     <row r="1521" spans="1:1">
       <c r="A1521">
-        <v>307.2331895557173</v>
+        <v>333.6358717019064</v>
       </c>
     </row>
     <row r="1522" spans="1:1">
       <c r="A1522">
-        <v>129.1189176210816</v>
+        <v>119.0063237743913</v>
       </c>
     </row>
     <row r="1523" spans="1:1">
       <c r="A1523">
-        <v>1060.499192006089</v>
+        <v>940.8290700008866</v>
       </c>
     </row>
     <row r="1524" spans="1:1">
       <c r="A1524">
-        <v>330.158950635295</v>
+        <v>385.6300228584678</v>
       </c>
     </row>
     <row r="1525" spans="1:1">
       <c r="A1525">
-        <v>252.2298063137769</v>
+        <v>238.1936890968578</v>
       </c>
     </row>
     <row r="1526" spans="1:1">
       <c r="A1526">
-        <v>659.7817043763354</v>
+        <v>594.2774182039686</v>
       </c>
     </row>
     <row r="1527" spans="1:1">
       <c r="A1527">
-        <v>409.4121521001954</v>
+        <v>539.9965252721006</v>
       </c>
     </row>
     <row r="1528" spans="1:1">
       <c r="A1528">
-        <v>308.3301440330305</v>
+        <v>281.8792203340283</v>
       </c>
     </row>
     <row r="1529" spans="1:1">
       <c r="A1529">
-        <v>699.2275737506361</v>
+        <v>701.0504442964732</v>
       </c>
     </row>
     <row r="1530" spans="1:1">
       <c r="A1530">
-        <v>907.2081155805217</v>
+        <v>931.5057108454556</v>
       </c>
     </row>
     <row r="1531" spans="1:1">
       <c r="A1531">
-        <v>293.0921902979562</v>
+        <v>325.7794993147293</v>
       </c>
     </row>
     <row r="1532" spans="1:1">
       <c r="A1532">
-        <v>1099.276294363136</v>
+        <v>1082.239813061409</v>
       </c>
     </row>
     <row r="1533" spans="1:1">
       <c r="A1533">
-        <v>409.1107137551558</v>
+        <v>396.0509042027239</v>
       </c>
     </row>
     <row r="1534" spans="1:1">
       <c r="A1534">
-        <v>520.3696129284938</v>
+        <v>456.7237688877572</v>
       </c>
     </row>
     <row r="1535" spans="1:1">
       <c r="A1535">
-        <v>376.094688174585</v>
+        <v>387.6845906934674</v>
       </c>
     </row>
     <row r="1536" spans="1:1">
       <c r="A1536">
-        <v>532.7135481273725</v>
+        <v>599.568546258385</v>
       </c>
     </row>
     <row r="1537" spans="1:1">
       <c r="A1537">
-        <v>543.1128399756071</v>
+        <v>615.5149460159931</v>
       </c>
     </row>
     <row r="1538" spans="1:1">
       <c r="A1538">
-        <v>299.1697660011088</v>
+        <v>246.4797497163697</v>
       </c>
     </row>
     <row r="1539" spans="1:1">
       <c r="A1539">
-        <v>479.9504143959203</v>
+        <v>462.7933657082542</v>
       </c>
     </row>
     <row r="1540" spans="1:1">
       <c r="A1540">
-        <v>845.5835743948406</v>
+        <v>970.2384396699069</v>
       </c>
     </row>
     <row r="1541" spans="1:1">
       <c r="A1541">
-        <v>596.2001107959735</v>
+        <v>662.5725216652065</v>
       </c>
     </row>
     <row r="1542" spans="1:1">
       <c r="A1542">
-        <v>443.2222023556867</v>
+        <v>411.4313154514221</v>
       </c>
     </row>
     <row r="1543" spans="1:1">
       <c r="A1543">
-        <v>568.5435938941781</v>
+        <v>522.8419337589078</v>
       </c>
     </row>
     <row r="1544" spans="1:1">
       <c r="A1544">
-        <v>244.9668007047001</v>
+        <v>258.6416754708462</v>
       </c>
     </row>
     <row r="1545" spans="1:1">
       <c r="A1545">
-        <v>414.2899829751847</v>
+        <v>387.0511174758878</v>
       </c>
     </row>
     <row r="1546" spans="1:1">
       <c r="A1546">
-        <v>805.8618879332463</v>
+        <v>941.4611670197407</v>
       </c>
     </row>
     <row r="1547" spans="1:1">
       <c r="A1547">
-        <v>676.0521770721207</v>
+        <v>713.1551796401683</v>
       </c>
     </row>
     <row r="1548" spans="1:1">
       <c r="A1548">
-        <v>191.5717832783812</v>
+        <v>201.5943373276716</v>
       </c>
     </row>
     <row r="1549" spans="1:1">
       <c r="A1549">
-        <v>877.0375028717833</v>
+        <v>684.4669160542925</v>
       </c>
     </row>
     <row r="1550" spans="1:1">
       <c r="A1550">
-        <v>284.0976767635585</v>
+        <v>287.6044038760382</v>
       </c>
     </row>
     <row r="1551" spans="1:1">
       <c r="A1551">
-        <v>246.8344170004131</v>
+        <v>270.0412169835206</v>
       </c>
     </row>
     <row r="1552" spans="1:1">
       <c r="A1552">
-        <v>2323.349502447375</v>
+        <v>2368.622107192313</v>
       </c>
     </row>
     <row r="1553" spans="1:1">
       <c r="A1553">
-        <v>581.3318325478074</v>
+        <v>617.9350564671107</v>
       </c>
     </row>
     <row r="1554" spans="1:1">
       <c r="A1554">
-        <v>436.3995002763839</v>
+        <v>411.3719481211575</v>
       </c>
     </row>
     <row r="1555" spans="1:1">
       <c r="A1555">
-        <v>257.9706996379358</v>
+        <v>261.4067673550568</v>
       </c>
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556">
-        <v>753.2758286440977</v>
+        <v>832.0833842303766</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
       <c r="A1557">
-        <v>1639.520337953794</v>
+        <v>1693.645411791785</v>
       </c>
     </row>
     <row r="1558" spans="1:1">
       <c r="A1558">
-        <v>193.5599478324352</v>
+        <v>194.7933776374848</v>
       </c>
     </row>
     <row r="1559" spans="1:1">
       <c r="A1559">
-        <v>531.7082228830126</v>
+        <v>469.7432259223995</v>
       </c>
     </row>
     <row r="1560" spans="1:1">
       <c r="A1560">
-        <v>447.1682206000145</v>
+        <v>413.7217609103679</v>
       </c>
     </row>
     <row r="1561" spans="1:1">
       <c r="A1561">
-        <v>746.3052539180433</v>
+        <v>752.4876726894463</v>
       </c>
     </row>
   </sheetData>
